--- a/Tennis/WTA Tour/Bianca Andreescu.xlsx
+++ b/Tennis/WTA Tour/Bianca Andreescu.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7162" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{369970D1-7170-4D8B-98BB-DBBE66816ED1}"/>
+  <xr:revisionPtr revIDLastSave="7196" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{52CE2DBE-452A-42BF-871F-EB0C10A22696}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="3" activeTab="6" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="4" activeTab="8" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2015" sheetId="22" r:id="rId1"/>
@@ -20,9 +20,10 @@
     <sheet name="2019" sheetId="26" r:id="rId5"/>
     <sheet name="2020" sheetId="27" r:id="rId6"/>
     <sheet name="2021" sheetId="28" r:id="rId7"/>
-    <sheet name="YTD Stats" sheetId="1" r:id="rId8"/>
-    <sheet name="YTD Wins-Losses" sheetId="29" r:id="rId9"/>
-    <sheet name="Winning Percentile Range" sheetId="30" r:id="rId10"/>
+    <sheet name="2022" sheetId="31" r:id="rId8"/>
+    <sheet name="YTD Stats" sheetId="1" r:id="rId9"/>
+    <sheet name="YTD Wins-Losses" sheetId="29" r:id="rId10"/>
+    <sheet name="Winning Percentile Range" sheetId="30" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1077" uniqueCount="388">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1095" uniqueCount="392">
   <si>
     <t>ROUND</t>
   </si>
@@ -1206,6 +1207,18 @@
   </si>
   <si>
     <t>INDIAN WELLS MASTERS</t>
+  </si>
+  <si>
+    <t>Jule Niemeier (GERMANY)</t>
+  </si>
+  <si>
+    <t>STUTTGART OPEN</t>
+  </si>
+  <si>
+    <t>6-1 3-6 6-2</t>
+  </si>
+  <si>
+    <t>MUTUA MADRID OPEN</t>
   </si>
 </sst>
 </file>
@@ -7254,8 +7267,8 @@
   </sheetPr>
   <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="E43" activeCellId="11" sqref="A1:F10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7794,14 +7807,103 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5207B4ED-244F-4794-B639-3C3970F2E6EF}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>389</v>
+      </c>
+      <c r="B2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>388</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>117</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>391</v>
+      </c>
+      <c r="B5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup scale="59" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCAE177D-2BD4-45CE-80F5-EF8578F1AF32}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7956,7 +8058,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="3" t="e">
-        <f t="shared" ref="F7:F8" si="0">(D7-E7)/D7</f>
+        <f t="shared" ref="F7:F9" si="0">(D7-E7)/D7</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -7982,57 +8084,78 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="2">
-        <f>SUM(B2:B8)</f>
-        <v>74</v>
-      </c>
-      <c r="C9" s="2">
-        <f>SUM(C2:C8)</f>
-        <v>3</v>
-      </c>
-      <c r="D9" s="2">
-        <f t="shared" ref="D9:E9" si="1">SUM(D2:D8)</f>
-        <v>154</v>
-      </c>
-      <c r="E9" s="2">
-        <f t="shared" si="1"/>
-        <v>62</v>
-      </c>
-      <c r="F9" s="7">
-        <f>(D9-E9)/D9</f>
-        <v>0.59740259740259738</v>
+      <c r="A9">
+        <v>2022</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>369</v>
+        <v>6</v>
       </c>
       <c r="B10" s="2">
-        <f>AVERAGE(B2:B8)</f>
-        <v>10.571428571428571</v>
+        <f>SUM(B2:B9)</f>
+        <v>76</v>
       </c>
       <c r="C10" s="2">
-        <f>AVERAGE(C2:C8)</f>
-        <v>0.42857142857142855</v>
+        <f>SUM(C2:C9)</f>
+        <v>3</v>
       </c>
       <c r="D10" s="2">
-        <f>AVERAGE(D2:D8)</f>
-        <v>22</v>
+        <f>SUM(D2:D9)</f>
+        <v>155</v>
       </c>
       <c r="E10" s="2">
-        <f t="shared" ref="E10" si="2">AVERAGE(E2:E8)</f>
-        <v>8.8571428571428577</v>
+        <f>SUM(E2:E9)</f>
+        <v>63</v>
       </c>
       <c r="F10" s="7">
         <f>(D10-E10)/D10</f>
-        <v>0.59740259740259738</v>
+        <v>0.59354838709677415</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="B11" s="2">
+        <f>AVERAGE(B2:B9)</f>
+        <v>9.5</v>
+      </c>
+      <c r="C11" s="2">
+        <f>AVERAGE(C2:C9)</f>
+        <v>0.375</v>
+      </c>
+      <c r="D11" s="2">
+        <f>AVERAGE(D2:D9)</f>
+        <v>19.375</v>
+      </c>
+      <c r="E11" s="2">
+        <f>AVERAGE(E2:E9)</f>
+        <v>7.875</v>
+      </c>
+      <c r="F11" s="7">
+        <f>(D11-E11)/D11</f>
+        <v>0.59354838709677415</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="F2:F8">
+  <conditionalFormatting sqref="F2:F9">
     <cfRule type="iconSet" priority="39">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>

--- a/Tennis/WTA Tour/Bianca Andreescu.xlsx
+++ b/Tennis/WTA Tour/Bianca Andreescu.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7196" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{52CE2DBE-452A-42BF-871F-EB0C10A22696}"/>
+  <xr:revisionPtr revIDLastSave="7204" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7BD99EE5-7FE3-4769-A00F-659C5F8E1014}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="4" activeTab="8" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1095" uniqueCount="392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1100" uniqueCount="393">
   <si>
     <t>ROUND</t>
   </si>
@@ -1219,6 +1219,9 @@
   </si>
   <si>
     <t>MUTUA MADRID OPEN</t>
+  </si>
+  <si>
+    <t>Danielle Collins (USA)</t>
   </si>
 </sst>
 </file>
@@ -7811,17 +7814,17 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" customWidth="1"/>
     <col min="4" max="4" width="25.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
@@ -7887,6 +7890,23 @@
       </c>
       <c r="B5" t="s">
         <v>92</v>
+      </c>
+      <c r="C5" t="s">
+        <v>141</v>
+      </c>
+      <c r="D5" t="s">
+        <v>384</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
+        <v>392</v>
       </c>
     </row>
   </sheetData>
@@ -7903,7 +7923,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8094,14 +8114,14 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E9">
         <v>1</v>
       </c>
       <c r="F9" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -8118,7 +8138,7 @@
       </c>
       <c r="D10" s="2">
         <f>SUM(D2:D9)</f>
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E10" s="2">
         <f>SUM(E2:E9)</f>
@@ -8126,7 +8146,7 @@
       </c>
       <c r="F10" s="7">
         <f>(D10-E10)/D10</f>
-        <v>0.59354838709677415</v>
+        <v>0.59615384615384615</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -8143,7 +8163,7 @@
       </c>
       <c r="D11" s="2">
         <f>AVERAGE(D2:D9)</f>
-        <v>19.375</v>
+        <v>19.5</v>
       </c>
       <c r="E11" s="2">
         <f>AVERAGE(E2:E9)</f>
@@ -8151,7 +8171,7 @@
       </c>
       <c r="F11" s="7">
         <f>(D11-E11)/D11</f>
-        <v>0.59354838709677415</v>
+        <v>0.59615384615384615</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/WTA Tour/Bianca Andreescu.xlsx
+++ b/Tennis/WTA Tour/Bianca Andreescu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7204" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7BD99EE5-7FE3-4769-A00F-659C5F8E1014}"/>
+  <xr:revisionPtr revIDLastSave="7216" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E27EE662-79AB-4361-81D2-31976F1BC8BE}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="4" activeTab="8" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1100" uniqueCount="393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1109" uniqueCount="395">
   <si>
     <t>ROUND</t>
   </si>
@@ -1222,6 +1222,12 @@
   </si>
   <si>
     <t>Danielle Collins (USA)</t>
+  </si>
+  <si>
+    <t>6-4 3-6 6-0</t>
+  </si>
+  <si>
+    <t>ITALIAN OPEN</t>
   </si>
 </sst>
 </file>
@@ -6305,7 +6311,7 @@
   </sheetPr>
   <dimension ref="A1:F68"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
@@ -7814,10 +7820,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7900,6 +7906,9 @@
       <c r="E5" s="4" t="s">
         <v>13</v>
       </c>
+      <c r="F5" t="s">
+        <v>393</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
@@ -7907,6 +7916,34 @@
       </c>
       <c r="D6" t="s">
         <v>392</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" t="s">
+        <v>290</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>394</v>
+      </c>
+      <c r="B9" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -8108,20 +8145,20 @@
         <v>2022</v>
       </c>
       <c r="B9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
+        <v>3</v>
+      </c>
+      <c r="E9">
         <v>2</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
       </c>
       <c r="F9" s="3">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -8130,7 +8167,7 @@
       </c>
       <c r="B10" s="2">
         <f>SUM(B2:B9)</f>
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C10" s="2">
         <f>SUM(C2:C9)</f>
@@ -8138,15 +8175,15 @@
       </c>
       <c r="D10" s="2">
         <f>SUM(D2:D9)</f>
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E10" s="2">
         <f>SUM(E2:E9)</f>
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F10" s="7">
         <f>(D10-E10)/D10</f>
-        <v>0.59615384615384615</v>
+        <v>0.59235668789808915</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -8155,7 +8192,7 @@
       </c>
       <c r="B11" s="2">
         <f>AVERAGE(B2:B9)</f>
-        <v>9.5</v>
+        <v>9.625</v>
       </c>
       <c r="C11" s="2">
         <f>AVERAGE(C2:C9)</f>
@@ -8163,15 +8200,15 @@
       </c>
       <c r="D11" s="2">
         <f>AVERAGE(D2:D9)</f>
-        <v>19.5</v>
+        <v>19.625</v>
       </c>
       <c r="E11" s="2">
         <f>AVERAGE(E2:E9)</f>
-        <v>7.875</v>
+        <v>8</v>
       </c>
       <c r="F11" s="7">
         <f>(D11-E11)/D11</f>
-        <v>0.59615384615384615</v>
+        <v>0.59235668789808915</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/WTA Tour/Bianca Andreescu.xlsx
+++ b/Tennis/WTA Tour/Bianca Andreescu.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7216" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E27EE662-79AB-4361-81D2-31976F1BC8BE}"/>
+  <xr:revisionPtr revIDLastSave="7295" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B178FF6B-8F55-43E4-82B0-E628F0D327C0}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="4" activeTab="8" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1109" uniqueCount="395">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1171" uniqueCount="412">
   <si>
     <t>ROUND</t>
   </si>
@@ -1228,6 +1228,57 @@
   </si>
   <si>
     <t>ITALIAN OPEN</t>
+  </si>
+  <si>
+    <t>Emma Raducanu (GREAT BRITAIN)</t>
+  </si>
+  <si>
+    <t>6-2 2-1 RETIRED</t>
+  </si>
+  <si>
+    <t>Nuria Párrizas Díaz (SPAIN)</t>
+  </si>
+  <si>
+    <t>Petra Martić (CROATIA)</t>
+  </si>
+  <si>
+    <t>Iga Świątek (POLAND)</t>
+  </si>
+  <si>
+    <t>7-6(2) 6-0</t>
+  </si>
+  <si>
+    <t>3-6 7-5 6-0</t>
+  </si>
+  <si>
+    <t>BERLIN OPEN</t>
+  </si>
+  <si>
+    <t>Kateřina Siniaková (CZECH REPUBLIC)</t>
+  </si>
+  <si>
+    <t>6-4 4-6 6-4</t>
+  </si>
+  <si>
+    <t>6-4 2-6 7-6(7)</t>
+  </si>
+  <si>
+    <t>BAD HOMBURG OPEN</t>
+  </si>
+  <si>
+    <t>6-3 6-1</t>
+  </si>
+  <si>
+    <t>Daria Kasatkina (GREAT BRITAIN)</t>
+  </si>
+  <si>
+    <t>Caroline Garcia (FRANCE)</t>
+  </si>
+  <si>
+    <t>Emina Bektas (USA)</t>
+  </si>
+  <si>
+    <t>6-7(5) 6-4 6-4</t>
   </si>
 </sst>
 </file>
@@ -6311,8 +6362,8 @@
   </sheetPr>
   <dimension ref="A1:F68"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+    <sheetView topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7276,8 +7327,8 @@
   </sheetPr>
   <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7820,20 +7871,20 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E24" activeCellId="5" sqref="E3 E7 E12 E15 E18 E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -7944,6 +7995,218 @@
       </c>
       <c r="B9" t="s">
         <v>92</v>
+      </c>
+      <c r="C9" t="s">
+        <v>141</v>
+      </c>
+      <c r="D9" t="s">
+        <v>395</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" t="s">
+        <v>397</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" t="s">
+        <v>398</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" t="s">
+        <v>399</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>110</v>
+      </c>
+      <c r="B14" t="s">
+        <v>92</v>
+      </c>
+      <c r="C14" t="s">
+        <v>127</v>
+      </c>
+      <c r="D14" t="s">
+        <v>165</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>141</v>
+      </c>
+      <c r="D15" t="s">
+        <v>328</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>402</v>
+      </c>
+      <c r="B17" t="s">
+        <v>114</v>
+      </c>
+      <c r="C17" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" t="s">
+        <v>403</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" t="s">
+        <v>321</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>406</v>
+      </c>
+      <c r="B20" t="s">
+        <v>114</v>
+      </c>
+      <c r="C20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" t="s">
+        <v>95</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" t="s">
+        <v>278</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" t="s">
+        <v>408</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F22" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" t="s">
+        <v>335</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F23" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" t="s">
+        <v>409</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F24" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>126</v>
+      </c>
+      <c r="B26" t="s">
+        <v>114</v>
+      </c>
+      <c r="C26" t="s">
+        <v>127</v>
+      </c>
+      <c r="D26" t="s">
+        <v>410</v>
       </c>
     </row>
   </sheetData>
@@ -7960,7 +8223,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8145,20 +8408,20 @@
         <v>2022</v>
       </c>
       <c r="B9">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F9" s="3">
         <f t="shared" si="0"/>
-        <v>0.33333333333333331</v>
+        <v>0.45454545454545453</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -8167,7 +8430,7 @@
       </c>
       <c r="B10" s="2">
         <f>SUM(B2:B9)</f>
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C10" s="2">
         <f>SUM(C2:C9)</f>
@@ -8175,15 +8438,15 @@
       </c>
       <c r="D10" s="2">
         <f>SUM(D2:D9)</f>
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="E10" s="2">
         <f>SUM(E2:E9)</f>
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="F10" s="7">
         <f>(D10-E10)/D10</f>
-        <v>0.59235668789808915</v>
+        <v>0.58787878787878789</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -8192,7 +8455,7 @@
       </c>
       <c r="B11" s="2">
         <f>AVERAGE(B2:B9)</f>
-        <v>9.625</v>
+        <v>10</v>
       </c>
       <c r="C11" s="2">
         <f>AVERAGE(C2:C9)</f>
@@ -8200,15 +8463,15 @@
       </c>
       <c r="D11" s="2">
         <f>AVERAGE(D2:D9)</f>
-        <v>19.625</v>
+        <v>20.625</v>
       </c>
       <c r="E11" s="2">
         <f>AVERAGE(E2:E9)</f>
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="F11" s="7">
         <f>(D11-E11)/D11</f>
-        <v>0.59235668789808915</v>
+        <v>0.58787878787878789</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/WTA Tour/Bianca Andreescu.xlsx
+++ b/Tennis/WTA Tour/Bianca Andreescu.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7295" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B178FF6B-8F55-43E4-82B0-E628F0D327C0}"/>
+  <xr:revisionPtr revIDLastSave="7353" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{22AFE588-212B-4FB7-A2F6-DDB97E18F48A}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="4" activeTab="8" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1171" uniqueCount="412">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1211" uniqueCount="421">
   <si>
     <t>ROUND</t>
   </si>
@@ -1155,9 +1155,6 @@
     <t>AVERAGE</t>
   </si>
   <si>
-    <t>NATIONAL BANK OPEN</t>
-  </si>
-  <si>
     <t>Karolína Muchová (CZECH REPUBLIC)</t>
   </si>
   <si>
@@ -1279,6 +1276,36 @@
   </si>
   <si>
     <t>6-7(5) 6-4 6-4</t>
+  </si>
+  <si>
+    <t>Elena Rybakina (KAZAKHSTAN)</t>
+  </si>
+  <si>
+    <t>SILICON VALLEY CLASSIC</t>
+  </si>
+  <si>
+    <t>CANADIAN OPEN</t>
+  </si>
+  <si>
+    <t>7-6(5) 6-4</t>
+  </si>
+  <si>
+    <t>Qinwen Zheng (CHINA)</t>
+  </si>
+  <si>
+    <t>7-5 5-7 6-2</t>
+  </si>
+  <si>
+    <t>6-3 4-6 6-3</t>
+  </si>
+  <si>
+    <t>Harmony Tan (FRANCE)</t>
+  </si>
+  <si>
+    <t>6-0 3-6 6-1</t>
+  </si>
+  <si>
+    <t>Beatriz Haddad Maia (BRAZIL)</t>
   </si>
 </sst>
 </file>
@@ -1371,7 +1398,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -5521,7 +5548,7 @@
         <v>12</v>
       </c>
       <c r="D14" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>13</v>
@@ -6362,8 +6389,8 @@
   </sheetPr>
   <dimension ref="A1:F68"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D50" sqref="D50"/>
+    <sheetView topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6373,7 +6400,7 @@
     <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="36" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -6629,7 +6656,7 @@
         <v>15</v>
       </c>
       <c r="D19" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>13</v>
@@ -6758,7 +6785,7 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B31" t="s">
         <v>19</v>
@@ -6958,7 +6985,7 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>41</v>
+        <v>413</v>
       </c>
       <c r="B47" t="s">
         <v>19</v>
@@ -6967,7 +6994,7 @@
         <v>141</v>
       </c>
       <c r="D47" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E47" s="4" t="s">
         <v>13</v>
@@ -7327,8 +7354,8 @@
   </sheetPr>
   <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7691,7 +7718,7 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>370</v>
+        <v>413</v>
       </c>
       <c r="B30" t="s">
         <v>19</v>
@@ -7725,7 +7752,7 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B33" t="s">
         <v>19</v>
@@ -7734,7 +7761,7 @@
         <v>12</v>
       </c>
       <c r="D33" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E33" s="5" t="s">
         <v>14</v>
@@ -7754,13 +7781,13 @@
         <v>127</v>
       </c>
       <c r="D35" t="s">
+        <v>375</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F35" t="s">
         <v>376</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F35" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -7768,7 +7795,7 @@
         <v>141</v>
       </c>
       <c r="D36" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E36" s="4" t="s">
         <v>13</v>
@@ -7782,7 +7809,7 @@
         <v>12</v>
       </c>
       <c r="D37" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E37" s="4" t="s">
         <v>13</v>
@@ -7802,12 +7829,12 @@
         <v>14</v>
       </c>
       <c r="F38" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B40" t="s">
         <v>19</v>
@@ -7816,7 +7843,7 @@
         <v>12</v>
       </c>
       <c r="D40" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E40" s="5" t="s">
         <v>14</v>
@@ -7827,7 +7854,7 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B42" t="s">
         <v>19</v>
@@ -7836,13 +7863,13 @@
         <v>141</v>
       </c>
       <c r="D42" t="s">
+        <v>383</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F42" t="s">
         <v>384</v>
-      </c>
-      <c r="E42" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F42" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -7856,7 +7883,7 @@
         <v>14</v>
       </c>
       <c r="F43" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
   </sheetData>
@@ -7871,15 +7898,15 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E24" activeCellId="5" sqref="E3 E7 E12 E15 E18 E24"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E37" activeCellId="9" sqref="E3 E7 E12 E15 E18 E24 E27 E29 E33 E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
@@ -7909,7 +7936,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B2" t="s">
         <v>92</v>
@@ -7918,13 +7945,13 @@
         <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -7938,12 +7965,12 @@
         <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B5" t="s">
         <v>92</v>
@@ -7952,13 +7979,13 @@
         <v>141</v>
       </c>
       <c r="D5" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -7966,7 +7993,7 @@
         <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>13</v>
@@ -7991,7 +8018,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B9" t="s">
         <v>92</v>
@@ -8000,13 +8027,13 @@
         <v>141</v>
       </c>
       <c r="D9" t="s">
+        <v>394</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" t="s">
         <v>395</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" t="s">
-        <v>396</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -8014,7 +8041,7 @@
         <v>12</v>
       </c>
       <c r="D10" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>13</v>
@@ -8028,7 +8055,7 @@
         <v>11</v>
       </c>
       <c r="D11" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>13</v>
@@ -8042,13 +8069,13 @@
         <v>15</v>
       </c>
       <c r="D12" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F12" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -8068,7 +8095,7 @@
         <v>13</v>
       </c>
       <c r="F14" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -8087,7 +8114,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B17" t="s">
         <v>114</v>
@@ -8096,13 +8123,13 @@
         <v>12</v>
       </c>
       <c r="D17" t="s">
+        <v>402</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" t="s">
         <v>403</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F17" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -8116,12 +8143,12 @@
         <v>14</v>
       </c>
       <c r="F18" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B20" t="s">
         <v>114</v>
@@ -8136,7 +8163,7 @@
         <v>13</v>
       </c>
       <c r="F20" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -8158,7 +8185,7 @@
         <v>15</v>
       </c>
       <c r="D22" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>13</v>
@@ -8186,13 +8213,13 @@
         <v>17</v>
       </c>
       <c r="D24" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F24" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -8206,7 +8233,143 @@
         <v>127</v>
       </c>
       <c r="D26" t="s">
-        <v>410</v>
+        <v>409</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F26" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C27" t="s">
+        <v>141</v>
+      </c>
+      <c r="D27" t="s">
+        <v>411</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F27" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>412</v>
+      </c>
+      <c r="B29" t="s">
+        <v>19</v>
+      </c>
+      <c r="C29" t="s">
+        <v>12</v>
+      </c>
+      <c r="D29" t="s">
+        <v>382</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F29" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>413</v>
+      </c>
+      <c r="B31" t="s">
+        <v>19</v>
+      </c>
+      <c r="C31" t="s">
+        <v>141</v>
+      </c>
+      <c r="D31" t="s">
+        <v>317</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F31" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C32" t="s">
+        <v>12</v>
+      </c>
+      <c r="D32" t="s">
+        <v>361</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F32" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C33" t="s">
+        <v>11</v>
+      </c>
+      <c r="D33" t="s">
+        <v>415</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F33" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>146</v>
+      </c>
+      <c r="B35" t="s">
+        <v>19</v>
+      </c>
+      <c r="C35" t="s">
+        <v>127</v>
+      </c>
+      <c r="D35" t="s">
+        <v>418</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F35" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C36" t="s">
+        <v>141</v>
+      </c>
+      <c r="D36" t="s">
+        <v>420</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F36" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C37" t="s">
+        <v>12</v>
+      </c>
+      <c r="D37" t="s">
+        <v>408</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F37" t="s">
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -8223,7 +8386,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8241,10 +8404,10 @@
         <v>7</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>373</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>374</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>8</v>
@@ -8408,20 +8571,20 @@
         <v>2022</v>
       </c>
       <c r="B9">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E9">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F9" s="3">
         <f t="shared" si="0"/>
-        <v>0.45454545454545453</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -8430,7 +8593,7 @@
       </c>
       <c r="B10" s="2">
         <f>SUM(B2:B9)</f>
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C10" s="2">
         <f>SUM(C2:C9)</f>
@@ -8438,15 +8601,15 @@
       </c>
       <c r="D10" s="2">
         <f>SUM(D2:D9)</f>
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="E10" s="2">
         <f>SUM(E2:E9)</f>
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="F10" s="7">
         <f>(D10-E10)/D10</f>
-        <v>0.58787878787878789</v>
+        <v>0.57647058823529407</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -8455,7 +8618,7 @@
       </c>
       <c r="B11" s="2">
         <f>AVERAGE(B2:B9)</f>
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="C11" s="2">
         <f>AVERAGE(C2:C9)</f>
@@ -8463,15 +8626,15 @@
       </c>
       <c r="D11" s="2">
         <f>AVERAGE(D2:D9)</f>
-        <v>20.625</v>
+        <v>21.25</v>
       </c>
       <c r="E11" s="2">
         <f>AVERAGE(E2:E9)</f>
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="F11" s="7">
         <f>(D11-E11)/D11</f>
-        <v>0.58787878787878789</v>
+        <v>0.57647058823529407</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/WTA Tour/Bianca Andreescu.xlsx
+++ b/Tennis/WTA Tour/Bianca Andreescu.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7353" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{22AFE588-212B-4FB7-A2F6-DDB97E18F48A}"/>
+  <xr:revisionPtr revIDLastSave="7397" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{16329926-CC9B-49EA-90AE-6E8FECF5F92B}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="4" activeTab="8" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="7" activeTab="10" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2015" sheetId="22" r:id="rId1"/>
@@ -22,8 +22,8 @@
     <sheet name="2021" sheetId="28" r:id="rId7"/>
     <sheet name="2022" sheetId="31" r:id="rId8"/>
     <sheet name="YTD Stats" sheetId="1" r:id="rId9"/>
-    <sheet name="YTD Wins-Losses" sheetId="29" r:id="rId10"/>
-    <sheet name="Winning Percentile Range" sheetId="30" r:id="rId11"/>
+    <sheet name="Wins-Losses" sheetId="32" r:id="rId10"/>
+    <sheet name="Winning Percentile Range" sheetId="33" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1211" uniqueCount="421">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1235" uniqueCount="429">
   <si>
     <t>ROUND</t>
   </si>
@@ -1306,6 +1306,30 @@
   </si>
   <si>
     <t>Beatriz Haddad Maia (BRAZIL)</t>
+  </si>
+  <si>
+    <t>SAN DIEGO OPEN</t>
+  </si>
+  <si>
+    <t>Liudmila Samsonova (RUSSIA)</t>
+  </si>
+  <si>
+    <t>7-6(1) 4-6 6-2</t>
+  </si>
+  <si>
+    <t>Coco Gauff (USA)</t>
+  </si>
+  <si>
+    <t>6-4 4-6 6-3</t>
+  </si>
+  <si>
+    <t>GUADALAJARA OPEN</t>
+  </si>
+  <si>
+    <t>Petra Kvitová (CZECH REPUBLIC)</t>
+  </si>
+  <si>
+    <t>3-6 6-2 6-0</t>
   </si>
 </sst>
 </file>
@@ -1510,13 +1534,8 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" b="1"/>
-              <a:t>Bianca</a:t>
+              <a:t>Bianca Andreescu (CANADA): Wins-Losses</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" b="1" baseline="0"/>
-              <a:t> Andreescu (CANADA): YTD Wins-Losses</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" b="1"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1582,10 +1601,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'YTD Stats'!$A$2:$A$8</c:f>
+              <c:f>'YTD Stats'!$A$2:$A$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>2015</c:v>
                 </c:pt>
@@ -1607,15 +1626,18 @@
                 <c:pt idx="6">
                   <c:v>2021</c:v>
                 </c:pt>
+                <c:pt idx="7">
+                  <c:v>2022</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'YTD Stats'!$D$2:$D$8</c:f>
+              <c:f>'YTD Stats'!$D$2:$D$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>4</c:v>
                 </c:pt>
@@ -1637,12 +1659,15 @@
                 <c:pt idx="6">
                   <c:v>17</c:v>
                 </c:pt>
+                <c:pt idx="7">
+                  <c:v>19</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-96B3-4FF8-BDAB-541A9B5AE252}"/>
+              <c16:uniqueId val="{00000000-7EAE-47D3-833E-AEA295BACC56}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1672,10 +1697,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'YTD Stats'!$A$2:$A$8</c:f>
+              <c:f>'YTD Stats'!$A$2:$A$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>2015</c:v>
                 </c:pt>
@@ -1697,15 +1722,18 @@
                 <c:pt idx="6">
                   <c:v>2021</c:v>
                 </c:pt>
+                <c:pt idx="7">
+                  <c:v>2022</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'YTD Stats'!$E$2:$E$8</c:f>
+              <c:f>'YTD Stats'!$E$2:$E$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>3</c:v>
                 </c:pt>
@@ -1727,12 +1755,15 @@
                 <c:pt idx="6">
                   <c:v>12</c:v>
                 </c:pt>
+                <c:pt idx="7">
+                  <c:v>12</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-96B3-4FF8-BDAB-541A9B5AE252}"/>
+              <c16:uniqueId val="{00000001-7EAE-47D3-833E-AEA295BACC56}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1746,11 +1777,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="2048266703"/>
-        <c:axId val="2048246735"/>
+        <c:axId val="2135807440"/>
+        <c:axId val="2135823664"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2048266703"/>
+        <c:axId val="2135807440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1848,7 +1879,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2048246735"/>
+        <c:crossAx val="2135823664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1856,7 +1887,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2048246735"/>
+        <c:axId val="2135823664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1962,7 +1993,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2048266703"/>
+        <c:crossAx val="2135807440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2166,16 +2197,15 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="linear"/>
-            <c:forward val="1"/>
             <c:dispRSqr val="0"/>
             <c:dispEq val="0"/>
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>'YTD Stats'!$A$2:$A$8</c:f>
+              <c:f>'YTD Stats'!$A$2:$A$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>2015</c:v>
                 </c:pt>
@@ -2197,15 +2227,18 @@
                 <c:pt idx="6">
                   <c:v>2021</c:v>
                 </c:pt>
+                <c:pt idx="7">
+                  <c:v>2022</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'YTD Stats'!$F$2:$F$8</c:f>
+              <c:f>'YTD Stats'!$F$2:$F$9</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>0.25</c:v>
                 </c:pt>
@@ -2227,13 +2260,16 @@
                 <c:pt idx="6">
                   <c:v>0.29411764705882354</c:v>
                 </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.36842105263157893</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-91A9-4C16-A292-26D1475FB471}"/>
+              <c16:uniqueId val="{00000000-A169-4529-B429-DF0A17B09F0F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2247,11 +2283,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="335326623"/>
-        <c:axId val="335323295"/>
+        <c:axId val="1450895456"/>
+        <c:axId val="1450887136"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="335326623"/>
+        <c:axId val="1450895456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2349,7 +2385,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="335323295"/>
+        <c:crossAx val="1450887136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2357,7 +2393,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="335323295"/>
+        <c:axId val="1450887136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2463,7 +2499,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="335326623"/>
+        <c:crossAx val="1450895456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3122,7 +3158,7 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -3230,11 +3266,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -3245,11 +3276,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -3281,9 +3307,6 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3638,7 +3661,7 @@
 </file>
 
 <file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{3828ED73-5264-44EE-9AC5-49A8D01EE845}">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{9EED8B88-077B-4B36-BBCA-90DFB37F67EA}">
   <sheetPr/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3650,28 +3673,27 @@
 </file>
 
 <file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{EB196088-D968-4675-9941-431035E29CF0}">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{AA7304BA-BD32-4FF5-9561-47DF9D834FAB}">
   <sheetPr/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="landscape" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </chartsheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
-    <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8582025" cy="5838825"/>
+    <xdr:pos x="0" y="9525"/>
+    <xdr:ext cx="8582025" cy="5829300"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53857B62-11C3-4FF7-8F8D-45BED17D8616}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25A80D4D-41BD-B487-46C9-99E0FED5F71A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3698,13 +3720,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8582025" cy="5838825"/>
+    <xdr:ext cx="8680040" cy="6298790"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8EEC9C3-0274-4898-84EE-9C2B23130AC9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7ADF03B-25F8-C37C-CB1B-192940B433D3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7898,10 +7920,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F37"/>
+  <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E37" activeCellId="9" sqref="E3 E7 E12 E15 E18 E24 E27 E29 E33 E37"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E44" activeCellId="11" sqref="E3 E7 E12 E15 E18 E24 E27 E29 E33 E37 E40 E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8372,6 +8394,88 @@
         <v>134</v>
       </c>
     </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>421</v>
+      </c>
+      <c r="B39" t="s">
+        <v>19</v>
+      </c>
+      <c r="C39" t="s">
+        <v>12</v>
+      </c>
+      <c r="D39" t="s">
+        <v>422</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F39" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C40" t="s">
+        <v>11</v>
+      </c>
+      <c r="D40" t="s">
+        <v>424</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F40" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>426</v>
+      </c>
+      <c r="B42" t="s">
+        <v>19</v>
+      </c>
+      <c r="C42" t="s">
+        <v>141</v>
+      </c>
+      <c r="D42" t="s">
+        <v>203</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F42" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C43" t="s">
+        <v>12</v>
+      </c>
+      <c r="D43" t="s">
+        <v>427</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F43" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C44" t="s">
+        <v>11</v>
+      </c>
+      <c r="D44" t="s">
+        <v>290</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F44" t="s">
+        <v>164</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="59" orientation="landscape" r:id="rId1"/>
@@ -8385,8 +8489,8 @@
   </sheetPr>
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" activeCellId="1" sqref="A1:A9 F1:F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8571,20 +8675,20 @@
         <v>2022</v>
       </c>
       <c r="B9">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E9">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F9" s="3">
         <f t="shared" si="0"/>
-        <v>0.375</v>
+        <v>0.36842105263157893</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -8593,7 +8697,7 @@
       </c>
       <c r="B10" s="2">
         <f>SUM(B2:B9)</f>
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C10" s="2">
         <f>SUM(C2:C9)</f>
@@ -8601,15 +8705,15 @@
       </c>
       <c r="D10" s="2">
         <f>SUM(D2:D9)</f>
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="E10" s="2">
         <f>SUM(E2:E9)</f>
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F10" s="7">
         <f>(D10-E10)/D10</f>
-        <v>0.57647058823529407</v>
+        <v>0.5722543352601156</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -8618,7 +8722,7 @@
       </c>
       <c r="B11" s="2">
         <f>AVERAGE(B2:B9)</f>
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="C11" s="2">
         <f>AVERAGE(C2:C9)</f>
@@ -8626,15 +8730,15 @@
       </c>
       <c r="D11" s="2">
         <f>AVERAGE(D2:D9)</f>
-        <v>21.25</v>
+        <v>21.625</v>
       </c>
       <c r="E11" s="2">
         <f>AVERAGE(E2:E9)</f>
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="F11" s="7">
         <f>(D11-E11)/D11</f>
-        <v>0.57647058823529407</v>
+        <v>0.5722543352601156</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/WTA Tour/Bianca Andreescu.xlsx
+++ b/Tennis/WTA Tour/Bianca Andreescu.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7397" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{16329926-CC9B-49EA-90AE-6E8FECF5F92B}"/>
+  <xr:revisionPtr revIDLastSave="7480" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B2956A95-2C7B-4D83-9C5B-B85D94DC10E3}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="7" activeTab="10" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView minimized="1" xWindow="6108" yWindow="3708" windowWidth="17280" windowHeight="8880" firstSheet="6" activeTab="9" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2015" sheetId="22" r:id="rId1"/>
@@ -21,9 +21,10 @@
     <sheet name="2020" sheetId="27" r:id="rId6"/>
     <sheet name="2021" sheetId="28" r:id="rId7"/>
     <sheet name="2022" sheetId="31" r:id="rId8"/>
-    <sheet name="YTD Stats" sheetId="1" r:id="rId9"/>
-    <sheet name="Wins-Losses" sheetId="32" r:id="rId10"/>
-    <sheet name="Winning Percentile Range" sheetId="33" r:id="rId11"/>
+    <sheet name="2023" sheetId="34" r:id="rId9"/>
+    <sheet name="YTD Stats" sheetId="1" r:id="rId10"/>
+    <sheet name="Wins-Losses" sheetId="35" r:id="rId11"/>
+    <sheet name="Winning Percentile Range" sheetId="36" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1235" uniqueCount="429">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1279" uniqueCount="440">
   <si>
     <t>ROUND</t>
   </si>
@@ -1330,6 +1331,39 @@
   </si>
   <si>
     <t>3-6 6-2 6-0</t>
+  </si>
+  <si>
+    <t>2-6 7-6(7) 6-4</t>
+  </si>
+  <si>
+    <t>0-6 7-6(3) 6-1</t>
+  </si>
+  <si>
+    <t>Veronika Kudermetova (RUSSIA)</t>
+  </si>
+  <si>
+    <t>Cristina Bucșa (SPAIN)</t>
+  </si>
+  <si>
+    <t>ADELAIDE INTERNATIONAL 1</t>
+  </si>
+  <si>
+    <t>THAILAND OPEN</t>
+  </si>
+  <si>
+    <t>Anastasia Zakharova (RUSSIA)</t>
+  </si>
+  <si>
+    <t>Marta Kostyuk (UKRAINE)</t>
+  </si>
+  <si>
+    <t>Lesia Tsurenko (UKRAINE)</t>
+  </si>
+  <si>
+    <t>7-5 4-0 RETIRED</t>
+  </si>
+  <si>
+    <t>6-0 7-6(3)</t>
   </si>
 </sst>
 </file>
@@ -1418,7 +1452,7 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1428,6 +1462,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="3"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -1534,8 +1569,13 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" b="1"/>
-              <a:t>Bianca Andreescu (CANADA): Wins-Losses</a:t>
+              <a:t>Bianca Andreescu (CANADA):</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="en-US" b="1" baseline="0"/>
+              <a:t> Wins-Losses</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" b="1"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1601,10 +1641,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'YTD Stats'!$A$2:$A$9</c:f>
+              <c:f>'YTD Stats'!$A$2:$A$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>2015</c:v>
                 </c:pt>
@@ -1629,15 +1669,18 @@
                 <c:pt idx="7">
                   <c:v>2022</c:v>
                 </c:pt>
+                <c:pt idx="8">
+                  <c:v>2023</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'YTD Stats'!$D$2:$D$9</c:f>
+              <c:f>'YTD Stats'!$D$2:$D$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>4</c:v>
                 </c:pt>
@@ -1662,12 +1705,15 @@
                 <c:pt idx="7">
                   <c:v>19</c:v>
                 </c:pt>
+                <c:pt idx="8">
+                  <c:v>5</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-7EAE-47D3-833E-AEA295BACC56}"/>
+              <c16:uniqueId val="{00000000-C493-40C6-96BC-01033B6F3230}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1697,10 +1743,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'YTD Stats'!$A$2:$A$9</c:f>
+              <c:f>'YTD Stats'!$A$2:$A$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>2015</c:v>
                 </c:pt>
@@ -1725,15 +1771,18 @@
                 <c:pt idx="7">
                   <c:v>2022</c:v>
                 </c:pt>
+                <c:pt idx="8">
+                  <c:v>2023</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'YTD Stats'!$E$2:$E$9</c:f>
+              <c:f>'YTD Stats'!$E$2:$E$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>3</c:v>
                 </c:pt>
@@ -1758,12 +1807,15 @@
                 <c:pt idx="7">
                   <c:v>12</c:v>
                 </c:pt>
+                <c:pt idx="8">
+                  <c:v>3</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-7EAE-47D3-833E-AEA295BACC56}"/>
+              <c16:uniqueId val="{00000001-C493-40C6-96BC-01033B6F3230}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1777,11 +1829,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="2135807440"/>
-        <c:axId val="2135823664"/>
+        <c:axId val="771915183"/>
+        <c:axId val="290567999"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2135807440"/>
+        <c:axId val="771915183"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1879,7 +1931,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2135823664"/>
+        <c:crossAx val="290567999"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1887,7 +1939,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2135823664"/>
+        <c:axId val="290567999"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1993,7 +2045,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2135807440"/>
+        <c:crossAx val="771915183"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2103,11 +2155,11 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" b="1"/>
-              <a:t>Bianca Andreescu</a:t>
+              <a:t>Bianca Andreescu (CANADA): Winning</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" b="1" baseline="0"/>
-              <a:t> (CANADA): Winning Percentile Range</a:t>
+              <a:t> Percentile Range</a:t>
             </a:r>
             <a:endParaRPr lang="en-US" b="1"/>
           </a:p>
@@ -2190,6 +2242,20 @@
             <c:spPr>
               <a:ln w="19050" cap="rnd">
                 <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
                   <a:srgbClr val="00B050"/>
                 </a:solidFill>
                 <a:prstDash val="sysDot"/>
@@ -2202,10 +2268,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>'YTD Stats'!$A$2:$A$9</c:f>
+              <c:f>'YTD Stats'!$A$2:$A$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>2015</c:v>
                 </c:pt>
@@ -2230,15 +2296,18 @@
                 <c:pt idx="7">
                   <c:v>2022</c:v>
                 </c:pt>
+                <c:pt idx="8">
+                  <c:v>2023</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'YTD Stats'!$F$2:$F$9</c:f>
+              <c:f>'YTD Stats'!$F$2:$F$10</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>0.25</c:v>
                 </c:pt>
@@ -2263,13 +2332,16 @@
                 <c:pt idx="7">
                   <c:v>0.36842105263157893</c:v>
                 </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.4</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-A169-4529-B429-DF0A17B09F0F}"/>
+              <c16:uniqueId val="{00000001-E44C-45B6-95C1-8A917EAE074E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2283,11 +2355,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1450895456"/>
-        <c:axId val="1450887136"/>
+        <c:axId val="875482703"/>
+        <c:axId val="875483119"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1450895456"/>
+        <c:axId val="875482703"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2385,7 +2457,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1450887136"/>
+        <c:crossAx val="875483119"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2393,7 +2465,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1450887136"/>
+        <c:axId val="875483119"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2499,7 +2571,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1450895456"/>
+        <c:crossAx val="875482703"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2513,6 +2585,10 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:legendEntry>
+        <c:idx val="2"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3661,7 +3737,7 @@
 </file>
 
 <file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{9EED8B88-077B-4B36-BBCA-90DFB37F67EA}">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{7B75688D-5400-4B88-AFA9-47E358D66687}">
   <sheetPr/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3673,27 +3749,28 @@
 </file>
 
 <file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{AA7304BA-BD32-4FF5-9561-47DF9D834FAB}">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{FC873133-7941-4C73-8B20-D039230DB03A}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </chartsheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
-    <xdr:pos x="0" y="9525"/>
-    <xdr:ext cx="8582025" cy="5829300"/>
+    <xdr:pos x="0" y="7620"/>
+    <xdr:ext cx="8564880" cy="5814060"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25A80D4D-41BD-B487-46C9-99E0FED5F71A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7353E95D-B33D-EDE6-8553-54FF56F93B26}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3720,13 +3797,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8680040" cy="6298790"/>
+    <xdr:ext cx="8564880" cy="5821680"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7ADF03B-25F8-C37C-CB1B-192940B433D3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD93C47B-25F2-99DF-86DB-0564B2CF0395}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3747,6 +3824,10 @@
     <xdr:clientData/>
   </xdr:absoluteAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4055,17 +4136,17 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -4085,7 +4166,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>45</v>
       </c>
@@ -4105,7 +4186,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>11</v>
       </c>
@@ -4119,7 +4200,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>15</v>
       </c>
@@ -4133,7 +4214,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>16</v>
       </c>
@@ -4147,7 +4228,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>17</v>
       </c>
@@ -4161,7 +4242,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>41</v>
       </c>
@@ -4181,7 +4262,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>53</v>
       </c>
@@ -4211,6 +4292,301 @@
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="59" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCAE177D-2BD4-45CE-80F5-EF8578F1AF32}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:F12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" activeCellId="1" sqref="A1:A10 F1:F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>2015</v>
+      </c>
+      <c r="B2">
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>4</v>
+      </c>
+      <c r="E2">
+        <v>3</v>
+      </c>
+      <c r="F2" s="3">
+        <f>(D2-E2)/D2</f>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2016</v>
+      </c>
+      <c r="B3">
+        <v>7</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>15</v>
+      </c>
+      <c r="E3">
+        <v>6</v>
+      </c>
+      <c r="F3" s="3">
+        <f>(D3-E3)/D3</f>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2017</v>
+      </c>
+      <c r="B4">
+        <v>19</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>27</v>
+      </c>
+      <c r="E4">
+        <v>17</v>
+      </c>
+      <c r="F4" s="3">
+        <f>(D4-E4)/D4</f>
+        <v>0.37037037037037035</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>2018</v>
+      </c>
+      <c r="B5">
+        <v>20</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>43</v>
+      </c>
+      <c r="E5">
+        <v>17</v>
+      </c>
+      <c r="F5" s="3">
+        <f>(D5-E5)/D5</f>
+        <v>0.60465116279069764</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>2019</v>
+      </c>
+      <c r="B6">
+        <v>12</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6">
+        <v>48</v>
+      </c>
+      <c r="E6">
+        <v>7</v>
+      </c>
+      <c r="F6" s="3">
+        <f>(D6-E6)/D6</f>
+        <v>0.85416666666666663</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>2020</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7" s="3" t="e">
+        <f t="shared" ref="F7:F10" si="0">(D7-E7)/D7</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>2021</v>
+      </c>
+      <c r="B8">
+        <v>13</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>17</v>
+      </c>
+      <c r="E8">
+        <v>12</v>
+      </c>
+      <c r="F8" s="3">
+        <f t="shared" si="0"/>
+        <v>0.29411764705882354</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>2022</v>
+      </c>
+      <c r="B9">
+        <v>12</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>19</v>
+      </c>
+      <c r="E9">
+        <v>12</v>
+      </c>
+      <c r="F9" s="3">
+        <f t="shared" si="0"/>
+        <v>0.36842105263157893</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>2023</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>5</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10" s="3">
+        <f t="shared" si="0"/>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="2">
+        <f>SUM(B2:B10)</f>
+        <v>89</v>
+      </c>
+      <c r="C11" s="2">
+        <f>SUM(C2:C10)</f>
+        <v>3</v>
+      </c>
+      <c r="D11" s="2">
+        <f>SUM(D2:D10)</f>
+        <v>178</v>
+      </c>
+      <c r="E11" s="2">
+        <f>SUM(E2:E10)</f>
+        <v>77</v>
+      </c>
+      <c r="F11" s="7">
+        <f>(D11-E11)/D11</f>
+        <v>0.56741573033707871</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="B12" s="2">
+        <f>AVERAGE(B2:B10)</f>
+        <v>9.8888888888888893</v>
+      </c>
+      <c r="C12" s="2">
+        <f>AVERAGE(C2:C10)</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D12" s="2">
+        <f>AVERAGE(D2:D10)</f>
+        <v>19.777777777777779</v>
+      </c>
+      <c r="E12" s="2">
+        <f>AVERAGE(E2:E10)</f>
+        <v>8.5555555555555554</v>
+      </c>
+      <c r="F12" s="7">
+        <f>(D12-E12)/D12</f>
+        <v>0.56741573033707871</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="F2:F10">
+    <cfRule type="iconSet" priority="39">
+      <iconSet iconSet="3Symbols2">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4225,17 +4601,17 @@
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -4255,7 +4631,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>55</v>
       </c>
@@ -4275,7 +4651,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>11</v>
       </c>
@@ -4289,7 +4665,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>41</v>
       </c>
@@ -4309,7 +4685,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>21</v>
       </c>
@@ -4323,7 +4699,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>58</v>
       </c>
@@ -4343,7 +4719,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>11</v>
       </c>
@@ -4357,7 +4733,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>45</v>
       </c>
@@ -4377,7 +4753,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>11</v>
       </c>
@@ -4391,7 +4767,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>15</v>
       </c>
@@ -4405,7 +4781,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>16</v>
       </c>
@@ -4419,7 +4795,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>17</v>
       </c>
@@ -4433,7 +4809,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>68</v>
       </c>
@@ -4453,7 +4829,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>11</v>
       </c>
@@ -4467,7 +4843,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>15</v>
       </c>
@@ -4481,7 +4857,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>16</v>
       </c>
@@ -4495,7 +4871,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>17</v>
       </c>
@@ -4509,7 +4885,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>53</v>
       </c>
@@ -4529,7 +4905,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>11</v>
       </c>
@@ -4543,7 +4919,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>15</v>
       </c>
@@ -4557,7 +4933,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>33</v>
       </c>
@@ -4577,7 +4953,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>11</v>
       </c>
@@ -4618,17 +4994,17 @@
       <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="39.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -4648,7 +5024,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>78</v>
       </c>
@@ -4668,7 +5044,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>11</v>
       </c>
@@ -4682,7 +5058,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>15</v>
       </c>
@@ -4696,7 +5072,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>83</v>
       </c>
@@ -4716,7 +5092,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>11</v>
       </c>
@@ -4730,7 +5106,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>15</v>
       </c>
@@ -4744,7 +5120,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>16</v>
       </c>
@@ -4758,7 +5134,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>17</v>
       </c>
@@ -4772,7 +5148,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>91</v>
       </c>
@@ -4792,7 +5168,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>11</v>
       </c>
@@ -4806,7 +5182,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>15</v>
       </c>
@@ -4820,7 +5196,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>16</v>
       </c>
@@ -4834,7 +5210,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>91</v>
       </c>
@@ -4854,7 +5230,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>11</v>
       </c>
@@ -4868,7 +5244,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>15</v>
       </c>
@@ -4882,7 +5258,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>16</v>
       </c>
@@ -4896,7 +5272,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>17</v>
       </c>
@@ -4910,7 +5286,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>91</v>
       </c>
@@ -4930,7 +5306,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>110</v>
       </c>
@@ -4950,7 +5326,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>113</v>
       </c>
@@ -4970,7 +5346,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>11</v>
       </c>
@@ -4984,7 +5360,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>119</v>
       </c>
@@ -5004,7 +5380,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>21</v>
       </c>
@@ -5018,7 +5394,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>120</v>
       </c>
@@ -5032,7 +5408,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>126</v>
       </c>
@@ -5052,7 +5428,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>21</v>
       </c>
@@ -5066,7 +5442,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>120</v>
       </c>
@@ -5080,7 +5456,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>127</v>
       </c>
@@ -5094,7 +5470,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>131</v>
       </c>
@@ -5114,7 +5490,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>11</v>
       </c>
@@ -5128,7 +5504,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>135</v>
       </c>
@@ -5148,7 +5524,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>11</v>
       </c>
@@ -5162,7 +5538,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>15</v>
       </c>
@@ -5176,7 +5552,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>41</v>
       </c>
@@ -5196,7 +5572,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>143</v>
       </c>
@@ -5216,7 +5592,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>146</v>
       </c>
@@ -5236,7 +5612,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>149</v>
       </c>
@@ -5256,7 +5632,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>11</v>
       </c>
@@ -5270,7 +5646,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>153</v>
       </c>
@@ -5290,7 +5666,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>155</v>
       </c>
@@ -5310,7 +5686,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>157</v>
       </c>
@@ -5330,7 +5706,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>160</v>
       </c>
@@ -5350,7 +5726,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>11</v>
       </c>
@@ -5364,7 +5740,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>15</v>
       </c>
@@ -5396,17 +5772,17 @@
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="39.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -5426,7 +5802,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>167</v>
       </c>
@@ -5446,7 +5822,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>11</v>
       </c>
@@ -5460,7 +5836,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>15</v>
       </c>
@@ -5474,7 +5850,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>174</v>
       </c>
@@ -5494,7 +5870,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>176</v>
       </c>
@@ -5514,7 +5890,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>11</v>
       </c>
@@ -5528,7 +5904,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>15</v>
       </c>
@@ -5542,7 +5918,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>180</v>
       </c>
@@ -5559,7 +5935,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>183</v>
       </c>
@@ -5579,7 +5955,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>11</v>
       </c>
@@ -5593,7 +5969,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>185</v>
       </c>
@@ -5613,7 +5989,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>11</v>
       </c>
@@ -5627,7 +6003,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>15</v>
       </c>
@@ -5641,7 +6017,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>16</v>
       </c>
@@ -5655,7 +6031,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>17</v>
       </c>
@@ -5669,7 +6045,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>193</v>
       </c>
@@ -5689,7 +6065,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>11</v>
       </c>
@@ -5703,7 +6079,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>15</v>
       </c>
@@ -5717,7 +6093,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>16</v>
       </c>
@@ -5731,7 +6107,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>17</v>
       </c>
@@ -5745,7 +6121,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>201</v>
       </c>
@@ -5765,7 +6141,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>11</v>
       </c>
@@ -5779,7 +6155,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>110</v>
       </c>
@@ -5799,7 +6175,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>21</v>
       </c>
@@ -5813,7 +6189,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>120</v>
       </c>
@@ -5827,7 +6203,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>119</v>
       </c>
@@ -5847,7 +6223,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>21</v>
       </c>
@@ -5861,7 +6237,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>120</v>
       </c>
@@ -5875,7 +6251,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>12</v>
       </c>
@@ -5889,7 +6265,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>11</v>
       </c>
@@ -5903,7 +6279,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>126</v>
       </c>
@@ -5923,7 +6299,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>21</v>
       </c>
@@ -5937,7 +6313,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>120</v>
       </c>
@@ -5951,7 +6327,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>55</v>
       </c>
@@ -5971,7 +6347,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>45</v>
       </c>
@@ -5991,7 +6367,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>131</v>
       </c>
@@ -6011,7 +6387,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>11</v>
       </c>
@@ -6025,7 +6401,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>15</v>
       </c>
@@ -6039,7 +6415,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>16</v>
       </c>
@@ -6053,7 +6429,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>146</v>
       </c>
@@ -6073,7 +6449,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>233</v>
       </c>
@@ -6093,7 +6469,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>11</v>
       </c>
@@ -6107,7 +6483,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>15</v>
       </c>
@@ -6121,7 +6497,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>16</v>
       </c>
@@ -6135,7 +6511,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>17</v>
       </c>
@@ -6149,7 +6525,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>157</v>
       </c>
@@ -6169,7 +6545,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>11</v>
       </c>
@@ -6183,7 +6559,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>15</v>
       </c>
@@ -6197,7 +6573,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>16</v>
       </c>
@@ -6211,7 +6587,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>160</v>
       </c>
@@ -6231,7 +6607,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>11</v>
       </c>
@@ -6245,7 +6621,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>15</v>
       </c>
@@ -6259,7 +6635,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>16</v>
       </c>
@@ -6273,7 +6649,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>252</v>
       </c>
@@ -6293,7 +6669,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>11</v>
       </c>
@@ -6307,7 +6683,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C75" t="s">
         <v>15</v>
       </c>
@@ -6321,7 +6697,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>257</v>
       </c>
@@ -6341,7 +6717,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C78" t="s">
         <v>11</v>
       </c>
@@ -6355,7 +6731,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C79" t="s">
         <v>15</v>
       </c>
@@ -6369,7 +6745,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C80" t="s">
         <v>16</v>
       </c>
@@ -6383,7 +6759,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="81" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C81" t="s">
         <v>17</v>
       </c>
@@ -6415,17 +6791,17 @@
       <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="36" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -6445,7 +6821,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>265</v>
       </c>
@@ -6465,7 +6841,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>21</v>
       </c>
@@ -6479,7 +6855,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>120</v>
       </c>
@@ -6493,7 +6869,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>12</v>
       </c>
@@ -6507,7 +6883,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>11</v>
       </c>
@@ -6521,7 +6897,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>15</v>
       </c>
@@ -6535,7 +6911,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>16</v>
       </c>
@@ -6549,7 +6925,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>17</v>
       </c>
@@ -6563,7 +6939,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>174</v>
       </c>
@@ -6583,7 +6959,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>21</v>
       </c>
@@ -6597,7 +6973,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>120</v>
       </c>
@@ -6611,7 +6987,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>127</v>
       </c>
@@ -6625,7 +7001,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>141</v>
       </c>
@@ -6639,7 +7015,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>286</v>
       </c>
@@ -6659,7 +7035,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>11</v>
       </c>
@@ -6673,7 +7049,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>15</v>
       </c>
@@ -6687,7 +7063,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>16</v>
       </c>
@@ -6701,7 +7077,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>17</v>
       </c>
@@ -6715,7 +7091,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>180</v>
       </c>
@@ -6732,7 +7108,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D24" t="s">
         <v>207</v>
       </c>
@@ -6743,7 +7119,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>294</v>
       </c>
@@ -6763,7 +7139,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>11</v>
       </c>
@@ -6777,7 +7153,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>15</v>
       </c>
@@ -6791,7 +7167,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>16</v>
       </c>
@@ -6805,7 +7181,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>386</v>
       </c>
@@ -6825,7 +7201,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>141</v>
       </c>
@@ -6839,7 +7215,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>12</v>
       </c>
@@ -6853,7 +7229,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>11</v>
       </c>
@@ -6867,7 +7243,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>15</v>
       </c>
@@ -6881,7 +7257,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>16</v>
       </c>
@@ -6895,7 +7271,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>17</v>
       </c>
@@ -6909,7 +7285,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>308</v>
       </c>
@@ -6929,7 +7305,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>141</v>
       </c>
@@ -6943,7 +7319,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>12</v>
       </c>
@@ -6957,7 +7333,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>11</v>
       </c>
@@ -6971,7 +7347,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>110</v>
       </c>
@@ -6991,7 +7367,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>141</v>
       </c>
@@ -7005,7 +7381,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>413</v>
       </c>
@@ -7025,7 +7401,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>12</v>
       </c>
@@ -7039,7 +7415,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>11</v>
       </c>
@@ -7053,7 +7429,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>15</v>
       </c>
@@ -7067,7 +7443,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>16</v>
       </c>
@@ -7081,7 +7457,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>17</v>
       </c>
@@ -7095,7 +7471,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>146</v>
       </c>
@@ -7115,7 +7491,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>141</v>
       </c>
@@ -7129,7 +7505,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>12</v>
       </c>
@@ -7143,7 +7519,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>11</v>
       </c>
@@ -7157,7 +7533,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>15</v>
       </c>
@@ -7171,7 +7547,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>16</v>
       </c>
@@ -7185,7 +7561,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>17</v>
       </c>
@@ -7199,7 +7575,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>329</v>
       </c>
@@ -7219,7 +7595,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>12</v>
       </c>
@@ -7233,7 +7609,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>11</v>
       </c>
@@ -7247,7 +7623,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>15</v>
       </c>
@@ -7261,7 +7637,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>333</v>
       </c>
@@ -7281,7 +7657,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>334</v>
       </c>
@@ -7313,17 +7689,17 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -7343,7 +7719,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>44</v>
       </c>
@@ -7376,21 +7752,21 @@
   </sheetPr>
   <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -7410,7 +7786,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>174</v>
       </c>
@@ -7430,7 +7806,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>141</v>
       </c>
@@ -7444,7 +7820,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>338</v>
       </c>
@@ -7464,7 +7840,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>11</v>
       </c>
@@ -7478,7 +7854,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>15</v>
       </c>
@@ -7492,7 +7868,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>16</v>
       </c>
@@ -7506,7 +7882,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>308</v>
       </c>
@@ -7526,7 +7902,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>12</v>
       </c>
@@ -7540,7 +7916,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>11</v>
       </c>
@@ -7554,7 +7930,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>15</v>
       </c>
@@ -7568,7 +7944,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>16</v>
       </c>
@@ -7582,7 +7958,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>17</v>
       </c>
@@ -7596,7 +7972,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>354</v>
       </c>
@@ -7616,7 +7992,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>11</v>
       </c>
@@ -7630,7 +8006,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>15</v>
       </c>
@@ -7644,7 +8020,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>110</v>
       </c>
@@ -7664,7 +8040,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>360</v>
       </c>
@@ -7684,7 +8060,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>363</v>
       </c>
@@ -7704,7 +8080,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>11</v>
       </c>
@@ -7718,7 +8094,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>126</v>
       </c>
@@ -7738,7 +8114,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>413</v>
       </c>
@@ -7758,7 +8134,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>11</v>
       </c>
@@ -7772,7 +8148,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>371</v>
       </c>
@@ -7792,7 +8168,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>146</v>
       </c>
@@ -7812,7 +8188,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>141</v>
       </c>
@@ -7826,7 +8202,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>12</v>
       </c>
@@ -7840,7 +8216,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>11</v>
       </c>
@@ -7854,7 +8230,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>381</v>
       </c>
@@ -7874,7 +8250,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>386</v>
       </c>
@@ -7894,7 +8270,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>12</v>
       </c>
@@ -7922,21 +8298,21 @@
   </sheetPr>
   <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E44" activeCellId="11" sqref="E3 E7 E12 E15 E18 E24 E27 E29 E33 E37 E40 E44"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -7956,7 +8332,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>388</v>
       </c>
@@ -7976,7 +8352,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>11</v>
       </c>
@@ -7990,7 +8366,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>390</v>
       </c>
@@ -8010,7 +8386,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>12</v>
       </c>
@@ -8024,7 +8400,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>11</v>
       </c>
@@ -8038,7 +8414,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>393</v>
       </c>
@@ -8058,7 +8434,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>12</v>
       </c>
@@ -8072,7 +8448,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>11</v>
       </c>
@@ -8086,7 +8462,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>15</v>
       </c>
@@ -8100,7 +8476,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>110</v>
       </c>
@@ -8120,7 +8496,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>141</v>
       </c>
@@ -8134,7 +8510,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>401</v>
       </c>
@@ -8154,7 +8530,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>11</v>
       </c>
@@ -8168,7 +8544,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>405</v>
       </c>
@@ -8188,7 +8564,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>11</v>
       </c>
@@ -8202,7 +8578,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>15</v>
       </c>
@@ -8216,7 +8592,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>16</v>
       </c>
@@ -8230,7 +8606,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>17</v>
       </c>
@@ -8244,7 +8620,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>126</v>
       </c>
@@ -8264,7 +8640,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>141</v>
       </c>
@@ -8278,7 +8654,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>412</v>
       </c>
@@ -8298,7 +8674,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>413</v>
       </c>
@@ -8318,7 +8694,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>12</v>
       </c>
@@ -8332,7 +8708,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>11</v>
       </c>
@@ -8346,7 +8722,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>146</v>
       </c>
@@ -8366,7 +8742,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>141</v>
       </c>
@@ -8380,7 +8756,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>12</v>
       </c>
@@ -8394,7 +8770,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>421</v>
       </c>
@@ -8414,7 +8790,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>11</v>
       </c>
@@ -8428,7 +8804,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>426</v>
       </c>
@@ -8448,7 +8824,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>12</v>
       </c>
@@ -8462,7 +8838,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>11</v>
       </c>
@@ -8483,275 +8859,180 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCAE177D-2BD4-45CE-80F5-EF8578F1AF32}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BB4C721-7B7C-447E-A729-057D073DFFFE}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" activeCellId="1" sqref="A1:A9 F1:F9"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>372</v>
+        <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>373</v>
+        <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>2015</v>
-      </c>
-      <c r="B2">
         <v>3</v>
       </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>4</v>
-      </c>
-      <c r="E2">
-        <v>3</v>
-      </c>
-      <c r="F2" s="3">
-        <f>(D2-E2)/D2</f>
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2016</v>
-      </c>
-      <c r="B3">
-        <v>7</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
+        <v>433</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>307</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="9"/>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>431</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
+        <v>127</v>
+      </c>
+      <c r="D5" t="s">
+        <v>288</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="9"/>
+      <c r="C6" t="s">
+        <v>141</v>
+      </c>
+      <c r="D6" t="s">
+        <v>432</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="9" t="s">
+        <v>434</v>
+      </c>
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" t="s">
+        <v>56</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" t="s">
+        <v>435</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C10" t="s">
         <v>15</v>
       </c>
-      <c r="E3">
-        <v>6</v>
-      </c>
-      <c r="F3" s="3">
-        <f>(D3-E3)/D3</f>
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>2017</v>
-      </c>
-      <c r="B4">
-        <v>19</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>27</v>
-      </c>
-      <c r="E4">
-        <v>17</v>
-      </c>
-      <c r="F4" s="3">
-        <f>(D4-E4)/D4</f>
-        <v>0.37037037037037035</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>2018</v>
-      </c>
-      <c r="B5">
-        <v>20</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>43</v>
-      </c>
-      <c r="E5">
-        <v>17</v>
-      </c>
-      <c r="F5" s="3">
-        <f>(D5-E5)/D5</f>
-        <v>0.60465116279069764</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>2019</v>
-      </c>
-      <c r="B6">
-        <v>12</v>
-      </c>
-      <c r="C6">
-        <v>3</v>
-      </c>
-      <c r="D6">
-        <v>48</v>
-      </c>
-      <c r="E6">
-        <v>7</v>
-      </c>
-      <c r="F6" s="3">
-        <f>(D6-E6)/D6</f>
-        <v>0.85416666666666663</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>2020</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7" s="3" t="e">
-        <f t="shared" ref="F7:F9" si="0">(D7-E7)/D7</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>2021</v>
-      </c>
-      <c r="B8">
-        <v>13</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>17</v>
-      </c>
-      <c r="E8">
-        <v>12</v>
-      </c>
-      <c r="F8" s="3">
-        <f t="shared" si="0"/>
-        <v>0.29411764705882354</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>2022</v>
-      </c>
-      <c r="B9">
-        <v>12</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>19</v>
-      </c>
-      <c r="E9">
-        <v>12</v>
-      </c>
-      <c r="F9" s="3">
-        <f t="shared" si="0"/>
-        <v>0.36842105263157893</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" s="2">
-        <f>SUM(B2:B9)</f>
-        <v>86</v>
-      </c>
-      <c r="C10" s="2">
-        <f>SUM(C2:C9)</f>
-        <v>3</v>
-      </c>
-      <c r="D10" s="2">
-        <f>SUM(D2:D9)</f>
-        <v>173</v>
-      </c>
-      <c r="E10" s="2">
-        <f>SUM(E2:E9)</f>
-        <v>74</v>
-      </c>
-      <c r="F10" s="7">
-        <f>(D10-E10)/D10</f>
-        <v>0.5722543352601156</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="B11" s="2">
-        <f>AVERAGE(B2:B9)</f>
-        <v>10.75</v>
-      </c>
-      <c r="C11" s="2">
-        <f>AVERAGE(C2:C9)</f>
-        <v>0.375</v>
-      </c>
-      <c r="D11" s="2">
-        <f>AVERAGE(D2:D9)</f>
-        <v>21.625</v>
-      </c>
-      <c r="E11" s="2">
-        <f>AVERAGE(E2:E9)</f>
-        <v>9.25</v>
-      </c>
-      <c r="F11" s="7">
-        <f>(D11-E11)/D11</f>
-        <v>0.5722543352601156</v>
+      <c r="D10" t="s">
+        <v>436</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" t="s">
+        <v>437</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" t="s">
+        <v>438</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="F2:F9">
-    <cfRule type="iconSet" priority="39">
-      <iconSet iconSet="3Symbols2">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="33"/>
-        <cfvo type="percent" val="67"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="landscape" r:id="rId1"/>
+  <pageSetup scale="59" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Tennis/WTA Tour/Bianca Andreescu.xlsx
+++ b/Tennis/WTA Tour/Bianca Andreescu.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7480" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B2956A95-2C7B-4D83-9C5B-B85D94DC10E3}"/>
+  <xr:revisionPtr revIDLastSave="7500" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{82D14CDE-73EE-498A-82DF-9AB4CF81A2E3}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="6108" yWindow="3708" windowWidth="17280" windowHeight="8880" firstSheet="6" activeTab="9" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="6" activeTab="9" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2015" sheetId="22" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1279" uniqueCount="440">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1291" uniqueCount="444">
   <si>
     <t>ROUND</t>
   </si>
@@ -1364,6 +1364,18 @@
   </si>
   <si>
     <t>6-0 7-6(3)</t>
+  </si>
+  <si>
+    <t>ABU DHABI OPEN</t>
+  </si>
+  <si>
+    <t>Yulia Putintseva (KAZAKHSTAN)</t>
+  </si>
+  <si>
+    <t>7-6(2) 6-2</t>
+  </si>
+  <si>
+    <t>DUBAI TENNIS CHAMPIONSHIPS</t>
   </si>
 </sst>
 </file>
@@ -1808,7 +1820,7 @@
                   <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2333,7 +2345,7 @@
                   <c:v>0.36842105263157893</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2585,6 +2597,29 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:legendEntry>
+        <c:idx val="0"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
       <c:legendEntry>
         <c:idx val="2"/>
         <c:delete val="1"/>
@@ -3763,8 +3798,8 @@
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
-    <xdr:pos x="0" y="7620"/>
-    <xdr:ext cx="8564880" cy="5814060"/>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8564880" cy="5821680"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -3824,10 +3859,6 @@
     <xdr:clientData/>
   </xdr:absoluteAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4303,7 +4334,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" activeCellId="1" sqref="A1:A10 F1:F10"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4509,7 +4540,7 @@
         <v>2023</v>
       </c>
       <c r="B10">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -4518,11 +4549,11 @@
         <v>5</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F10" s="3">
         <f t="shared" si="0"/>
-        <v>0.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -4531,7 +4562,7 @@
       </c>
       <c r="B11" s="2">
         <f>SUM(B2:B10)</f>
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C11" s="2">
         <f>SUM(C2:C10)</f>
@@ -4543,11 +4574,11 @@
       </c>
       <c r="E11" s="2">
         <f>SUM(E2:E10)</f>
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F11" s="7">
         <f>(D11-E11)/D11</f>
-        <v>0.56741573033707871</v>
+        <v>0.5561797752808989</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -4556,7 +4587,7 @@
       </c>
       <c r="B12" s="2">
         <f>AVERAGE(B2:B10)</f>
-        <v>9.8888888888888893</v>
+        <v>10.111111111111111</v>
       </c>
       <c r="C12" s="2">
         <f>AVERAGE(C2:C10)</f>
@@ -4568,11 +4599,11 @@
       </c>
       <c r="E12" s="2">
         <f>AVERAGE(E2:E10)</f>
-        <v>8.5555555555555554</v>
+        <v>8.7777777777777786</v>
       </c>
       <c r="F12" s="7">
         <f>(D12-E12)/D12</f>
-        <v>0.56741573033707871</v>
+        <v>0.5561797752808989</v>
       </c>
     </row>
   </sheetData>
@@ -8863,15 +8894,15 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="A15" activeCellId="4" sqref="A2 A5 A8 A13 A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="30.109375" bestFit="1" customWidth="1"/>
@@ -9031,6 +9062,46 @@
         <v>438</v>
       </c>
     </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>440</v>
+      </c>
+      <c r="B13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" t="s">
+        <v>441</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>443</v>
+      </c>
+      <c r="B15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" t="s">
+        <v>141</v>
+      </c>
+      <c r="D15" t="s">
+        <v>411</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" t="s">
+        <v>104</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="59" orientation="landscape" r:id="rId1"/>

--- a/Tennis/WTA Tour/Bianca Andreescu.xlsx
+++ b/Tennis/WTA Tour/Bianca Andreescu.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7500" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{82D14CDE-73EE-498A-82DF-9AB4CF81A2E3}"/>
+  <xr:revisionPtr revIDLastSave="7533" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3A54A60C-BAE3-4439-BD8F-803430C54269}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="6" activeTab="9" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1291" uniqueCount="444">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1319" uniqueCount="449">
   <si>
     <t>ROUND</t>
   </si>
@@ -1376,6 +1376,21 @@
   </si>
   <si>
     <t>DUBAI TENNIS CHAMPIONSHIPS</t>
+  </si>
+  <si>
+    <t>Peyton Stearns (USA)</t>
+  </si>
+  <si>
+    <t>4-6 6-4 6-3</t>
+  </si>
+  <si>
+    <t>6-3 7-6(1)</t>
+  </si>
+  <si>
+    <t>Ekaterina Alexandrova (RUSSIA)</t>
+  </si>
+  <si>
+    <t>7-6(0) 0-2 RETIRED</t>
   </si>
 </sst>
 </file>
@@ -1718,7 +1733,7 @@
                   <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1820,7 +1835,7 @@
                   <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2345,7 +2360,7 @@
                   <c:v>0.36842105263157893</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>0.22222222222222221</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3861,6 +3876,10 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -4315,11 +4334,11 @@
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
+  <conditionalFormatting sqref="C10">
+    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
+  </conditionalFormatting>
   <conditionalFormatting sqref="C2:D2">
-    <cfRule type="duplicateValues" dxfId="4" priority="39"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C10">
-    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="39"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="59" orientation="landscape" r:id="rId1"/>
@@ -4540,20 +4559,20 @@
         <v>2023</v>
       </c>
       <c r="B10">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E10">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F10" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.22222222222222221</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -4562,7 +4581,7 @@
       </c>
       <c r="B11" s="2">
         <f>SUM(B2:B10)</f>
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C11" s="2">
         <f>SUM(C2:C10)</f>
@@ -4570,15 +4589,15 @@
       </c>
       <c r="D11" s="2">
         <f>SUM(D2:D10)</f>
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="E11" s="2">
         <f>SUM(E2:E10)</f>
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F11" s="7">
         <f>(D11-E11)/D11</f>
-        <v>0.5561797752808989</v>
+        <v>0.55494505494505497</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -4587,7 +4606,7 @@
       </c>
       <c r="B12" s="2">
         <f>AVERAGE(B2:B10)</f>
-        <v>10.111111111111111</v>
+        <v>10.333333333333334</v>
       </c>
       <c r="C12" s="2">
         <f>AVERAGE(C2:C10)</f>
@@ -4595,15 +4614,15 @@
       </c>
       <c r="D12" s="2">
         <f>AVERAGE(D2:D10)</f>
-        <v>19.777777777777779</v>
+        <v>20.222222222222221</v>
       </c>
       <c r="E12" s="2">
         <f>AVERAGE(E2:E10)</f>
-        <v>8.7777777777777786</v>
+        <v>9</v>
       </c>
       <c r="F12" s="7">
         <f>(D12-E12)/D12</f>
-        <v>0.5561797752808989</v>
+        <v>0.55494505494505497</v>
       </c>
     </row>
   </sheetData>
@@ -8329,8 +8348,8 @@
   </sheetPr>
   <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8894,10 +8913,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A15" activeCellId="4" sqref="A2 A5 A8 A13 A15"/>
+      <selection activeCell="E23" activeCellId="6" sqref="E3 E6 E11 E13 E15 E18 E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8907,7 +8926,7 @@
     <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="30.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -9102,6 +9121,102 @@
         <v>104</v>
       </c>
     </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>386</v>
+      </c>
+      <c r="B17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" t="s">
+        <v>141</v>
+      </c>
+      <c r="D17" t="s">
+        <v>444</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" t="s">
+        <v>398</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>308</v>
+      </c>
+      <c r="B20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" t="s">
+        <v>127</v>
+      </c>
+      <c r="D20" t="s">
+        <v>394</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C21" t="s">
+        <v>141</v>
+      </c>
+      <c r="D21" t="s">
+        <v>352</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C22" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" t="s">
+        <v>84</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F22" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C23" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" t="s">
+        <v>447</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F23" t="s">
+        <v>448</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="59" orientation="landscape" r:id="rId1"/>

--- a/Tennis/WTA Tour/Bianca Andreescu.xlsx
+++ b/Tennis/WTA Tour/Bianca Andreescu.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7533" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3A54A60C-BAE3-4439-BD8F-803430C54269}"/>
+  <xr:revisionPtr revIDLastSave="7544" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F57927C7-7913-45D5-B48A-7A71630FDF42}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="6" activeTab="9" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="10" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2015" sheetId="22" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1319" uniqueCount="449">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1319" uniqueCount="450">
   <si>
     <t>ROUND</t>
   </si>
@@ -1216,9 +1216,6 @@
     <t>6-1 3-6 6-2</t>
   </si>
   <si>
-    <t>MUTUA MADRID OPEN</t>
-  </si>
-  <si>
     <t>Danielle Collins (USA)</t>
   </si>
   <si>
@@ -1391,6 +1388,12 @@
   </si>
   <si>
     <t>7-6(0) 0-2 RETIRED</t>
+  </si>
+  <si>
+    <t>MADRID OPEN</t>
+  </si>
+  <si>
+    <t>Alison Riske-Amritraj (USA)</t>
   </si>
 </sst>
 </file>
@@ -3790,7 +3793,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{7B75688D-5400-4B88-AFA9-47E358D66687}">
   <sheetPr/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -3874,10 +3877,6 @@
     <xdr:clientData/>
   </xdr:absoluteAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4183,17 +4182,17 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -4294,7 +4293,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>41</v>
+        <v>412</v>
       </c>
       <c r="B8" t="s">
         <v>19</v>
@@ -4352,8 +4351,8 @@
   </sheetPr>
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4648,17 +4647,17 @@
   <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -4717,7 +4716,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>41</v>
+        <v>412</v>
       </c>
       <c r="B5" t="s">
         <v>19</v>
@@ -5040,18 +5039,18 @@
   </sheetPr>
   <dimension ref="A1:F63"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="39.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -5818,18 +5817,18 @@
   </sheetPr>
   <dimension ref="A1:F81"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="A58" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="39.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -6837,18 +6836,18 @@
   </sheetPr>
   <dimension ref="A1:F68"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D48" sqref="D48"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -7433,7 +7432,7 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B47" t="s">
         <v>19</v>
@@ -7803,17 +7802,17 @@
   <dimension ref="A1:F43"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -8166,7 +8165,7 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B30" t="s">
         <v>19</v>
@@ -8348,18 +8347,18 @@
   </sheetPr>
   <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -8418,7 +8417,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>390</v>
+        <v>448</v>
       </c>
       <c r="B5" t="s">
         <v>92</v>
@@ -8427,13 +8426,13 @@
         <v>141</v>
       </c>
       <c r="D5" t="s">
-        <v>383</v>
+        <v>449</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -8441,7 +8440,7 @@
         <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>13</v>
@@ -8466,7 +8465,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B9" t="s">
         <v>92</v>
@@ -8475,13 +8474,13 @@
         <v>141</v>
       </c>
       <c r="D9" t="s">
+        <v>393</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" t="s">
         <v>394</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -8489,7 +8488,7 @@
         <v>12</v>
       </c>
       <c r="D10" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>13</v>
@@ -8503,7 +8502,7 @@
         <v>11</v>
       </c>
       <c r="D11" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>13</v>
@@ -8517,13 +8516,13 @@
         <v>15</v>
       </c>
       <c r="D12" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F12" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -8543,7 +8542,7 @@
         <v>13</v>
       </c>
       <c r="F14" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -8562,7 +8561,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B17" t="s">
         <v>114</v>
@@ -8571,13 +8570,13 @@
         <v>12</v>
       </c>
       <c r="D17" t="s">
+        <v>401</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" t="s">
         <v>402</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F17" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -8591,12 +8590,12 @@
         <v>14</v>
       </c>
       <c r="F18" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B20" t="s">
         <v>114</v>
@@ -8611,7 +8610,7 @@
         <v>13</v>
       </c>
       <c r="F20" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -8633,7 +8632,7 @@
         <v>15</v>
       </c>
       <c r="D22" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>13</v>
@@ -8661,13 +8660,13 @@
         <v>17</v>
       </c>
       <c r="D24" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F24" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -8681,7 +8680,7 @@
         <v>127</v>
       </c>
       <c r="D26" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>13</v>
@@ -8695,7 +8694,7 @@
         <v>141</v>
       </c>
       <c r="D27" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>14</v>
@@ -8706,7 +8705,7 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B29" t="s">
         <v>19</v>
@@ -8726,7 +8725,7 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B31" t="s">
         <v>19</v>
@@ -8741,7 +8740,7 @@
         <v>13</v>
       </c>
       <c r="F31" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
@@ -8755,7 +8754,7 @@
         <v>13</v>
       </c>
       <c r="F32" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
@@ -8763,13 +8762,13 @@
         <v>11</v>
       </c>
       <c r="D33" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E33" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F33" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
@@ -8783,13 +8782,13 @@
         <v>127</v>
       </c>
       <c r="D35" t="s">
+        <v>417</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F35" t="s">
         <v>418</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F35" t="s">
-        <v>419</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
@@ -8797,7 +8796,7 @@
         <v>141</v>
       </c>
       <c r="D36" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E36" s="4" t="s">
         <v>13</v>
@@ -8811,7 +8810,7 @@
         <v>12</v>
       </c>
       <c r="D37" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E37" s="5" t="s">
         <v>14</v>
@@ -8822,7 +8821,7 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B39" t="s">
         <v>19</v>
@@ -8831,13 +8830,13 @@
         <v>12</v>
       </c>
       <c r="D39" t="s">
+        <v>421</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F39" t="s">
         <v>422</v>
-      </c>
-      <c r="E39" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F39" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
@@ -8845,18 +8844,18 @@
         <v>11</v>
       </c>
       <c r="D40" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E40" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F40" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B42" t="s">
         <v>19</v>
@@ -8879,13 +8878,13 @@
         <v>12</v>
       </c>
       <c r="D43" t="s">
+        <v>426</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F43" t="s">
         <v>427</v>
-      </c>
-      <c r="E43" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F43" t="s">
-        <v>428</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
@@ -8916,7 +8915,7 @@
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E23" activeCellId="6" sqref="E3 E6 E11 E13 E15 E18 E23"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8951,7 +8950,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B2" t="s">
         <v>19</v>
@@ -8966,7 +8965,7 @@
         <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -8975,7 +8974,7 @@
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>14</v>
@@ -9010,18 +9009,18 @@
         <v>141</v>
       </c>
       <c r="D6" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F6" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B8" t="s">
         <v>19</v>
@@ -9044,7 +9043,7 @@
         <v>11</v>
       </c>
       <c r="D9" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>13</v>
@@ -9058,13 +9057,13 @@
         <v>15</v>
       </c>
       <c r="D10" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F10" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -9072,18 +9071,18 @@
         <v>16</v>
       </c>
       <c r="D11" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F11" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B13" t="s">
         <v>19</v>
@@ -9092,18 +9091,18 @@
         <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F13" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B15" t="s">
         <v>19</v>
@@ -9112,7 +9111,7 @@
         <v>141</v>
       </c>
       <c r="D15" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>14</v>
@@ -9132,13 +9131,13 @@
         <v>141</v>
       </c>
       <c r="D17" t="s">
+        <v>443</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" t="s">
         <v>444</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F17" t="s">
-        <v>445</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -9146,13 +9145,13 @@
         <v>12</v>
       </c>
       <c r="D18" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F18" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -9166,7 +9165,7 @@
         <v>127</v>
       </c>
       <c r="D20" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>13</v>
@@ -9208,13 +9207,13 @@
         <v>11</v>
       </c>
       <c r="D23" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F23" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/WTA Tour/Bianca Andreescu.xlsx
+++ b/Tennis/WTA Tour/Bianca Andreescu.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7544" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F57927C7-7913-45D5-B48A-7A71630FDF42}"/>
+  <xr:revisionPtr revIDLastSave="7552" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0B4E4395-27C3-4F17-A275-6C608ACB50B4}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="10" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="9" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2015" sheetId="22" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1319" uniqueCount="450">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1325" uniqueCount="452">
   <si>
     <t>ROUND</t>
   </si>
@@ -1394,6 +1394,12 @@
   </si>
   <si>
     <t>Alison Riske-Amritraj (USA)</t>
+  </si>
+  <si>
+    <t>3-6 7-6(5) 6-2</t>
+  </si>
+  <si>
+    <t>Wang Xiyu (CHINA)</t>
   </si>
 </sst>
 </file>
@@ -1838,7 +1844,7 @@
                   <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2363,7 +2369,7 @@
                   <c:v>0.36842105263157893</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.22222222222222221</c:v>
+                  <c:v>0.1111111111111111</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3793,7 +3799,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{7B75688D-5400-4B88-AFA9-47E358D66687}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -3877,6 +3883,10 @@
     <xdr:clientData/>
   </xdr:absoluteAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4351,8 +4361,8 @@
   </sheetPr>
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4558,7 +4568,7 @@
         <v>2023</v>
       </c>
       <c r="B10">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -4567,11 +4577,11 @@
         <v>9</v>
       </c>
       <c r="E10">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F10" s="3">
         <f t="shared" si="0"/>
-        <v>0.22222222222222221</v>
+        <v>0.1111111111111111</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -4580,7 +4590,7 @@
       </c>
       <c r="B11" s="2">
         <f>SUM(B2:B10)</f>
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C11" s="2">
         <f>SUM(C2:C10)</f>
@@ -4592,11 +4602,11 @@
       </c>
       <c r="E11" s="2">
         <f>SUM(E2:E10)</f>
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F11" s="7">
         <f>(D11-E11)/D11</f>
-        <v>0.55494505494505497</v>
+        <v>0.5494505494505495</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -4605,7 +4615,7 @@
       </c>
       <c r="B12" s="2">
         <f>AVERAGE(B2:B10)</f>
-        <v>10.333333333333334</v>
+        <v>10.444444444444445</v>
       </c>
       <c r="C12" s="2">
         <f>AVERAGE(C2:C10)</f>
@@ -4617,11 +4627,11 @@
       </c>
       <c r="E12" s="2">
         <f>AVERAGE(E2:E10)</f>
-        <v>9</v>
+        <v>9.1111111111111107</v>
       </c>
       <c r="F12" s="7">
         <f>(D12-E12)/D12</f>
-        <v>0.55494505494505497</v>
+        <v>0.5494505494505495</v>
       </c>
     </row>
   </sheetData>
@@ -8912,10 +8922,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="A25" activeCellId="7" sqref="A2 A5 A8 A13 A15 A17 A20 A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9216,6 +9226,26 @@
         <v>447</v>
       </c>
     </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>448</v>
+      </c>
+      <c r="B25" t="s">
+        <v>92</v>
+      </c>
+      <c r="C25" t="s">
+        <v>141</v>
+      </c>
+      <c r="D25" t="s">
+        <v>451</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F25" t="s">
+        <v>450</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="59" orientation="landscape" r:id="rId1"/>

--- a/Tennis/WTA Tour/Bianca Andreescu.xlsx
+++ b/Tennis/WTA Tour/Bianca Andreescu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7552" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0B4E4395-27C3-4F17-A275-6C608ACB50B4}"/>
+  <xr:revisionPtr revIDLastSave="7561" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F98D3C73-912C-4333-80EB-B3A6367FDB7A}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="9" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1325" uniqueCount="452">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1331" uniqueCount="453">
   <si>
     <t>ROUND</t>
   </si>
@@ -1400,6 +1400,9 @@
   </si>
   <si>
     <t>Wang Xiyu (CHINA)</t>
+  </si>
+  <si>
+    <t>Markéta Vondroušová (CZECH REPUBLIC)</t>
   </si>
 </sst>
 </file>
@@ -1844,7 +1847,7 @@
                   <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2369,7 +2372,7 @@
                   <c:v>0.36842105263157893</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.1111111111111111</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4568,7 +4571,7 @@
         <v>2023</v>
       </c>
       <c r="B10">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -4577,11 +4580,11 @@
         <v>9</v>
       </c>
       <c r="E10">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F10" s="3">
         <f t="shared" si="0"/>
-        <v>0.1111111111111111</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -4590,7 +4593,7 @@
       </c>
       <c r="B11" s="2">
         <f>SUM(B2:B10)</f>
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C11" s="2">
         <f>SUM(C2:C10)</f>
@@ -4602,11 +4605,11 @@
       </c>
       <c r="E11" s="2">
         <f>SUM(E2:E10)</f>
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F11" s="7">
         <f>(D11-E11)/D11</f>
-        <v>0.5494505494505495</v>
+        <v>0.54395604395604391</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -4615,7 +4618,7 @@
       </c>
       <c r="B12" s="2">
         <f>AVERAGE(B2:B10)</f>
-        <v>10.444444444444445</v>
+        <v>10.555555555555555</v>
       </c>
       <c r="C12" s="2">
         <f>AVERAGE(C2:C10)</f>
@@ -4627,11 +4630,11 @@
       </c>
       <c r="E12" s="2">
         <f>AVERAGE(E2:E10)</f>
-        <v>9.1111111111111107</v>
+        <v>9.2222222222222214</v>
       </c>
       <c r="F12" s="7">
         <f>(D12-E12)/D12</f>
-        <v>0.5494505494505495</v>
+        <v>0.54395604395604402</v>
       </c>
     </row>
   </sheetData>
@@ -8922,10 +8925,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A25" activeCellId="7" sqref="A2 A5 A8 A13 A15 A17 A20 A25"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A27" activeCellId="8" sqref="A2 A5 A8 A13 A15 A17 A20 A25 A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8933,7 +8936,7 @@
     <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.21875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.44140625" bestFit="1" customWidth="1"/>
   </cols>
@@ -9246,6 +9249,26 @@
         <v>450</v>
       </c>
     </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>392</v>
+      </c>
+      <c r="B27" t="s">
+        <v>92</v>
+      </c>
+      <c r="C27" t="s">
+        <v>141</v>
+      </c>
+      <c r="D27" t="s">
+        <v>452</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F27" t="s">
+        <v>189</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="59" orientation="landscape" r:id="rId1"/>

--- a/Tennis/WTA Tour/Bianca Andreescu.xlsx
+++ b/Tennis/WTA Tour/Bianca Andreescu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7561" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F98D3C73-912C-4333-80EB-B3A6367FDB7A}"/>
+  <xr:revisionPtr revIDLastSave="7575" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B61C86AD-B18A-428D-A235-60568912AC0A}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="9" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1331" uniqueCount="453">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1345" uniqueCount="455">
   <si>
     <t>ROUND</t>
   </si>
@@ -1403,6 +1403,12 @@
   </si>
   <si>
     <t>Markéta Vondroušová (CZECH REPUBLIC)</t>
+  </si>
+  <si>
+    <t>Victória Azárenka (BELARUS)</t>
+  </si>
+  <si>
+    <t>2-6 6-3 6-4</t>
   </si>
 </sst>
 </file>
@@ -1745,7 +1751,7 @@
                   <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1847,7 +1853,7 @@
                   <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2372,7 +2378,7 @@
                   <c:v>0.36842105263157893</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>9.0909090909090912E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4370,12 +4376,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -4571,20 +4577,20 @@
         <v>2023</v>
       </c>
       <c r="B10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F10" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>9.0909090909090912E-2</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -4593,7 +4599,7 @@
       </c>
       <c r="B11" s="2">
         <f>SUM(B2:B10)</f>
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C11" s="2">
         <f>SUM(C2:C10)</f>
@@ -4601,15 +4607,15 @@
       </c>
       <c r="D11" s="2">
         <f>SUM(D2:D10)</f>
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="E11" s="2">
         <f>SUM(E2:E10)</f>
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F11" s="7">
         <f>(D11-E11)/D11</f>
-        <v>0.54395604395604391</v>
+        <v>0.54347826086956519</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -4618,7 +4624,7 @@
       </c>
       <c r="B12" s="2">
         <f>AVERAGE(B2:B10)</f>
-        <v>10.555555555555555</v>
+        <v>10.666666666666666</v>
       </c>
       <c r="C12" s="2">
         <f>AVERAGE(C2:C10)</f>
@@ -4626,15 +4632,15 @@
       </c>
       <c r="D12" s="2">
         <f>AVERAGE(D2:D10)</f>
-        <v>20.222222222222221</v>
+        <v>20.444444444444443</v>
       </c>
       <c r="E12" s="2">
         <f>AVERAGE(E2:E10)</f>
-        <v>9.2222222222222214</v>
+        <v>9.3333333333333339</v>
       </c>
       <c r="F12" s="7">
         <f>(D12-E12)/D12</f>
-        <v>0.54395604395604402</v>
+        <v>0.54347826086956519</v>
       </c>
     </row>
   </sheetData>
@@ -8925,10 +8931,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A27" activeCellId="8" sqref="A2 A5 A8 A13 A15 A17 A20 A25 A27"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E31" activeCellId="9" sqref="E3 E6 E11 E13 E15 E18 E23 E25 E27 E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9269,6 +9275,54 @@
         <v>189</v>
       </c>
     </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>110</v>
+      </c>
+      <c r="B29" t="s">
+        <v>92</v>
+      </c>
+      <c r="C29" t="s">
+        <v>127</v>
+      </c>
+      <c r="D29" t="s">
+        <v>453</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F29" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C30" t="s">
+        <v>141</v>
+      </c>
+      <c r="D30" t="s">
+        <v>443</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F30" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C31" t="s">
+        <v>12</v>
+      </c>
+      <c r="D31" t="s">
+        <v>436</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F31" t="s">
+        <v>98</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="59" orientation="landscape" r:id="rId1"/>

--- a/Tennis/WTA Tour/Bianca Andreescu.xlsx
+++ b/Tennis/WTA Tour/Bianca Andreescu.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7575" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B61C86AD-B18A-428D-A235-60568912AC0A}"/>
+  <xr:revisionPtr revIDLastSave="7586" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A0B05C3D-4051-4BB1-89F0-CD94517E6F1E}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="9" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1345" uniqueCount="455">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1355" uniqueCount="459">
   <si>
     <t>ROUND</t>
   </si>
@@ -1409,6 +1409,18 @@
   </si>
   <si>
     <t>2-6 6-3 6-4</t>
+  </si>
+  <si>
+    <t>LIBEMA OPEN</t>
+  </si>
+  <si>
+    <t>Zeynep Sonmez (TURKEY)</t>
+  </si>
+  <si>
+    <t>Viktória Hrunčáková (SLOVAKIA)</t>
+  </si>
+  <si>
+    <t>7-6(6) 6-3</t>
   </si>
 </sst>
 </file>
@@ -1751,7 +1763,7 @@
                   <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>11</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1853,7 +1865,7 @@
                   <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>10</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2378,7 +2390,7 @@
                   <c:v>0.36842105263157893</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.0909090909090912E-2</c:v>
+                  <c:v>8.3333333333333329E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4577,20 +4589,20 @@
         <v>2023</v>
       </c>
       <c r="B10">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
+        <v>12</v>
+      </c>
+      <c r="E10">
         <v>11</v>
-      </c>
-      <c r="E10">
-        <v>10</v>
       </c>
       <c r="F10" s="3">
         <f t="shared" si="0"/>
-        <v>9.0909090909090912E-2</v>
+        <v>8.3333333333333329E-2</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -4599,7 +4611,7 @@
       </c>
       <c r="B11" s="2">
         <f>SUM(B2:B10)</f>
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C11" s="2">
         <f>SUM(C2:C10)</f>
@@ -4607,15 +4619,15 @@
       </c>
       <c r="D11" s="2">
         <f>SUM(D2:D10)</f>
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E11" s="2">
         <f>SUM(E2:E10)</f>
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F11" s="7">
         <f>(D11-E11)/D11</f>
-        <v>0.54347826086956519</v>
+        <v>0.54054054054054057</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -4624,7 +4636,7 @@
       </c>
       <c r="B12" s="2">
         <f>AVERAGE(B2:B10)</f>
-        <v>10.666666666666666</v>
+        <v>10.777777777777779</v>
       </c>
       <c r="C12" s="2">
         <f>AVERAGE(C2:C10)</f>
@@ -4632,15 +4644,15 @@
       </c>
       <c r="D12" s="2">
         <f>AVERAGE(D2:D10)</f>
-        <v>20.444444444444443</v>
+        <v>20.555555555555557</v>
       </c>
       <c r="E12" s="2">
         <f>AVERAGE(E2:E10)</f>
-        <v>9.3333333333333339</v>
+        <v>9.4444444444444446</v>
       </c>
       <c r="F12" s="7">
         <f>(D12-E12)/D12</f>
-        <v>0.54347826086956519</v>
+        <v>0.54054054054054057</v>
       </c>
     </row>
   </sheetData>
@@ -8931,10 +8943,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E31" activeCellId="9" sqref="E3 E6 E11 E13 E15 E18 E23 E25 E27 E31"/>
+      <selection activeCell="A33" activeCellId="10" sqref="A2 A5 A8 A13 A15 A17 A20 A25 A27 A29 A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9323,6 +9335,40 @@
         <v>98</v>
       </c>
     </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>455</v>
+      </c>
+      <c r="B33" t="s">
+        <v>114</v>
+      </c>
+      <c r="C33" t="s">
+        <v>12</v>
+      </c>
+      <c r="D33" t="s">
+        <v>456</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F33" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C34" t="s">
+        <v>11</v>
+      </c>
+      <c r="D34" t="s">
+        <v>457</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F34" t="s">
+        <v>458</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="59" orientation="landscape" r:id="rId1"/>

--- a/Tennis/WTA Tour/Bianca Andreescu.xlsx
+++ b/Tennis/WTA Tour/Bianca Andreescu.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7586" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A0B05C3D-4051-4BB1-89F0-CD94517E6F1E}"/>
+  <xr:revisionPtr revIDLastSave="7593" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3BD616B2-2CBC-48B1-837C-DADB386D17C5}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="9" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1355" uniqueCount="459">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1361" uniqueCount="460">
   <si>
     <t>ROUND</t>
   </si>
@@ -1421,6 +1421,9 @@
   </si>
   <si>
     <t>7-6(6) 6-3</t>
+  </si>
+  <si>
+    <t>7-6(0) 7-5</t>
   </si>
 </sst>
 </file>
@@ -1865,7 +1868,7 @@
                   <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>11</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2390,7 +2393,7 @@
                   <c:v>0.36842105263157893</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.3333333333333329E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4589,7 +4592,7 @@
         <v>2023</v>
       </c>
       <c r="B10">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -4598,11 +4601,11 @@
         <v>12</v>
       </c>
       <c r="E10">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" s="3">
         <f t="shared" si="0"/>
-        <v>8.3333333333333329E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -4611,7 +4614,7 @@
       </c>
       <c r="B11" s="2">
         <f>SUM(B2:B10)</f>
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C11" s="2">
         <f>SUM(C2:C10)</f>
@@ -4623,11 +4626,11 @@
       </c>
       <c r="E11" s="2">
         <f>SUM(E2:E10)</f>
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F11" s="7">
         <f>(D11-E11)/D11</f>
-        <v>0.54054054054054057</v>
+        <v>0.53513513513513511</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -4636,7 +4639,7 @@
       </c>
       <c r="B12" s="2">
         <f>AVERAGE(B2:B10)</f>
-        <v>10.777777777777779</v>
+        <v>10.888888888888889</v>
       </c>
       <c r="C12" s="2">
         <f>AVERAGE(C2:C10)</f>
@@ -4648,11 +4651,11 @@
       </c>
       <c r="E12" s="2">
         <f>AVERAGE(E2:E10)</f>
-        <v>9.4444444444444446</v>
+        <v>9.5555555555555554</v>
       </c>
       <c r="F12" s="7">
         <f>(D12-E12)/D12</f>
-        <v>0.54054054054054057</v>
+        <v>0.53513513513513522</v>
       </c>
     </row>
   </sheetData>
@@ -7832,8 +7835,8 @@
   </sheetPr>
   <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23:B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8379,7 +8382,7 @@
   <dimension ref="A1:F44"/>
   <sheetViews>
     <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8943,10 +8946,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F34"/>
+  <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A33" activeCellId="10" sqref="A2 A5 A8 A13 A15 A17 A20 A25 A27 A29 A33"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A36" activeCellId="11" sqref="A2 A5 A8 A13 A15 A17 A20 A25 A27 A29 A33 A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9369,6 +9372,26 @@
         <v>458</v>
       </c>
     </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>360</v>
+      </c>
+      <c r="B36" t="s">
+        <v>114</v>
+      </c>
+      <c r="C36" t="s">
+        <v>12</v>
+      </c>
+      <c r="D36" t="s">
+        <v>452</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F36" t="s">
+        <v>459</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="59" orientation="landscape" r:id="rId1"/>

--- a/Tennis/WTA Tour/Bianca Andreescu.xlsx
+++ b/Tennis/WTA Tour/Bianca Andreescu.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7593" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3BD616B2-2CBC-48B1-837C-DADB386D17C5}"/>
+  <xr:revisionPtr revIDLastSave="7602" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FCACF3B1-7A7E-4ADF-844E-594BBB58B273}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="9" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1361" uniqueCount="460">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1371" uniqueCount="463">
   <si>
     <t>ROUND</t>
   </si>
@@ -1424,6 +1424,15 @@
   </si>
   <si>
     <t>7-6(0) 7-5</t>
+  </si>
+  <si>
+    <t>6-2 3-6 7-5</t>
+  </si>
+  <si>
+    <t>Sonay Kartal (GREAT BRITAIN)</t>
+  </si>
+  <si>
+    <t>Rebeka Masarova (SPAIN)</t>
   </si>
 </sst>
 </file>
@@ -1766,7 +1775,7 @@
                   <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>12</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1868,7 +1877,7 @@
                   <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>12</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4592,16 +4601,16 @@
         <v>2023</v>
       </c>
       <c r="B10">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E10">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F10" s="3">
         <f t="shared" si="0"/>
@@ -4614,7 +4623,7 @@
       </c>
       <c r="B11" s="2">
         <f>SUM(B2:B10)</f>
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C11" s="2">
         <f>SUM(C2:C10)</f>
@@ -4622,15 +4631,15 @@
       </c>
       <c r="D11" s="2">
         <f>SUM(D2:D10)</f>
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E11" s="2">
         <f>SUM(E2:E10)</f>
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F11" s="7">
         <f>(D11-E11)/D11</f>
-        <v>0.53513513513513511</v>
+        <v>0.532258064516129</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -4639,7 +4648,7 @@
       </c>
       <c r="B12" s="2">
         <f>AVERAGE(B2:B10)</f>
-        <v>10.888888888888889</v>
+        <v>11</v>
       </c>
       <c r="C12" s="2">
         <f>AVERAGE(C2:C10)</f>
@@ -4647,15 +4656,15 @@
       </c>
       <c r="D12" s="2">
         <f>AVERAGE(D2:D10)</f>
-        <v>20.555555555555557</v>
+        <v>20.666666666666668</v>
       </c>
       <c r="E12" s="2">
         <f>AVERAGE(E2:E10)</f>
-        <v>9.5555555555555554</v>
+        <v>9.6666666666666661</v>
       </c>
       <c r="F12" s="7">
         <f>(D12-E12)/D12</f>
-        <v>0.53513513513513522</v>
+        <v>0.53225806451612911</v>
       </c>
     </row>
   </sheetData>
@@ -8381,8 +8390,8 @@
   </sheetPr>
   <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20:C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8946,10 +8955,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F36"/>
+  <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A36" activeCellId="11" sqref="A2 A5 A8 A13 A15 A17 A20 A25 A27 A29 A33 A36"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E39" activeCellId="12" sqref="E3 E6 E11 E13 E15 E18 E23 E25 E27 E31 E34 E36 E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9392,6 +9401,40 @@
         <v>459</v>
       </c>
     </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>404</v>
+      </c>
+      <c r="B38" t="s">
+        <v>114</v>
+      </c>
+      <c r="C38" t="s">
+        <v>12</v>
+      </c>
+      <c r="D38" t="s">
+        <v>461</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F38" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C39" t="s">
+        <v>11</v>
+      </c>
+      <c r="D39" t="s">
+        <v>462</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F39" t="s">
+        <v>134</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="59" orientation="landscape" r:id="rId1"/>

--- a/Tennis/WTA Tour/Bianca Andreescu.xlsx
+++ b/Tennis/WTA Tour/Bianca Andreescu.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7353" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{22AFE588-212B-4FB7-A2F6-DDB97E18F48A}"/>
+  <xr:revisionPtr revIDLastSave="7561" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F98D3C73-912C-4333-80EB-B3A6367FDB7A}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="4" activeTab="8" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="9" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2015" sheetId="22" r:id="rId1"/>
@@ -21,9 +21,10 @@
     <sheet name="2020" sheetId="27" r:id="rId6"/>
     <sheet name="2021" sheetId="28" r:id="rId7"/>
     <sheet name="2022" sheetId="31" r:id="rId8"/>
-    <sheet name="YTD Stats" sheetId="1" r:id="rId9"/>
-    <sheet name="YTD Wins-Losses" sheetId="29" r:id="rId10"/>
-    <sheet name="Winning Percentile Range" sheetId="30" r:id="rId11"/>
+    <sheet name="2023" sheetId="34" r:id="rId9"/>
+    <sheet name="YTD Stats" sheetId="1" r:id="rId10"/>
+    <sheet name="Wins-Losses" sheetId="35" r:id="rId11"/>
+    <sheet name="Winning Percentile Range" sheetId="36" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1211" uniqueCount="421">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1331" uniqueCount="453">
   <si>
     <t>ROUND</t>
   </si>
@@ -1215,9 +1216,6 @@
     <t>6-1 3-6 6-2</t>
   </si>
   <si>
-    <t>MUTUA MADRID OPEN</t>
-  </si>
-  <si>
     <t>Danielle Collins (USA)</t>
   </si>
   <si>
@@ -1306,6 +1304,105 @@
   </si>
   <si>
     <t>Beatriz Haddad Maia (BRAZIL)</t>
+  </si>
+  <si>
+    <t>SAN DIEGO OPEN</t>
+  </si>
+  <si>
+    <t>Liudmila Samsonova (RUSSIA)</t>
+  </si>
+  <si>
+    <t>7-6(1) 4-6 6-2</t>
+  </si>
+  <si>
+    <t>Coco Gauff (USA)</t>
+  </si>
+  <si>
+    <t>6-4 4-6 6-3</t>
+  </si>
+  <si>
+    <t>GUADALAJARA OPEN</t>
+  </si>
+  <si>
+    <t>Petra Kvitová (CZECH REPUBLIC)</t>
+  </si>
+  <si>
+    <t>3-6 6-2 6-0</t>
+  </si>
+  <si>
+    <t>2-6 7-6(7) 6-4</t>
+  </si>
+  <si>
+    <t>0-6 7-6(3) 6-1</t>
+  </si>
+  <si>
+    <t>Veronika Kudermetova (RUSSIA)</t>
+  </si>
+  <si>
+    <t>Cristina Bucșa (SPAIN)</t>
+  </si>
+  <si>
+    <t>ADELAIDE INTERNATIONAL 1</t>
+  </si>
+  <si>
+    <t>THAILAND OPEN</t>
+  </si>
+  <si>
+    <t>Anastasia Zakharova (RUSSIA)</t>
+  </si>
+  <si>
+    <t>Marta Kostyuk (UKRAINE)</t>
+  </si>
+  <si>
+    <t>Lesia Tsurenko (UKRAINE)</t>
+  </si>
+  <si>
+    <t>7-5 4-0 RETIRED</t>
+  </si>
+  <si>
+    <t>6-0 7-6(3)</t>
+  </si>
+  <si>
+    <t>ABU DHABI OPEN</t>
+  </si>
+  <si>
+    <t>Yulia Putintseva (KAZAKHSTAN)</t>
+  </si>
+  <si>
+    <t>7-6(2) 6-2</t>
+  </si>
+  <si>
+    <t>DUBAI TENNIS CHAMPIONSHIPS</t>
+  </si>
+  <si>
+    <t>Peyton Stearns (USA)</t>
+  </si>
+  <si>
+    <t>4-6 6-4 6-3</t>
+  </si>
+  <si>
+    <t>6-3 7-6(1)</t>
+  </si>
+  <si>
+    <t>Ekaterina Alexandrova (RUSSIA)</t>
+  </si>
+  <si>
+    <t>7-6(0) 0-2 RETIRED</t>
+  </si>
+  <si>
+    <t>MADRID OPEN</t>
+  </si>
+  <si>
+    <t>Alison Riske-Amritraj (USA)</t>
+  </si>
+  <si>
+    <t>3-6 7-6(5) 6-2</t>
+  </si>
+  <si>
+    <t>Wang Xiyu (CHINA)</t>
+  </si>
+  <si>
+    <t>Markéta Vondroušová (CZECH REPUBLIC)</t>
   </si>
 </sst>
 </file>
@@ -1394,7 +1491,7 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1404,6 +1501,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="3"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -1510,11 +1608,11 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" b="1"/>
-              <a:t>Bianca</a:t>
+              <a:t>Bianca Andreescu (CANADA):</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" b="1" baseline="0"/>
-              <a:t> Andreescu (CANADA): YTD Wins-Losses</a:t>
+              <a:t> Wins-Losses</a:t>
             </a:r>
             <a:endParaRPr lang="en-US" b="1"/>
           </a:p>
@@ -1582,10 +1680,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'YTD Stats'!$A$2:$A$8</c:f>
+              <c:f>'YTD Stats'!$A$2:$A$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>2015</c:v>
                 </c:pt>
@@ -1607,15 +1705,21 @@
                 <c:pt idx="6">
                   <c:v>2021</c:v>
                 </c:pt>
+                <c:pt idx="7">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2023</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'YTD Stats'!$D$2:$D$8</c:f>
+              <c:f>'YTD Stats'!$D$2:$D$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>4</c:v>
                 </c:pt>
@@ -1637,12 +1741,18 @@
                 <c:pt idx="6">
                   <c:v>17</c:v>
                 </c:pt>
+                <c:pt idx="7">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-96B3-4FF8-BDAB-541A9B5AE252}"/>
+              <c16:uniqueId val="{00000000-C493-40C6-96BC-01033B6F3230}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1672,10 +1782,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'YTD Stats'!$A$2:$A$8</c:f>
+              <c:f>'YTD Stats'!$A$2:$A$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>2015</c:v>
                 </c:pt>
@@ -1697,15 +1807,21 @@
                 <c:pt idx="6">
                   <c:v>2021</c:v>
                 </c:pt>
+                <c:pt idx="7">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2023</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'YTD Stats'!$E$2:$E$8</c:f>
+              <c:f>'YTD Stats'!$E$2:$E$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>3</c:v>
                 </c:pt>
@@ -1727,12 +1843,18 @@
                 <c:pt idx="6">
                   <c:v>12</c:v>
                 </c:pt>
+                <c:pt idx="7">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-96B3-4FF8-BDAB-541A9B5AE252}"/>
+              <c16:uniqueId val="{00000001-C493-40C6-96BC-01033B6F3230}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1746,11 +1868,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="2048266703"/>
-        <c:axId val="2048246735"/>
+        <c:axId val="771915183"/>
+        <c:axId val="290567999"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2048266703"/>
+        <c:axId val="771915183"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1848,7 +1970,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2048246735"/>
+        <c:crossAx val="290567999"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1856,7 +1978,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2048246735"/>
+        <c:axId val="290567999"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1962,7 +2084,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2048266703"/>
+        <c:crossAx val="771915183"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2072,11 +2194,11 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" b="1"/>
-              <a:t>Bianca Andreescu</a:t>
+              <a:t>Bianca Andreescu (CANADA): Winning</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" b="1" baseline="0"/>
-              <a:t> (CANADA): Winning Percentile Range</a:t>
+              <a:t> Percentile Range</a:t>
             </a:r>
             <a:endParaRPr lang="en-US" b="1"/>
           </a:p>
@@ -2159,6 +2281,20 @@
             <c:spPr>
               <a:ln w="19050" cap="rnd">
                 <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
                   <a:srgbClr val="00B050"/>
                 </a:solidFill>
                 <a:prstDash val="sysDot"/>
@@ -2166,16 +2302,15 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="linear"/>
-            <c:forward val="1"/>
             <c:dispRSqr val="0"/>
             <c:dispEq val="0"/>
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>'YTD Stats'!$A$2:$A$8</c:f>
+              <c:f>'YTD Stats'!$A$2:$A$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>2015</c:v>
                 </c:pt>
@@ -2197,15 +2332,21 @@
                 <c:pt idx="6">
                   <c:v>2021</c:v>
                 </c:pt>
+                <c:pt idx="7">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2023</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'YTD Stats'!$F$2:$F$8</c:f>
+              <c:f>'YTD Stats'!$F$2:$F$10</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>0.25</c:v>
                 </c:pt>
@@ -2227,13 +2368,19 @@
                 <c:pt idx="6">
                   <c:v>0.29411764705882354</c:v>
                 </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.36842105263157893</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-91A9-4C16-A292-26D1475FB471}"/>
+              <c16:uniqueId val="{00000001-E44C-45B6-95C1-8A917EAE074E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2247,11 +2394,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="335326623"/>
-        <c:axId val="335323295"/>
+        <c:axId val="875482703"/>
+        <c:axId val="875483119"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="335326623"/>
+        <c:axId val="875482703"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2349,7 +2496,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="335323295"/>
+        <c:crossAx val="875483119"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2357,7 +2504,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="335323295"/>
+        <c:axId val="875483119"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2463,7 +2610,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="335326623"/>
+        <c:crossAx val="875482703"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2477,6 +2624,33 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:legendEntry>
+        <c:idx val="0"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="2"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3122,7 +3296,7 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -3230,11 +3404,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -3245,11 +3414,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -3281,9 +3445,6 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3638,7 +3799,7 @@
 </file>
 
 <file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{3828ED73-5264-44EE-9AC5-49A8D01EE845}">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{7B75688D-5400-4B88-AFA9-47E358D66687}">
   <sheetPr/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3650,7 +3811,7 @@
 </file>
 
 <file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{EB196088-D968-4675-9941-431035E29CF0}">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{FC873133-7941-4C73-8B20-D039230DB03A}">
   <sheetPr/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3665,13 +3826,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8582025" cy="5838825"/>
+    <xdr:ext cx="8564880" cy="5821680"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53857B62-11C3-4FF7-8F8D-45BED17D8616}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7353E95D-B33D-EDE6-8553-54FF56F93B26}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3698,13 +3859,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8582025" cy="5838825"/>
+    <xdr:ext cx="8564880" cy="5821680"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8EEC9C3-0274-4898-84EE-9C2B23130AC9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD93C47B-25F2-99DF-86DB-0564B2CF0395}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3725,6 +3886,10 @@
     <xdr:clientData/>
   </xdr:absoluteAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4030,20 +4195,20 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -4063,7 +4228,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>45</v>
       </c>
@@ -4083,7 +4248,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>11</v>
       </c>
@@ -4097,7 +4262,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>15</v>
       </c>
@@ -4111,7 +4276,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>16</v>
       </c>
@@ -4125,7 +4290,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>17</v>
       </c>
@@ -4139,9 +4304,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>41</v>
+        <v>412</v>
       </c>
       <c r="B8" t="s">
         <v>19</v>
@@ -4159,7 +4324,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>53</v>
       </c>
@@ -4181,14 +4346,309 @@
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
+  <conditionalFormatting sqref="C10">
+    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
+  </conditionalFormatting>
   <conditionalFormatting sqref="C2:D2">
-    <cfRule type="duplicateValues" dxfId="4" priority="39"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C10">
-    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="39"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="59" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCAE177D-2BD4-45CE-80F5-EF8578F1AF32}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:F12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>2015</v>
+      </c>
+      <c r="B2">
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>4</v>
+      </c>
+      <c r="E2">
+        <v>3</v>
+      </c>
+      <c r="F2" s="3">
+        <f>(D2-E2)/D2</f>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2016</v>
+      </c>
+      <c r="B3">
+        <v>7</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>15</v>
+      </c>
+      <c r="E3">
+        <v>6</v>
+      </c>
+      <c r="F3" s="3">
+        <f>(D3-E3)/D3</f>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2017</v>
+      </c>
+      <c r="B4">
+        <v>19</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>27</v>
+      </c>
+      <c r="E4">
+        <v>17</v>
+      </c>
+      <c r="F4" s="3">
+        <f>(D4-E4)/D4</f>
+        <v>0.37037037037037035</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>2018</v>
+      </c>
+      <c r="B5">
+        <v>20</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>43</v>
+      </c>
+      <c r="E5">
+        <v>17</v>
+      </c>
+      <c r="F5" s="3">
+        <f>(D5-E5)/D5</f>
+        <v>0.60465116279069764</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>2019</v>
+      </c>
+      <c r="B6">
+        <v>12</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6">
+        <v>48</v>
+      </c>
+      <c r="E6">
+        <v>7</v>
+      </c>
+      <c r="F6" s="3">
+        <f>(D6-E6)/D6</f>
+        <v>0.85416666666666663</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>2020</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7" s="3" t="e">
+        <f t="shared" ref="F7:F10" si="0">(D7-E7)/D7</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>2021</v>
+      </c>
+      <c r="B8">
+        <v>13</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>17</v>
+      </c>
+      <c r="E8">
+        <v>12</v>
+      </c>
+      <c r="F8" s="3">
+        <f t="shared" si="0"/>
+        <v>0.29411764705882354</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>2022</v>
+      </c>
+      <c r="B9">
+        <v>12</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>19</v>
+      </c>
+      <c r="E9">
+        <v>12</v>
+      </c>
+      <c r="F9" s="3">
+        <f t="shared" si="0"/>
+        <v>0.36842105263157893</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>2023</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>9</v>
+      </c>
+      <c r="E10">
+        <v>9</v>
+      </c>
+      <c r="F10" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="2">
+        <f>SUM(B2:B10)</f>
+        <v>95</v>
+      </c>
+      <c r="C11" s="2">
+        <f>SUM(C2:C10)</f>
+        <v>3</v>
+      </c>
+      <c r="D11" s="2">
+        <f>SUM(D2:D10)</f>
+        <v>182</v>
+      </c>
+      <c r="E11" s="2">
+        <f>SUM(E2:E10)</f>
+        <v>83</v>
+      </c>
+      <c r="F11" s="7">
+        <f>(D11-E11)/D11</f>
+        <v>0.54395604395604391</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="B12" s="2">
+        <f>AVERAGE(B2:B10)</f>
+        <v>10.555555555555555</v>
+      </c>
+      <c r="C12" s="2">
+        <f>AVERAGE(C2:C10)</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D12" s="2">
+        <f>AVERAGE(D2:D10)</f>
+        <v>20.222222222222221</v>
+      </c>
+      <c r="E12" s="2">
+        <f>AVERAGE(E2:E10)</f>
+        <v>9.2222222222222214</v>
+      </c>
+      <c r="F12" s="7">
+        <f>(D12-E12)/D12</f>
+        <v>0.54395604395604402</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="F2:F10">
+    <cfRule type="iconSet" priority="39">
+      <iconSet iconSet="3Symbols2">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4200,20 +4660,20 @@
   <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -4233,7 +4693,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>55</v>
       </c>
@@ -4253,7 +4713,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>11</v>
       </c>
@@ -4267,9 +4727,9 @@
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>41</v>
+        <v>412</v>
       </c>
       <c r="B5" t="s">
         <v>19</v>
@@ -4287,7 +4747,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>21</v>
       </c>
@@ -4301,7 +4761,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>58</v>
       </c>
@@ -4321,7 +4781,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>11</v>
       </c>
@@ -4335,7 +4795,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>45</v>
       </c>
@@ -4355,7 +4815,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>11</v>
       </c>
@@ -4369,7 +4829,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>15</v>
       </c>
@@ -4383,7 +4843,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>16</v>
       </c>
@@ -4397,7 +4857,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>17</v>
       </c>
@@ -4411,7 +4871,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>68</v>
       </c>
@@ -4431,7 +4891,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>11</v>
       </c>
@@ -4445,7 +4905,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>15</v>
       </c>
@@ -4459,7 +4919,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>16</v>
       </c>
@@ -4473,7 +4933,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>17</v>
       </c>
@@ -4487,7 +4947,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>53</v>
       </c>
@@ -4507,7 +4967,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>11</v>
       </c>
@@ -4521,7 +4981,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>15</v>
       </c>
@@ -4535,7 +4995,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>33</v>
       </c>
@@ -4555,7 +5015,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>11</v>
       </c>
@@ -4592,21 +5052,21 @@
   </sheetPr>
   <dimension ref="A1:F63"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="39.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -4626,7 +5086,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>78</v>
       </c>
@@ -4646,7 +5106,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>11</v>
       </c>
@@ -4660,7 +5120,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>15</v>
       </c>
@@ -4674,7 +5134,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>83</v>
       </c>
@@ -4694,7 +5154,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>11</v>
       </c>
@@ -4708,7 +5168,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>15</v>
       </c>
@@ -4722,7 +5182,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>16</v>
       </c>
@@ -4736,7 +5196,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>17</v>
       </c>
@@ -4750,7 +5210,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>91</v>
       </c>
@@ -4770,7 +5230,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>11</v>
       </c>
@@ -4784,7 +5244,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>15</v>
       </c>
@@ -4798,7 +5258,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>16</v>
       </c>
@@ -4812,7 +5272,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>91</v>
       </c>
@@ -4832,7 +5292,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>11</v>
       </c>
@@ -4846,7 +5306,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>15</v>
       </c>
@@ -4860,7 +5320,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>16</v>
       </c>
@@ -4874,7 +5334,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>17</v>
       </c>
@@ -4888,7 +5348,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>91</v>
       </c>
@@ -4908,7 +5368,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>110</v>
       </c>
@@ -4928,7 +5388,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>113</v>
       </c>
@@ -4948,7 +5408,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>11</v>
       </c>
@@ -4962,7 +5422,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>119</v>
       </c>
@@ -4982,7 +5442,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>21</v>
       </c>
@@ -4996,7 +5456,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>120</v>
       </c>
@@ -5010,7 +5470,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>126</v>
       </c>
@@ -5030,7 +5490,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>21</v>
       </c>
@@ -5044,7 +5504,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>120</v>
       </c>
@@ -5058,7 +5518,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>127</v>
       </c>
@@ -5072,7 +5532,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>131</v>
       </c>
@@ -5092,7 +5552,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>11</v>
       </c>
@@ -5106,7 +5566,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>135</v>
       </c>
@@ -5126,7 +5586,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>11</v>
       </c>
@@ -5140,7 +5600,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>15</v>
       </c>
@@ -5154,7 +5614,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>41</v>
       </c>
@@ -5174,7 +5634,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>143</v>
       </c>
@@ -5194,7 +5654,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>146</v>
       </c>
@@ -5214,7 +5674,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>149</v>
       </c>
@@ -5234,7 +5694,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>11</v>
       </c>
@@ -5248,7 +5708,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>153</v>
       </c>
@@ -5268,7 +5728,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>155</v>
       </c>
@@ -5288,7 +5748,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>157</v>
       </c>
@@ -5308,7 +5768,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>160</v>
       </c>
@@ -5328,7 +5788,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>11</v>
       </c>
@@ -5342,7 +5802,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>15</v>
       </c>
@@ -5370,21 +5830,21 @@
   </sheetPr>
   <dimension ref="A1:F81"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="A58" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="39.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -5404,7 +5864,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>167</v>
       </c>
@@ -5424,7 +5884,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>11</v>
       </c>
@@ -5438,7 +5898,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>15</v>
       </c>
@@ -5452,7 +5912,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>174</v>
       </c>
@@ -5472,7 +5932,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>176</v>
       </c>
@@ -5492,7 +5952,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>11</v>
       </c>
@@ -5506,7 +5966,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>15</v>
       </c>
@@ -5520,7 +5980,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>180</v>
       </c>
@@ -5537,7 +5997,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>183</v>
       </c>
@@ -5557,7 +6017,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>11</v>
       </c>
@@ -5571,7 +6031,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>185</v>
       </c>
@@ -5591,7 +6051,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>11</v>
       </c>
@@ -5605,7 +6065,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>15</v>
       </c>
@@ -5619,7 +6079,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>16</v>
       </c>
@@ -5633,7 +6093,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>17</v>
       </c>
@@ -5647,7 +6107,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>193</v>
       </c>
@@ -5667,7 +6127,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>11</v>
       </c>
@@ -5681,7 +6141,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>15</v>
       </c>
@@ -5695,7 +6155,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>16</v>
       </c>
@@ -5709,7 +6169,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>17</v>
       </c>
@@ -5723,7 +6183,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>201</v>
       </c>
@@ -5743,7 +6203,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>11</v>
       </c>
@@ -5757,7 +6217,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>110</v>
       </c>
@@ -5777,7 +6237,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>21</v>
       </c>
@@ -5791,7 +6251,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>120</v>
       </c>
@@ -5805,7 +6265,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>119</v>
       </c>
@@ -5825,7 +6285,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>21</v>
       </c>
@@ -5839,7 +6299,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>120</v>
       </c>
@@ -5853,7 +6313,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>12</v>
       </c>
@@ -5867,7 +6327,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>11</v>
       </c>
@@ -5881,7 +6341,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>126</v>
       </c>
@@ -5901,7 +6361,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>21</v>
       </c>
@@ -5915,7 +6375,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>120</v>
       </c>
@@ -5929,7 +6389,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>55</v>
       </c>
@@ -5949,7 +6409,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>45</v>
       </c>
@@ -5969,7 +6429,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>131</v>
       </c>
@@ -5989,7 +6449,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>11</v>
       </c>
@@ -6003,7 +6463,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>15</v>
       </c>
@@ -6017,7 +6477,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>16</v>
       </c>
@@ -6031,7 +6491,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>146</v>
       </c>
@@ -6051,7 +6511,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>233</v>
       </c>
@@ -6071,7 +6531,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>11</v>
       </c>
@@ -6085,7 +6545,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>15</v>
       </c>
@@ -6099,7 +6559,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>16</v>
       </c>
@@ -6113,7 +6573,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>17</v>
       </c>
@@ -6127,7 +6587,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>157</v>
       </c>
@@ -6147,7 +6607,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>11</v>
       </c>
@@ -6161,7 +6621,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>15</v>
       </c>
@@ -6175,7 +6635,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>16</v>
       </c>
@@ -6189,7 +6649,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>160</v>
       </c>
@@ -6209,7 +6669,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>11</v>
       </c>
@@ -6223,7 +6683,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>15</v>
       </c>
@@ -6237,7 +6697,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>16</v>
       </c>
@@ -6251,7 +6711,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>252</v>
       </c>
@@ -6271,7 +6731,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>11</v>
       </c>
@@ -6285,7 +6745,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C75" t="s">
         <v>15</v>
       </c>
@@ -6299,7 +6759,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>257</v>
       </c>
@@ -6319,7 +6779,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C78" t="s">
         <v>11</v>
       </c>
@@ -6333,7 +6793,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C79" t="s">
         <v>15</v>
       </c>
@@ -6347,7 +6807,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C80" t="s">
         <v>16</v>
       </c>
@@ -6361,7 +6821,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="81" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C81" t="s">
         <v>17</v>
       </c>
@@ -6389,21 +6849,21 @@
   </sheetPr>
   <dimension ref="A1:F68"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D48" sqref="D48"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -6423,7 +6883,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>265</v>
       </c>
@@ -6443,7 +6903,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>21</v>
       </c>
@@ -6457,7 +6917,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>120</v>
       </c>
@@ -6471,7 +6931,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>12</v>
       </c>
@@ -6485,7 +6945,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>11</v>
       </c>
@@ -6499,7 +6959,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>15</v>
       </c>
@@ -6513,7 +6973,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>16</v>
       </c>
@@ -6527,7 +6987,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>17</v>
       </c>
@@ -6541,7 +7001,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>174</v>
       </c>
@@ -6561,7 +7021,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>21</v>
       </c>
@@ -6575,7 +7035,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>120</v>
       </c>
@@ -6589,7 +7049,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>127</v>
       </c>
@@ -6603,7 +7063,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>141</v>
       </c>
@@ -6617,7 +7077,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>286</v>
       </c>
@@ -6637,7 +7097,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>11</v>
       </c>
@@ -6651,7 +7111,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>15</v>
       </c>
@@ -6665,7 +7125,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>16</v>
       </c>
@@ -6679,7 +7139,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>17</v>
       </c>
@@ -6693,7 +7153,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>180</v>
       </c>
@@ -6710,7 +7170,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D24" t="s">
         <v>207</v>
       </c>
@@ -6721,7 +7181,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>294</v>
       </c>
@@ -6741,7 +7201,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>11</v>
       </c>
@@ -6755,7 +7215,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>15</v>
       </c>
@@ -6769,7 +7229,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>16</v>
       </c>
@@ -6783,7 +7243,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>386</v>
       </c>
@@ -6803,7 +7263,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>141</v>
       </c>
@@ -6817,7 +7277,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>12</v>
       </c>
@@ -6831,7 +7291,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>11</v>
       </c>
@@ -6845,7 +7305,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>15</v>
       </c>
@@ -6859,7 +7319,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>16</v>
       </c>
@@ -6873,7 +7333,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>17</v>
       </c>
@@ -6887,7 +7347,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>308</v>
       </c>
@@ -6907,7 +7367,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>141</v>
       </c>
@@ -6921,7 +7381,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>12</v>
       </c>
@@ -6935,7 +7395,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>11</v>
       </c>
@@ -6949,7 +7409,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>110</v>
       </c>
@@ -6969,7 +7429,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>141</v>
       </c>
@@ -6983,9 +7443,9 @@
         <v>366</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B47" t="s">
         <v>19</v>
@@ -7003,7 +7463,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>12</v>
       </c>
@@ -7017,7 +7477,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>11</v>
       </c>
@@ -7031,7 +7491,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>15</v>
       </c>
@@ -7045,7 +7505,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>16</v>
       </c>
@@ -7059,7 +7519,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>17</v>
       </c>
@@ -7073,7 +7533,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>146</v>
       </c>
@@ -7093,7 +7553,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>141</v>
       </c>
@@ -7107,7 +7567,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>12</v>
       </c>
@@ -7121,7 +7581,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>11</v>
       </c>
@@ -7135,7 +7595,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>15</v>
       </c>
@@ -7149,7 +7609,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>16</v>
       </c>
@@ -7163,7 +7623,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>17</v>
       </c>
@@ -7177,7 +7637,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>329</v>
       </c>
@@ -7197,7 +7657,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>12</v>
       </c>
@@ -7211,7 +7671,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>11</v>
       </c>
@@ -7225,7 +7685,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>15</v>
       </c>
@@ -7239,7 +7699,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>333</v>
       </c>
@@ -7259,7 +7719,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>334</v>
       </c>
@@ -7291,17 +7751,17 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -7321,7 +7781,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>44</v>
       </c>
@@ -7354,21 +7814,21 @@
   </sheetPr>
   <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -7388,7 +7848,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>174</v>
       </c>
@@ -7408,7 +7868,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>141</v>
       </c>
@@ -7422,7 +7882,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>338</v>
       </c>
@@ -7442,7 +7902,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>11</v>
       </c>
@@ -7456,7 +7916,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>15</v>
       </c>
@@ -7470,7 +7930,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>16</v>
       </c>
@@ -7484,7 +7944,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>308</v>
       </c>
@@ -7504,7 +7964,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>12</v>
       </c>
@@ -7518,7 +7978,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>11</v>
       </c>
@@ -7532,7 +7992,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>15</v>
       </c>
@@ -7546,7 +8006,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>16</v>
       </c>
@@ -7560,7 +8020,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>17</v>
       </c>
@@ -7574,7 +8034,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>354</v>
       </c>
@@ -7594,7 +8054,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>11</v>
       </c>
@@ -7608,7 +8068,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>15</v>
       </c>
@@ -7622,7 +8082,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>110</v>
       </c>
@@ -7642,7 +8102,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>360</v>
       </c>
@@ -7662,7 +8122,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>363</v>
       </c>
@@ -7682,7 +8142,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>11</v>
       </c>
@@ -7696,7 +8156,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>126</v>
       </c>
@@ -7716,9 +8176,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B30" t="s">
         <v>19</v>
@@ -7736,7 +8196,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>11</v>
       </c>
@@ -7750,7 +8210,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>371</v>
       </c>
@@ -7770,7 +8230,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>146</v>
       </c>
@@ -7790,7 +8250,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>141</v>
       </c>
@@ -7804,7 +8264,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>12</v>
       </c>
@@ -7818,7 +8278,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>11</v>
       </c>
@@ -7832,7 +8292,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>381</v>
       </c>
@@ -7852,7 +8312,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>386</v>
       </c>
@@ -7872,7 +8332,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>12</v>
       </c>
@@ -7898,23 +8358,23 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F37"/>
+  <dimension ref="A1:F44"/>
   <sheetViews>
     <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E37" activeCellId="9" sqref="E3 E7 E12 E15 E18 E24 E27 E29 E33 E37"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -7934,7 +8394,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>388</v>
       </c>
@@ -7954,7 +8414,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>11</v>
       </c>
@@ -7968,9 +8428,9 @@
         <v>389</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>390</v>
+        <v>448</v>
       </c>
       <c r="B5" t="s">
         <v>92</v>
@@ -7979,21 +8439,21 @@
         <v>141</v>
       </c>
       <c r="D5" t="s">
-        <v>383</v>
+        <v>449</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F5" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>13</v>
@@ -8002,7 +8462,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>11</v>
       </c>
@@ -8016,9 +8476,9 @@
         <v>273</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B9" t="s">
         <v>92</v>
@@ -8027,21 +8487,21 @@
         <v>141</v>
       </c>
       <c r="D9" t="s">
+        <v>393</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" t="s">
         <v>394</v>
       </c>
-      <c r="E9" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>12</v>
       </c>
       <c r="D10" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>13</v>
@@ -8050,12 +8510,12 @@
         <v>194</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>11</v>
       </c>
       <c r="D11" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>13</v>
@@ -8064,21 +8524,21 @@
         <v>164</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>15</v>
       </c>
       <c r="D12" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F12" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>110</v>
       </c>
@@ -8095,10 +8555,10 @@
         <v>13</v>
       </c>
       <c r="F14" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>141</v>
       </c>
@@ -8112,9 +8572,9 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B17" t="s">
         <v>114</v>
@@ -8123,16 +8583,16 @@
         <v>12</v>
       </c>
       <c r="D17" t="s">
+        <v>401</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" t="s">
         <v>402</v>
       </c>
-      <c r="E17" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F17" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>11</v>
       </c>
@@ -8143,12 +8603,12 @@
         <v>14</v>
       </c>
       <c r="F18" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
         <v>404</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>405</v>
       </c>
       <c r="B20" t="s">
         <v>114</v>
@@ -8163,10 +8623,10 @@
         <v>13</v>
       </c>
       <c r="F20" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>11</v>
       </c>
@@ -8180,12 +8640,12 @@
         <v>164</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>15</v>
       </c>
       <c r="D22" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>13</v>
@@ -8194,7 +8654,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>16</v>
       </c>
@@ -8208,21 +8668,21 @@
         <v>366</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>17</v>
       </c>
       <c r="D24" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F24" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>126</v>
       </c>
@@ -8233,7 +8693,7 @@
         <v>127</v>
       </c>
       <c r="D26" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>13</v>
@@ -8242,12 +8702,12 @@
         <v>208</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>141</v>
       </c>
       <c r="D27" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>14</v>
@@ -8256,9 +8716,9 @@
         <v>247</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B29" t="s">
         <v>19</v>
@@ -8276,9 +8736,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B31" t="s">
         <v>19</v>
@@ -8293,10 +8753,10 @@
         <v>13</v>
       </c>
       <c r="F31" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>12</v>
       </c>
@@ -8307,24 +8767,24 @@
         <v>13</v>
       </c>
       <c r="F32" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>11</v>
       </c>
       <c r="D33" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E33" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F33" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>146</v>
       </c>
@@ -8335,21 +8795,21 @@
         <v>127</v>
       </c>
       <c r="D35" t="s">
+        <v>417</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F35" t="s">
         <v>418</v>
       </c>
-      <c r="E35" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F35" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>141</v>
       </c>
       <c r="D36" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E36" s="4" t="s">
         <v>13</v>
@@ -8358,18 +8818,100 @@
         <v>31</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>12</v>
       </c>
       <c r="D37" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E37" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F37" t="s">
         <v>134</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>420</v>
+      </c>
+      <c r="B39" t="s">
+        <v>19</v>
+      </c>
+      <c r="C39" t="s">
+        <v>12</v>
+      </c>
+      <c r="D39" t="s">
+        <v>421</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F39" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C40" t="s">
+        <v>11</v>
+      </c>
+      <c r="D40" t="s">
+        <v>423</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F40" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>425</v>
+      </c>
+      <c r="B42" t="s">
+        <v>19</v>
+      </c>
+      <c r="C42" t="s">
+        <v>141</v>
+      </c>
+      <c r="D42" t="s">
+        <v>203</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F42" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C43" t="s">
+        <v>12</v>
+      </c>
+      <c r="D43" t="s">
+        <v>426</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F43" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C44" t="s">
+        <v>11</v>
+      </c>
+      <c r="D44" t="s">
+        <v>290</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F44" t="s">
+        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -8379,275 +8921,356 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCAE177D-2BD4-45CE-80F5-EF8578F1AF32}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BB4C721-7B7C-447E-A729-057D073DFFFE}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A27" activeCellId="8" sqref="A2 A5 A8 A13 A15 A17 A20 A25 A27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>372</v>
+        <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>373</v>
+        <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>2015</v>
-      </c>
-      <c r="B2">
         <v>3</v>
       </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>4</v>
-      </c>
-      <c r="E2">
-        <v>3</v>
-      </c>
-      <c r="F2" s="3">
-        <f>(D2-E2)/D2</f>
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2016</v>
-      </c>
-      <c r="B3">
-        <v>7</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
+        <v>432</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>307</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="9"/>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>430</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
+        <v>127</v>
+      </c>
+      <c r="D5" t="s">
+        <v>288</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="9"/>
+      <c r="C6" t="s">
+        <v>141</v>
+      </c>
+      <c r="D6" t="s">
+        <v>431</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="9" t="s">
+        <v>433</v>
+      </c>
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" t="s">
+        <v>56</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" t="s">
+        <v>434</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C10" t="s">
         <v>15</v>
       </c>
-      <c r="E3">
-        <v>6</v>
-      </c>
-      <c r="F3" s="3">
-        <f>(D3-E3)/D3</f>
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>2017</v>
-      </c>
-      <c r="B4">
+      <c r="D10" t="s">
+        <v>435</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" t="s">
+        <v>436</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>439</v>
+      </c>
+      <c r="B13" t="s">
         <v>19</v>
       </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>27</v>
-      </c>
-      <c r="E4">
-        <v>17</v>
-      </c>
-      <c r="F4" s="3">
-        <f>(D4-E4)/D4</f>
-        <v>0.37037037037037035</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>2018</v>
-      </c>
-      <c r="B5">
-        <v>20</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>43</v>
-      </c>
-      <c r="E5">
-        <v>17</v>
-      </c>
-      <c r="F5" s="3">
-        <f>(D5-E5)/D5</f>
-        <v>0.60465116279069764</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>2019</v>
-      </c>
-      <c r="B6">
+      <c r="C13" t="s">
         <v>12</v>
       </c>
-      <c r="C6">
-        <v>3</v>
-      </c>
-      <c r="D6">
-        <v>48</v>
-      </c>
-      <c r="E6">
-        <v>7</v>
-      </c>
-      <c r="F6" s="3">
-        <f>(D6-E6)/D6</f>
-        <v>0.85416666666666663</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>2020</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7" s="3" t="e">
-        <f t="shared" ref="F7:F9" si="0">(D7-E7)/D7</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>2021</v>
-      </c>
-      <c r="B8">
-        <v>13</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>17</v>
-      </c>
-      <c r="E8">
+      <c r="D13" t="s">
+        <v>440</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>442</v>
+      </c>
+      <c r="B15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" t="s">
+        <v>141</v>
+      </c>
+      <c r="D15" t="s">
+        <v>410</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>386</v>
+      </c>
+      <c r="B17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" t="s">
+        <v>141</v>
+      </c>
+      <c r="D17" t="s">
+        <v>443</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C18" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="3">
-        <f t="shared" si="0"/>
-        <v>0.29411764705882354</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>2022</v>
-      </c>
-      <c r="B9">
-        <v>10</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>16</v>
-      </c>
-      <c r="E9">
-        <v>10</v>
-      </c>
-      <c r="F9" s="3">
-        <f t="shared" si="0"/>
-        <v>0.375</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" s="2">
-        <f>SUM(B2:B9)</f>
+      <c r="D18" t="s">
+        <v>397</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>308</v>
+      </c>
+      <c r="B20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" t="s">
+        <v>127</v>
+      </c>
+      <c r="D20" t="s">
+        <v>393</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C21" t="s">
+        <v>141</v>
+      </c>
+      <c r="D21" t="s">
+        <v>352</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C22" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" t="s">
         <v>84</v>
       </c>
-      <c r="C10" s="2">
-        <f>SUM(C2:C9)</f>
-        <v>3</v>
-      </c>
-      <c r="D10" s="2">
-        <f>SUM(D2:D9)</f>
-        <v>170</v>
-      </c>
-      <c r="E10" s="2">
-        <f>SUM(E2:E9)</f>
-        <v>72</v>
-      </c>
-      <c r="F10" s="7">
-        <f>(D10-E10)/D10</f>
-        <v>0.57647058823529407</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="B11" s="2">
-        <f>AVERAGE(B2:B9)</f>
-        <v>10.5</v>
-      </c>
-      <c r="C11" s="2">
-        <f>AVERAGE(C2:C9)</f>
-        <v>0.375</v>
-      </c>
-      <c r="D11" s="2">
-        <f>AVERAGE(D2:D9)</f>
-        <v>21.25</v>
-      </c>
-      <c r="E11" s="2">
-        <f>AVERAGE(E2:E9)</f>
-        <v>9</v>
-      </c>
-      <c r="F11" s="7">
-        <f>(D11-E11)/D11</f>
-        <v>0.57647058823529407</v>
+      <c r="E22" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F22" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C23" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" t="s">
+        <v>446</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F23" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>448</v>
+      </c>
+      <c r="B25" t="s">
+        <v>92</v>
+      </c>
+      <c r="C25" t="s">
+        <v>141</v>
+      </c>
+      <c r="D25" t="s">
+        <v>451</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F25" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>392</v>
+      </c>
+      <c r="B27" t="s">
+        <v>92</v>
+      </c>
+      <c r="C27" t="s">
+        <v>141</v>
+      </c>
+      <c r="D27" t="s">
+        <v>452</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F27" t="s">
+        <v>189</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="F2:F9">
-    <cfRule type="iconSet" priority="39">
-      <iconSet iconSet="3Symbols2">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="33"/>
-        <cfvo type="percent" val="67"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="landscape" r:id="rId1"/>
+  <pageSetup scale="59" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Tennis/WTA Tour/Bianca Andreescu.xlsx
+++ b/Tennis/WTA Tour/Bianca Andreescu.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7561" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F98D3C73-912C-4333-80EB-B3A6367FDB7A}"/>
+  <xr:revisionPtr revIDLastSave="7621" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E23FEC42-E31F-4FBA-96EA-6F83E439269B}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="9" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1331" uniqueCount="453">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1386" uniqueCount="468">
   <si>
     <t>ROUND</t>
   </si>
@@ -1403,6 +1403,51 @@
   </si>
   <si>
     <t>Markéta Vondroušová (CZECH REPUBLIC)</t>
+  </si>
+  <si>
+    <t>Victória Azárenka (BELARUS)</t>
+  </si>
+  <si>
+    <t>2-6 6-3 6-4</t>
+  </si>
+  <si>
+    <t>LIBEMA OPEN</t>
+  </si>
+  <si>
+    <t>Zeynep Sonmez (TURKEY)</t>
+  </si>
+  <si>
+    <t>Viktória Hrunčáková (SLOVAKIA)</t>
+  </si>
+  <si>
+    <t>7-6(6) 6-3</t>
+  </si>
+  <si>
+    <t>7-6(0) 7-5</t>
+  </si>
+  <si>
+    <t>6-2 3-6 7-5</t>
+  </si>
+  <si>
+    <t>Sonay Kartal (GREAT BRITAIN)</t>
+  </si>
+  <si>
+    <t>Rebeka Masarova (SPAIN)</t>
+  </si>
+  <si>
+    <t>Anna Bondár (HUNGARY)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>3-6 6-3 6-4</t>
+  </si>
+  <si>
+    <t>Anhelina Kalinina (UKRAINE)</t>
+  </si>
+  <si>
+    <t>6-2 4-6 7-6(10-7)</t>
   </si>
 </sst>
 </file>
@@ -1745,7 +1790,7 @@
                   <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1847,7 +1892,7 @@
                   <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2372,7 +2417,7 @@
                   <c:v>0.36842105263157893</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>6.6666666666666666E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4370,12 +4415,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -4571,20 +4616,20 @@
         <v>2023</v>
       </c>
       <c r="B10">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E10">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F10" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6.6666666666666666E-2</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -4593,7 +4638,7 @@
       </c>
       <c r="B11" s="2">
         <f>SUM(B2:B10)</f>
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="C11" s="2">
         <f>SUM(C2:C10)</f>
@@ -4601,15 +4646,15 @@
       </c>
       <c r="D11" s="2">
         <f>SUM(D2:D10)</f>
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="E11" s="2">
         <f>SUM(E2:E10)</f>
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="F11" s="7">
         <f>(D11-E11)/D11</f>
-        <v>0.54395604395604391</v>
+        <v>0.53191489361702127</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -4618,7 +4663,7 @@
       </c>
       <c r="B12" s="2">
         <f>AVERAGE(B2:B10)</f>
-        <v>10.555555555555555</v>
+        <v>11.111111111111111</v>
       </c>
       <c r="C12" s="2">
         <f>AVERAGE(C2:C10)</f>
@@ -4626,15 +4671,15 @@
       </c>
       <c r="D12" s="2">
         <f>AVERAGE(D2:D10)</f>
-        <v>20.222222222222221</v>
+        <v>20.888888888888889</v>
       </c>
       <c r="E12" s="2">
         <f>AVERAGE(E2:E10)</f>
-        <v>9.2222222222222214</v>
+        <v>9.7777777777777786</v>
       </c>
       <c r="F12" s="7">
         <f>(D12-E12)/D12</f>
-        <v>0.54395604395604402</v>
+        <v>0.53191489361702127</v>
       </c>
     </row>
   </sheetData>
@@ -7814,8 +7859,8 @@
   </sheetPr>
   <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23:B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8360,8 +8405,8 @@
   </sheetPr>
   <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20:C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8925,10 +8970,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A27" activeCellId="8" sqref="A2 A5 A8 A13 A15 A17 A20 A25 A27"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9269,6 +9314,195 @@
         <v>189</v>
       </c>
     </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>110</v>
+      </c>
+      <c r="B29" t="s">
+        <v>92</v>
+      </c>
+      <c r="C29" t="s">
+        <v>127</v>
+      </c>
+      <c r="D29" t="s">
+        <v>453</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F29" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C30" t="s">
+        <v>141</v>
+      </c>
+      <c r="D30" t="s">
+        <v>443</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F30" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C31" t="s">
+        <v>12</v>
+      </c>
+      <c r="D31" t="s">
+        <v>436</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F31" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>455</v>
+      </c>
+      <c r="B33" t="s">
+        <v>114</v>
+      </c>
+      <c r="C33" t="s">
+        <v>12</v>
+      </c>
+      <c r="D33" t="s">
+        <v>456</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F33" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C34" t="s">
+        <v>11</v>
+      </c>
+      <c r="D34" t="s">
+        <v>457</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F34" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>360</v>
+      </c>
+      <c r="B36" t="s">
+        <v>114</v>
+      </c>
+      <c r="C36" t="s">
+        <v>12</v>
+      </c>
+      <c r="D36" t="s">
+        <v>452</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F36" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>404</v>
+      </c>
+      <c r="B38" t="s">
+        <v>114</v>
+      </c>
+      <c r="C38" t="s">
+        <v>12</v>
+      </c>
+      <c r="D38" t="s">
+        <v>461</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F38" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C39" t="s">
+        <v>11</v>
+      </c>
+      <c r="D39" t="s">
+        <v>462</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F39" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>126</v>
+      </c>
+      <c r="B41" t="s">
+        <v>114</v>
+      </c>
+      <c r="C41" t="s">
+        <v>127</v>
+      </c>
+      <c r="D41" t="s">
+        <v>463</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F41" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C42" t="s">
+        <v>141</v>
+      </c>
+      <c r="D42" t="s">
+        <v>466</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F42" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C43" t="s">
+        <v>12</v>
+      </c>
+      <c r="D43" t="s">
+        <v>367</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F43" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D44" t="s">
+        <v>464</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="59" orientation="landscape" r:id="rId1"/>

--- a/Tennis/WTA Tour/Bianca Andreescu.xlsx
+++ b/Tennis/WTA Tour/Bianca Andreescu.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7621" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E23FEC42-E31F-4FBA-96EA-6F83E439269B}"/>
+  <xr:revisionPtr revIDLastSave="7629" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D1B0E498-64B4-46E2-A2F8-7A75D5FD711A}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="9" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1386" uniqueCount="468">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1392" uniqueCount="470">
   <si>
     <t>ROUND</t>
   </si>
@@ -1448,6 +1448,12 @@
   </si>
   <si>
     <t>6-2 4-6 7-6(10-7)</t>
+  </si>
+  <si>
+    <t>WASHINGTON OPEN</t>
+  </si>
+  <si>
+    <t>2-6 6-3 7-6(5)</t>
   </si>
 </sst>
 </file>
@@ -1892,7 +1898,7 @@
                   <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>14</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2417,7 +2423,7 @@
                   <c:v>0.36842105263157893</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.6666666666666666E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4616,7 +4622,7 @@
         <v>2023</v>
       </c>
       <c r="B10">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -4625,11 +4631,11 @@
         <v>15</v>
       </c>
       <c r="E10">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F10" s="3">
         <f t="shared" si="0"/>
-        <v>6.6666666666666666E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -4638,7 +4644,7 @@
       </c>
       <c r="B11" s="2">
         <f>SUM(B2:B10)</f>
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C11" s="2">
         <f>SUM(C2:C10)</f>
@@ -4650,11 +4656,11 @@
       </c>
       <c r="E11" s="2">
         <f>SUM(E2:E10)</f>
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F11" s="7">
         <f>(D11-E11)/D11</f>
-        <v>0.53191489361702127</v>
+        <v>0.52659574468085102</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -4663,7 +4669,7 @@
       </c>
       <c r="B12" s="2">
         <f>AVERAGE(B2:B10)</f>
-        <v>11.111111111111111</v>
+        <v>11.222222222222221</v>
       </c>
       <c r="C12" s="2">
         <f>AVERAGE(C2:C10)</f>
@@ -4675,11 +4681,11 @@
       </c>
       <c r="E12" s="2">
         <f>AVERAGE(E2:E10)</f>
-        <v>9.7777777777777786</v>
+        <v>9.8888888888888893</v>
       </c>
       <c r="F12" s="7">
         <f>(D12-E12)/D12</f>
-        <v>0.53191489361702127</v>
+        <v>0.52659574468085102</v>
       </c>
     </row>
   </sheetData>
@@ -8970,10 +8976,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F44"/>
+  <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A45" activeCellId="14" sqref="A2 A5 A8 A13 A15 A17 A20 A25 A27 A29 A33 A36 A38 A41 A45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9503,6 +9509,26 @@
         <v>464</v>
       </c>
     </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>468</v>
+      </c>
+      <c r="B45" t="s">
+        <v>19</v>
+      </c>
+      <c r="C45" t="s">
+        <v>12</v>
+      </c>
+      <c r="D45" t="s">
+        <v>435</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F45" t="s">
+        <v>469</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="59" orientation="landscape" r:id="rId1"/>

--- a/Tennis/WTA Tour/Bianca Andreescu.xlsx
+++ b/Tennis/WTA Tour/Bianca Andreescu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7629" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D1B0E498-64B4-46E2-A2F8-7A75D5FD711A}"/>
+  <xr:revisionPtr revIDLastSave="7637" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2D12B8CF-5C82-4D55-8CAB-6C5AAC34D934}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="9" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1392" uniqueCount="470">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1398" uniqueCount="470">
   <si>
     <t>ROUND</t>
   </si>
@@ -1898,7 +1898,7 @@
                   <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>15</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2423,7 +2423,7 @@
                   <c:v>0.36842105263157893</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>-6.6666666666666666E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4622,7 +4622,7 @@
         <v>2023</v>
       </c>
       <c r="B10">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -4631,11 +4631,11 @@
         <v>15</v>
       </c>
       <c r="E10">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F10" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-6.6666666666666666E-2</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -4644,7 +4644,7 @@
       </c>
       <c r="B11" s="2">
         <f>SUM(B2:B10)</f>
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C11" s="2">
         <f>SUM(C2:C10)</f>
@@ -4656,11 +4656,11 @@
       </c>
       <c r="E11" s="2">
         <f>SUM(E2:E10)</f>
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F11" s="7">
         <f>(D11-E11)/D11</f>
-        <v>0.52659574468085102</v>
+        <v>0.52127659574468088</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -4669,7 +4669,7 @@
       </c>
       <c r="B12" s="2">
         <f>AVERAGE(B2:B10)</f>
-        <v>11.222222222222221</v>
+        <v>11.333333333333334</v>
       </c>
       <c r="C12" s="2">
         <f>AVERAGE(C2:C10)</f>
@@ -4681,11 +4681,11 @@
       </c>
       <c r="E12" s="2">
         <f>AVERAGE(E2:E10)</f>
-        <v>9.8888888888888893</v>
+        <v>10</v>
       </c>
       <c r="F12" s="7">
         <f>(D12-E12)/D12</f>
-        <v>0.52659574468085102</v>
+        <v>0.52127659574468088</v>
       </c>
     </row>
   </sheetData>
@@ -8976,10 +8976,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F45"/>
+  <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A45" activeCellId="14" sqref="A2 A5 A8 A13 A15 A17 A20 A25 A27 A29 A33 A36 A38 A41 A45"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E47" activeCellId="15" sqref="E3 E6 E11 E13 E15 E18 E23 E25 E27 E31 E34 E36 E39 E43 E45 E47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9529,6 +9529,26 @@
         <v>469</v>
       </c>
     </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>412</v>
+      </c>
+      <c r="B47" t="s">
+        <v>19</v>
+      </c>
+      <c r="C47" t="s">
+        <v>141</v>
+      </c>
+      <c r="D47" t="s">
+        <v>136</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F47" t="s">
+        <v>134</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="59" orientation="landscape" r:id="rId1"/>

--- a/Tennis/WTA Tour/Bianca Andreescu.xlsx
+++ b/Tennis/WTA Tour/Bianca Andreescu.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="7637" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2D12B8CF-5C82-4D55-8CAB-6C5AAC34D934}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="9" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="3" activeTab="11" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2015" sheetId="22" r:id="rId1"/>
@@ -3865,7 +3865,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{FC873133-7941-4C73-8B20-D039230DB03A}">
   <sheetPr/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -4415,7 +4415,7 @@
   </sheetPr>
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
@@ -8411,8 +8411,8 @@
   </sheetPr>
   <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:C21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8978,8 +8978,8 @@
   </sheetPr>
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E47" activeCellId="15" sqref="E3 E6 E11 E13 E15 E18 E23 E25 E27 E31 E34 E36 E39 E43 E45 E47"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Tennis/WTA Tour/Bianca Andreescu.xlsx
+++ b/Tennis/WTA Tour/Bianca Andreescu.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7637" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2D12B8CF-5C82-4D55-8CAB-6C5AAC34D934}"/>
+  <xr:revisionPtr revIDLastSave="7638" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F4FAC09F-6398-49EB-A552-2BCAD1FC9763}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="3" activeTab="11" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="3" activeTab="9" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2015" sheetId="22" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <sheet name="2021" sheetId="28" r:id="rId7"/>
     <sheet name="2022" sheetId="31" r:id="rId8"/>
     <sheet name="2023" sheetId="34" r:id="rId9"/>
-    <sheet name="YTD Stats" sheetId="1" r:id="rId10"/>
+    <sheet name="Stats" sheetId="1" r:id="rId10"/>
     <sheet name="Wins-Losses" sheetId="35" r:id="rId11"/>
     <sheet name="Winning Percentile Range" sheetId="36" r:id="rId12"/>
   </sheets>
@@ -1710,7 +1710,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'YTD Stats'!$D$1</c:f>
+              <c:f>Stats!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1731,7 +1731,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'YTD Stats'!$A$2:$A$10</c:f>
+              <c:f>Stats!$A$2:$A$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -1767,7 +1767,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'YTD Stats'!$D$2:$D$10</c:f>
+              <c:f>Stats!$D$2:$D$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -1812,7 +1812,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'YTD Stats'!$E$1</c:f>
+              <c:f>Stats!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1833,7 +1833,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'YTD Stats'!$A$2:$A$10</c:f>
+              <c:f>Stats!$A$2:$A$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -1869,7 +1869,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'YTD Stats'!$E$2:$E$10</c:f>
+              <c:f>Stats!$E$2:$E$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -2295,7 +2295,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'YTD Stats'!$F$1</c:f>
+              <c:f>Stats!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2358,7 +2358,7 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>'YTD Stats'!$A$2:$A$10</c:f>
+              <c:f>Stats!$A$2:$A$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -2394,7 +2394,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'YTD Stats'!$F$2:$F$10</c:f>
+              <c:f>Stats!$F$2:$F$10</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="9"/>
@@ -3865,7 +3865,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{FC873133-7941-4C73-8B20-D039230DB03A}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -4415,8 +4415,8 @@
   </sheetPr>
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Tennis/WTA Tour/Bianca Andreescu.xlsx
+++ b/Tennis/WTA Tour/Bianca Andreescu.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7638" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F4FAC09F-6398-49EB-A552-2BCAD1FC9763}"/>
+  <xr:revisionPtr revIDLastSave="7639" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CF54AF8A-9666-44B6-91EE-7172053147E4}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="3" activeTab="9" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="3" activeTab="8" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2015" sheetId="22" r:id="rId1"/>
@@ -3877,7 +3877,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8564880" cy="5821680"/>
+    <xdr:ext cx="8582025" cy="5838825"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -4246,20 +4246,20 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -4279,7 +4279,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>45</v>
       </c>
@@ -4299,7 +4299,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>11</v>
       </c>
@@ -4313,7 +4313,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>15</v>
       </c>
@@ -4327,7 +4327,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>16</v>
       </c>
@@ -4341,7 +4341,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>17</v>
       </c>
@@ -4355,7 +4355,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>412</v>
       </c>
@@ -4375,7 +4375,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>53</v>
       </c>
@@ -4415,21 +4415,21 @@
   </sheetPr>
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -4449,7 +4449,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2015</v>
       </c>
@@ -4470,7 +4470,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2016</v>
       </c>
@@ -4491,7 +4491,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2017</v>
       </c>
@@ -4512,7 +4512,7 @@
         <v>0.37037037037037035</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2018</v>
       </c>
@@ -4533,7 +4533,7 @@
         <v>0.60465116279069764</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2019</v>
       </c>
@@ -4554,7 +4554,7 @@
         <v>0.85416666666666663</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2020</v>
       </c>
@@ -4575,7 +4575,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2021</v>
       </c>
@@ -4596,7 +4596,7 @@
         <v>0.29411764705882354</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2022</v>
       </c>
@@ -4617,7 +4617,7 @@
         <v>0.36842105263157893</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2023</v>
       </c>
@@ -4638,7 +4638,7 @@
         <v>-6.6666666666666666E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>6</v>
       </c>
@@ -4663,7 +4663,7 @@
         <v>0.52127659574468088</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>369</v>
       </c>
@@ -4711,20 +4711,20 @@
   <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -4744,7 +4744,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>55</v>
       </c>
@@ -4764,7 +4764,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>11</v>
       </c>
@@ -4778,7 +4778,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>412</v>
       </c>
@@ -4798,7 +4798,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>21</v>
       </c>
@@ -4812,7 +4812,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>58</v>
       </c>
@@ -4832,7 +4832,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>11</v>
       </c>
@@ -4846,7 +4846,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>45</v>
       </c>
@@ -4866,7 +4866,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>11</v>
       </c>
@@ -4880,7 +4880,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>15</v>
       </c>
@@ -4894,7 +4894,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>16</v>
       </c>
@@ -4908,7 +4908,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>17</v>
       </c>
@@ -4922,7 +4922,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>68</v>
       </c>
@@ -4942,7 +4942,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>11</v>
       </c>
@@ -4956,7 +4956,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>15</v>
       </c>
@@ -4970,7 +4970,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>16</v>
       </c>
@@ -4984,7 +4984,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>17</v>
       </c>
@@ -4998,7 +4998,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>53</v>
       </c>
@@ -5018,7 +5018,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>11</v>
       </c>
@@ -5032,7 +5032,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>15</v>
       </c>
@@ -5046,7 +5046,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>33</v>
       </c>
@@ -5066,7 +5066,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>11</v>
       </c>
@@ -5104,20 +5104,20 @@
   <dimension ref="A1:F63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -5137,7 +5137,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>78</v>
       </c>
@@ -5157,7 +5157,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>11</v>
       </c>
@@ -5171,7 +5171,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>15</v>
       </c>
@@ -5185,7 +5185,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>83</v>
       </c>
@@ -5205,7 +5205,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>11</v>
       </c>
@@ -5219,7 +5219,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>15</v>
       </c>
@@ -5233,7 +5233,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>16</v>
       </c>
@@ -5247,7 +5247,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>17</v>
       </c>
@@ -5261,7 +5261,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>91</v>
       </c>
@@ -5281,7 +5281,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>11</v>
       </c>
@@ -5295,7 +5295,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>15</v>
       </c>
@@ -5309,7 +5309,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>16</v>
       </c>
@@ -5323,7 +5323,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>91</v>
       </c>
@@ -5343,7 +5343,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>11</v>
       </c>
@@ -5357,7 +5357,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>15</v>
       </c>
@@ -5371,7 +5371,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>16</v>
       </c>
@@ -5385,7 +5385,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>17</v>
       </c>
@@ -5399,7 +5399,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>91</v>
       </c>
@@ -5419,7 +5419,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>110</v>
       </c>
@@ -5439,7 +5439,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>113</v>
       </c>
@@ -5459,7 +5459,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>11</v>
       </c>
@@ -5473,7 +5473,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>119</v>
       </c>
@@ -5493,7 +5493,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>21</v>
       </c>
@@ -5507,7 +5507,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>120</v>
       </c>
@@ -5521,7 +5521,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>126</v>
       </c>
@@ -5541,7 +5541,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>21</v>
       </c>
@@ -5555,7 +5555,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>120</v>
       </c>
@@ -5569,7 +5569,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>127</v>
       </c>
@@ -5583,7 +5583,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>131</v>
       </c>
@@ -5603,7 +5603,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>11</v>
       </c>
@@ -5617,7 +5617,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>135</v>
       </c>
@@ -5637,7 +5637,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>11</v>
       </c>
@@ -5651,7 +5651,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>15</v>
       </c>
@@ -5665,7 +5665,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>41</v>
       </c>
@@ -5685,7 +5685,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>143</v>
       </c>
@@ -5705,7 +5705,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>146</v>
       </c>
@@ -5725,7 +5725,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>149</v>
       </c>
@@ -5745,7 +5745,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>11</v>
       </c>
@@ -5759,7 +5759,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>153</v>
       </c>
@@ -5779,7 +5779,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>155</v>
       </c>
@@ -5799,7 +5799,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>157</v>
       </c>
@@ -5819,7 +5819,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>160</v>
       </c>
@@ -5839,7 +5839,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>11</v>
       </c>
@@ -5853,7 +5853,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>15</v>
       </c>
@@ -5882,20 +5882,20 @@
   <dimension ref="A1:F81"/>
   <sheetViews>
     <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="A58" sqref="A1:XFD1048576"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -5915,7 +5915,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>167</v>
       </c>
@@ -5935,7 +5935,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>11</v>
       </c>
@@ -5949,7 +5949,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>15</v>
       </c>
@@ -5963,7 +5963,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>174</v>
       </c>
@@ -5983,7 +5983,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>176</v>
       </c>
@@ -6003,7 +6003,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>11</v>
       </c>
@@ -6017,7 +6017,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>15</v>
       </c>
@@ -6031,7 +6031,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>180</v>
       </c>
@@ -6048,7 +6048,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>183</v>
       </c>
@@ -6068,7 +6068,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>11</v>
       </c>
@@ -6082,7 +6082,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>185</v>
       </c>
@@ -6102,7 +6102,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>11</v>
       </c>
@@ -6116,7 +6116,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>15</v>
       </c>
@@ -6130,7 +6130,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>16</v>
       </c>
@@ -6144,7 +6144,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>17</v>
       </c>
@@ -6158,7 +6158,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>193</v>
       </c>
@@ -6178,7 +6178,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>11</v>
       </c>
@@ -6192,7 +6192,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>15</v>
       </c>
@@ -6206,7 +6206,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>16</v>
       </c>
@@ -6220,7 +6220,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>17</v>
       </c>
@@ -6234,7 +6234,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>201</v>
       </c>
@@ -6254,7 +6254,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>11</v>
       </c>
@@ -6268,7 +6268,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>110</v>
       </c>
@@ -6288,7 +6288,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>21</v>
       </c>
@@ -6302,7 +6302,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>120</v>
       </c>
@@ -6316,7 +6316,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>119</v>
       </c>
@@ -6336,7 +6336,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>21</v>
       </c>
@@ -6350,7 +6350,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>120</v>
       </c>
@@ -6364,7 +6364,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>12</v>
       </c>
@@ -6378,7 +6378,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>11</v>
       </c>
@@ -6392,7 +6392,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>126</v>
       </c>
@@ -6412,7 +6412,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>21</v>
       </c>
@@ -6426,7 +6426,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>120</v>
       </c>
@@ -6440,7 +6440,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>55</v>
       </c>
@@ -6460,7 +6460,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>45</v>
       </c>
@@ -6480,7 +6480,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>131</v>
       </c>
@@ -6500,7 +6500,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>11</v>
       </c>
@@ -6514,7 +6514,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>15</v>
       </c>
@@ -6528,7 +6528,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>16</v>
       </c>
@@ -6542,7 +6542,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>146</v>
       </c>
@@ -6562,7 +6562,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>233</v>
       </c>
@@ -6582,7 +6582,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>11</v>
       </c>
@@ -6596,7 +6596,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>15</v>
       </c>
@@ -6610,7 +6610,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>16</v>
       </c>
@@ -6624,7 +6624,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>17</v>
       </c>
@@ -6638,7 +6638,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>157</v>
       </c>
@@ -6658,7 +6658,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>11</v>
       </c>
@@ -6672,7 +6672,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>15</v>
       </c>
@@ -6686,7 +6686,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>16</v>
       </c>
@@ -6700,7 +6700,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>160</v>
       </c>
@@ -6720,7 +6720,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>11</v>
       </c>
@@ -6734,7 +6734,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>15</v>
       </c>
@@ -6748,7 +6748,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>16</v>
       </c>
@@ -6762,7 +6762,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>252</v>
       </c>
@@ -6782,7 +6782,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>11</v>
       </c>
@@ -6796,7 +6796,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
         <v>15</v>
       </c>
@@ -6810,7 +6810,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>257</v>
       </c>
@@ -6830,7 +6830,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
         <v>11</v>
       </c>
@@ -6844,7 +6844,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
         <v>15</v>
       </c>
@@ -6858,7 +6858,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
         <v>16</v>
       </c>
@@ -6872,7 +6872,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="81" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C81" t="s">
         <v>17</v>
       </c>
@@ -6901,20 +6901,20 @@
   <dimension ref="A1:F68"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -6934,7 +6934,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>265</v>
       </c>
@@ -6954,7 +6954,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>21</v>
       </c>
@@ -6968,7 +6968,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>120</v>
       </c>
@@ -6982,7 +6982,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>12</v>
       </c>
@@ -6996,7 +6996,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>11</v>
       </c>
@@ -7010,7 +7010,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>15</v>
       </c>
@@ -7024,7 +7024,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>16</v>
       </c>
@@ -7038,7 +7038,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>17</v>
       </c>
@@ -7052,7 +7052,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>174</v>
       </c>
@@ -7072,7 +7072,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>21</v>
       </c>
@@ -7086,7 +7086,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>120</v>
       </c>
@@ -7100,7 +7100,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>127</v>
       </c>
@@ -7114,7 +7114,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>141</v>
       </c>
@@ -7128,7 +7128,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>286</v>
       </c>
@@ -7148,7 +7148,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>11</v>
       </c>
@@ -7162,7 +7162,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>15</v>
       </c>
@@ -7176,7 +7176,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>16</v>
       </c>
@@ -7190,7 +7190,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>17</v>
       </c>
@@ -7204,7 +7204,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>180</v>
       </c>
@@ -7221,7 +7221,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D24" t="s">
         <v>207</v>
       </c>
@@ -7232,7 +7232,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>294</v>
       </c>
@@ -7252,7 +7252,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>11</v>
       </c>
@@ -7266,7 +7266,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>15</v>
       </c>
@@ -7280,7 +7280,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>16</v>
       </c>
@@ -7294,7 +7294,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>386</v>
       </c>
@@ -7314,7 +7314,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>141</v>
       </c>
@@ -7328,7 +7328,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>12</v>
       </c>
@@ -7342,7 +7342,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>11</v>
       </c>
@@ -7356,7 +7356,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>15</v>
       </c>
@@ -7370,7 +7370,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>16</v>
       </c>
@@ -7384,7 +7384,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>17</v>
       </c>
@@ -7398,7 +7398,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>308</v>
       </c>
@@ -7418,7 +7418,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>141</v>
       </c>
@@ -7432,7 +7432,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>12</v>
       </c>
@@ -7446,7 +7446,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>11</v>
       </c>
@@ -7460,7 +7460,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>110</v>
       </c>
@@ -7480,7 +7480,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>141</v>
       </c>
@@ -7494,7 +7494,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>412</v>
       </c>
@@ -7514,7 +7514,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>12</v>
       </c>
@@ -7528,7 +7528,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>11</v>
       </c>
@@ -7542,7 +7542,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>15</v>
       </c>
@@ -7556,7 +7556,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>16</v>
       </c>
@@ -7570,7 +7570,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>17</v>
       </c>
@@ -7584,7 +7584,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>146</v>
       </c>
@@ -7604,7 +7604,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>141</v>
       </c>
@@ -7618,7 +7618,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>12</v>
       </c>
@@ -7632,7 +7632,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>11</v>
       </c>
@@ -7646,7 +7646,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>15</v>
       </c>
@@ -7660,7 +7660,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>16</v>
       </c>
@@ -7674,7 +7674,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>17</v>
       </c>
@@ -7688,7 +7688,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>329</v>
       </c>
@@ -7708,7 +7708,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>12</v>
       </c>
@@ -7722,7 +7722,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>11</v>
       </c>
@@ -7736,7 +7736,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>15</v>
       </c>
@@ -7750,7 +7750,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>333</v>
       </c>
@@ -7770,7 +7770,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>334</v>
       </c>
@@ -7799,20 +7799,20 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -7832,7 +7832,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>44</v>
       </c>
@@ -7866,20 +7866,20 @@
   <dimension ref="A1:F43"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:B23"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -7899,7 +7899,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>174</v>
       </c>
@@ -7919,7 +7919,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>141</v>
       </c>
@@ -7933,7 +7933,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>338</v>
       </c>
@@ -7953,7 +7953,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>11</v>
       </c>
@@ -7967,7 +7967,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>15</v>
       </c>
@@ -7981,7 +7981,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>16</v>
       </c>
@@ -7995,7 +7995,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>308</v>
       </c>
@@ -8015,7 +8015,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>12</v>
       </c>
@@ -8029,7 +8029,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>11</v>
       </c>
@@ -8043,7 +8043,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>15</v>
       </c>
@@ -8057,7 +8057,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>16</v>
       </c>
@@ -8071,7 +8071,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>17</v>
       </c>
@@ -8085,7 +8085,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>354</v>
       </c>
@@ -8105,7 +8105,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>11</v>
       </c>
@@ -8119,7 +8119,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>15</v>
       </c>
@@ -8133,7 +8133,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>110</v>
       </c>
@@ -8153,7 +8153,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>360</v>
       </c>
@@ -8173,7 +8173,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>363</v>
       </c>
@@ -8193,7 +8193,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>11</v>
       </c>
@@ -8207,7 +8207,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>126</v>
       </c>
@@ -8227,7 +8227,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>412</v>
       </c>
@@ -8247,7 +8247,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>11</v>
       </c>
@@ -8261,7 +8261,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>371</v>
       </c>
@@ -8281,7 +8281,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>146</v>
       </c>
@@ -8301,7 +8301,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>141</v>
       </c>
@@ -8315,7 +8315,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>12</v>
       </c>
@@ -8329,7 +8329,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>11</v>
       </c>
@@ -8343,7 +8343,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>381</v>
       </c>
@@ -8363,7 +8363,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>386</v>
       </c>
@@ -8383,7 +8383,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>12</v>
       </c>
@@ -8412,20 +8412,20 @@
   <dimension ref="A1:F44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -8445,7 +8445,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>388</v>
       </c>
@@ -8465,7 +8465,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>11</v>
       </c>
@@ -8479,7 +8479,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>448</v>
       </c>
@@ -8499,7 +8499,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>12</v>
       </c>
@@ -8513,7 +8513,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>11</v>
       </c>
@@ -8527,7 +8527,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>392</v>
       </c>
@@ -8547,7 +8547,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>12</v>
       </c>
@@ -8561,7 +8561,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>11</v>
       </c>
@@ -8575,7 +8575,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>15</v>
       </c>
@@ -8589,7 +8589,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>110</v>
       </c>
@@ -8609,7 +8609,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>141</v>
       </c>
@@ -8623,7 +8623,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>400</v>
       </c>
@@ -8643,7 +8643,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>11</v>
       </c>
@@ -8657,7 +8657,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>404</v>
       </c>
@@ -8677,7 +8677,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>11</v>
       </c>
@@ -8691,7 +8691,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>15</v>
       </c>
@@ -8705,7 +8705,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>16</v>
       </c>
@@ -8719,7 +8719,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>17</v>
       </c>
@@ -8733,7 +8733,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>126</v>
       </c>
@@ -8753,7 +8753,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>141</v>
       </c>
@@ -8767,7 +8767,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>411</v>
       </c>
@@ -8787,7 +8787,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>412</v>
       </c>
@@ -8807,7 +8807,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>12</v>
       </c>
@@ -8821,7 +8821,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>11</v>
       </c>
@@ -8835,7 +8835,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>146</v>
       </c>
@@ -8855,7 +8855,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>141</v>
       </c>
@@ -8869,7 +8869,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>12</v>
       </c>
@@ -8883,7 +8883,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>420</v>
       </c>
@@ -8903,7 +8903,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>11</v>
       </c>
@@ -8917,7 +8917,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>425</v>
       </c>
@@ -8937,7 +8937,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>12</v>
       </c>
@@ -8951,7 +8951,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>11</v>
       </c>
@@ -8978,21 +8978,21 @@
   </sheetPr>
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -9012,7 +9012,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>432</v>
       </c>
@@ -9032,7 +9032,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="9"/>
       <c r="C3" t="s">
         <v>11</v>
@@ -9047,7 +9047,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>174</v>
       </c>
@@ -9067,7 +9067,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="9"/>
       <c r="C6" t="s">
         <v>141</v>
@@ -9082,7 +9082,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>433</v>
       </c>
@@ -9102,7 +9102,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>11</v>
       </c>
@@ -9116,7 +9116,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>15</v>
       </c>
@@ -9130,7 +9130,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>16</v>
       </c>
@@ -9144,7 +9144,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>439</v>
       </c>
@@ -9164,7 +9164,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>442</v>
       </c>
@@ -9184,7 +9184,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>386</v>
       </c>
@@ -9204,7 +9204,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>12</v>
       </c>
@@ -9218,7 +9218,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>308</v>
       </c>
@@ -9238,7 +9238,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>141</v>
       </c>
@@ -9252,7 +9252,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>12</v>
       </c>
@@ -9266,7 +9266,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>11</v>
       </c>
@@ -9280,7 +9280,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>448</v>
       </c>
@@ -9300,7 +9300,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>392</v>
       </c>
@@ -9320,7 +9320,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>110</v>
       </c>
@@ -9340,7 +9340,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>141</v>
       </c>
@@ -9354,7 +9354,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>12</v>
       </c>
@@ -9368,7 +9368,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>455</v>
       </c>
@@ -9388,7 +9388,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>11</v>
       </c>
@@ -9402,7 +9402,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>360</v>
       </c>
@@ -9422,7 +9422,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>404</v>
       </c>
@@ -9442,7 +9442,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>11</v>
       </c>
@@ -9456,7 +9456,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>126</v>
       </c>
@@ -9476,7 +9476,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>141</v>
       </c>
@@ -9490,7 +9490,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>12</v>
       </c>
@@ -9504,12 +9504,12 @@
         <v>465</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D44" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>468</v>
       </c>
@@ -9529,7 +9529,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>412</v>
       </c>

--- a/Tennis/WTA Tour/Bianca Andreescu.xlsx
+++ b/Tennis/WTA Tour/Bianca Andreescu.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7639" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CF54AF8A-9666-44B6-91EE-7172053147E4}"/>
+  <xr:revisionPtr revIDLastSave="7640" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CED76411-4F8B-4288-9DB7-6A23CEE457A3}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="3" activeTab="8" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="3" activeTab="8" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2015" sheetId="22" r:id="rId1"/>
@@ -3853,7 +3853,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{7B75688D-5400-4B88-AFA9-47E358D66687}">
   <sheetPr/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -3865,7 +3865,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{FC873133-7941-4C73-8B20-D039230DB03A}">
   <sheetPr/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -4245,21 +4245,21 @@
   </sheetPr>
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -4279,7 +4279,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>45</v>
       </c>
@@ -4299,7 +4299,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>11</v>
       </c>
@@ -4313,7 +4313,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>15</v>
       </c>
@@ -4327,7 +4327,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>16</v>
       </c>
@@ -4341,7 +4341,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>17</v>
       </c>
@@ -4355,7 +4355,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>412</v>
       </c>
@@ -4375,7 +4375,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>53</v>
       </c>
@@ -4415,21 +4415,21 @@
   </sheetPr>
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -4449,7 +4449,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2015</v>
       </c>
@@ -4470,7 +4470,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2016</v>
       </c>
@@ -4491,7 +4491,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2017</v>
       </c>
@@ -4512,7 +4512,7 @@
         <v>0.37037037037037035</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2018</v>
       </c>
@@ -4533,7 +4533,7 @@
         <v>0.60465116279069764</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2019</v>
       </c>
@@ -4554,7 +4554,7 @@
         <v>0.85416666666666663</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2020</v>
       </c>
@@ -4575,7 +4575,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2021</v>
       </c>
@@ -4596,7 +4596,7 @@
         <v>0.29411764705882354</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2022</v>
       </c>
@@ -4617,7 +4617,7 @@
         <v>0.36842105263157893</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2023</v>
       </c>
@@ -4638,7 +4638,7 @@
         <v>-6.6666666666666666E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>6</v>
       </c>
@@ -4663,7 +4663,7 @@
         <v>0.52127659574468088</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>369</v>
       </c>
@@ -4710,21 +4710,21 @@
   </sheetPr>
   <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -4744,7 +4744,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>55</v>
       </c>
@@ -4764,7 +4764,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>11</v>
       </c>
@@ -4778,7 +4778,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>412</v>
       </c>
@@ -4798,7 +4798,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>21</v>
       </c>
@@ -4812,7 +4812,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>58</v>
       </c>
@@ -4832,7 +4832,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>11</v>
       </c>
@@ -4846,7 +4846,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>45</v>
       </c>
@@ -4866,7 +4866,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>11</v>
       </c>
@@ -4880,7 +4880,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>15</v>
       </c>
@@ -4894,7 +4894,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>16</v>
       </c>
@@ -4908,7 +4908,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>17</v>
       </c>
@@ -4922,7 +4922,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>68</v>
       </c>
@@ -4942,7 +4942,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>11</v>
       </c>
@@ -4956,7 +4956,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>15</v>
       </c>
@@ -4970,7 +4970,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>16</v>
       </c>
@@ -4984,7 +4984,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>17</v>
       </c>
@@ -4998,7 +4998,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>53</v>
       </c>
@@ -5018,7 +5018,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>11</v>
       </c>
@@ -5032,7 +5032,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>15</v>
       </c>
@@ -5046,7 +5046,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>33</v>
       </c>
@@ -5066,7 +5066,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>11</v>
       </c>
@@ -5103,21 +5103,21 @@
   </sheetPr>
   <dimension ref="A1:F63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="39.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -5137,7 +5137,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>78</v>
       </c>
@@ -5157,7 +5157,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>11</v>
       </c>
@@ -5171,7 +5171,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>15</v>
       </c>
@@ -5185,7 +5185,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>83</v>
       </c>
@@ -5205,7 +5205,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>11</v>
       </c>
@@ -5219,7 +5219,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>15</v>
       </c>
@@ -5233,7 +5233,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>16</v>
       </c>
@@ -5247,7 +5247,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>17</v>
       </c>
@@ -5261,7 +5261,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>91</v>
       </c>
@@ -5281,7 +5281,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>11</v>
       </c>
@@ -5295,7 +5295,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>15</v>
       </c>
@@ -5309,7 +5309,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>16</v>
       </c>
@@ -5323,7 +5323,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>91</v>
       </c>
@@ -5343,7 +5343,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>11</v>
       </c>
@@ -5357,7 +5357,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>15</v>
       </c>
@@ -5371,7 +5371,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>16</v>
       </c>
@@ -5385,7 +5385,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>17</v>
       </c>
@@ -5399,7 +5399,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>91</v>
       </c>
@@ -5419,7 +5419,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>110</v>
       </c>
@@ -5439,7 +5439,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>113</v>
       </c>
@@ -5459,7 +5459,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>11</v>
       </c>
@@ -5473,7 +5473,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>119</v>
       </c>
@@ -5493,7 +5493,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>21</v>
       </c>
@@ -5507,7 +5507,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>120</v>
       </c>
@@ -5521,7 +5521,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>126</v>
       </c>
@@ -5541,7 +5541,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>21</v>
       </c>
@@ -5555,7 +5555,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>120</v>
       </c>
@@ -5569,7 +5569,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>127</v>
       </c>
@@ -5583,7 +5583,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>131</v>
       </c>
@@ -5603,7 +5603,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>11</v>
       </c>
@@ -5617,7 +5617,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>135</v>
       </c>
@@ -5637,7 +5637,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>11</v>
       </c>
@@ -5651,7 +5651,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>15</v>
       </c>
@@ -5665,7 +5665,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>41</v>
       </c>
@@ -5685,7 +5685,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>143</v>
       </c>
@@ -5705,7 +5705,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>146</v>
       </c>
@@ -5725,7 +5725,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>149</v>
       </c>
@@ -5745,7 +5745,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>11</v>
       </c>
@@ -5759,7 +5759,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>153</v>
       </c>
@@ -5779,7 +5779,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>155</v>
       </c>
@@ -5799,7 +5799,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>157</v>
       </c>
@@ -5819,7 +5819,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>160</v>
       </c>
@@ -5839,7 +5839,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>11</v>
       </c>
@@ -5853,7 +5853,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>15</v>
       </c>
@@ -5881,21 +5881,21 @@
   </sheetPr>
   <dimension ref="A1:F81"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="39.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -5915,7 +5915,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>167</v>
       </c>
@@ -5935,7 +5935,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>11</v>
       </c>
@@ -5949,7 +5949,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>15</v>
       </c>
@@ -5963,7 +5963,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>174</v>
       </c>
@@ -5983,7 +5983,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>176</v>
       </c>
@@ -6003,7 +6003,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>11</v>
       </c>
@@ -6017,7 +6017,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>15</v>
       </c>
@@ -6031,7 +6031,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>180</v>
       </c>
@@ -6048,7 +6048,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>183</v>
       </c>
@@ -6068,7 +6068,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>11</v>
       </c>
@@ -6082,7 +6082,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>185</v>
       </c>
@@ -6102,7 +6102,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>11</v>
       </c>
@@ -6116,7 +6116,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>15</v>
       </c>
@@ -6130,7 +6130,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>16</v>
       </c>
@@ -6144,7 +6144,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>17</v>
       </c>
@@ -6158,7 +6158,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>193</v>
       </c>
@@ -6178,7 +6178,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>11</v>
       </c>
@@ -6192,7 +6192,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>15</v>
       </c>
@@ -6206,7 +6206,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>16</v>
       </c>
@@ -6220,7 +6220,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>17</v>
       </c>
@@ -6234,7 +6234,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>201</v>
       </c>
@@ -6254,7 +6254,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>11</v>
       </c>
@@ -6268,7 +6268,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>110</v>
       </c>
@@ -6288,7 +6288,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>21</v>
       </c>
@@ -6302,7 +6302,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>120</v>
       </c>
@@ -6316,7 +6316,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>119</v>
       </c>
@@ -6336,7 +6336,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>21</v>
       </c>
@@ -6350,7 +6350,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>120</v>
       </c>
@@ -6364,7 +6364,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>12</v>
       </c>
@@ -6378,7 +6378,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>11</v>
       </c>
@@ -6392,7 +6392,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>126</v>
       </c>
@@ -6412,7 +6412,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>21</v>
       </c>
@@ -6426,7 +6426,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>120</v>
       </c>
@@ -6440,7 +6440,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>55</v>
       </c>
@@ -6460,7 +6460,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>45</v>
       </c>
@@ -6480,7 +6480,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>131</v>
       </c>
@@ -6500,7 +6500,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>11</v>
       </c>
@@ -6514,7 +6514,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>15</v>
       </c>
@@ -6528,7 +6528,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>16</v>
       </c>
@@ -6542,7 +6542,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>146</v>
       </c>
@@ -6562,7 +6562,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>233</v>
       </c>
@@ -6582,7 +6582,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>11</v>
       </c>
@@ -6596,7 +6596,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>15</v>
       </c>
@@ -6610,7 +6610,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>16</v>
       </c>
@@ -6624,7 +6624,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>17</v>
       </c>
@@ -6638,7 +6638,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>157</v>
       </c>
@@ -6658,7 +6658,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>11</v>
       </c>
@@ -6672,7 +6672,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>15</v>
       </c>
@@ -6686,7 +6686,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>16</v>
       </c>
@@ -6700,7 +6700,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>160</v>
       </c>
@@ -6720,7 +6720,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>11</v>
       </c>
@@ -6734,7 +6734,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>15</v>
       </c>
@@ -6748,7 +6748,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>16</v>
       </c>
@@ -6762,7 +6762,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>252</v>
       </c>
@@ -6782,7 +6782,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>11</v>
       </c>
@@ -6796,7 +6796,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C75" t="s">
         <v>15</v>
       </c>
@@ -6810,7 +6810,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>257</v>
       </c>
@@ -6830,7 +6830,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C78" t="s">
         <v>11</v>
       </c>
@@ -6844,7 +6844,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C79" t="s">
         <v>15</v>
       </c>
@@ -6858,7 +6858,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C80" t="s">
         <v>16</v>
       </c>
@@ -6872,7 +6872,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="81" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C81" t="s">
         <v>17</v>
       </c>
@@ -6900,21 +6900,21 @@
   </sheetPr>
   <dimension ref="A1:F68"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -6934,7 +6934,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>265</v>
       </c>
@@ -6954,7 +6954,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>21</v>
       </c>
@@ -6968,7 +6968,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>120</v>
       </c>
@@ -6982,7 +6982,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>12</v>
       </c>
@@ -6996,7 +6996,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>11</v>
       </c>
@@ -7010,7 +7010,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>15</v>
       </c>
@@ -7024,7 +7024,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>16</v>
       </c>
@@ -7038,7 +7038,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>17</v>
       </c>
@@ -7052,7 +7052,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>174</v>
       </c>
@@ -7072,7 +7072,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>21</v>
       </c>
@@ -7086,7 +7086,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>120</v>
       </c>
@@ -7100,7 +7100,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>127</v>
       </c>
@@ -7114,7 +7114,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>141</v>
       </c>
@@ -7128,7 +7128,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>286</v>
       </c>
@@ -7148,7 +7148,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>11</v>
       </c>
@@ -7162,7 +7162,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>15</v>
       </c>
@@ -7176,7 +7176,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>16</v>
       </c>
@@ -7190,7 +7190,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>17</v>
       </c>
@@ -7204,7 +7204,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>180</v>
       </c>
@@ -7221,7 +7221,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D24" t="s">
         <v>207</v>
       </c>
@@ -7232,7 +7232,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>294</v>
       </c>
@@ -7252,7 +7252,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>11</v>
       </c>
@@ -7266,7 +7266,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>15</v>
       </c>
@@ -7280,7 +7280,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>16</v>
       </c>
@@ -7294,7 +7294,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>386</v>
       </c>
@@ -7314,7 +7314,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>141</v>
       </c>
@@ -7328,7 +7328,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>12</v>
       </c>
@@ -7342,7 +7342,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>11</v>
       </c>
@@ -7356,7 +7356,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>15</v>
       </c>
@@ -7370,7 +7370,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>16</v>
       </c>
@@ -7384,7 +7384,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>17</v>
       </c>
@@ -7398,7 +7398,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>308</v>
       </c>
@@ -7418,7 +7418,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>141</v>
       </c>
@@ -7432,7 +7432,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>12</v>
       </c>
@@ -7446,7 +7446,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>11</v>
       </c>
@@ -7460,7 +7460,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>110</v>
       </c>
@@ -7480,7 +7480,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>141</v>
       </c>
@@ -7494,7 +7494,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>412</v>
       </c>
@@ -7514,7 +7514,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>12</v>
       </c>
@@ -7528,7 +7528,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>11</v>
       </c>
@@ -7542,7 +7542,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>15</v>
       </c>
@@ -7556,7 +7556,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>16</v>
       </c>
@@ -7570,7 +7570,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>17</v>
       </c>
@@ -7584,7 +7584,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>146</v>
       </c>
@@ -7604,7 +7604,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>141</v>
       </c>
@@ -7618,7 +7618,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>12</v>
       </c>
@@ -7632,7 +7632,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>11</v>
       </c>
@@ -7646,7 +7646,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>15</v>
       </c>
@@ -7660,7 +7660,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>16</v>
       </c>
@@ -7674,7 +7674,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>17</v>
       </c>
@@ -7688,7 +7688,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>329</v>
       </c>
@@ -7708,7 +7708,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>12</v>
       </c>
@@ -7722,7 +7722,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>11</v>
       </c>
@@ -7736,7 +7736,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>15</v>
       </c>
@@ -7750,7 +7750,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>333</v>
       </c>
@@ -7770,7 +7770,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>334</v>
       </c>
@@ -7798,21 +7798,21 @@
   </sheetPr>
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -7832,7 +7832,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>44</v>
       </c>
@@ -7865,21 +7865,21 @@
   </sheetPr>
   <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -7899,7 +7899,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>174</v>
       </c>
@@ -7919,7 +7919,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>141</v>
       </c>
@@ -7933,7 +7933,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>338</v>
       </c>
@@ -7953,7 +7953,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>11</v>
       </c>
@@ -7967,7 +7967,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>15</v>
       </c>
@@ -7981,7 +7981,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>16</v>
       </c>
@@ -7995,7 +7995,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>308</v>
       </c>
@@ -8015,7 +8015,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>12</v>
       </c>
@@ -8029,7 +8029,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>11</v>
       </c>
@@ -8043,7 +8043,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>15</v>
       </c>
@@ -8057,7 +8057,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>16</v>
       </c>
@@ -8071,7 +8071,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>17</v>
       </c>
@@ -8085,7 +8085,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>354</v>
       </c>
@@ -8105,7 +8105,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>11</v>
       </c>
@@ -8119,7 +8119,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>15</v>
       </c>
@@ -8133,7 +8133,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>110</v>
       </c>
@@ -8153,7 +8153,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>360</v>
       </c>
@@ -8173,7 +8173,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>363</v>
       </c>
@@ -8193,7 +8193,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>11</v>
       </c>
@@ -8207,7 +8207,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>126</v>
       </c>
@@ -8227,7 +8227,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>412</v>
       </c>
@@ -8247,7 +8247,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>11</v>
       </c>
@@ -8261,7 +8261,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>371</v>
       </c>
@@ -8281,7 +8281,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>146</v>
       </c>
@@ -8301,7 +8301,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>141</v>
       </c>
@@ -8315,7 +8315,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>12</v>
       </c>
@@ -8329,7 +8329,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>11</v>
       </c>
@@ -8343,7 +8343,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>381</v>
       </c>
@@ -8363,7 +8363,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>386</v>
       </c>
@@ -8383,7 +8383,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>12</v>
       </c>
@@ -8411,21 +8411,21 @@
   </sheetPr>
   <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -8445,7 +8445,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>388</v>
       </c>
@@ -8465,7 +8465,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>11</v>
       </c>
@@ -8479,7 +8479,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>448</v>
       </c>
@@ -8499,7 +8499,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>12</v>
       </c>
@@ -8513,7 +8513,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>11</v>
       </c>
@@ -8527,7 +8527,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>392</v>
       </c>
@@ -8547,7 +8547,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>12</v>
       </c>
@@ -8561,7 +8561,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>11</v>
       </c>
@@ -8575,7 +8575,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>15</v>
       </c>
@@ -8589,7 +8589,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>110</v>
       </c>
@@ -8609,7 +8609,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>141</v>
       </c>
@@ -8623,7 +8623,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>400</v>
       </c>
@@ -8643,7 +8643,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>11</v>
       </c>
@@ -8657,7 +8657,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>404</v>
       </c>
@@ -8677,7 +8677,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>11</v>
       </c>
@@ -8691,7 +8691,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>15</v>
       </c>
@@ -8705,7 +8705,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>16</v>
       </c>
@@ -8719,7 +8719,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>17</v>
       </c>
@@ -8733,7 +8733,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>126</v>
       </c>
@@ -8753,7 +8753,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>141</v>
       </c>
@@ -8767,7 +8767,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>411</v>
       </c>
@@ -8787,7 +8787,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>412</v>
       </c>
@@ -8807,7 +8807,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>12</v>
       </c>
@@ -8821,7 +8821,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>11</v>
       </c>
@@ -8835,7 +8835,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>146</v>
       </c>
@@ -8855,7 +8855,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>141</v>
       </c>
@@ -8869,7 +8869,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>12</v>
       </c>
@@ -8883,7 +8883,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>420</v>
       </c>
@@ -8903,7 +8903,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>11</v>
       </c>
@@ -8917,7 +8917,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>425</v>
       </c>
@@ -8937,7 +8937,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>12</v>
       </c>
@@ -8951,7 +8951,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>11</v>
       </c>
@@ -8979,20 +8979,20 @@
   <dimension ref="A1:F47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -9012,7 +9012,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>432</v>
       </c>
@@ -9032,7 +9032,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="9"/>
       <c r="C3" t="s">
         <v>11</v>
@@ -9047,7 +9047,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
         <v>174</v>
       </c>
@@ -9067,7 +9067,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="9"/>
       <c r="C6" t="s">
         <v>141</v>
@@ -9082,7 +9082,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
         <v>433</v>
       </c>
@@ -9102,7 +9102,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>11</v>
       </c>
@@ -9116,7 +9116,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>15</v>
       </c>
@@ -9130,7 +9130,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>16</v>
       </c>
@@ -9144,7 +9144,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>439</v>
       </c>
@@ -9164,7 +9164,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>442</v>
       </c>
@@ -9184,7 +9184,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>386</v>
       </c>
@@ -9204,7 +9204,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>12</v>
       </c>
@@ -9218,7 +9218,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>308</v>
       </c>
@@ -9238,7 +9238,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>141</v>
       </c>
@@ -9252,7 +9252,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>12</v>
       </c>
@@ -9266,7 +9266,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>11</v>
       </c>
@@ -9280,7 +9280,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>448</v>
       </c>
@@ -9300,7 +9300,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>392</v>
       </c>
@@ -9320,7 +9320,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>110</v>
       </c>
@@ -9340,7 +9340,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>141</v>
       </c>
@@ -9354,7 +9354,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>12</v>
       </c>
@@ -9368,7 +9368,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>455</v>
       </c>
@@ -9388,7 +9388,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>11</v>
       </c>
@@ -9402,7 +9402,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>360</v>
       </c>
@@ -9422,7 +9422,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>404</v>
       </c>
@@ -9442,7 +9442,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>11</v>
       </c>
@@ -9456,7 +9456,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>126</v>
       </c>
@@ -9476,7 +9476,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>141</v>
       </c>
@@ -9490,7 +9490,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>12</v>
       </c>
@@ -9504,12 +9504,12 @@
         <v>465</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D44" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>468</v>
       </c>
@@ -9529,7 +9529,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>412</v>
       </c>

--- a/Tennis/WTA Tour/Bianca Andreescu.xlsx
+++ b/Tennis/WTA Tour/Bianca Andreescu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7640" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CED76411-4F8B-4288-9DB7-6A23CEE457A3}"/>
+  <xr:revisionPtr revIDLastSave="7642" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{997A784C-DE65-4881-BC78-39AC91F114CA}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="3" activeTab="8" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
@@ -4246,7 +4246,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4416,7 +4416,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4711,7 +4711,7 @@
   <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5104,7 +5104,7 @@
   <dimension ref="A1:F63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5882,7 +5882,7 @@
   <dimension ref="A1:F81"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6901,7 +6901,7 @@
   <dimension ref="A1:F68"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7799,7 +7799,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7866,7 +7866,7 @@
   <dimension ref="A1:F43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8412,7 +8412,7 @@
   <dimension ref="A1:F44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8979,7 +8979,7 @@
   <dimension ref="A1:F47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Tennis/WTA Tour/Bianca Andreescu.xlsx
+++ b/Tennis/WTA Tour/Bianca Andreescu.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7642" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{997A784C-DE65-4881-BC78-39AC91F114CA}"/>
+  <xr:revisionPtr revIDLastSave="7643" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{99DC2384-AC27-4359-ADB4-8093D3F231BC}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="3" activeTab="8" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="3" activeTab="8" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2015" sheetId="22" r:id="rId1"/>
@@ -4249,17 +4249,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -4279,7 +4279,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>45</v>
       </c>
@@ -4299,7 +4299,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>11</v>
       </c>
@@ -4313,7 +4313,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>15</v>
       </c>
@@ -4327,7 +4327,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>16</v>
       </c>
@@ -4341,7 +4341,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>17</v>
       </c>
@@ -4355,7 +4355,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>412</v>
       </c>
@@ -4375,7 +4375,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>53</v>
       </c>
@@ -4419,17 +4419,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -4449,7 +4449,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2015</v>
       </c>
@@ -4470,7 +4470,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2016</v>
       </c>
@@ -4491,7 +4491,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2017</v>
       </c>
@@ -4512,7 +4512,7 @@
         <v>0.37037037037037035</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2018</v>
       </c>
@@ -4533,7 +4533,7 @@
         <v>0.60465116279069764</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2019</v>
       </c>
@@ -4554,7 +4554,7 @@
         <v>0.85416666666666663</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2020</v>
       </c>
@@ -4575,7 +4575,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2021</v>
       </c>
@@ -4596,7 +4596,7 @@
         <v>0.29411764705882354</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2022</v>
       </c>
@@ -4617,7 +4617,7 @@
         <v>0.36842105263157893</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2023</v>
       </c>
@@ -4638,7 +4638,7 @@
         <v>-6.6666666666666666E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>6</v>
       </c>
@@ -4663,7 +4663,7 @@
         <v>0.52127659574468088</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>369</v>
       </c>
@@ -4714,17 +4714,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -4744,7 +4744,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>55</v>
       </c>
@@ -4764,7 +4764,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>11</v>
       </c>
@@ -4778,7 +4778,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>412</v>
       </c>
@@ -4798,7 +4798,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>21</v>
       </c>
@@ -4812,7 +4812,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>58</v>
       </c>
@@ -4832,7 +4832,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>11</v>
       </c>
@@ -4846,7 +4846,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>45</v>
       </c>
@@ -4866,7 +4866,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>11</v>
       </c>
@@ -4880,7 +4880,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>15</v>
       </c>
@@ -4894,7 +4894,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>16</v>
       </c>
@@ -4908,7 +4908,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>17</v>
       </c>
@@ -4922,7 +4922,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>68</v>
       </c>
@@ -4942,7 +4942,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>11</v>
       </c>
@@ -4956,7 +4956,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>15</v>
       </c>
@@ -4970,7 +4970,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>16</v>
       </c>
@@ -4984,7 +4984,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>17</v>
       </c>
@@ -4998,7 +4998,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>53</v>
       </c>
@@ -5018,7 +5018,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>11</v>
       </c>
@@ -5032,7 +5032,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>15</v>
       </c>
@@ -5046,7 +5046,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>33</v>
       </c>
@@ -5066,7 +5066,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>11</v>
       </c>
@@ -5107,17 +5107,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -5137,7 +5137,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>78</v>
       </c>
@@ -5157,7 +5157,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>11</v>
       </c>
@@ -5171,7 +5171,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>15</v>
       </c>
@@ -5185,7 +5185,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>83</v>
       </c>
@@ -5205,7 +5205,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>11</v>
       </c>
@@ -5219,7 +5219,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>15</v>
       </c>
@@ -5233,7 +5233,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>16</v>
       </c>
@@ -5247,7 +5247,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>17</v>
       </c>
@@ -5261,7 +5261,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>91</v>
       </c>
@@ -5281,7 +5281,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>11</v>
       </c>
@@ -5295,7 +5295,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>15</v>
       </c>
@@ -5309,7 +5309,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>16</v>
       </c>
@@ -5323,7 +5323,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>91</v>
       </c>
@@ -5343,7 +5343,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>11</v>
       </c>
@@ -5357,7 +5357,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>15</v>
       </c>
@@ -5371,7 +5371,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>16</v>
       </c>
@@ -5385,7 +5385,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>17</v>
       </c>
@@ -5399,7 +5399,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>91</v>
       </c>
@@ -5419,7 +5419,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>110</v>
       </c>
@@ -5439,7 +5439,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>113</v>
       </c>
@@ -5459,7 +5459,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>11</v>
       </c>
@@ -5473,7 +5473,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>119</v>
       </c>
@@ -5493,7 +5493,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>21</v>
       </c>
@@ -5507,7 +5507,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>120</v>
       </c>
@@ -5521,7 +5521,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>126</v>
       </c>
@@ -5541,7 +5541,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>21</v>
       </c>
@@ -5555,7 +5555,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>120</v>
       </c>
@@ -5569,7 +5569,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>127</v>
       </c>
@@ -5583,7 +5583,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>131</v>
       </c>
@@ -5603,7 +5603,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>11</v>
       </c>
@@ -5617,7 +5617,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>135</v>
       </c>
@@ -5637,7 +5637,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>11</v>
       </c>
@@ -5651,7 +5651,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>15</v>
       </c>
@@ -5665,7 +5665,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>41</v>
       </c>
@@ -5685,7 +5685,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>143</v>
       </c>
@@ -5705,7 +5705,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>146</v>
       </c>
@@ -5725,7 +5725,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>149</v>
       </c>
@@ -5745,7 +5745,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>11</v>
       </c>
@@ -5759,7 +5759,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>153</v>
       </c>
@@ -5779,7 +5779,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>155</v>
       </c>
@@ -5799,7 +5799,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>157</v>
       </c>
@@ -5819,7 +5819,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>160</v>
       </c>
@@ -5839,7 +5839,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>11</v>
       </c>
@@ -5853,7 +5853,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>15</v>
       </c>
@@ -5885,17 +5885,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -5915,7 +5915,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>167</v>
       </c>
@@ -5935,7 +5935,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>11</v>
       </c>
@@ -5949,7 +5949,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>15</v>
       </c>
@@ -5963,7 +5963,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>174</v>
       </c>
@@ -5983,7 +5983,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>176</v>
       </c>
@@ -6003,7 +6003,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>11</v>
       </c>
@@ -6017,7 +6017,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>15</v>
       </c>
@@ -6031,7 +6031,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>180</v>
       </c>
@@ -6048,7 +6048,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>183</v>
       </c>
@@ -6068,7 +6068,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>11</v>
       </c>
@@ -6082,7 +6082,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>185</v>
       </c>
@@ -6102,7 +6102,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>11</v>
       </c>
@@ -6116,7 +6116,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>15</v>
       </c>
@@ -6130,7 +6130,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>16</v>
       </c>
@@ -6144,7 +6144,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>17</v>
       </c>
@@ -6158,7 +6158,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>193</v>
       </c>
@@ -6178,7 +6178,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>11</v>
       </c>
@@ -6192,7 +6192,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>15</v>
       </c>
@@ -6206,7 +6206,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>16</v>
       </c>
@@ -6220,7 +6220,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>17</v>
       </c>
@@ -6234,7 +6234,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>201</v>
       </c>
@@ -6254,7 +6254,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>11</v>
       </c>
@@ -6268,7 +6268,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>110</v>
       </c>
@@ -6288,7 +6288,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>21</v>
       </c>
@@ -6302,7 +6302,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>120</v>
       </c>
@@ -6316,7 +6316,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>119</v>
       </c>
@@ -6336,7 +6336,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>21</v>
       </c>
@@ -6350,7 +6350,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>120</v>
       </c>
@@ -6364,7 +6364,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>12</v>
       </c>
@@ -6378,7 +6378,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>11</v>
       </c>
@@ -6392,7 +6392,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>126</v>
       </c>
@@ -6412,7 +6412,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>21</v>
       </c>
@@ -6426,7 +6426,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>120</v>
       </c>
@@ -6440,7 +6440,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>55</v>
       </c>
@@ -6460,7 +6460,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>45</v>
       </c>
@@ -6480,7 +6480,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>131</v>
       </c>
@@ -6500,7 +6500,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>11</v>
       </c>
@@ -6514,7 +6514,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>15</v>
       </c>
@@ -6528,7 +6528,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>16</v>
       </c>
@@ -6542,7 +6542,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>146</v>
       </c>
@@ -6562,7 +6562,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>233</v>
       </c>
@@ -6582,7 +6582,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>11</v>
       </c>
@@ -6596,7 +6596,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>15</v>
       </c>
@@ -6610,7 +6610,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>16</v>
       </c>
@@ -6624,7 +6624,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>17</v>
       </c>
@@ -6638,7 +6638,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>157</v>
       </c>
@@ -6658,7 +6658,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>11</v>
       </c>
@@ -6672,7 +6672,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>15</v>
       </c>
@@ -6686,7 +6686,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>16</v>
       </c>
@@ -6700,7 +6700,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>160</v>
       </c>
@@ -6720,7 +6720,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>11</v>
       </c>
@@ -6734,7 +6734,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>15</v>
       </c>
@@ -6748,7 +6748,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>16</v>
       </c>
@@ -6762,7 +6762,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>252</v>
       </c>
@@ -6782,7 +6782,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>11</v>
       </c>
@@ -6796,7 +6796,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
         <v>15</v>
       </c>
@@ -6810,7 +6810,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>257</v>
       </c>
@@ -6830,7 +6830,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
         <v>11</v>
       </c>
@@ -6844,7 +6844,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
         <v>15</v>
       </c>
@@ -6858,7 +6858,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
         <v>16</v>
       </c>
@@ -6872,7 +6872,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="81" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C81" t="s">
         <v>17</v>
       </c>
@@ -6904,17 +6904,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -6934,7 +6934,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>265</v>
       </c>
@@ -6954,7 +6954,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>21</v>
       </c>
@@ -6968,7 +6968,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>120</v>
       </c>
@@ -6982,7 +6982,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>12</v>
       </c>
@@ -6996,7 +6996,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>11</v>
       </c>
@@ -7010,7 +7010,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>15</v>
       </c>
@@ -7024,7 +7024,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>16</v>
       </c>
@@ -7038,7 +7038,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>17</v>
       </c>
@@ -7052,7 +7052,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>174</v>
       </c>
@@ -7072,7 +7072,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>21</v>
       </c>
@@ -7086,7 +7086,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>120</v>
       </c>
@@ -7100,7 +7100,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>127</v>
       </c>
@@ -7114,7 +7114,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>141</v>
       </c>
@@ -7128,7 +7128,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>286</v>
       </c>
@@ -7148,7 +7148,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>11</v>
       </c>
@@ -7162,7 +7162,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>15</v>
       </c>
@@ -7176,7 +7176,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>16</v>
       </c>
@@ -7190,7 +7190,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>17</v>
       </c>
@@ -7204,7 +7204,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>180</v>
       </c>
@@ -7221,7 +7221,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D24" t="s">
         <v>207</v>
       </c>
@@ -7232,7 +7232,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>294</v>
       </c>
@@ -7252,7 +7252,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>11</v>
       </c>
@@ -7266,7 +7266,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>15</v>
       </c>
@@ -7280,7 +7280,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>16</v>
       </c>
@@ -7294,7 +7294,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>386</v>
       </c>
@@ -7314,7 +7314,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>141</v>
       </c>
@@ -7328,7 +7328,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>12</v>
       </c>
@@ -7342,7 +7342,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>11</v>
       </c>
@@ -7356,7 +7356,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>15</v>
       </c>
@@ -7370,7 +7370,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>16</v>
       </c>
@@ -7384,7 +7384,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>17</v>
       </c>
@@ -7398,7 +7398,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>308</v>
       </c>
@@ -7418,7 +7418,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>141</v>
       </c>
@@ -7432,7 +7432,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>12</v>
       </c>
@@ -7446,7 +7446,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>11</v>
       </c>
@@ -7460,7 +7460,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>110</v>
       </c>
@@ -7480,7 +7480,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>141</v>
       </c>
@@ -7494,7 +7494,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>412</v>
       </c>
@@ -7514,7 +7514,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>12</v>
       </c>
@@ -7528,7 +7528,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>11</v>
       </c>
@@ -7542,7 +7542,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>15</v>
       </c>
@@ -7556,7 +7556,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>16</v>
       </c>
@@ -7570,7 +7570,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>17</v>
       </c>
@@ -7584,7 +7584,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>146</v>
       </c>
@@ -7604,7 +7604,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>141</v>
       </c>
@@ -7618,7 +7618,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>12</v>
       </c>
@@ -7632,7 +7632,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>11</v>
       </c>
@@ -7646,7 +7646,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>15</v>
       </c>
@@ -7660,7 +7660,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>16</v>
       </c>
@@ -7674,7 +7674,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>17</v>
       </c>
@@ -7688,7 +7688,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>329</v>
       </c>
@@ -7708,7 +7708,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>12</v>
       </c>
@@ -7722,7 +7722,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>11</v>
       </c>
@@ -7736,7 +7736,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>15</v>
       </c>
@@ -7750,7 +7750,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>333</v>
       </c>
@@ -7770,7 +7770,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>334</v>
       </c>
@@ -7802,17 +7802,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -7832,7 +7832,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>44</v>
       </c>
@@ -7869,17 +7869,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -7899,7 +7899,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>174</v>
       </c>
@@ -7919,7 +7919,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>141</v>
       </c>
@@ -7933,7 +7933,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>338</v>
       </c>
@@ -7953,7 +7953,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>11</v>
       </c>
@@ -7967,7 +7967,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>15</v>
       </c>
@@ -7981,7 +7981,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>16</v>
       </c>
@@ -7995,7 +7995,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>308</v>
       </c>
@@ -8015,7 +8015,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>12</v>
       </c>
@@ -8029,7 +8029,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>11</v>
       </c>
@@ -8043,7 +8043,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>15</v>
       </c>
@@ -8057,7 +8057,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>16</v>
       </c>
@@ -8071,7 +8071,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>17</v>
       </c>
@@ -8085,7 +8085,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>354</v>
       </c>
@@ -8105,7 +8105,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>11</v>
       </c>
@@ -8119,7 +8119,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>15</v>
       </c>
@@ -8133,7 +8133,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>110</v>
       </c>
@@ -8153,7 +8153,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>360</v>
       </c>
@@ -8173,7 +8173,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>363</v>
       </c>
@@ -8193,7 +8193,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>11</v>
       </c>
@@ -8207,7 +8207,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>126</v>
       </c>
@@ -8227,7 +8227,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>412</v>
       </c>
@@ -8247,7 +8247,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>11</v>
       </c>
@@ -8261,7 +8261,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>371</v>
       </c>
@@ -8281,7 +8281,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>146</v>
       </c>
@@ -8301,7 +8301,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>141</v>
       </c>
@@ -8315,7 +8315,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>12</v>
       </c>
@@ -8329,7 +8329,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>11</v>
       </c>
@@ -8343,7 +8343,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>381</v>
       </c>
@@ -8363,7 +8363,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>386</v>
       </c>
@@ -8383,7 +8383,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>12</v>
       </c>
@@ -8415,17 +8415,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -8445,7 +8445,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>388</v>
       </c>
@@ -8465,7 +8465,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>11</v>
       </c>
@@ -8479,7 +8479,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>448</v>
       </c>
@@ -8499,7 +8499,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>12</v>
       </c>
@@ -8513,7 +8513,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>11</v>
       </c>
@@ -8527,7 +8527,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>392</v>
       </c>
@@ -8547,7 +8547,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>12</v>
       </c>
@@ -8561,7 +8561,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>11</v>
       </c>
@@ -8575,7 +8575,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>15</v>
       </c>
@@ -8589,7 +8589,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>110</v>
       </c>
@@ -8609,7 +8609,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>141</v>
       </c>
@@ -8623,7 +8623,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>400</v>
       </c>
@@ -8643,7 +8643,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>11</v>
       </c>
@@ -8657,7 +8657,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>404</v>
       </c>
@@ -8677,7 +8677,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>11</v>
       </c>
@@ -8691,7 +8691,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>15</v>
       </c>
@@ -8705,7 +8705,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>16</v>
       </c>
@@ -8719,7 +8719,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>17</v>
       </c>
@@ -8733,7 +8733,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>126</v>
       </c>
@@ -8753,7 +8753,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>141</v>
       </c>
@@ -8767,7 +8767,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>411</v>
       </c>
@@ -8787,7 +8787,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>412</v>
       </c>
@@ -8807,7 +8807,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>12</v>
       </c>
@@ -8821,7 +8821,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>11</v>
       </c>
@@ -8835,7 +8835,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>146</v>
       </c>
@@ -8855,7 +8855,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>141</v>
       </c>
@@ -8869,7 +8869,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>12</v>
       </c>
@@ -8883,7 +8883,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>420</v>
       </c>
@@ -8903,7 +8903,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>11</v>
       </c>
@@ -8917,7 +8917,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>425</v>
       </c>
@@ -8937,7 +8937,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>12</v>
       </c>
@@ -8951,7 +8951,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>11</v>
       </c>
@@ -8982,17 +8982,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -9012,7 +9012,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>432</v>
       </c>
@@ -9032,7 +9032,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="9"/>
       <c r="C3" t="s">
         <v>11</v>
@@ -9047,7 +9047,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>174</v>
       </c>
@@ -9067,7 +9067,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="9"/>
       <c r="C6" t="s">
         <v>141</v>
@@ -9082,7 +9082,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>433</v>
       </c>
@@ -9102,7 +9102,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>11</v>
       </c>
@@ -9116,7 +9116,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>15</v>
       </c>
@@ -9130,7 +9130,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>16</v>
       </c>
@@ -9144,7 +9144,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>439</v>
       </c>
@@ -9164,7 +9164,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>442</v>
       </c>
@@ -9184,7 +9184,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>386</v>
       </c>
@@ -9204,7 +9204,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>12</v>
       </c>
@@ -9218,7 +9218,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>308</v>
       </c>
@@ -9238,7 +9238,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>141</v>
       </c>
@@ -9252,7 +9252,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>12</v>
       </c>
@@ -9266,7 +9266,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>11</v>
       </c>
@@ -9280,7 +9280,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>448</v>
       </c>
@@ -9300,7 +9300,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>392</v>
       </c>
@@ -9320,7 +9320,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>110</v>
       </c>
@@ -9340,7 +9340,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>141</v>
       </c>
@@ -9354,7 +9354,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>12</v>
       </c>
@@ -9368,7 +9368,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>455</v>
       </c>
@@ -9388,7 +9388,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>11</v>
       </c>
@@ -9402,7 +9402,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>360</v>
       </c>
@@ -9422,7 +9422,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>404</v>
       </c>
@@ -9442,7 +9442,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>11</v>
       </c>
@@ -9456,7 +9456,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>126</v>
       </c>
@@ -9476,7 +9476,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>141</v>
       </c>
@@ -9490,7 +9490,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>12</v>
       </c>
@@ -9504,12 +9504,12 @@
         <v>465</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D44" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>468</v>
       </c>
@@ -9529,7 +9529,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>412</v>
       </c>

--- a/Tennis/WTA Tour/Bianca Andreescu.xlsx
+++ b/Tennis/WTA Tour/Bianca Andreescu.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7643" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{99DC2384-AC27-4359-ADB4-8093D3F231BC}"/>
+  <xr:revisionPtr revIDLastSave="7644" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0F2359EE-2A72-405E-8D17-599A9F66C248}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="3" activeTab="8" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="3312" yWindow="3312" windowWidth="17280" windowHeight="8880" firstSheet="3" activeTab="8" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2015" sheetId="22" r:id="rId1"/>
@@ -4249,17 +4249,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -4279,7 +4279,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>45</v>
       </c>
@@ -4299,7 +4299,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>11</v>
       </c>
@@ -4313,7 +4313,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>15</v>
       </c>
@@ -4327,7 +4327,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>16</v>
       </c>
@@ -4341,7 +4341,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>17</v>
       </c>
@@ -4355,7 +4355,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>412</v>
       </c>
@@ -4375,7 +4375,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>53</v>
       </c>
@@ -4419,17 +4419,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -4449,7 +4449,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2015</v>
       </c>
@@ -4470,7 +4470,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2016</v>
       </c>
@@ -4491,7 +4491,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2017</v>
       </c>
@@ -4512,7 +4512,7 @@
         <v>0.37037037037037035</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2018</v>
       </c>
@@ -4533,7 +4533,7 @@
         <v>0.60465116279069764</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2019</v>
       </c>
@@ -4554,7 +4554,7 @@
         <v>0.85416666666666663</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2020</v>
       </c>
@@ -4575,7 +4575,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2021</v>
       </c>
@@ -4596,7 +4596,7 @@
         <v>0.29411764705882354</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2022</v>
       </c>
@@ -4617,7 +4617,7 @@
         <v>0.36842105263157893</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2023</v>
       </c>
@@ -4638,7 +4638,7 @@
         <v>-6.6666666666666666E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>6</v>
       </c>
@@ -4663,7 +4663,7 @@
         <v>0.52127659574468088</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>369</v>
       </c>
@@ -4714,17 +4714,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -4744,7 +4744,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>55</v>
       </c>
@@ -4764,7 +4764,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>11</v>
       </c>
@@ -4778,7 +4778,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>412</v>
       </c>
@@ -4798,7 +4798,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>21</v>
       </c>
@@ -4812,7 +4812,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>58</v>
       </c>
@@ -4832,7 +4832,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>11</v>
       </c>
@@ -4846,7 +4846,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>45</v>
       </c>
@@ -4866,7 +4866,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>11</v>
       </c>
@@ -4880,7 +4880,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>15</v>
       </c>
@@ -4894,7 +4894,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>16</v>
       </c>
@@ -4908,7 +4908,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>17</v>
       </c>
@@ -4922,7 +4922,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>68</v>
       </c>
@@ -4942,7 +4942,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>11</v>
       </c>
@@ -4956,7 +4956,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>15</v>
       </c>
@@ -4970,7 +4970,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>16</v>
       </c>
@@ -4984,7 +4984,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>17</v>
       </c>
@@ -4998,7 +4998,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>53</v>
       </c>
@@ -5018,7 +5018,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>11</v>
       </c>
@@ -5032,7 +5032,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>15</v>
       </c>
@@ -5046,7 +5046,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>33</v>
       </c>
@@ -5066,7 +5066,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>11</v>
       </c>
@@ -5107,17 +5107,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="39.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -5137,7 +5137,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>78</v>
       </c>
@@ -5157,7 +5157,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>11</v>
       </c>
@@ -5171,7 +5171,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>15</v>
       </c>
@@ -5185,7 +5185,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>83</v>
       </c>
@@ -5205,7 +5205,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>11</v>
       </c>
@@ -5219,7 +5219,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>15</v>
       </c>
@@ -5233,7 +5233,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>16</v>
       </c>
@@ -5247,7 +5247,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>17</v>
       </c>
@@ -5261,7 +5261,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>91</v>
       </c>
@@ -5281,7 +5281,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>11</v>
       </c>
@@ -5295,7 +5295,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>15</v>
       </c>
@@ -5309,7 +5309,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>16</v>
       </c>
@@ -5323,7 +5323,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>91</v>
       </c>
@@ -5343,7 +5343,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>11</v>
       </c>
@@ -5357,7 +5357,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>15</v>
       </c>
@@ -5371,7 +5371,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>16</v>
       </c>
@@ -5385,7 +5385,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>17</v>
       </c>
@@ -5399,7 +5399,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>91</v>
       </c>
@@ -5419,7 +5419,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>110</v>
       </c>
@@ -5439,7 +5439,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>113</v>
       </c>
@@ -5459,7 +5459,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>11</v>
       </c>
@@ -5473,7 +5473,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>119</v>
       </c>
@@ -5493,7 +5493,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>21</v>
       </c>
@@ -5507,7 +5507,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>120</v>
       </c>
@@ -5521,7 +5521,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>126</v>
       </c>
@@ -5541,7 +5541,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>21</v>
       </c>
@@ -5555,7 +5555,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>120</v>
       </c>
@@ -5569,7 +5569,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>127</v>
       </c>
@@ -5583,7 +5583,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>131</v>
       </c>
@@ -5603,7 +5603,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>11</v>
       </c>
@@ -5617,7 +5617,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>135</v>
       </c>
@@ -5637,7 +5637,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>11</v>
       </c>
@@ -5651,7 +5651,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>15</v>
       </c>
@@ -5665,7 +5665,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>41</v>
       </c>
@@ -5685,7 +5685,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>143</v>
       </c>
@@ -5705,7 +5705,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>146</v>
       </c>
@@ -5725,7 +5725,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>149</v>
       </c>
@@ -5745,7 +5745,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>11</v>
       </c>
@@ -5759,7 +5759,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>153</v>
       </c>
@@ -5779,7 +5779,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>155</v>
       </c>
@@ -5799,7 +5799,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>157</v>
       </c>
@@ -5819,7 +5819,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>160</v>
       </c>
@@ -5839,7 +5839,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>11</v>
       </c>
@@ -5853,7 +5853,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>15</v>
       </c>
@@ -5885,17 +5885,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="39.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -5915,7 +5915,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>167</v>
       </c>
@@ -5935,7 +5935,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>11</v>
       </c>
@@ -5949,7 +5949,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>15</v>
       </c>
@@ -5963,7 +5963,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>174</v>
       </c>
@@ -5983,7 +5983,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>176</v>
       </c>
@@ -6003,7 +6003,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>11</v>
       </c>
@@ -6017,7 +6017,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>15</v>
       </c>
@@ -6031,7 +6031,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>180</v>
       </c>
@@ -6048,7 +6048,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>183</v>
       </c>
@@ -6068,7 +6068,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>11</v>
       </c>
@@ -6082,7 +6082,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>185</v>
       </c>
@@ -6102,7 +6102,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>11</v>
       </c>
@@ -6116,7 +6116,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>15</v>
       </c>
@@ -6130,7 +6130,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>16</v>
       </c>
@@ -6144,7 +6144,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>17</v>
       </c>
@@ -6158,7 +6158,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>193</v>
       </c>
@@ -6178,7 +6178,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>11</v>
       </c>
@@ -6192,7 +6192,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>15</v>
       </c>
@@ -6206,7 +6206,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>16</v>
       </c>
@@ -6220,7 +6220,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>17</v>
       </c>
@@ -6234,7 +6234,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>201</v>
       </c>
@@ -6254,7 +6254,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>11</v>
       </c>
@@ -6268,7 +6268,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>110</v>
       </c>
@@ -6288,7 +6288,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>21</v>
       </c>
@@ -6302,7 +6302,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>120</v>
       </c>
@@ -6316,7 +6316,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>119</v>
       </c>
@@ -6336,7 +6336,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>21</v>
       </c>
@@ -6350,7 +6350,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>120</v>
       </c>
@@ -6364,7 +6364,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>12</v>
       </c>
@@ -6378,7 +6378,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>11</v>
       </c>
@@ -6392,7 +6392,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>126</v>
       </c>
@@ -6412,7 +6412,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>21</v>
       </c>
@@ -6426,7 +6426,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>120</v>
       </c>
@@ -6440,7 +6440,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>55</v>
       </c>
@@ -6460,7 +6460,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>45</v>
       </c>
@@ -6480,7 +6480,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>131</v>
       </c>
@@ -6500,7 +6500,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>11</v>
       </c>
@@ -6514,7 +6514,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>15</v>
       </c>
@@ -6528,7 +6528,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>16</v>
       </c>
@@ -6542,7 +6542,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>146</v>
       </c>
@@ -6562,7 +6562,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>233</v>
       </c>
@@ -6582,7 +6582,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>11</v>
       </c>
@@ -6596,7 +6596,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>15</v>
       </c>
@@ -6610,7 +6610,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>16</v>
       </c>
@@ -6624,7 +6624,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>17</v>
       </c>
@@ -6638,7 +6638,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>157</v>
       </c>
@@ -6658,7 +6658,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>11</v>
       </c>
@@ -6672,7 +6672,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>15</v>
       </c>
@@ -6686,7 +6686,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>16</v>
       </c>
@@ -6700,7 +6700,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>160</v>
       </c>
@@ -6720,7 +6720,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>11</v>
       </c>
@@ -6734,7 +6734,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>15</v>
       </c>
@@ -6748,7 +6748,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>16</v>
       </c>
@@ -6762,7 +6762,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>252</v>
       </c>
@@ -6782,7 +6782,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>11</v>
       </c>
@@ -6796,7 +6796,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C75" t="s">
         <v>15</v>
       </c>
@@ -6810,7 +6810,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>257</v>
       </c>
@@ -6830,7 +6830,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C78" t="s">
         <v>11</v>
       </c>
@@ -6844,7 +6844,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C79" t="s">
         <v>15</v>
       </c>
@@ -6858,7 +6858,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C80" t="s">
         <v>16</v>
       </c>
@@ -6872,7 +6872,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="81" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C81" t="s">
         <v>17</v>
       </c>
@@ -6904,17 +6904,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -6934,7 +6934,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>265</v>
       </c>
@@ -6954,7 +6954,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>21</v>
       </c>
@@ -6968,7 +6968,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>120</v>
       </c>
@@ -6982,7 +6982,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>12</v>
       </c>
@@ -6996,7 +6996,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>11</v>
       </c>
@@ -7010,7 +7010,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>15</v>
       </c>
@@ -7024,7 +7024,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>16</v>
       </c>
@@ -7038,7 +7038,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>17</v>
       </c>
@@ -7052,7 +7052,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>174</v>
       </c>
@@ -7072,7 +7072,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>21</v>
       </c>
@@ -7086,7 +7086,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>120</v>
       </c>
@@ -7100,7 +7100,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>127</v>
       </c>
@@ -7114,7 +7114,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>141</v>
       </c>
@@ -7128,7 +7128,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>286</v>
       </c>
@@ -7148,7 +7148,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>11</v>
       </c>
@@ -7162,7 +7162,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>15</v>
       </c>
@@ -7176,7 +7176,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>16</v>
       </c>
@@ -7190,7 +7190,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>17</v>
       </c>
@@ -7204,7 +7204,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>180</v>
       </c>
@@ -7221,7 +7221,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D24" t="s">
         <v>207</v>
       </c>
@@ -7232,7 +7232,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>294</v>
       </c>
@@ -7252,7 +7252,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>11</v>
       </c>
@@ -7266,7 +7266,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>15</v>
       </c>
@@ -7280,7 +7280,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>16</v>
       </c>
@@ -7294,7 +7294,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>386</v>
       </c>
@@ -7314,7 +7314,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>141</v>
       </c>
@@ -7328,7 +7328,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>12</v>
       </c>
@@ -7342,7 +7342,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>11</v>
       </c>
@@ -7356,7 +7356,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>15</v>
       </c>
@@ -7370,7 +7370,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>16</v>
       </c>
@@ -7384,7 +7384,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>17</v>
       </c>
@@ -7398,7 +7398,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>308</v>
       </c>
@@ -7418,7 +7418,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>141</v>
       </c>
@@ -7432,7 +7432,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>12</v>
       </c>
@@ -7446,7 +7446,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>11</v>
       </c>
@@ -7460,7 +7460,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>110</v>
       </c>
@@ -7480,7 +7480,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>141</v>
       </c>
@@ -7494,7 +7494,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>412</v>
       </c>
@@ -7514,7 +7514,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>12</v>
       </c>
@@ -7528,7 +7528,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>11</v>
       </c>
@@ -7542,7 +7542,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>15</v>
       </c>
@@ -7556,7 +7556,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>16</v>
       </c>
@@ -7570,7 +7570,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>17</v>
       </c>
@@ -7584,7 +7584,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>146</v>
       </c>
@@ -7604,7 +7604,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>141</v>
       </c>
@@ -7618,7 +7618,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>12</v>
       </c>
@@ -7632,7 +7632,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>11</v>
       </c>
@@ -7646,7 +7646,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>15</v>
       </c>
@@ -7660,7 +7660,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>16</v>
       </c>
@@ -7674,7 +7674,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>17</v>
       </c>
@@ -7688,7 +7688,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>329</v>
       </c>
@@ -7708,7 +7708,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>12</v>
       </c>
@@ -7722,7 +7722,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>11</v>
       </c>
@@ -7736,7 +7736,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>15</v>
       </c>
@@ -7750,7 +7750,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>333</v>
       </c>
@@ -7770,7 +7770,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>334</v>
       </c>
@@ -7802,17 +7802,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -7832,7 +7832,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>44</v>
       </c>
@@ -7869,17 +7869,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -7899,7 +7899,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>174</v>
       </c>
@@ -7919,7 +7919,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>141</v>
       </c>
@@ -7933,7 +7933,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>338</v>
       </c>
@@ -7953,7 +7953,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>11</v>
       </c>
@@ -7967,7 +7967,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>15</v>
       </c>
@@ -7981,7 +7981,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>16</v>
       </c>
@@ -7995,7 +7995,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>308</v>
       </c>
@@ -8015,7 +8015,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>12</v>
       </c>
@@ -8029,7 +8029,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>11</v>
       </c>
@@ -8043,7 +8043,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>15</v>
       </c>
@@ -8057,7 +8057,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>16</v>
       </c>
@@ -8071,7 +8071,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>17</v>
       </c>
@@ -8085,7 +8085,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>354</v>
       </c>
@@ -8105,7 +8105,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>11</v>
       </c>
@@ -8119,7 +8119,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>15</v>
       </c>
@@ -8133,7 +8133,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>110</v>
       </c>
@@ -8153,7 +8153,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>360</v>
       </c>
@@ -8173,7 +8173,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>363</v>
       </c>
@@ -8193,7 +8193,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>11</v>
       </c>
@@ -8207,7 +8207,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>126</v>
       </c>
@@ -8227,7 +8227,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>412</v>
       </c>
@@ -8247,7 +8247,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>11</v>
       </c>
@@ -8261,7 +8261,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>371</v>
       </c>
@@ -8281,7 +8281,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>146</v>
       </c>
@@ -8301,7 +8301,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>141</v>
       </c>
@@ -8315,7 +8315,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>12</v>
       </c>
@@ -8329,7 +8329,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>11</v>
       </c>
@@ -8343,7 +8343,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>381</v>
       </c>
@@ -8363,7 +8363,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>386</v>
       </c>
@@ -8383,7 +8383,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>12</v>
       </c>
@@ -8415,17 +8415,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -8445,7 +8445,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>388</v>
       </c>
@@ -8465,7 +8465,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>11</v>
       </c>
@@ -8479,7 +8479,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>448</v>
       </c>
@@ -8499,7 +8499,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>12</v>
       </c>
@@ -8513,7 +8513,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>11</v>
       </c>
@@ -8527,7 +8527,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>392</v>
       </c>
@@ -8547,7 +8547,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>12</v>
       </c>
@@ -8561,7 +8561,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>11</v>
       </c>
@@ -8575,7 +8575,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>15</v>
       </c>
@@ -8589,7 +8589,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>110</v>
       </c>
@@ -8609,7 +8609,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>141</v>
       </c>
@@ -8623,7 +8623,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>400</v>
       </c>
@@ -8643,7 +8643,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>11</v>
       </c>
@@ -8657,7 +8657,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>404</v>
       </c>
@@ -8677,7 +8677,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>11</v>
       </c>
@@ -8691,7 +8691,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>15</v>
       </c>
@@ -8705,7 +8705,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>16</v>
       </c>
@@ -8719,7 +8719,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>17</v>
       </c>
@@ -8733,7 +8733,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>126</v>
       </c>
@@ -8753,7 +8753,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>141</v>
       </c>
@@ -8767,7 +8767,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>411</v>
       </c>
@@ -8787,7 +8787,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>412</v>
       </c>
@@ -8807,7 +8807,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>12</v>
       </c>
@@ -8821,7 +8821,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>11</v>
       </c>
@@ -8835,7 +8835,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>146</v>
       </c>
@@ -8855,7 +8855,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>141</v>
       </c>
@@ -8869,7 +8869,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>12</v>
       </c>
@@ -8883,7 +8883,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>420</v>
       </c>
@@ -8903,7 +8903,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>11</v>
       </c>
@@ -8917,7 +8917,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>425</v>
       </c>
@@ -8937,7 +8937,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>12</v>
       </c>
@@ -8951,7 +8951,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>11</v>
       </c>
@@ -8982,17 +8982,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -9012,7 +9012,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>432</v>
       </c>
@@ -9032,7 +9032,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="9"/>
       <c r="C3" t="s">
         <v>11</v>
@@ -9047,7 +9047,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
         <v>174</v>
       </c>
@@ -9067,7 +9067,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="9"/>
       <c r="C6" t="s">
         <v>141</v>
@@ -9082,7 +9082,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
         <v>433</v>
       </c>
@@ -9102,7 +9102,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>11</v>
       </c>
@@ -9116,7 +9116,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>15</v>
       </c>
@@ -9130,7 +9130,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>16</v>
       </c>
@@ -9144,7 +9144,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>439</v>
       </c>
@@ -9164,7 +9164,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>442</v>
       </c>
@@ -9184,7 +9184,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>386</v>
       </c>
@@ -9204,7 +9204,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>12</v>
       </c>
@@ -9218,7 +9218,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>308</v>
       </c>
@@ -9238,7 +9238,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>141</v>
       </c>
@@ -9252,7 +9252,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>12</v>
       </c>
@@ -9266,7 +9266,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>11</v>
       </c>
@@ -9280,7 +9280,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>448</v>
       </c>
@@ -9300,7 +9300,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>392</v>
       </c>
@@ -9320,7 +9320,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>110</v>
       </c>
@@ -9340,7 +9340,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>141</v>
       </c>
@@ -9354,7 +9354,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>12</v>
       </c>
@@ -9368,7 +9368,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>455</v>
       </c>
@@ -9388,7 +9388,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>11</v>
       </c>
@@ -9402,7 +9402,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>360</v>
       </c>
@@ -9422,7 +9422,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>404</v>
       </c>
@@ -9442,7 +9442,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>11</v>
       </c>
@@ -9456,7 +9456,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>126</v>
       </c>
@@ -9476,7 +9476,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>141</v>
       </c>
@@ -9490,7 +9490,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>12</v>
       </c>
@@ -9504,12 +9504,12 @@
         <v>465</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D44" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>468</v>
       </c>
@@ -9529,7 +9529,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>412</v>
       </c>

--- a/Tennis/WTA Tour/Bianca Andreescu.xlsx
+++ b/Tennis/WTA Tour/Bianca Andreescu.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7644" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0F2359EE-2A72-405E-8D17-599A9F66C248}"/>
+  <xr:revisionPtr revIDLastSave="7647" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{60BA654E-98AE-4E66-A6F9-9D3AA48E0594}"/>
   <bookViews>
-    <workbookView xWindow="3312" yWindow="3312" windowWidth="17280" windowHeight="8880" firstSheet="3" activeTab="8" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="3" activeTab="8" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2015" sheetId="22" r:id="rId1"/>
@@ -3939,10 +3939,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -4249,17 +4245,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -4279,7 +4275,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>45</v>
       </c>
@@ -4299,7 +4295,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>11</v>
       </c>
@@ -4313,7 +4309,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>15</v>
       </c>
@@ -4327,7 +4323,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>16</v>
       </c>
@@ -4341,7 +4337,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>17</v>
       </c>
@@ -4355,7 +4351,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>412</v>
       </c>
@@ -4375,7 +4371,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>53</v>
       </c>
@@ -4419,17 +4415,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -4449,7 +4445,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2015</v>
       </c>
@@ -4470,7 +4466,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2016</v>
       </c>
@@ -4491,7 +4487,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2017</v>
       </c>
@@ -4512,7 +4508,7 @@
         <v>0.37037037037037035</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2018</v>
       </c>
@@ -4533,7 +4529,7 @@
         <v>0.60465116279069764</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2019</v>
       </c>
@@ -4554,7 +4550,7 @@
         <v>0.85416666666666663</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2020</v>
       </c>
@@ -4575,7 +4571,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2021</v>
       </c>
@@ -4596,7 +4592,7 @@
         <v>0.29411764705882354</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2022</v>
       </c>
@@ -4617,7 +4613,7 @@
         <v>0.36842105263157893</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2023</v>
       </c>
@@ -4638,7 +4634,7 @@
         <v>-6.6666666666666666E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>6</v>
       </c>
@@ -4663,7 +4659,7 @@
         <v>0.52127659574468088</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>369</v>
       </c>
@@ -4714,17 +4710,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -4744,7 +4740,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>55</v>
       </c>
@@ -4764,7 +4760,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>11</v>
       </c>
@@ -4778,7 +4774,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>412</v>
       </c>
@@ -4798,7 +4794,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>21</v>
       </c>
@@ -4812,7 +4808,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>58</v>
       </c>
@@ -4832,7 +4828,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>11</v>
       </c>
@@ -4846,7 +4842,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>45</v>
       </c>
@@ -4866,7 +4862,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>11</v>
       </c>
@@ -4880,7 +4876,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>15</v>
       </c>
@@ -4894,7 +4890,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>16</v>
       </c>
@@ -4908,7 +4904,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>17</v>
       </c>
@@ -4922,7 +4918,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>68</v>
       </c>
@@ -4942,7 +4938,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>11</v>
       </c>
@@ -4956,7 +4952,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>15</v>
       </c>
@@ -4970,7 +4966,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>16</v>
       </c>
@@ -4984,7 +4980,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>17</v>
       </c>
@@ -4998,7 +4994,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>53</v>
       </c>
@@ -5018,7 +5014,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>11</v>
       </c>
@@ -5032,7 +5028,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>15</v>
       </c>
@@ -5046,7 +5042,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>33</v>
       </c>
@@ -5066,7 +5062,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>11</v>
       </c>
@@ -5107,17 +5103,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -5137,7 +5133,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>78</v>
       </c>
@@ -5157,7 +5153,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>11</v>
       </c>
@@ -5171,7 +5167,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>15</v>
       </c>
@@ -5185,7 +5181,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>83</v>
       </c>
@@ -5205,7 +5201,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>11</v>
       </c>
@@ -5219,7 +5215,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>15</v>
       </c>
@@ -5233,7 +5229,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>16</v>
       </c>
@@ -5247,7 +5243,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>17</v>
       </c>
@@ -5261,7 +5257,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>91</v>
       </c>
@@ -5281,7 +5277,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>11</v>
       </c>
@@ -5295,7 +5291,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>15</v>
       </c>
@@ -5309,7 +5305,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>16</v>
       </c>
@@ -5323,7 +5319,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>91</v>
       </c>
@@ -5343,7 +5339,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>11</v>
       </c>
@@ -5357,7 +5353,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>15</v>
       </c>
@@ -5371,7 +5367,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>16</v>
       </c>
@@ -5385,7 +5381,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>17</v>
       </c>
@@ -5399,7 +5395,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>91</v>
       </c>
@@ -5419,7 +5415,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>110</v>
       </c>
@@ -5439,7 +5435,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>113</v>
       </c>
@@ -5459,7 +5455,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>11</v>
       </c>
@@ -5473,7 +5469,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>119</v>
       </c>
@@ -5493,7 +5489,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>21</v>
       </c>
@@ -5507,7 +5503,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>120</v>
       </c>
@@ -5521,7 +5517,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>126</v>
       </c>
@@ -5541,7 +5537,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>21</v>
       </c>
@@ -5555,7 +5551,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>120</v>
       </c>
@@ -5569,7 +5565,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>127</v>
       </c>
@@ -5583,7 +5579,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>131</v>
       </c>
@@ -5603,7 +5599,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>11</v>
       </c>
@@ -5617,7 +5613,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>135</v>
       </c>
@@ -5637,7 +5633,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>11</v>
       </c>
@@ -5651,7 +5647,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>15</v>
       </c>
@@ -5665,7 +5661,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>41</v>
       </c>
@@ -5685,7 +5681,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>143</v>
       </c>
@@ -5705,7 +5701,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>146</v>
       </c>
@@ -5725,7 +5721,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>149</v>
       </c>
@@ -5745,7 +5741,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>11</v>
       </c>
@@ -5759,7 +5755,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>153</v>
       </c>
@@ -5779,7 +5775,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>155</v>
       </c>
@@ -5799,7 +5795,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>157</v>
       </c>
@@ -5819,7 +5815,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>160</v>
       </c>
@@ -5839,7 +5835,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>11</v>
       </c>
@@ -5853,7 +5849,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>15</v>
       </c>
@@ -5885,17 +5881,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -5915,7 +5911,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>167</v>
       </c>
@@ -5935,7 +5931,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>11</v>
       </c>
@@ -5949,7 +5945,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>15</v>
       </c>
@@ -5963,7 +5959,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>174</v>
       </c>
@@ -5983,7 +5979,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>176</v>
       </c>
@@ -6003,7 +5999,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>11</v>
       </c>
@@ -6017,7 +6013,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>15</v>
       </c>
@@ -6031,7 +6027,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>180</v>
       </c>
@@ -6048,7 +6044,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>183</v>
       </c>
@@ -6068,7 +6064,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>11</v>
       </c>
@@ -6082,7 +6078,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>185</v>
       </c>
@@ -6102,7 +6098,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>11</v>
       </c>
@@ -6116,7 +6112,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>15</v>
       </c>
@@ -6130,7 +6126,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>16</v>
       </c>
@@ -6144,7 +6140,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>17</v>
       </c>
@@ -6158,7 +6154,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>193</v>
       </c>
@@ -6178,7 +6174,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>11</v>
       </c>
@@ -6192,7 +6188,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>15</v>
       </c>
@@ -6206,7 +6202,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>16</v>
       </c>
@@ -6220,7 +6216,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>17</v>
       </c>
@@ -6234,7 +6230,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>201</v>
       </c>
@@ -6254,7 +6250,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>11</v>
       </c>
@@ -6268,7 +6264,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>110</v>
       </c>
@@ -6288,7 +6284,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>21</v>
       </c>
@@ -6302,7 +6298,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>120</v>
       </c>
@@ -6316,7 +6312,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>119</v>
       </c>
@@ -6336,7 +6332,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>21</v>
       </c>
@@ -6350,7 +6346,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>120</v>
       </c>
@@ -6364,7 +6360,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>12</v>
       </c>
@@ -6378,7 +6374,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>11</v>
       </c>
@@ -6392,7 +6388,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>126</v>
       </c>
@@ -6412,7 +6408,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>21</v>
       </c>
@@ -6426,7 +6422,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>120</v>
       </c>
@@ -6440,7 +6436,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>55</v>
       </c>
@@ -6460,7 +6456,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>45</v>
       </c>
@@ -6480,7 +6476,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>131</v>
       </c>
@@ -6500,7 +6496,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>11</v>
       </c>
@@ -6514,7 +6510,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>15</v>
       </c>
@@ -6528,7 +6524,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>16</v>
       </c>
@@ -6542,7 +6538,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>146</v>
       </c>
@@ -6562,7 +6558,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>233</v>
       </c>
@@ -6582,7 +6578,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>11</v>
       </c>
@@ -6596,7 +6592,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>15</v>
       </c>
@@ -6610,7 +6606,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>16</v>
       </c>
@@ -6624,7 +6620,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>17</v>
       </c>
@@ -6638,7 +6634,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>157</v>
       </c>
@@ -6658,7 +6654,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>11</v>
       </c>
@@ -6672,7 +6668,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>15</v>
       </c>
@@ -6686,7 +6682,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>16</v>
       </c>
@@ -6700,7 +6696,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>160</v>
       </c>
@@ -6720,7 +6716,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>11</v>
       </c>
@@ -6734,7 +6730,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>15</v>
       </c>
@@ -6748,7 +6744,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>16</v>
       </c>
@@ -6762,7 +6758,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>252</v>
       </c>
@@ -6782,7 +6778,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>11</v>
       </c>
@@ -6796,7 +6792,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
         <v>15</v>
       </c>
@@ -6810,7 +6806,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>257</v>
       </c>
@@ -6830,7 +6826,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
         <v>11</v>
       </c>
@@ -6844,7 +6840,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
         <v>15</v>
       </c>
@@ -6858,7 +6854,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
         <v>16</v>
       </c>
@@ -6872,7 +6868,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="81" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C81" t="s">
         <v>17</v>
       </c>
@@ -6904,17 +6900,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -6934,7 +6930,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>265</v>
       </c>
@@ -6954,7 +6950,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>21</v>
       </c>
@@ -6968,7 +6964,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>120</v>
       </c>
@@ -6982,7 +6978,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>12</v>
       </c>
@@ -6996,7 +6992,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>11</v>
       </c>
@@ -7010,7 +7006,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>15</v>
       </c>
@@ -7024,7 +7020,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>16</v>
       </c>
@@ -7038,7 +7034,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>17</v>
       </c>
@@ -7052,7 +7048,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>174</v>
       </c>
@@ -7072,7 +7068,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>21</v>
       </c>
@@ -7086,7 +7082,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>120</v>
       </c>
@@ -7100,7 +7096,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>127</v>
       </c>
@@ -7114,7 +7110,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>141</v>
       </c>
@@ -7128,7 +7124,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>286</v>
       </c>
@@ -7148,7 +7144,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>11</v>
       </c>
@@ -7162,7 +7158,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>15</v>
       </c>
@@ -7176,7 +7172,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>16</v>
       </c>
@@ -7190,7 +7186,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>17</v>
       </c>
@@ -7204,7 +7200,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>180</v>
       </c>
@@ -7221,7 +7217,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D24" t="s">
         <v>207</v>
       </c>
@@ -7232,7 +7228,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>294</v>
       </c>
@@ -7252,7 +7248,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>11</v>
       </c>
@@ -7266,7 +7262,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>15</v>
       </c>
@@ -7280,7 +7276,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>16</v>
       </c>
@@ -7294,7 +7290,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>386</v>
       </c>
@@ -7314,7 +7310,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>141</v>
       </c>
@@ -7328,7 +7324,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>12</v>
       </c>
@@ -7342,7 +7338,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>11</v>
       </c>
@@ -7356,7 +7352,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>15</v>
       </c>
@@ -7370,7 +7366,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>16</v>
       </c>
@@ -7384,7 +7380,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>17</v>
       </c>
@@ -7398,7 +7394,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>308</v>
       </c>
@@ -7418,7 +7414,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>141</v>
       </c>
@@ -7432,7 +7428,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>12</v>
       </c>
@@ -7446,7 +7442,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>11</v>
       </c>
@@ -7460,7 +7456,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>110</v>
       </c>
@@ -7480,7 +7476,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>141</v>
       </c>
@@ -7494,7 +7490,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>412</v>
       </c>
@@ -7514,7 +7510,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>12</v>
       </c>
@@ -7528,7 +7524,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>11</v>
       </c>
@@ -7542,7 +7538,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>15</v>
       </c>
@@ -7556,7 +7552,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>16</v>
       </c>
@@ -7570,7 +7566,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>17</v>
       </c>
@@ -7584,7 +7580,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>146</v>
       </c>
@@ -7604,7 +7600,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>141</v>
       </c>
@@ -7618,7 +7614,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>12</v>
       </c>
@@ -7632,7 +7628,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>11</v>
       </c>
@@ -7646,7 +7642,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>15</v>
       </c>
@@ -7660,7 +7656,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>16</v>
       </c>
@@ -7674,7 +7670,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>17</v>
       </c>
@@ -7688,7 +7684,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>329</v>
       </c>
@@ -7708,7 +7704,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>12</v>
       </c>
@@ -7722,7 +7718,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>11</v>
       </c>
@@ -7736,7 +7732,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>15</v>
       </c>
@@ -7750,7 +7746,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>333</v>
       </c>
@@ -7770,7 +7766,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>334</v>
       </c>
@@ -7802,17 +7798,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -7832,7 +7828,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>44</v>
       </c>
@@ -7869,17 +7865,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -7899,7 +7895,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>174</v>
       </c>
@@ -7919,7 +7915,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>141</v>
       </c>
@@ -7933,7 +7929,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>338</v>
       </c>
@@ -7953,7 +7949,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>11</v>
       </c>
@@ -7967,7 +7963,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>15</v>
       </c>
@@ -7981,7 +7977,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>16</v>
       </c>
@@ -7995,7 +7991,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>308</v>
       </c>
@@ -8015,7 +8011,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>12</v>
       </c>
@@ -8029,7 +8025,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>11</v>
       </c>
@@ -8043,7 +8039,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>15</v>
       </c>
@@ -8057,7 +8053,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>16</v>
       </c>
@@ -8071,7 +8067,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>17</v>
       </c>
@@ -8085,7 +8081,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>354</v>
       </c>
@@ -8105,7 +8101,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>11</v>
       </c>
@@ -8119,7 +8115,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>15</v>
       </c>
@@ -8133,7 +8129,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>110</v>
       </c>
@@ -8153,7 +8149,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>360</v>
       </c>
@@ -8173,7 +8169,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>363</v>
       </c>
@@ -8193,7 +8189,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>11</v>
       </c>
@@ -8207,7 +8203,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>126</v>
       </c>
@@ -8227,7 +8223,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>412</v>
       </c>
@@ -8247,7 +8243,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>11</v>
       </c>
@@ -8261,7 +8257,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>371</v>
       </c>
@@ -8281,7 +8277,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>146</v>
       </c>
@@ -8301,7 +8297,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>141</v>
       </c>
@@ -8315,7 +8311,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>12</v>
       </c>
@@ -8329,7 +8325,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>11</v>
       </c>
@@ -8343,7 +8339,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>381</v>
       </c>
@@ -8363,7 +8359,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>386</v>
       </c>
@@ -8383,7 +8379,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>12</v>
       </c>
@@ -8415,17 +8411,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -8445,7 +8441,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>388</v>
       </c>
@@ -8465,7 +8461,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>11</v>
       </c>
@@ -8479,7 +8475,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>448</v>
       </c>
@@ -8499,7 +8495,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>12</v>
       </c>
@@ -8513,7 +8509,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>11</v>
       </c>
@@ -8527,7 +8523,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>392</v>
       </c>
@@ -8547,7 +8543,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>12</v>
       </c>
@@ -8561,7 +8557,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>11</v>
       </c>
@@ -8575,7 +8571,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>15</v>
       </c>
@@ -8589,7 +8585,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>110</v>
       </c>
@@ -8609,7 +8605,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>141</v>
       </c>
@@ -8623,7 +8619,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>400</v>
       </c>
@@ -8643,7 +8639,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>11</v>
       </c>
@@ -8657,7 +8653,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>404</v>
       </c>
@@ -8677,7 +8673,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>11</v>
       </c>
@@ -8691,7 +8687,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>15</v>
       </c>
@@ -8705,7 +8701,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>16</v>
       </c>
@@ -8719,7 +8715,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>17</v>
       </c>
@@ -8733,7 +8729,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>126</v>
       </c>
@@ -8753,7 +8749,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>141</v>
       </c>
@@ -8767,7 +8763,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>411</v>
       </c>
@@ -8787,7 +8783,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>412</v>
       </c>
@@ -8807,7 +8803,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>12</v>
       </c>
@@ -8821,7 +8817,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>11</v>
       </c>
@@ -8835,7 +8831,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>146</v>
       </c>
@@ -8855,7 +8851,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>141</v>
       </c>
@@ -8869,7 +8865,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>12</v>
       </c>
@@ -8883,7 +8879,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>420</v>
       </c>
@@ -8903,7 +8899,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>11</v>
       </c>
@@ -8917,7 +8913,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>425</v>
       </c>
@@ -8937,7 +8933,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>12</v>
       </c>
@@ -8951,7 +8947,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>11</v>
       </c>
@@ -8982,17 +8978,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -9012,7 +9008,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>432</v>
       </c>
@@ -9032,7 +9028,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="9"/>
       <c r="C3" t="s">
         <v>11</v>
@@ -9047,7 +9043,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>174</v>
       </c>
@@ -9067,7 +9063,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="9"/>
       <c r="C6" t="s">
         <v>141</v>
@@ -9082,7 +9078,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>433</v>
       </c>
@@ -9102,7 +9098,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>11</v>
       </c>
@@ -9116,7 +9112,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>15</v>
       </c>
@@ -9130,7 +9126,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>16</v>
       </c>
@@ -9144,7 +9140,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>439</v>
       </c>
@@ -9164,7 +9160,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>442</v>
       </c>
@@ -9184,7 +9180,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>386</v>
       </c>
@@ -9204,7 +9200,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>12</v>
       </c>
@@ -9218,7 +9214,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>308</v>
       </c>
@@ -9238,7 +9234,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>141</v>
       </c>
@@ -9252,7 +9248,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>12</v>
       </c>
@@ -9266,7 +9262,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>11</v>
       </c>
@@ -9280,7 +9276,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>448</v>
       </c>
@@ -9300,7 +9296,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>392</v>
       </c>
@@ -9320,7 +9316,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>110</v>
       </c>
@@ -9340,7 +9336,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>141</v>
       </c>
@@ -9354,7 +9350,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>12</v>
       </c>
@@ -9368,7 +9364,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>455</v>
       </c>
@@ -9388,7 +9384,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>11</v>
       </c>
@@ -9402,7 +9398,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>360</v>
       </c>
@@ -9422,7 +9418,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>404</v>
       </c>
@@ -9442,7 +9438,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>11</v>
       </c>
@@ -9456,7 +9452,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>126</v>
       </c>
@@ -9476,7 +9472,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>141</v>
       </c>
@@ -9490,7 +9486,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>12</v>
       </c>
@@ -9504,12 +9500,12 @@
         <v>465</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D44" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>468</v>
       </c>
@@ -9529,7 +9525,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>412</v>
       </c>

--- a/Tennis/WTA Tour/Bianca Andreescu.xlsx
+++ b/Tennis/WTA Tour/Bianca Andreescu.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7647" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{60BA654E-98AE-4E66-A6F9-9D3AA48E0594}"/>
+  <xr:revisionPtr revIDLastSave="7648" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C02C415B-E433-4D27-A22E-D4ACFA1ABF43}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="3" activeTab="8" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="3" activeTab="3" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2015" sheetId="22" r:id="rId1"/>
@@ -820,9 +820,6 @@
     <t>ITF NORMAN ($25,000)</t>
   </si>
   <si>
-    <t>María Camila Osorio Serrano (COLOMBIA)</t>
-  </si>
-  <si>
     <t>Maria Gutierrez Carrasco (SPAIN)</t>
   </si>
   <si>
@@ -1454,6 +1451,9 @@
   </si>
   <si>
     <t>2-6 6-3 7-6(5)</t>
+  </si>
+  <si>
+    <t>Camila Osorio (COLOMBIA)</t>
   </si>
 </sst>
 </file>
@@ -3853,7 +3853,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{7B75688D-5400-4B88-AFA9-47E358D66687}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -3865,7 +3865,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{FC873133-7941-4C73-8B20-D039230DB03A}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -3939,10 +3939,14 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -3980,7 +3984,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -4086,7 +4090,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -4228,7 +4232,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4241,7 +4245,7 @@
   </sheetPr>
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -4353,7 +4357,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B8" t="s">
         <v>19</v>
@@ -4411,7 +4415,7 @@
   </sheetPr>
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -4430,10 +4434,10 @@
         <v>7</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>372</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>373</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>8</v>
@@ -4661,7 +4665,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B12" s="2">
         <f>AVERAGE(B2:B10)</f>
@@ -4706,7 +4710,7 @@
   </sheetPr>
   <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -4776,7 +4780,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B5" t="s">
         <v>19</v>
@@ -5099,7 +5103,7 @@
   </sheetPr>
   <dimension ref="A1:F63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -5877,8 +5881,8 @@
   </sheetPr>
   <dimension ref="A1:F81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6055,7 +6059,7 @@
         <v>12</v>
       </c>
       <c r="D14" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>13</v>
@@ -6487,7 +6491,7 @@
         <v>12</v>
       </c>
       <c r="D50" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E50" s="4" t="s">
         <v>13</v>
@@ -6535,7 +6539,7 @@
         <v>226</v>
       </c>
       <c r="F53" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -6817,13 +6821,13 @@
         <v>12</v>
       </c>
       <c r="D77" t="s">
+        <v>258</v>
+      </c>
+      <c r="E77" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F77" t="s">
         <v>259</v>
-      </c>
-      <c r="E77" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F77" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
@@ -6831,7 +6835,7 @@
         <v>11</v>
       </c>
       <c r="D78" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E78" s="4" t="s">
         <v>13</v>
@@ -6845,13 +6849,13 @@
         <v>15</v>
       </c>
       <c r="D79" t="s">
+        <v>261</v>
+      </c>
+      <c r="E79" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F79" t="s">
         <v>262</v>
-      </c>
-      <c r="E79" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F79" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
@@ -6859,7 +6863,7 @@
         <v>16</v>
       </c>
       <c r="D80" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E80" s="4" t="s">
         <v>13</v>
@@ -6873,7 +6877,7 @@
         <v>17</v>
       </c>
       <c r="D81" t="s">
-        <v>258</v>
+        <v>469</v>
       </c>
       <c r="E81" s="4" t="s">
         <v>13</v>
@@ -6896,7 +6900,7 @@
   </sheetPr>
   <dimension ref="A1:F68"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -6932,7 +6936,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B2" t="s">
         <v>19</v>
@@ -6955,13 +6959,13 @@
         <v>21</v>
       </c>
       <c r="D3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -6969,13 +6973,13 @@
         <v>120</v>
       </c>
       <c r="D4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -6989,7 +6993,7 @@
         <v>13</v>
       </c>
       <c r="F5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -6997,7 +7001,7 @@
         <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>13</v>
@@ -7011,13 +7015,13 @@
         <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F7" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -7025,7 +7029,7 @@
         <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>13</v>
@@ -7039,13 +7043,13 @@
         <v>17</v>
       </c>
       <c r="D9" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -7059,13 +7063,13 @@
         <v>20</v>
       </c>
       <c r="D11" t="s">
+        <v>277</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" t="s">
         <v>278</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -7073,7 +7077,7 @@
         <v>21</v>
       </c>
       <c r="D12" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>13</v>
@@ -7093,7 +7097,7 @@
         <v>13</v>
       </c>
       <c r="F13" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -7101,13 +7105,13 @@
         <v>127</v>
       </c>
       <c r="D14" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F14" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -7115,7 +7119,7 @@
         <v>141</v>
       </c>
       <c r="D15" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>14</v>
@@ -7126,7 +7130,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B17" t="s">
         <v>19</v>
@@ -7135,7 +7139,7 @@
         <v>12</v>
       </c>
       <c r="D17" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>13</v>
@@ -7149,7 +7153,7 @@
         <v>11</v>
       </c>
       <c r="D18" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>13</v>
@@ -7163,7 +7167,7 @@
         <v>15</v>
       </c>
       <c r="D19" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>13</v>
@@ -7177,13 +7181,13 @@
         <v>16</v>
       </c>
       <c r="D20" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F20" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -7191,13 +7195,13 @@
         <v>17</v>
       </c>
       <c r="D21" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F21" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -7208,7 +7212,7 @@
         <v>92</v>
       </c>
       <c r="D23" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>13</v>
@@ -7230,7 +7234,7 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B26" t="s">
         <v>19</v>
@@ -7267,13 +7271,13 @@
         <v>15</v>
       </c>
       <c r="D28" t="s">
+        <v>295</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F28" t="s">
         <v>296</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F28" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -7287,12 +7291,12 @@
         <v>14</v>
       </c>
       <c r="F29" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B31" t="s">
         <v>19</v>
@@ -7307,7 +7311,7 @@
         <v>13</v>
       </c>
       <c r="F31" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -7315,7 +7319,7 @@
         <v>141</v>
       </c>
       <c r="D32" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E32" s="4" t="s">
         <v>13</v>
@@ -7329,7 +7333,7 @@
         <v>12</v>
       </c>
       <c r="D33" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>13</v>
@@ -7343,13 +7347,13 @@
         <v>11</v>
       </c>
       <c r="D34" t="s">
+        <v>301</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F34" t="s">
         <v>302</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F34" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -7357,7 +7361,7 @@
         <v>15</v>
       </c>
       <c r="D35" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E35" s="4" t="s">
         <v>13</v>
@@ -7371,13 +7375,13 @@
         <v>16</v>
       </c>
       <c r="D36" t="s">
+        <v>299</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F36" t="s">
         <v>300</v>
-      </c>
-      <c r="E36" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F36" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -7385,18 +7389,18 @@
         <v>17</v>
       </c>
       <c r="D37" t="s">
+        <v>297</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F37" t="s">
         <v>298</v>
-      </c>
-      <c r="E37" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F37" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B39" t="s">
         <v>19</v>
@@ -7411,7 +7415,7 @@
         <v>13</v>
       </c>
       <c r="F39" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -7433,13 +7437,13 @@
         <v>12</v>
       </c>
       <c r="D41" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E41" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F41" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -7447,13 +7451,13 @@
         <v>11</v>
       </c>
       <c r="D42" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E42" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F42" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -7467,13 +7471,13 @@
         <v>127</v>
       </c>
       <c r="D44" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E44" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F44" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -7487,12 +7491,12 @@
         <v>226</v>
       </c>
       <c r="F45" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B47" t="s">
         <v>19</v>
@@ -7501,13 +7505,13 @@
         <v>141</v>
       </c>
       <c r="D47" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E47" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F47" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -7515,13 +7519,13 @@
         <v>12</v>
       </c>
       <c r="D48" t="s">
+        <v>316</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F48" t="s">
         <v>317</v>
-      </c>
-      <c r="E48" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F48" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -7529,13 +7533,13 @@
         <v>11</v>
       </c>
       <c r="D49" t="s">
+        <v>318</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F49" t="s">
         <v>319</v>
-      </c>
-      <c r="E49" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F49" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -7543,13 +7547,13 @@
         <v>15</v>
       </c>
       <c r="D50" t="s">
+        <v>320</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F50" t="s">
         <v>321</v>
-      </c>
-      <c r="E50" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F50" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -7571,13 +7575,13 @@
         <v>17</v>
       </c>
       <c r="D52" t="s">
+        <v>313</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F52" t="s">
         <v>314</v>
-      </c>
-      <c r="E52" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F52" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -7591,7 +7595,7 @@
         <v>127</v>
       </c>
       <c r="D54" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E54" s="4" t="s">
         <v>13</v>
@@ -7605,7 +7609,7 @@
         <v>141</v>
       </c>
       <c r="D55" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E55" s="4" t="s">
         <v>13</v>
@@ -7619,7 +7623,7 @@
         <v>12</v>
       </c>
       <c r="D56" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E56" s="4" t="s">
         <v>13</v>
@@ -7633,13 +7637,13 @@
         <v>11</v>
       </c>
       <c r="D57" t="s">
+        <v>323</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F57" t="s">
         <v>324</v>
-      </c>
-      <c r="E57" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F57" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -7647,13 +7651,13 @@
         <v>15</v>
       </c>
       <c r="D58" t="s">
+        <v>325</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F58" t="s">
         <v>326</v>
-      </c>
-      <c r="E58" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F58" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -7661,7 +7665,7 @@
         <v>16</v>
       </c>
       <c r="D59" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E59" s="4" t="s">
         <v>13</v>
@@ -7675,7 +7679,7 @@
         <v>17</v>
       </c>
       <c r="D60" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E60" s="4" t="s">
         <v>13</v>
@@ -7686,7 +7690,7 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B62" t="s">
         <v>19</v>
@@ -7695,13 +7699,13 @@
         <v>141</v>
       </c>
       <c r="D62" t="s">
+        <v>330</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F62" t="s">
         <v>331</v>
-      </c>
-      <c r="E62" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F62" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -7709,7 +7713,7 @@
         <v>12</v>
       </c>
       <c r="D63" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E63" s="4" t="s">
         <v>13</v>
@@ -7737,7 +7741,7 @@
         <v>15</v>
       </c>
       <c r="D65" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E65" s="5" t="s">
         <v>14</v>
@@ -7748,36 +7752,36 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B67" t="s">
         <v>19</v>
       </c>
       <c r="C67" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D67" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E67" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F67" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
+        <v>333</v>
+      </c>
+      <c r="D68" t="s">
         <v>334</v>
-      </c>
-      <c r="D68" t="s">
-        <v>335</v>
       </c>
       <c r="E68" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F68" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
   </sheetData>
@@ -7794,7 +7798,7 @@
   </sheetPr>
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -7861,7 +7865,7 @@
   </sheetPr>
   <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -7912,7 +7916,7 @@
         <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -7920,7 +7924,7 @@
         <v>141</v>
       </c>
       <c r="D3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>14</v>
@@ -7931,7 +7935,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B5" t="s">
         <v>19</v>
@@ -7940,13 +7944,13 @@
         <v>12</v>
       </c>
       <c r="D5" t="s">
+        <v>339</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" t="s">
         <v>340</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -7954,13 +7958,13 @@
         <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F6" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -7974,7 +7978,7 @@
         <v>13</v>
       </c>
       <c r="F7" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -7982,18 +7986,18 @@
         <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F8" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B10" t="s">
         <v>19</v>
@@ -8002,13 +8006,13 @@
         <v>141</v>
       </c>
       <c r="D10" t="s">
+        <v>345</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" t="s">
         <v>346</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -8016,13 +8020,13 @@
         <v>12</v>
       </c>
       <c r="D11" t="s">
+        <v>347</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" t="s">
         <v>348</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -8030,13 +8034,13 @@
         <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F12" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -8044,7 +8048,7 @@
         <v>15</v>
       </c>
       <c r="D13" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>13</v>
@@ -8058,13 +8062,13 @@
         <v>16</v>
       </c>
       <c r="D14" t="s">
+        <v>351</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" t="s">
         <v>352</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F14" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -8072,18 +8076,18 @@
         <v>17</v>
       </c>
       <c r="D15" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F15" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B17" t="s">
         <v>92</v>
@@ -8092,7 +8096,7 @@
         <v>12</v>
       </c>
       <c r="D17" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>13</v>
@@ -8106,7 +8110,7 @@
         <v>11</v>
       </c>
       <c r="D18" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>13</v>
@@ -8120,13 +8124,13 @@
         <v>15</v>
       </c>
       <c r="D19" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E19" s="8" t="s">
         <v>226</v>
       </c>
       <c r="F19" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -8140,18 +8144,18 @@
         <v>127</v>
       </c>
       <c r="D21" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F21" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B23" t="s">
         <v>114</v>
@@ -8160,18 +8164,18 @@
         <v>11</v>
       </c>
       <c r="D23" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F23" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B25" t="s">
         <v>114</v>
@@ -8180,13 +8184,13 @@
         <v>12</v>
       </c>
       <c r="D25" t="s">
+        <v>363</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F25" t="s">
         <v>364</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F25" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -8194,7 +8198,7 @@
         <v>11</v>
       </c>
       <c r="D26" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>14</v>
@@ -8214,7 +8218,7 @@
         <v>127</v>
       </c>
       <c r="D28" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E28" s="5" t="s">
         <v>14</v>
@@ -8225,7 +8229,7 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B30" t="s">
         <v>19</v>
@@ -8248,18 +8252,18 @@
         <v>11</v>
       </c>
       <c r="D31" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E31" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F31" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B33" t="s">
         <v>19</v>
@@ -8268,7 +8272,7 @@
         <v>12</v>
       </c>
       <c r="D33" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E33" s="5" t="s">
         <v>14</v>
@@ -8288,13 +8292,13 @@
         <v>127</v>
       </c>
       <c r="D35" t="s">
+        <v>374</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F35" t="s">
         <v>375</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F35" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -8302,7 +8306,7 @@
         <v>141</v>
       </c>
       <c r="D36" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E36" s="4" t="s">
         <v>13</v>
@@ -8316,7 +8320,7 @@
         <v>12</v>
       </c>
       <c r="D37" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E37" s="4" t="s">
         <v>13</v>
@@ -8330,18 +8334,18 @@
         <v>11</v>
       </c>
       <c r="D38" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E38" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F38" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B40" t="s">
         <v>19</v>
@@ -8350,7 +8354,7 @@
         <v>12</v>
       </c>
       <c r="D40" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E40" s="5" t="s">
         <v>14</v>
@@ -8361,7 +8365,7 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B42" t="s">
         <v>19</v>
@@ -8370,13 +8374,13 @@
         <v>141</v>
       </c>
       <c r="D42" t="s">
+        <v>382</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F42" t="s">
         <v>383</v>
-      </c>
-      <c r="E42" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F42" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -8384,13 +8388,13 @@
         <v>12</v>
       </c>
       <c r="D43" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E43" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F43" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
   </sheetData>
@@ -8407,7 +8411,7 @@
   </sheetPr>
   <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -8443,7 +8447,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B2" t="s">
         <v>92</v>
@@ -8452,13 +8456,13 @@
         <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -8472,12 +8476,12 @@
         <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B5" t="s">
         <v>92</v>
@@ -8486,13 +8490,13 @@
         <v>141</v>
       </c>
       <c r="D5" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F5" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -8500,7 +8504,7 @@
         <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>13</v>
@@ -8514,18 +8518,18 @@
         <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F7" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B9" t="s">
         <v>92</v>
@@ -8534,13 +8538,13 @@
         <v>141</v>
       </c>
       <c r="D9" t="s">
+        <v>392</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" t="s">
         <v>393</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -8548,7 +8552,7 @@
         <v>12</v>
       </c>
       <c r="D10" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>13</v>
@@ -8562,7 +8566,7 @@
         <v>11</v>
       </c>
       <c r="D11" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>13</v>
@@ -8576,13 +8580,13 @@
         <v>15</v>
       </c>
       <c r="D12" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F12" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -8602,7 +8606,7 @@
         <v>13</v>
       </c>
       <c r="F14" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -8610,7 +8614,7 @@
         <v>141</v>
       </c>
       <c r="D15" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>14</v>
@@ -8621,7 +8625,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B17" t="s">
         <v>114</v>
@@ -8630,13 +8634,13 @@
         <v>12</v>
       </c>
       <c r="D17" t="s">
+        <v>400</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" t="s">
         <v>401</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F17" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -8644,18 +8648,18 @@
         <v>11</v>
       </c>
       <c r="D18" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F18" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B20" t="s">
         <v>114</v>
@@ -8670,7 +8674,7 @@
         <v>13</v>
       </c>
       <c r="F20" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -8678,7 +8682,7 @@
         <v>11</v>
       </c>
       <c r="D21" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>13</v>
@@ -8692,7 +8696,7 @@
         <v>15</v>
       </c>
       <c r="D22" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>13</v>
@@ -8706,13 +8710,13 @@
         <v>16</v>
       </c>
       <c r="D23" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E23" s="8" t="s">
         <v>13</v>
       </c>
       <c r="F23" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -8720,13 +8724,13 @@
         <v>17</v>
       </c>
       <c r="D24" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F24" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -8740,7 +8744,7 @@
         <v>127</v>
       </c>
       <c r="D26" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>13</v>
@@ -8754,7 +8758,7 @@
         <v>141</v>
       </c>
       <c r="D27" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>14</v>
@@ -8765,7 +8769,7 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B29" t="s">
         <v>19</v>
@@ -8774,7 +8778,7 @@
         <v>12</v>
       </c>
       <c r="D29" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E29" s="5" t="s">
         <v>14</v>
@@ -8785,7 +8789,7 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B31" t="s">
         <v>19</v>
@@ -8794,13 +8798,13 @@
         <v>141</v>
       </c>
       <c r="D31" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E31" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F31" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -8808,13 +8812,13 @@
         <v>12</v>
       </c>
       <c r="D32" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E32" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F32" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -8822,13 +8826,13 @@
         <v>11</v>
       </c>
       <c r="D33" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E33" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F33" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -8842,13 +8846,13 @@
         <v>127</v>
       </c>
       <c r="D35" t="s">
+        <v>416</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F35" t="s">
         <v>417</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F35" t="s">
-        <v>418</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -8856,7 +8860,7 @@
         <v>141</v>
       </c>
       <c r="D36" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E36" s="4" t="s">
         <v>13</v>
@@ -8870,7 +8874,7 @@
         <v>12</v>
       </c>
       <c r="D37" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E37" s="5" t="s">
         <v>14</v>
@@ -8881,7 +8885,7 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B39" t="s">
         <v>19</v>
@@ -8890,13 +8894,13 @@
         <v>12</v>
       </c>
       <c r="D39" t="s">
+        <v>420</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F39" t="s">
         <v>421</v>
-      </c>
-      <c r="E39" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F39" t="s">
-        <v>422</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -8904,18 +8908,18 @@
         <v>11</v>
       </c>
       <c r="D40" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E40" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F40" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B42" t="s">
         <v>19</v>
@@ -8938,13 +8942,13 @@
         <v>12</v>
       </c>
       <c r="D43" t="s">
+        <v>425</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F43" t="s">
         <v>426</v>
-      </c>
-      <c r="E43" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F43" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -8952,7 +8956,7 @@
         <v>11</v>
       </c>
       <c r="D44" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E44" s="5" t="s">
         <v>14</v>
@@ -8974,7 +8978,7 @@
   </sheetPr>
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -9010,7 +9014,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B2" t="s">
         <v>19</v>
@@ -9019,13 +9023,13 @@
         <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -9034,7 +9038,7 @@
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>14</v>
@@ -9054,7 +9058,7 @@
         <v>127</v>
       </c>
       <c r="D5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>13</v>
@@ -9069,18 +9073,18 @@
         <v>141</v>
       </c>
       <c r="D6" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F6" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B8" t="s">
         <v>19</v>
@@ -9103,7 +9107,7 @@
         <v>11</v>
       </c>
       <c r="D9" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>13</v>
@@ -9117,13 +9121,13 @@
         <v>15</v>
       </c>
       <c r="D10" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F10" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -9131,18 +9135,18 @@
         <v>16</v>
       </c>
       <c r="D11" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F11" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B13" t="s">
         <v>19</v>
@@ -9151,18 +9155,18 @@
         <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F13" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B15" t="s">
         <v>19</v>
@@ -9171,7 +9175,7 @@
         <v>141</v>
       </c>
       <c r="D15" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>14</v>
@@ -9182,7 +9186,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B17" t="s">
         <v>19</v>
@@ -9191,13 +9195,13 @@
         <v>141</v>
       </c>
       <c r="D17" t="s">
+        <v>442</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" t="s">
         <v>443</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F17" t="s">
-        <v>444</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -9205,18 +9209,18 @@
         <v>12</v>
       </c>
       <c r="D18" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F18" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B20" t="s">
         <v>19</v>
@@ -9225,7 +9229,7 @@
         <v>127</v>
       </c>
       <c r="D20" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>13</v>
@@ -9239,7 +9243,7 @@
         <v>141</v>
       </c>
       <c r="D21" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>13</v>
@@ -9267,18 +9271,18 @@
         <v>11</v>
       </c>
       <c r="D23" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F23" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B25" t="s">
         <v>92</v>
@@ -9287,18 +9291,18 @@
         <v>141</v>
       </c>
       <c r="D25" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F25" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B27" t="s">
         <v>92</v>
@@ -9307,7 +9311,7 @@
         <v>141</v>
       </c>
       <c r="D27" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>14</v>
@@ -9327,13 +9331,13 @@
         <v>127</v>
       </c>
       <c r="D29" t="s">
+        <v>452</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F29" t="s">
         <v>453</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F29" t="s">
-        <v>454</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -9341,7 +9345,7 @@
         <v>141</v>
       </c>
       <c r="D30" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>13</v>
@@ -9355,7 +9359,7 @@
         <v>12</v>
       </c>
       <c r="D31" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E31" s="5" t="s">
         <v>14</v>
@@ -9366,7 +9370,7 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B33" t="s">
         <v>114</v>
@@ -9375,7 +9379,7 @@
         <v>12</v>
       </c>
       <c r="D33" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>13</v>
@@ -9389,18 +9393,18 @@
         <v>11</v>
       </c>
       <c r="D34" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E34" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F34" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B36" t="s">
         <v>114</v>
@@ -9409,18 +9413,18 @@
         <v>12</v>
       </c>
       <c r="D36" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E36" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F36" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B38" t="s">
         <v>114</v>
@@ -9429,13 +9433,13 @@
         <v>12</v>
       </c>
       <c r="D38" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E38" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F38" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -9443,7 +9447,7 @@
         <v>11</v>
       </c>
       <c r="D39" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E39" s="5" t="s">
         <v>14</v>
@@ -9463,7 +9467,7 @@
         <v>127</v>
       </c>
       <c r="D41" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E41" s="4" t="s">
         <v>13</v>
@@ -9477,13 +9481,13 @@
         <v>141</v>
       </c>
       <c r="D42" t="s">
+        <v>465</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F42" t="s">
         <v>466</v>
-      </c>
-      <c r="E42" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F42" t="s">
-        <v>467</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -9491,23 +9495,23 @@
         <v>12</v>
       </c>
       <c r="D43" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E43" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F43" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D44" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B45" t="s">
         <v>19</v>
@@ -9516,18 +9520,18 @@
         <v>12</v>
       </c>
       <c r="D45" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E45" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F45" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B47" t="s">
         <v>19</v>

--- a/Tennis/WTA Tour/Bianca Andreescu.xlsx
+++ b/Tennis/WTA Tour/Bianca Andreescu.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7648" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C02C415B-E433-4D27-A22E-D4ACFA1ABF43}"/>
+  <xr:revisionPtr revIDLastSave="7708" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{904A00F1-D04A-4F12-A1BF-6042C64660A1}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="3" activeTab="3" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="3" activeTab="10" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2015" sheetId="22" r:id="rId1"/>
@@ -22,9 +22,10 @@
     <sheet name="2021" sheetId="28" r:id="rId7"/>
     <sheet name="2022" sheetId="31" r:id="rId8"/>
     <sheet name="2023" sheetId="34" r:id="rId9"/>
-    <sheet name="Stats" sheetId="1" r:id="rId10"/>
-    <sheet name="Wins-Losses" sheetId="35" r:id="rId11"/>
-    <sheet name="Winning Percentile Range" sheetId="36" r:id="rId12"/>
+    <sheet name="2024" sheetId="37" r:id="rId10"/>
+    <sheet name="Stats" sheetId="1" r:id="rId11"/>
+    <sheet name="Wins-Losses" sheetId="38" r:id="rId12"/>
+    <sheet name="Winning Percentile Range" sheetId="39" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1398" uniqueCount="470">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1418" uniqueCount="474">
   <si>
     <t>ROUND</t>
   </si>
@@ -1454,6 +1455,18 @@
   </si>
   <si>
     <t>Camila Osorio (COLOMBIA)</t>
+  </si>
+  <si>
+    <t>Anna Kalinskaya (RUSSIA)</t>
+  </si>
+  <si>
+    <t>Jasmine Paolini (ITALY)</t>
+  </si>
+  <si>
+    <t>1-6 7-5 6-3</t>
+  </si>
+  <si>
+    <t>6-1 3-6 6-0</t>
   </si>
 </sst>
 </file>
@@ -1542,7 +1555,7 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1553,6 +1566,9 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="3"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -1659,13 +1675,8 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" b="1"/>
-              <a:t>Bianca Andreescu (CANADA):</a:t>
+              <a:t>Bianca Andreescu (CANADA): Wins-Losses</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" b="1" baseline="0"/>
-              <a:t> Wins-Losses</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" b="1"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1731,10 +1742,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Stats!$A$2:$A$10</c:f>
+              <c:f>Stats!$A$2:$A$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>2015</c:v>
                 </c:pt>
@@ -1762,15 +1773,18 @@
                 <c:pt idx="8">
                   <c:v>2023</c:v>
                 </c:pt>
+                <c:pt idx="9">
+                  <c:v>2024</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Stats!$D$2:$D$10</c:f>
+              <c:f>Stats!$D$2:$D$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>4</c:v>
                 </c:pt>
@@ -1798,12 +1812,15 @@
                 <c:pt idx="8">
                   <c:v>15</c:v>
                 </c:pt>
+                <c:pt idx="9">
+                  <c:v>2</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-C493-40C6-96BC-01033B6F3230}"/>
+              <c16:uniqueId val="{00000000-78C6-4376-AAB6-5D40D167D500}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1833,10 +1850,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Stats!$A$2:$A$10</c:f>
+              <c:f>Stats!$A$2:$A$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>2015</c:v>
                 </c:pt>
@@ -1864,15 +1881,18 @@
                 <c:pt idx="8">
                   <c:v>2023</c:v>
                 </c:pt>
+                <c:pt idx="9">
+                  <c:v>2024</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Stats!$E$2:$E$10</c:f>
+              <c:f>Stats!$E$2:$E$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>3</c:v>
                 </c:pt>
@@ -1900,12 +1920,15 @@
                 <c:pt idx="8">
                   <c:v>16</c:v>
                 </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-C493-40C6-96BC-01033B6F3230}"/>
+              <c16:uniqueId val="{00000001-78C6-4376-AAB6-5D40D167D500}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1919,11 +1942,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="771915183"/>
-        <c:axId val="290567999"/>
+        <c:axId val="879260431"/>
+        <c:axId val="879251791"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="771915183"/>
+        <c:axId val="879260431"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2021,7 +2044,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="290567999"/>
+        <c:crossAx val="879251791"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2029,7 +2052,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="290567999"/>
+        <c:axId val="879251791"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2135,7 +2158,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="771915183"/>
+        <c:crossAx val="879260431"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2245,13 +2268,8 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" b="1"/>
-              <a:t>Bianca Andreescu (CANADA): Winning</a:t>
+              <a:t>Bianca Andreescu (CANADA): Winning Percentile Range</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" b="1" baseline="0"/>
-              <a:t> Percentile Range</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" b="1"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -2332,20 +2350,6 @@
             <c:spPr>
               <a:ln w="19050" cap="rnd">
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
                   <a:srgbClr val="00B050"/>
                 </a:solidFill>
                 <a:prstDash val="sysDot"/>
@@ -2358,10 +2362,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>Stats!$A$2:$A$10</c:f>
+              <c:f>Stats!$A$2:$A$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>2015</c:v>
                 </c:pt>
@@ -2389,15 +2393,18 @@
                 <c:pt idx="8">
                   <c:v>2023</c:v>
                 </c:pt>
+                <c:pt idx="9">
+                  <c:v>2024</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Stats!$F$2:$F$10</c:f>
+              <c:f>Stats!$F$2:$F$11</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>0.25</c:v>
                 </c:pt>
@@ -2425,13 +2432,16 @@
                 <c:pt idx="8">
                   <c:v>-6.6666666666666666E-2</c:v>
                 </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.5</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-E44C-45B6-95C1-8A917EAE074E}"/>
+              <c16:uniqueId val="{00000001-C690-4CB5-B903-6CEF83C27912}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2445,11 +2455,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="875482703"/>
-        <c:axId val="875483119"/>
+        <c:axId val="1718080047"/>
+        <c:axId val="1718070927"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="875482703"/>
+        <c:axId val="1718080047"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2547,7 +2557,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="875483119"/>
+        <c:crossAx val="1718070927"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2555,7 +2565,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="875483119"/>
+        <c:axId val="1718070927"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2661,7 +2671,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="875482703"/>
+        <c:crossAx val="1718080047"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2673,64 +2683,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:legendEntry>
-        <c:idx val="0"/>
-        <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-      </c:legendEntry>
-      <c:legendEntry>
-        <c:idx val="2"/>
-        <c:delete val="1"/>
-      </c:legendEntry>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -3850,25 +3802,25 @@
 </file>
 
 <file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{7B75688D-5400-4B88-AFA9-47E358D66687}">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{E4CB9A6C-6717-4B68-B141-30CCDA74C48C}">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="88" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{9A30B305-BB27-4FE6-9175-446664D147B0}">
   <sheetPr/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="landscape" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</chartsheet>
-</file>
-
-<file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{FC873133-7941-4C73-8B20-D039230DB03A}">
-  <sheetPr/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="landscape" r:id="rId1"/>
+  <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </chartsheet>
 </file>
@@ -3877,13 +3829,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8582025" cy="5838825"/>
+    <xdr:ext cx="8572500" cy="5827568"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7353E95D-B33D-EDE6-8553-54FF56F93B26}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE3E60B9-98B8-5334-A978-B6AC46BA48CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3916,7 +3868,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD93C47B-25F2-99DF-86DB-0564B2CF0395}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F6D427E-524D-E9CE-6314-77882930DB23}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4249,17 +4201,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -4279,7 +4231,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>45</v>
       </c>
@@ -4299,7 +4251,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>11</v>
       </c>
@@ -4313,7 +4265,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>15</v>
       </c>
@@ -4327,7 +4279,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>16</v>
       </c>
@@ -4341,7 +4293,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>17</v>
       </c>
@@ -4355,7 +4307,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>411</v>
       </c>
@@ -4375,7 +4327,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>53</v>
       </c>
@@ -4409,27 +4361,123 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AE51E7A-7435-4AF0-B284-71BECBEB88AC}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="B2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="D2" t="s">
+        <v>350</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="9"/>
+      <c r="C3" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="D3" t="s">
+        <v>470</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C4" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>471</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s">
+        <v>473</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup scale="59" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCAE177D-2BD4-45CE-80F5-EF8578F1AF32}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -4449,7 +4497,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2015</v>
       </c>
@@ -4470,7 +4518,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2016</v>
       </c>
@@ -4491,7 +4539,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2017</v>
       </c>
@@ -4512,7 +4560,7 @@
         <v>0.37037037037037035</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2018</v>
       </c>
@@ -4533,7 +4581,7 @@
         <v>0.60465116279069764</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2019</v>
       </c>
@@ -4554,7 +4602,7 @@
         <v>0.85416666666666663</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2020</v>
       </c>
@@ -4571,11 +4619,11 @@
         <v>0</v>
       </c>
       <c r="F7" s="3" t="e">
-        <f t="shared" ref="F7:F10" si="0">(D7-E7)/D7</f>
+        <f t="shared" ref="F7:F11" si="0">(D7-E7)/D7</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2021</v>
       </c>
@@ -4596,7 +4644,7 @@
         <v>0.29411764705882354</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2022</v>
       </c>
@@ -4617,7 +4665,7 @@
         <v>0.36842105263157893</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2023</v>
       </c>
@@ -4638,58 +4686,79 @@
         <v>-6.6666666666666666E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>2024</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11" s="3">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="2">
-        <f>SUM(B2:B10)</f>
-        <v>102</v>
-      </c>
-      <c r="C11" s="2">
-        <f>SUM(C2:C10)</f>
+      <c r="B12" s="2">
+        <f>SUM(B2:B11)</f>
+        <v>103</v>
+      </c>
+      <c r="C12" s="2">
+        <f>SUM(C2:C11)</f>
         <v>3</v>
       </c>
-      <c r="D11" s="2">
-        <f>SUM(D2:D10)</f>
-        <v>188</v>
-      </c>
-      <c r="E11" s="2">
-        <f>SUM(E2:E10)</f>
-        <v>90</v>
-      </c>
-      <c r="F11" s="7">
-        <f>(D11-E11)/D11</f>
-        <v>0.52127659574468088</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="B12" s="2">
-        <f>AVERAGE(B2:B10)</f>
-        <v>11.333333333333334</v>
-      </c>
-      <c r="C12" s="2">
-        <f>AVERAGE(C2:C10)</f>
-        <v>0.33333333333333331</v>
-      </c>
       <c r="D12" s="2">
-        <f>AVERAGE(D2:D10)</f>
-        <v>20.888888888888889</v>
+        <f>SUM(D2:D11)</f>
+        <v>190</v>
       </c>
       <c r="E12" s="2">
-        <f>AVERAGE(E2:E10)</f>
-        <v>10</v>
+        <f>SUM(E2:E11)</f>
+        <v>91</v>
       </c>
       <c r="F12" s="7">
         <f>(D12-E12)/D12</f>
-        <v>0.52127659574468088</v>
+        <v>0.52105263157894732</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="B13" s="2">
+        <f>AVERAGE(B2:B11)</f>
+        <v>10.3</v>
+      </c>
+      <c r="C13" s="2">
+        <f>AVERAGE(C2:C11)</f>
+        <v>0.3</v>
+      </c>
+      <c r="D13" s="2">
+        <f>AVERAGE(D2:D11)</f>
+        <v>19</v>
+      </c>
+      <c r="E13" s="2">
+        <f>AVERAGE(E2:E11)</f>
+        <v>9.1</v>
+      </c>
+      <c r="F13" s="7">
+        <f>(D13-E13)/D13</f>
+        <v>0.52105263157894743</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="F2:F10">
+  <conditionalFormatting sqref="F2:F11">
     <cfRule type="iconSet" priority="39">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>
@@ -4714,17 +4783,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -4744,7 +4813,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>55</v>
       </c>
@@ -4764,7 +4833,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>11</v>
       </c>
@@ -4778,7 +4847,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>411</v>
       </c>
@@ -4798,7 +4867,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>21</v>
       </c>
@@ -4812,7 +4881,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>58</v>
       </c>
@@ -4832,7 +4901,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>11</v>
       </c>
@@ -4846,7 +4915,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>45</v>
       </c>
@@ -4866,7 +4935,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>11</v>
       </c>
@@ -4880,7 +4949,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>15</v>
       </c>
@@ -4894,7 +4963,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>16</v>
       </c>
@@ -4908,7 +4977,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>17</v>
       </c>
@@ -4922,7 +4991,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>68</v>
       </c>
@@ -4942,7 +5011,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>11</v>
       </c>
@@ -4956,7 +5025,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>15</v>
       </c>
@@ -4970,7 +5039,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>16</v>
       </c>
@@ -4984,7 +5053,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>17</v>
       </c>
@@ -4998,7 +5067,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>53</v>
       </c>
@@ -5018,7 +5087,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>11</v>
       </c>
@@ -5032,7 +5101,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>15</v>
       </c>
@@ -5046,7 +5115,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>33</v>
       </c>
@@ -5066,7 +5135,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>11</v>
       </c>
@@ -5107,17 +5176,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="39.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -5137,7 +5206,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>78</v>
       </c>
@@ -5157,7 +5226,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>11</v>
       </c>
@@ -5171,7 +5240,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>15</v>
       </c>
@@ -5185,7 +5254,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>83</v>
       </c>
@@ -5205,7 +5274,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>11</v>
       </c>
@@ -5219,7 +5288,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>15</v>
       </c>
@@ -5233,7 +5302,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>16</v>
       </c>
@@ -5247,7 +5316,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>17</v>
       </c>
@@ -5261,7 +5330,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>91</v>
       </c>
@@ -5281,7 +5350,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>11</v>
       </c>
@@ -5295,7 +5364,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>15</v>
       </c>
@@ -5309,7 +5378,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>16</v>
       </c>
@@ -5323,7 +5392,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>91</v>
       </c>
@@ -5343,7 +5412,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>11</v>
       </c>
@@ -5357,7 +5426,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>15</v>
       </c>
@@ -5371,7 +5440,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>16</v>
       </c>
@@ -5385,7 +5454,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>17</v>
       </c>
@@ -5399,7 +5468,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>91</v>
       </c>
@@ -5419,7 +5488,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>110</v>
       </c>
@@ -5439,7 +5508,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>113</v>
       </c>
@@ -5459,7 +5528,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>11</v>
       </c>
@@ -5473,7 +5542,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>119</v>
       </c>
@@ -5493,7 +5562,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>21</v>
       </c>
@@ -5507,7 +5576,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>120</v>
       </c>
@@ -5521,7 +5590,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>126</v>
       </c>
@@ -5541,7 +5610,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>21</v>
       </c>
@@ -5555,7 +5624,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>120</v>
       </c>
@@ -5569,7 +5638,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>127</v>
       </c>
@@ -5583,7 +5652,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>131</v>
       </c>
@@ -5603,7 +5672,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>11</v>
       </c>
@@ -5617,7 +5686,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>135</v>
       </c>
@@ -5637,7 +5706,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>11</v>
       </c>
@@ -5651,7 +5720,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>15</v>
       </c>
@@ -5665,7 +5734,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>41</v>
       </c>
@@ -5685,7 +5754,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>143</v>
       </c>
@@ -5705,7 +5774,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>146</v>
       </c>
@@ -5725,7 +5794,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>149</v>
       </c>
@@ -5745,7 +5814,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>11</v>
       </c>
@@ -5759,7 +5828,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>153</v>
       </c>
@@ -5779,7 +5848,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>155</v>
       </c>
@@ -5799,7 +5868,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>157</v>
       </c>
@@ -5819,7 +5888,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>160</v>
       </c>
@@ -5839,7 +5908,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>11</v>
       </c>
@@ -5853,7 +5922,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>15</v>
       </c>
@@ -5881,21 +5950,21 @@
   </sheetPr>
   <dimension ref="A1:F81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="39.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -5915,7 +5984,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>167</v>
       </c>
@@ -5935,7 +6004,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>11</v>
       </c>
@@ -5949,7 +6018,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>15</v>
       </c>
@@ -5963,7 +6032,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>174</v>
       </c>
@@ -5983,7 +6052,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>176</v>
       </c>
@@ -6003,7 +6072,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>11</v>
       </c>
@@ -6017,7 +6086,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>15</v>
       </c>
@@ -6031,7 +6100,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>180</v>
       </c>
@@ -6048,7 +6117,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>183</v>
       </c>
@@ -6068,7 +6137,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>11</v>
       </c>
@@ -6082,7 +6151,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>185</v>
       </c>
@@ -6102,7 +6171,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>11</v>
       </c>
@@ -6116,7 +6185,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>15</v>
       </c>
@@ -6130,7 +6199,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>16</v>
       </c>
@@ -6144,7 +6213,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>17</v>
       </c>
@@ -6158,7 +6227,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>193</v>
       </c>
@@ -6178,7 +6247,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>11</v>
       </c>
@@ -6192,7 +6261,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>15</v>
       </c>
@@ -6206,7 +6275,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>16</v>
       </c>
@@ -6220,7 +6289,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>17</v>
       </c>
@@ -6234,7 +6303,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>201</v>
       </c>
@@ -6254,7 +6323,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>11</v>
       </c>
@@ -6268,7 +6337,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>110</v>
       </c>
@@ -6288,7 +6357,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>21</v>
       </c>
@@ -6302,7 +6371,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>120</v>
       </c>
@@ -6316,7 +6385,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>119</v>
       </c>
@@ -6336,7 +6405,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>21</v>
       </c>
@@ -6350,7 +6419,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>120</v>
       </c>
@@ -6364,7 +6433,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>12</v>
       </c>
@@ -6378,7 +6447,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>11</v>
       </c>
@@ -6392,7 +6461,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>126</v>
       </c>
@@ -6412,7 +6481,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>21</v>
       </c>
@@ -6426,7 +6495,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>120</v>
       </c>
@@ -6440,7 +6509,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>55</v>
       </c>
@@ -6460,7 +6529,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>45</v>
       </c>
@@ -6480,7 +6549,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>131</v>
       </c>
@@ -6500,7 +6569,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>11</v>
       </c>
@@ -6514,7 +6583,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>15</v>
       </c>
@@ -6528,7 +6597,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>16</v>
       </c>
@@ -6542,7 +6611,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>146</v>
       </c>
@@ -6562,7 +6631,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>233</v>
       </c>
@@ -6582,7 +6651,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>11</v>
       </c>
@@ -6596,7 +6665,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>15</v>
       </c>
@@ -6610,7 +6679,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>16</v>
       </c>
@@ -6624,7 +6693,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>17</v>
       </c>
@@ -6638,7 +6707,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>157</v>
       </c>
@@ -6658,7 +6727,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>11</v>
       </c>
@@ -6672,7 +6741,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>15</v>
       </c>
@@ -6686,7 +6755,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>16</v>
       </c>
@@ -6700,7 +6769,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>160</v>
       </c>
@@ -6720,7 +6789,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>11</v>
       </c>
@@ -6734,7 +6803,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>15</v>
       </c>
@@ -6748,7 +6817,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>16</v>
       </c>
@@ -6762,7 +6831,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>252</v>
       </c>
@@ -6782,7 +6851,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>11</v>
       </c>
@@ -6796,7 +6865,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C75" t="s">
         <v>15</v>
       </c>
@@ -6810,7 +6879,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>257</v>
       </c>
@@ -6830,7 +6899,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C78" t="s">
         <v>11</v>
       </c>
@@ -6844,7 +6913,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C79" t="s">
         <v>15</v>
       </c>
@@ -6858,7 +6927,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C80" t="s">
         <v>16</v>
       </c>
@@ -6872,7 +6941,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="81" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C81" t="s">
         <v>17</v>
       </c>
@@ -6904,17 +6973,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="36" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -6934,7 +7003,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>264</v>
       </c>
@@ -6954,7 +7023,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>21</v>
       </c>
@@ -6968,7 +7037,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>120</v>
       </c>
@@ -6982,7 +7051,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>12</v>
       </c>
@@ -6996,7 +7065,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>11</v>
       </c>
@@ -7010,7 +7079,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>15</v>
       </c>
@@ -7024,7 +7093,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>16</v>
       </c>
@@ -7038,7 +7107,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>17</v>
       </c>
@@ -7052,7 +7121,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>174</v>
       </c>
@@ -7072,7 +7141,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>21</v>
       </c>
@@ -7086,7 +7155,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>120</v>
       </c>
@@ -7100,7 +7169,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>127</v>
       </c>
@@ -7114,7 +7183,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>141</v>
       </c>
@@ -7128,7 +7197,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>285</v>
       </c>
@@ -7148,7 +7217,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>11</v>
       </c>
@@ -7162,7 +7231,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>15</v>
       </c>
@@ -7176,7 +7245,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>16</v>
       </c>
@@ -7190,7 +7259,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>17</v>
       </c>
@@ -7204,7 +7273,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>180</v>
       </c>
@@ -7221,7 +7290,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D24" t="s">
         <v>207</v>
       </c>
@@ -7232,7 +7301,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>293</v>
       </c>
@@ -7252,7 +7321,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>11</v>
       </c>
@@ -7266,7 +7335,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>15</v>
       </c>
@@ -7280,7 +7349,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>16</v>
       </c>
@@ -7294,7 +7363,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>385</v>
       </c>
@@ -7314,7 +7383,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>141</v>
       </c>
@@ -7328,7 +7397,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>12</v>
       </c>
@@ -7342,7 +7411,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>11</v>
       </c>
@@ -7356,7 +7425,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>15</v>
       </c>
@@ -7370,7 +7439,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>16</v>
       </c>
@@ -7384,7 +7453,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>17</v>
       </c>
@@ -7398,7 +7467,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>307</v>
       </c>
@@ -7418,7 +7487,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>141</v>
       </c>
@@ -7432,7 +7501,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>12</v>
       </c>
@@ -7446,7 +7515,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>11</v>
       </c>
@@ -7460,7 +7529,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>110</v>
       </c>
@@ -7480,7 +7549,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>141</v>
       </c>
@@ -7494,7 +7563,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>411</v>
       </c>
@@ -7514,7 +7583,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>12</v>
       </c>
@@ -7528,7 +7597,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>11</v>
       </c>
@@ -7542,7 +7611,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>15</v>
       </c>
@@ -7556,7 +7625,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>16</v>
       </c>
@@ -7570,7 +7639,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>17</v>
       </c>
@@ -7584,7 +7653,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>146</v>
       </c>
@@ -7604,7 +7673,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>141</v>
       </c>
@@ -7618,7 +7687,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>12</v>
       </c>
@@ -7632,7 +7701,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>11</v>
       </c>
@@ -7646,7 +7715,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>15</v>
       </c>
@@ -7660,7 +7729,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>16</v>
       </c>
@@ -7674,7 +7743,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>17</v>
       </c>
@@ -7688,7 +7757,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>328</v>
       </c>
@@ -7708,7 +7777,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>12</v>
       </c>
@@ -7722,7 +7791,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>11</v>
       </c>
@@ -7736,7 +7805,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>15</v>
       </c>
@@ -7750,7 +7819,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>332</v>
       </c>
@@ -7770,7 +7839,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>333</v>
       </c>
@@ -7802,17 +7871,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -7832,7 +7901,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>44</v>
       </c>
@@ -7869,17 +7938,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -7899,7 +7968,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>174</v>
       </c>
@@ -7919,7 +7988,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>141</v>
       </c>
@@ -7933,7 +8002,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>337</v>
       </c>
@@ -7953,7 +8022,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>11</v>
       </c>
@@ -7967,7 +8036,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>15</v>
       </c>
@@ -7981,7 +8050,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>16</v>
       </c>
@@ -7995,7 +8064,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>307</v>
       </c>
@@ -8015,7 +8084,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>12</v>
       </c>
@@ -8029,7 +8098,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>11</v>
       </c>
@@ -8043,7 +8112,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>15</v>
       </c>
@@ -8057,7 +8126,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>16</v>
       </c>
@@ -8071,7 +8140,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>17</v>
       </c>
@@ -8085,7 +8154,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>353</v>
       </c>
@@ -8105,7 +8174,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>11</v>
       </c>
@@ -8119,7 +8188,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>15</v>
       </c>
@@ -8133,7 +8202,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>110</v>
       </c>
@@ -8153,7 +8222,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>359</v>
       </c>
@@ -8173,7 +8242,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>362</v>
       </c>
@@ -8193,7 +8262,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>11</v>
       </c>
@@ -8207,7 +8276,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>126</v>
       </c>
@@ -8227,7 +8296,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>411</v>
       </c>
@@ -8247,7 +8316,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>11</v>
       </c>
@@ -8261,7 +8330,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>370</v>
       </c>
@@ -8281,7 +8350,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>146</v>
       </c>
@@ -8301,7 +8370,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>141</v>
       </c>
@@ -8315,7 +8384,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>12</v>
       </c>
@@ -8329,7 +8398,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>11</v>
       </c>
@@ -8343,7 +8412,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>380</v>
       </c>
@@ -8363,7 +8432,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>385</v>
       </c>
@@ -8383,7 +8452,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>12</v>
       </c>
@@ -8415,17 +8484,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -8445,7 +8514,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>387</v>
       </c>
@@ -8465,7 +8534,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>11</v>
       </c>
@@ -8479,7 +8548,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>447</v>
       </c>
@@ -8499,7 +8568,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>12</v>
       </c>
@@ -8513,7 +8582,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>11</v>
       </c>
@@ -8527,7 +8596,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>391</v>
       </c>
@@ -8547,7 +8616,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>12</v>
       </c>
@@ -8561,7 +8630,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>11</v>
       </c>
@@ -8575,7 +8644,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>15</v>
       </c>
@@ -8589,7 +8658,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>110</v>
       </c>
@@ -8609,7 +8678,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>141</v>
       </c>
@@ -8623,7 +8692,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>399</v>
       </c>
@@ -8643,7 +8712,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>11</v>
       </c>
@@ -8657,7 +8726,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>403</v>
       </c>
@@ -8677,7 +8746,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>11</v>
       </c>
@@ -8691,7 +8760,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>15</v>
       </c>
@@ -8705,7 +8774,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>16</v>
       </c>
@@ -8719,7 +8788,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>17</v>
       </c>
@@ -8733,7 +8802,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>126</v>
       </c>
@@ -8753,7 +8822,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>141</v>
       </c>
@@ -8767,7 +8836,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>410</v>
       </c>
@@ -8787,7 +8856,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>411</v>
       </c>
@@ -8807,7 +8876,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>12</v>
       </c>
@@ -8821,7 +8890,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>11</v>
       </c>
@@ -8835,7 +8904,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>146</v>
       </c>
@@ -8855,7 +8924,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>141</v>
       </c>
@@ -8869,7 +8938,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>12</v>
       </c>
@@ -8883,7 +8952,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>419</v>
       </c>
@@ -8903,7 +8972,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>11</v>
       </c>
@@ -8917,7 +8986,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>424</v>
       </c>
@@ -8937,7 +9006,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>12</v>
       </c>
@@ -8951,7 +9020,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>11</v>
       </c>
@@ -8978,21 +9047,21 @@
   </sheetPr>
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -9012,7 +9081,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>431</v>
       </c>
@@ -9032,7 +9101,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="9"/>
       <c r="C3" t="s">
         <v>11</v>
@@ -9047,7 +9116,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
         <v>174</v>
       </c>
@@ -9067,7 +9136,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="9"/>
       <c r="C6" t="s">
         <v>141</v>
@@ -9082,7 +9151,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
         <v>432</v>
       </c>
@@ -9102,7 +9171,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>11</v>
       </c>
@@ -9116,7 +9185,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>15</v>
       </c>
@@ -9130,7 +9199,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>16</v>
       </c>
@@ -9144,7 +9213,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>438</v>
       </c>
@@ -9164,7 +9233,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>441</v>
       </c>
@@ -9184,7 +9253,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>385</v>
       </c>
@@ -9204,7 +9273,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>12</v>
       </c>
@@ -9218,7 +9287,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>307</v>
       </c>
@@ -9238,7 +9307,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>141</v>
       </c>
@@ -9252,7 +9321,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>12</v>
       </c>
@@ -9266,7 +9335,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>11</v>
       </c>
@@ -9280,7 +9349,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>447</v>
       </c>
@@ -9300,7 +9369,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>391</v>
       </c>
@@ -9320,7 +9389,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>110</v>
       </c>
@@ -9340,7 +9409,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>141</v>
       </c>
@@ -9354,7 +9423,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>12</v>
       </c>
@@ -9368,7 +9437,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>454</v>
       </c>
@@ -9388,7 +9457,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>11</v>
       </c>
@@ -9402,7 +9471,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>359</v>
       </c>
@@ -9422,7 +9491,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>403</v>
       </c>
@@ -9442,7 +9511,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>11</v>
       </c>
@@ -9456,7 +9525,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>126</v>
       </c>
@@ -9476,7 +9545,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>141</v>
       </c>
@@ -9490,7 +9559,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>12</v>
       </c>
@@ -9504,12 +9573,12 @@
         <v>464</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D44" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>467</v>
       </c>
@@ -9529,7 +9598,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>411</v>
       </c>

--- a/Tennis/WTA Tour/Bianca Andreescu.xlsx
+++ b/Tennis/WTA Tour/Bianca Andreescu.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7708" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{904A00F1-D04A-4F12-A1BF-6042C64660A1}"/>
+  <xr:revisionPtr revIDLastSave="7732" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{136AB79A-5E19-40C0-9641-C3DBDF5C353B}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="3" activeTab="10" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="3" activeTab="10" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2015" sheetId="22" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1418" uniqueCount="474">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1440" uniqueCount="480">
   <si>
     <t>ROUND</t>
   </si>
@@ -1467,6 +1467,24 @@
   </si>
   <si>
     <t>6-1 3-6 6-0</t>
+  </si>
+  <si>
+    <t>Eva Vedder (NETHERLANDS)</t>
+  </si>
+  <si>
+    <t>Yue Yuan (CHINA)</t>
+  </si>
+  <si>
+    <t>6-4 3-6 7-6(3)</t>
+  </si>
+  <si>
+    <t>4-6 6-3 6-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4-6 6-3 7-5 </t>
+  </si>
+  <si>
+    <t>Dalma Gálfi (HUNGARY)</t>
   </si>
 </sst>
 </file>
@@ -1555,7 +1573,7 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1568,6 +1586,9 @@
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1813,7 +1834,7 @@
                   <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1921,7 +1942,7 @@
                   <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2433,7 +2454,7 @@
                   <c:v>-6.6666666666666666E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.5</c:v>
+                  <c:v>0.66666666666666663</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4201,17 +4222,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -4231,7 +4252,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>45</v>
       </c>
@@ -4251,7 +4272,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>11</v>
       </c>
@@ -4265,7 +4286,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>15</v>
       </c>
@@ -4279,7 +4300,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>16</v>
       </c>
@@ -4293,7 +4314,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>17</v>
       </c>
@@ -4307,7 +4328,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>411</v>
       </c>
@@ -4327,7 +4348,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>53</v>
       </c>
@@ -4365,23 +4386,24 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="E6" activeCellId="1" sqref="E2:E3 E6:E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -4401,14 +4423,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>110</v>
       </c>
       <c r="B2" t="s">
         <v>92</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="11" t="s">
         <v>127</v>
       </c>
       <c r="D2" t="s">
@@ -4421,7 +4443,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="9"/>
       <c r="C3" s="10" t="s">
         <v>141</v>
@@ -4436,7 +4458,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" s="10" t="s">
         <v>12</v>
       </c>
@@ -4448,6 +4470,82 @@
       </c>
       <c r="F4" t="s">
         <v>473</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>454</v>
+      </c>
+      <c r="B6" t="s">
+        <v>114</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
+        <v>474</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" t="s">
+        <v>475</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" t="s">
+        <v>329</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" t="s">
+        <v>479</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" t="s">
+        <v>420</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" t="s">
+        <v>478</v>
       </c>
     </row>
   </sheetData>
@@ -4464,20 +4562,20 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -4497,7 +4595,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2015</v>
       </c>
@@ -4518,7 +4616,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2016</v>
       </c>
@@ -4539,7 +4637,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2017</v>
       </c>
@@ -4560,7 +4658,7 @@
         <v>0.37037037037037035</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2018</v>
       </c>
@@ -4581,7 +4679,7 @@
         <v>0.60465116279069764</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2019</v>
       </c>
@@ -4602,7 +4700,7 @@
         <v>0.85416666666666663</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2020</v>
       </c>
@@ -4623,7 +4721,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2021</v>
       </c>
@@ -4644,7 +4742,7 @@
         <v>0.29411764705882354</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2022</v>
       </c>
@@ -4665,7 +4763,7 @@
         <v>0.36842105263157893</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2023</v>
       </c>
@@ -4686,34 +4784,34 @@
         <v>-6.6666666666666666E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2024</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
+        <v>6</v>
+      </c>
+      <c r="E11">
         <v>2</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
       </c>
       <c r="F11" s="3">
         <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B12" s="2">
         <f>SUM(B2:B11)</f>
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C12" s="2">
         <f>SUM(C2:C11)</f>
@@ -4721,24 +4819,24 @@
       </c>
       <c r="D12" s="2">
         <f>SUM(D2:D11)</f>
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="E12" s="2">
         <f>SUM(E2:E11)</f>
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F12" s="7">
         <f>(D12-E12)/D12</f>
-        <v>0.52105263157894732</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0.52577319587628868</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>368</v>
       </c>
       <c r="B13" s="2">
         <f>AVERAGE(B2:B11)</f>
-        <v>10.3</v>
+        <v>10.4</v>
       </c>
       <c r="C13" s="2">
         <f>AVERAGE(C2:C11)</f>
@@ -4746,15 +4844,15 @@
       </c>
       <c r="D13" s="2">
         <f>AVERAGE(D2:D11)</f>
-        <v>19</v>
+        <v>19.399999999999999</v>
       </c>
       <c r="E13" s="2">
         <f>AVERAGE(E2:E11)</f>
-        <v>9.1</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="F13" s="7">
         <f>(D13-E13)/D13</f>
-        <v>0.52105263157894743</v>
+        <v>0.52577319587628868</v>
       </c>
     </row>
   </sheetData>
@@ -4783,17 +4881,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -4813,7 +4911,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>55</v>
       </c>
@@ -4833,7 +4931,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>11</v>
       </c>
@@ -4847,7 +4945,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>411</v>
       </c>
@@ -4867,7 +4965,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>21</v>
       </c>
@@ -4881,7 +4979,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>58</v>
       </c>
@@ -4901,7 +4999,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>11</v>
       </c>
@@ -4915,7 +5013,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>45</v>
       </c>
@@ -4935,7 +5033,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>11</v>
       </c>
@@ -4949,7 +5047,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>15</v>
       </c>
@@ -4963,7 +5061,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>16</v>
       </c>
@@ -4977,7 +5075,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>17</v>
       </c>
@@ -4991,7 +5089,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>68</v>
       </c>
@@ -5011,7 +5109,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>11</v>
       </c>
@@ -5025,7 +5123,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>15</v>
       </c>
@@ -5039,7 +5137,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>16</v>
       </c>
@@ -5053,7 +5151,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>17</v>
       </c>
@@ -5067,7 +5165,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>53</v>
       </c>
@@ -5087,7 +5185,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>11</v>
       </c>
@@ -5101,7 +5199,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>15</v>
       </c>
@@ -5115,7 +5213,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>33</v>
       </c>
@@ -5135,7 +5233,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>11</v>
       </c>
@@ -5176,17 +5274,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -5206,7 +5304,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>78</v>
       </c>
@@ -5226,7 +5324,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>11</v>
       </c>
@@ -5240,7 +5338,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>15</v>
       </c>
@@ -5254,7 +5352,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>83</v>
       </c>
@@ -5274,7 +5372,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>11</v>
       </c>
@@ -5288,7 +5386,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>15</v>
       </c>
@@ -5302,7 +5400,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>16</v>
       </c>
@@ -5316,7 +5414,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>17</v>
       </c>
@@ -5330,7 +5428,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>91</v>
       </c>
@@ -5350,7 +5448,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>11</v>
       </c>
@@ -5364,7 +5462,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>15</v>
       </c>
@@ -5378,7 +5476,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>16</v>
       </c>
@@ -5392,7 +5490,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>91</v>
       </c>
@@ -5412,7 +5510,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>11</v>
       </c>
@@ -5426,7 +5524,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>15</v>
       </c>
@@ -5440,7 +5538,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>16</v>
       </c>
@@ -5454,7 +5552,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>17</v>
       </c>
@@ -5468,7 +5566,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>91</v>
       </c>
@@ -5488,7 +5586,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>110</v>
       </c>
@@ -5508,7 +5606,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>113</v>
       </c>
@@ -5528,7 +5626,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>11</v>
       </c>
@@ -5542,7 +5640,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>119</v>
       </c>
@@ -5562,7 +5660,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>21</v>
       </c>
@@ -5576,7 +5674,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>120</v>
       </c>
@@ -5590,7 +5688,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>126</v>
       </c>
@@ -5610,7 +5708,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>21</v>
       </c>
@@ -5624,7 +5722,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>120</v>
       </c>
@@ -5638,7 +5736,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>127</v>
       </c>
@@ -5652,7 +5750,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>131</v>
       </c>
@@ -5672,7 +5770,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>11</v>
       </c>
@@ -5686,7 +5784,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>135</v>
       </c>
@@ -5706,7 +5804,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>11</v>
       </c>
@@ -5720,7 +5818,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>15</v>
       </c>
@@ -5734,7 +5832,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>41</v>
       </c>
@@ -5754,7 +5852,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>143</v>
       </c>
@@ -5774,7 +5872,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>146</v>
       </c>
@@ -5794,7 +5892,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>149</v>
       </c>
@@ -5814,7 +5912,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>11</v>
       </c>
@@ -5828,7 +5926,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>153</v>
       </c>
@@ -5848,7 +5946,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>155</v>
       </c>
@@ -5868,7 +5966,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>157</v>
       </c>
@@ -5888,7 +5986,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>160</v>
       </c>
@@ -5908,7 +6006,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>11</v>
       </c>
@@ -5922,7 +6020,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>15</v>
       </c>
@@ -5954,17 +6052,17 @@
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="39.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -5984,7 +6082,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>167</v>
       </c>
@@ -6004,7 +6102,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>11</v>
       </c>
@@ -6018,7 +6116,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>15</v>
       </c>
@@ -6032,7 +6130,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>174</v>
       </c>
@@ -6052,7 +6150,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>176</v>
       </c>
@@ -6072,7 +6170,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>11</v>
       </c>
@@ -6086,7 +6184,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>15</v>
       </c>
@@ -6100,7 +6198,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>180</v>
       </c>
@@ -6117,7 +6215,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>183</v>
       </c>
@@ -6137,7 +6235,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>11</v>
       </c>
@@ -6151,7 +6249,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>185</v>
       </c>
@@ -6171,7 +6269,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>11</v>
       </c>
@@ -6185,7 +6283,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>15</v>
       </c>
@@ -6199,7 +6297,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>16</v>
       </c>
@@ -6213,7 +6311,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>17</v>
       </c>
@@ -6227,7 +6325,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>193</v>
       </c>
@@ -6247,7 +6345,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>11</v>
       </c>
@@ -6261,7 +6359,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>15</v>
       </c>
@@ -6275,7 +6373,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>16</v>
       </c>
@@ -6289,7 +6387,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>17</v>
       </c>
@@ -6303,7 +6401,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>201</v>
       </c>
@@ -6323,7 +6421,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>11</v>
       </c>
@@ -6337,7 +6435,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>110</v>
       </c>
@@ -6357,7 +6455,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>21</v>
       </c>
@@ -6371,7 +6469,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>120</v>
       </c>
@@ -6385,7 +6483,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>119</v>
       </c>
@@ -6405,7 +6503,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>21</v>
       </c>
@@ -6419,7 +6517,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>120</v>
       </c>
@@ -6433,7 +6531,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>12</v>
       </c>
@@ -6447,7 +6545,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>11</v>
       </c>
@@ -6461,7 +6559,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>126</v>
       </c>
@@ -6481,7 +6579,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>21</v>
       </c>
@@ -6495,7 +6593,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>120</v>
       </c>
@@ -6509,7 +6607,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>55</v>
       </c>
@@ -6529,7 +6627,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>45</v>
       </c>
@@ -6549,7 +6647,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>131</v>
       </c>
@@ -6569,7 +6667,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>11</v>
       </c>
@@ -6583,7 +6681,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>15</v>
       </c>
@@ -6597,7 +6695,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>16</v>
       </c>
@@ -6611,7 +6709,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>146</v>
       </c>
@@ -6631,7 +6729,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>233</v>
       </c>
@@ -6651,7 +6749,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>11</v>
       </c>
@@ -6665,7 +6763,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>15</v>
       </c>
@@ -6679,7 +6777,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>16</v>
       </c>
@@ -6693,7 +6791,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>17</v>
       </c>
@@ -6707,7 +6805,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>157</v>
       </c>
@@ -6727,7 +6825,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>11</v>
       </c>
@@ -6741,7 +6839,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>15</v>
       </c>
@@ -6755,7 +6853,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>16</v>
       </c>
@@ -6769,7 +6867,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>160</v>
       </c>
@@ -6789,7 +6887,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>11</v>
       </c>
@@ -6803,7 +6901,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>15</v>
       </c>
@@ -6817,7 +6915,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>16</v>
       </c>
@@ -6831,7 +6929,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>252</v>
       </c>
@@ -6851,7 +6949,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>11</v>
       </c>
@@ -6865,7 +6963,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
         <v>15</v>
       </c>
@@ -6879,7 +6977,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>257</v>
       </c>
@@ -6899,7 +6997,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
         <v>11</v>
       </c>
@@ -6913,7 +7011,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
         <v>15</v>
       </c>
@@ -6927,7 +7025,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
         <v>16</v>
       </c>
@@ -6941,7 +7039,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="81" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C81" t="s">
         <v>17</v>
       </c>
@@ -6973,17 +7071,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="36" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -7003,7 +7101,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>264</v>
       </c>
@@ -7023,7 +7121,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>21</v>
       </c>
@@ -7037,7 +7135,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>120</v>
       </c>
@@ -7051,7 +7149,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>12</v>
       </c>
@@ -7065,7 +7163,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>11</v>
       </c>
@@ -7079,7 +7177,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>15</v>
       </c>
@@ -7093,7 +7191,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>16</v>
       </c>
@@ -7107,7 +7205,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>17</v>
       </c>
@@ -7121,7 +7219,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>174</v>
       </c>
@@ -7141,7 +7239,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>21</v>
       </c>
@@ -7155,7 +7253,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>120</v>
       </c>
@@ -7169,7 +7267,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>127</v>
       </c>
@@ -7183,7 +7281,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>141</v>
       </c>
@@ -7197,7 +7295,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>285</v>
       </c>
@@ -7217,7 +7315,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>11</v>
       </c>
@@ -7231,7 +7329,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>15</v>
       </c>
@@ -7245,7 +7343,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>16</v>
       </c>
@@ -7259,7 +7357,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>17</v>
       </c>
@@ -7273,7 +7371,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>180</v>
       </c>
@@ -7290,7 +7388,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D24" t="s">
         <v>207</v>
       </c>
@@ -7301,7 +7399,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>293</v>
       </c>
@@ -7321,7 +7419,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>11</v>
       </c>
@@ -7335,7 +7433,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>15</v>
       </c>
@@ -7349,7 +7447,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>16</v>
       </c>
@@ -7363,7 +7461,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>385</v>
       </c>
@@ -7383,7 +7481,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>141</v>
       </c>
@@ -7397,7 +7495,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>12</v>
       </c>
@@ -7411,7 +7509,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>11</v>
       </c>
@@ -7425,7 +7523,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>15</v>
       </c>
@@ -7439,7 +7537,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>16</v>
       </c>
@@ -7453,7 +7551,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>17</v>
       </c>
@@ -7467,7 +7565,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>307</v>
       </c>
@@ -7487,7 +7585,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>141</v>
       </c>
@@ -7501,7 +7599,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>12</v>
       </c>
@@ -7515,7 +7613,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>11</v>
       </c>
@@ -7529,7 +7627,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>110</v>
       </c>
@@ -7549,7 +7647,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>141</v>
       </c>
@@ -7563,7 +7661,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>411</v>
       </c>
@@ -7583,7 +7681,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>12</v>
       </c>
@@ -7597,7 +7695,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>11</v>
       </c>
@@ -7611,7 +7709,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>15</v>
       </c>
@@ -7625,7 +7723,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>16</v>
       </c>
@@ -7639,7 +7737,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>17</v>
       </c>
@@ -7653,7 +7751,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>146</v>
       </c>
@@ -7673,7 +7771,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>141</v>
       </c>
@@ -7687,7 +7785,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>12</v>
       </c>
@@ -7701,7 +7799,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>11</v>
       </c>
@@ -7715,7 +7813,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>15</v>
       </c>
@@ -7729,7 +7827,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>16</v>
       </c>
@@ -7743,7 +7841,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>17</v>
       </c>
@@ -7757,7 +7855,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>328</v>
       </c>
@@ -7777,7 +7875,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>12</v>
       </c>
@@ -7791,7 +7889,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>11</v>
       </c>
@@ -7805,7 +7903,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>15</v>
       </c>
@@ -7819,7 +7917,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>332</v>
       </c>
@@ -7839,7 +7937,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>333</v>
       </c>
@@ -7871,17 +7969,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -7901,7 +7999,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>44</v>
       </c>
@@ -7938,17 +8036,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -7968,7 +8066,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>174</v>
       </c>
@@ -7988,7 +8086,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>141</v>
       </c>
@@ -8002,7 +8100,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>337</v>
       </c>
@@ -8022,7 +8120,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>11</v>
       </c>
@@ -8036,7 +8134,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>15</v>
       </c>
@@ -8050,7 +8148,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>16</v>
       </c>
@@ -8064,7 +8162,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>307</v>
       </c>
@@ -8084,7 +8182,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>12</v>
       </c>
@@ -8098,7 +8196,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>11</v>
       </c>
@@ -8112,7 +8210,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>15</v>
       </c>
@@ -8126,7 +8224,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>16</v>
       </c>
@@ -8140,7 +8238,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>17</v>
       </c>
@@ -8154,7 +8252,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>353</v>
       </c>
@@ -8174,7 +8272,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>11</v>
       </c>
@@ -8188,7 +8286,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>15</v>
       </c>
@@ -8202,7 +8300,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>110</v>
       </c>
@@ -8222,7 +8320,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>359</v>
       </c>
@@ -8242,7 +8340,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>362</v>
       </c>
@@ -8262,7 +8360,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>11</v>
       </c>
@@ -8276,7 +8374,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>126</v>
       </c>
@@ -8296,7 +8394,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>411</v>
       </c>
@@ -8316,7 +8414,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>11</v>
       </c>
@@ -8330,7 +8428,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>370</v>
       </c>
@@ -8350,7 +8448,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>146</v>
       </c>
@@ -8370,7 +8468,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>141</v>
       </c>
@@ -8384,7 +8482,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>12</v>
       </c>
@@ -8398,7 +8496,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>11</v>
       </c>
@@ -8412,7 +8510,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>380</v>
       </c>
@@ -8432,7 +8530,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>385</v>
       </c>
@@ -8452,7 +8550,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>12</v>
       </c>
@@ -8481,20 +8579,20 @@
   <dimension ref="A1:F44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -8514,7 +8612,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>387</v>
       </c>
@@ -8534,7 +8632,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>11</v>
       </c>
@@ -8548,7 +8646,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>447</v>
       </c>
@@ -8568,7 +8666,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>12</v>
       </c>
@@ -8582,7 +8680,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>11</v>
       </c>
@@ -8596,7 +8694,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>391</v>
       </c>
@@ -8616,7 +8714,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>12</v>
       </c>
@@ -8630,7 +8728,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>11</v>
       </c>
@@ -8644,7 +8742,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>15</v>
       </c>
@@ -8658,7 +8756,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>110</v>
       </c>
@@ -8678,7 +8776,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>141</v>
       </c>
@@ -8692,7 +8790,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>399</v>
       </c>
@@ -8712,7 +8810,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>11</v>
       </c>
@@ -8726,7 +8824,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>403</v>
       </c>
@@ -8746,7 +8844,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>11</v>
       </c>
@@ -8760,7 +8858,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>15</v>
       </c>
@@ -8774,7 +8872,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>16</v>
       </c>
@@ -8788,7 +8886,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>17</v>
       </c>
@@ -8802,7 +8900,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>126</v>
       </c>
@@ -8822,7 +8920,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>141</v>
       </c>
@@ -8836,7 +8934,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>410</v>
       </c>
@@ -8856,7 +8954,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>411</v>
       </c>
@@ -8876,7 +8974,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>12</v>
       </c>
@@ -8890,7 +8988,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>11</v>
       </c>
@@ -8904,7 +9002,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>146</v>
       </c>
@@ -8924,7 +9022,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>141</v>
       </c>
@@ -8938,7 +9036,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>12</v>
       </c>
@@ -8952,7 +9050,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>419</v>
       </c>
@@ -8972,7 +9070,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>11</v>
       </c>
@@ -8986,7 +9084,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>424</v>
       </c>
@@ -9006,7 +9104,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>12</v>
       </c>
@@ -9020,7 +9118,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>11</v>
       </c>
@@ -9047,21 +9145,21 @@
   </sheetPr>
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -9081,7 +9179,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>431</v>
       </c>
@@ -9101,7 +9199,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="9"/>
       <c r="C3" t="s">
         <v>11</v>
@@ -9116,7 +9214,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>174</v>
       </c>
@@ -9136,7 +9234,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="9"/>
       <c r="C6" t="s">
         <v>141</v>
@@ -9151,7 +9249,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>432</v>
       </c>
@@ -9171,7 +9269,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>11</v>
       </c>
@@ -9185,7 +9283,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>15</v>
       </c>
@@ -9199,7 +9297,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>16</v>
       </c>
@@ -9213,7 +9311,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>438</v>
       </c>
@@ -9233,7 +9331,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>441</v>
       </c>
@@ -9253,7 +9351,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>385</v>
       </c>
@@ -9273,7 +9371,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>12</v>
       </c>
@@ -9287,7 +9385,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>307</v>
       </c>
@@ -9307,7 +9405,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>141</v>
       </c>
@@ -9321,7 +9419,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>12</v>
       </c>
@@ -9335,7 +9433,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>11</v>
       </c>
@@ -9349,7 +9447,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>447</v>
       </c>
@@ -9369,7 +9467,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>391</v>
       </c>
@@ -9389,7 +9487,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>110</v>
       </c>
@@ -9409,7 +9507,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>141</v>
       </c>
@@ -9423,7 +9521,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>12</v>
       </c>
@@ -9437,7 +9535,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>454</v>
       </c>
@@ -9457,7 +9555,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>11</v>
       </c>
@@ -9471,7 +9569,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>359</v>
       </c>
@@ -9491,7 +9589,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>403</v>
       </c>
@@ -9511,7 +9609,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>11</v>
       </c>
@@ -9525,7 +9623,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>126</v>
       </c>
@@ -9545,7 +9643,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>141</v>
       </c>
@@ -9559,7 +9657,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>12</v>
       </c>
@@ -9573,12 +9671,12 @@
         <v>464</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D44" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>467</v>
       </c>
@@ -9598,7 +9696,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>411</v>
       </c>

--- a/Tennis/WTA Tour/Bianca Andreescu.xlsx
+++ b/Tennis/WTA Tour/Bianca Andreescu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7732" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{136AB79A-5E19-40C0-9641-C3DBDF5C353B}"/>
+  <xr:revisionPtr revIDLastSave="7741" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CFED7200-7AC3-4D8E-910E-F972ADC43E32}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="3" activeTab="10" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1440" uniqueCount="480">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1446" uniqueCount="481">
   <si>
     <t>ROUND</t>
   </si>
@@ -1485,6 +1485,9 @@
   </si>
   <si>
     <t>Dalma Gálfi (HUNGARY)</t>
+  </si>
+  <si>
+    <t>Anna Blinkova (RUSSIA)</t>
   </si>
 </sst>
 </file>
@@ -1942,7 +1945,7 @@
                   <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2454,7 +2457,7 @@
                   <c:v>-6.6666666666666666E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.66666666666666663</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4386,21 +4389,20 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" activeCellId="1" sqref="E2:E3 E6:E9"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="27.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -4546,6 +4548,26 @@
       </c>
       <c r="F10" t="s">
         <v>478</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>403</v>
+      </c>
+      <c r="B12" t="s">
+        <v>114</v>
+      </c>
+      <c r="C12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" t="s">
+        <v>480</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -4789,7 +4811,7 @@
         <v>2024</v>
       </c>
       <c r="B11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -4798,11 +4820,11 @@
         <v>6</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11" s="3">
         <f t="shared" si="0"/>
-        <v>0.66666666666666663</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -4811,7 +4833,7 @@
       </c>
       <c r="B12" s="2">
         <f>SUM(B2:B11)</f>
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C12" s="2">
         <f>SUM(C2:C11)</f>
@@ -4823,11 +4845,11 @@
       </c>
       <c r="E12" s="2">
         <f>SUM(E2:E11)</f>
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F12" s="7">
         <f>(D12-E12)/D12</f>
-        <v>0.52577319587628868</v>
+        <v>0.52061855670103097</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -4836,7 +4858,7 @@
       </c>
       <c r="B13" s="2">
         <f>AVERAGE(B2:B11)</f>
-        <v>10.4</v>
+        <v>10.5</v>
       </c>
       <c r="C13" s="2">
         <f>AVERAGE(C2:C11)</f>
@@ -4848,11 +4870,11 @@
       </c>
       <c r="E13" s="2">
         <f>AVERAGE(E2:E11)</f>
-        <v>9.1999999999999993</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="F13" s="7">
         <f>(D13-E13)/D13</f>
-        <v>0.52577319587628868</v>
+        <v>0.52061855670103085</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/WTA Tour/Bianca Andreescu.xlsx
+++ b/Tennis/WTA Tour/Bianca Andreescu.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7741" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CFED7200-7AC3-4D8E-910E-F972ADC43E32}"/>
+  <xr:revisionPtr revIDLastSave="7759" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B423C858-8F66-4A12-BF0D-6E2AEDA9704D}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="3" activeTab="10" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="3" activeTab="10" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2015" sheetId="22" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1446" uniqueCount="481">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1460" uniqueCount="483">
   <si>
     <t>ROUND</t>
   </si>
@@ -1488,6 +1488,12 @@
   </si>
   <si>
     <t>Anna Blinkova (RUSSIA)</t>
+  </si>
+  <si>
+    <t>Linda Nosková (CZECH REPUBLIC)</t>
+  </si>
+  <si>
+    <t>7-6(4) 6-1</t>
   </si>
 </sst>
 </file>
@@ -1837,7 +1843,7 @@
                   <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1945,7 +1951,7 @@
                   <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4225,17 +4231,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -4255,7 +4261,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>45</v>
       </c>
@@ -4275,7 +4281,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>11</v>
       </c>
@@ -4289,7 +4295,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>15</v>
       </c>
@@ -4303,7 +4309,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>16</v>
       </c>
@@ -4317,7 +4323,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>17</v>
       </c>
@@ -4331,7 +4337,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>411</v>
       </c>
@@ -4351,7 +4357,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>53</v>
       </c>
@@ -4389,23 +4395,24 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -4425,7 +4432,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>110</v>
       </c>
@@ -4445,7 +4452,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="9"/>
       <c r="C3" s="10" t="s">
         <v>141</v>
@@ -4460,7 +4467,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" s="10" t="s">
         <v>12</v>
       </c>
@@ -4474,7 +4481,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>454</v>
       </c>
@@ -4494,7 +4501,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>11</v>
       </c>
@@ -4508,7 +4515,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>15</v>
       </c>
@@ -4522,7 +4529,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>16</v>
       </c>
@@ -4536,7 +4543,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>17</v>
       </c>
@@ -4550,7 +4557,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>403</v>
       </c>
@@ -4568,6 +4575,54 @@
       </c>
       <c r="F12" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>126</v>
+      </c>
+      <c r="B14" t="s">
+        <v>114</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="D14" t="s">
+        <v>168</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C15" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="D15" t="s">
+        <v>481</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C16" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" t="s">
+        <v>471</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" t="s">
+        <v>482</v>
       </c>
     </row>
   </sheetData>
@@ -4587,17 +4642,17 @@
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -4617,7 +4672,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2015</v>
       </c>
@@ -4638,7 +4693,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2016</v>
       </c>
@@ -4659,7 +4714,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2017</v>
       </c>
@@ -4680,7 +4735,7 @@
         <v>0.37037037037037035</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2018</v>
       </c>
@@ -4701,7 +4756,7 @@
         <v>0.60465116279069764</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2019</v>
       </c>
@@ -4722,7 +4777,7 @@
         <v>0.85416666666666663</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2020</v>
       </c>
@@ -4743,7 +4798,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2021</v>
       </c>
@@ -4764,7 +4819,7 @@
         <v>0.29411764705882354</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2022</v>
       </c>
@@ -4785,7 +4840,7 @@
         <v>0.36842105263157893</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2023</v>
       </c>
@@ -4806,34 +4861,34 @@
         <v>-6.6666666666666666E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2024</v>
       </c>
       <c r="B11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F11" s="3">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B12" s="2">
         <f>SUM(B2:B11)</f>
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C12" s="2">
         <f>SUM(C2:C11)</f>
@@ -4841,24 +4896,24 @@
       </c>
       <c r="D12" s="2">
         <f>SUM(D2:D11)</f>
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E12" s="2">
         <f>SUM(E2:E11)</f>
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F12" s="7">
         <f>(D12-E12)/D12</f>
-        <v>0.52061855670103097</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.52040816326530615</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>368</v>
       </c>
       <c r="B13" s="2">
         <f>AVERAGE(B2:B11)</f>
-        <v>10.5</v>
+        <v>10.6</v>
       </c>
       <c r="C13" s="2">
         <f>AVERAGE(C2:C11)</f>
@@ -4866,15 +4921,15 @@
       </c>
       <c r="D13" s="2">
         <f>AVERAGE(D2:D11)</f>
-        <v>19.399999999999999</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="E13" s="2">
         <f>AVERAGE(E2:E11)</f>
-        <v>9.3000000000000007</v>
+        <v>9.4</v>
       </c>
       <c r="F13" s="7">
         <f>(D13-E13)/D13</f>
-        <v>0.52061855670103085</v>
+        <v>0.52040816326530615</v>
       </c>
     </row>
   </sheetData>
@@ -4903,17 +4958,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -4933,7 +4988,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>55</v>
       </c>
@@ -4953,7 +5008,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>11</v>
       </c>
@@ -4967,7 +5022,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>411</v>
       </c>
@@ -4987,7 +5042,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>21</v>
       </c>
@@ -5001,7 +5056,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>58</v>
       </c>
@@ -5021,7 +5076,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>11</v>
       </c>
@@ -5035,7 +5090,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>45</v>
       </c>
@@ -5055,7 +5110,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>11</v>
       </c>
@@ -5069,7 +5124,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>15</v>
       </c>
@@ -5083,7 +5138,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>16</v>
       </c>
@@ -5097,7 +5152,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>17</v>
       </c>
@@ -5111,7 +5166,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>68</v>
       </c>
@@ -5131,7 +5186,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>11</v>
       </c>
@@ -5145,7 +5200,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>15</v>
       </c>
@@ -5159,7 +5214,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>16</v>
       </c>
@@ -5173,7 +5228,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>17</v>
       </c>
@@ -5187,7 +5242,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>53</v>
       </c>
@@ -5207,7 +5262,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>11</v>
       </c>
@@ -5221,7 +5276,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>15</v>
       </c>
@@ -5235,7 +5290,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>33</v>
       </c>
@@ -5255,7 +5310,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>11</v>
       </c>
@@ -5296,17 +5351,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="39.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -5326,7 +5381,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>78</v>
       </c>
@@ -5346,7 +5401,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>11</v>
       </c>
@@ -5360,7 +5415,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>15</v>
       </c>
@@ -5374,7 +5429,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>83</v>
       </c>
@@ -5394,7 +5449,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>11</v>
       </c>
@@ -5408,7 +5463,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>15</v>
       </c>
@@ -5422,7 +5477,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>16</v>
       </c>
@@ -5436,7 +5491,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>17</v>
       </c>
@@ -5450,7 +5505,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>91</v>
       </c>
@@ -5470,7 +5525,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>11</v>
       </c>
@@ -5484,7 +5539,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>15</v>
       </c>
@@ -5498,7 +5553,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>16</v>
       </c>
@@ -5512,7 +5567,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>91</v>
       </c>
@@ -5532,7 +5587,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>11</v>
       </c>
@@ -5546,7 +5601,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>15</v>
       </c>
@@ -5560,7 +5615,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>16</v>
       </c>
@@ -5574,7 +5629,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>17</v>
       </c>
@@ -5588,7 +5643,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>91</v>
       </c>
@@ -5608,7 +5663,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>110</v>
       </c>
@@ -5628,7 +5683,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>113</v>
       </c>
@@ -5648,7 +5703,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>11</v>
       </c>
@@ -5662,7 +5717,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>119</v>
       </c>
@@ -5682,7 +5737,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>21</v>
       </c>
@@ -5696,7 +5751,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>120</v>
       </c>
@@ -5710,7 +5765,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>126</v>
       </c>
@@ -5730,7 +5785,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>21</v>
       </c>
@@ -5744,7 +5799,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>120</v>
       </c>
@@ -5758,7 +5813,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>127</v>
       </c>
@@ -5772,7 +5827,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>131</v>
       </c>
@@ -5792,7 +5847,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>11</v>
       </c>
@@ -5806,7 +5861,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>135</v>
       </c>
@@ -5826,7 +5881,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>11</v>
       </c>
@@ -5840,7 +5895,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>15</v>
       </c>
@@ -5854,7 +5909,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>41</v>
       </c>
@@ -5874,7 +5929,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>143</v>
       </c>
@@ -5894,7 +5949,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>146</v>
       </c>
@@ -5914,7 +5969,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>149</v>
       </c>
@@ -5934,7 +5989,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>11</v>
       </c>
@@ -5948,7 +6003,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>153</v>
       </c>
@@ -5968,7 +6023,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>155</v>
       </c>
@@ -5988,7 +6043,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>157</v>
       </c>
@@ -6008,7 +6063,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>160</v>
       </c>
@@ -6028,7 +6083,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>11</v>
       </c>
@@ -6042,7 +6097,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>15</v>
       </c>
@@ -6074,17 +6129,17 @@
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="39.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -6104,7 +6159,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>167</v>
       </c>
@@ -6124,7 +6179,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>11</v>
       </c>
@@ -6138,7 +6193,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>15</v>
       </c>
@@ -6152,7 +6207,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>174</v>
       </c>
@@ -6172,7 +6227,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>176</v>
       </c>
@@ -6192,7 +6247,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>11</v>
       </c>
@@ -6206,7 +6261,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>15</v>
       </c>
@@ -6220,7 +6275,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>180</v>
       </c>
@@ -6237,7 +6292,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>183</v>
       </c>
@@ -6257,7 +6312,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>11</v>
       </c>
@@ -6271,7 +6326,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>185</v>
       </c>
@@ -6291,7 +6346,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>11</v>
       </c>
@@ -6305,7 +6360,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>15</v>
       </c>
@@ -6319,7 +6374,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>16</v>
       </c>
@@ -6333,7 +6388,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>17</v>
       </c>
@@ -6347,7 +6402,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>193</v>
       </c>
@@ -6367,7 +6422,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>11</v>
       </c>
@@ -6381,7 +6436,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>15</v>
       </c>
@@ -6395,7 +6450,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>16</v>
       </c>
@@ -6409,7 +6464,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>17</v>
       </c>
@@ -6423,7 +6478,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>201</v>
       </c>
@@ -6443,7 +6498,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>11</v>
       </c>
@@ -6457,7 +6512,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>110</v>
       </c>
@@ -6477,7 +6532,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>21</v>
       </c>
@@ -6491,7 +6546,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>120</v>
       </c>
@@ -6505,7 +6560,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>119</v>
       </c>
@@ -6525,7 +6580,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>21</v>
       </c>
@@ -6539,7 +6594,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>120</v>
       </c>
@@ -6553,7 +6608,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>12</v>
       </c>
@@ -6567,7 +6622,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>11</v>
       </c>
@@ -6581,7 +6636,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>126</v>
       </c>
@@ -6601,7 +6656,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>21</v>
       </c>
@@ -6615,7 +6670,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>120</v>
       </c>
@@ -6629,7 +6684,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>55</v>
       </c>
@@ -6649,7 +6704,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>45</v>
       </c>
@@ -6669,7 +6724,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>131</v>
       </c>
@@ -6689,7 +6744,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>11</v>
       </c>
@@ -6703,7 +6758,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>15</v>
       </c>
@@ -6717,7 +6772,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>16</v>
       </c>
@@ -6731,7 +6786,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>146</v>
       </c>
@@ -6751,7 +6806,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>233</v>
       </c>
@@ -6771,7 +6826,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>11</v>
       </c>
@@ -6785,7 +6840,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>15</v>
       </c>
@@ -6799,7 +6854,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>16</v>
       </c>
@@ -6813,7 +6868,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>17</v>
       </c>
@@ -6827,7 +6882,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>157</v>
       </c>
@@ -6847,7 +6902,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>11</v>
       </c>
@@ -6861,7 +6916,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>15</v>
       </c>
@@ -6875,7 +6930,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>16</v>
       </c>
@@ -6889,7 +6944,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>160</v>
       </c>
@@ -6909,7 +6964,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>11</v>
       </c>
@@ -6923,7 +6978,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>15</v>
       </c>
@@ -6937,7 +6992,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>16</v>
       </c>
@@ -6951,7 +7006,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>252</v>
       </c>
@@ -6971,7 +7026,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>11</v>
       </c>
@@ -6985,7 +7040,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C75" t="s">
         <v>15</v>
       </c>
@@ -6999,7 +7054,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>257</v>
       </c>
@@ -7019,7 +7074,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C78" t="s">
         <v>11</v>
       </c>
@@ -7033,7 +7088,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C79" t="s">
         <v>15</v>
       </c>
@@ -7047,7 +7102,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C80" t="s">
         <v>16</v>
       </c>
@@ -7061,7 +7116,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="81" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C81" t="s">
         <v>17</v>
       </c>
@@ -7093,17 +7148,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="36" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -7123,7 +7178,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>264</v>
       </c>
@@ -7143,7 +7198,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>21</v>
       </c>
@@ -7157,7 +7212,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>120</v>
       </c>
@@ -7171,7 +7226,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>12</v>
       </c>
@@ -7185,7 +7240,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>11</v>
       </c>
@@ -7199,7 +7254,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>15</v>
       </c>
@@ -7213,7 +7268,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>16</v>
       </c>
@@ -7227,7 +7282,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>17</v>
       </c>
@@ -7241,7 +7296,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>174</v>
       </c>
@@ -7261,7 +7316,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>21</v>
       </c>
@@ -7275,7 +7330,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>120</v>
       </c>
@@ -7289,7 +7344,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>127</v>
       </c>
@@ -7303,7 +7358,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>141</v>
       </c>
@@ -7317,7 +7372,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>285</v>
       </c>
@@ -7337,7 +7392,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>11</v>
       </c>
@@ -7351,7 +7406,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>15</v>
       </c>
@@ -7365,7 +7420,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>16</v>
       </c>
@@ -7379,7 +7434,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>17</v>
       </c>
@@ -7393,7 +7448,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>180</v>
       </c>
@@ -7410,7 +7465,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D24" t="s">
         <v>207</v>
       </c>
@@ -7421,7 +7476,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>293</v>
       </c>
@@ -7441,7 +7496,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>11</v>
       </c>
@@ -7455,7 +7510,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>15</v>
       </c>
@@ -7469,7 +7524,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>16</v>
       </c>
@@ -7483,7 +7538,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>385</v>
       </c>
@@ -7503,7 +7558,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>141</v>
       </c>
@@ -7517,7 +7572,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>12</v>
       </c>
@@ -7531,7 +7586,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>11</v>
       </c>
@@ -7545,7 +7600,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>15</v>
       </c>
@@ -7559,7 +7614,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>16</v>
       </c>
@@ -7573,7 +7628,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>17</v>
       </c>
@@ -7587,7 +7642,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>307</v>
       </c>
@@ -7607,7 +7662,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>141</v>
       </c>
@@ -7621,7 +7676,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>12</v>
       </c>
@@ -7635,7 +7690,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>11</v>
       </c>
@@ -7649,7 +7704,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>110</v>
       </c>
@@ -7669,7 +7724,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>141</v>
       </c>
@@ -7683,7 +7738,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>411</v>
       </c>
@@ -7703,7 +7758,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>12</v>
       </c>
@@ -7717,7 +7772,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>11</v>
       </c>
@@ -7731,7 +7786,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>15</v>
       </c>
@@ -7745,7 +7800,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>16</v>
       </c>
@@ -7759,7 +7814,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>17</v>
       </c>
@@ -7773,7 +7828,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>146</v>
       </c>
@@ -7793,7 +7848,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>141</v>
       </c>
@@ -7807,7 +7862,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>12</v>
       </c>
@@ -7821,7 +7876,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>11</v>
       </c>
@@ -7835,7 +7890,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>15</v>
       </c>
@@ -7849,7 +7904,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>16</v>
       </c>
@@ -7863,7 +7918,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>17</v>
       </c>
@@ -7877,7 +7932,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>328</v>
       </c>
@@ -7897,7 +7952,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>12</v>
       </c>
@@ -7911,7 +7966,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>11</v>
       </c>
@@ -7925,7 +7980,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>15</v>
       </c>
@@ -7939,7 +7994,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>332</v>
       </c>
@@ -7959,7 +8014,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>333</v>
       </c>
@@ -7991,17 +8046,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -8021,7 +8076,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>44</v>
       </c>
@@ -8058,17 +8113,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -8088,7 +8143,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>174</v>
       </c>
@@ -8108,7 +8163,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>141</v>
       </c>
@@ -8122,7 +8177,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>337</v>
       </c>
@@ -8142,7 +8197,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>11</v>
       </c>
@@ -8156,7 +8211,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>15</v>
       </c>
@@ -8170,7 +8225,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>16</v>
       </c>
@@ -8184,7 +8239,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>307</v>
       </c>
@@ -8204,7 +8259,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>12</v>
       </c>
@@ -8218,7 +8273,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>11</v>
       </c>
@@ -8232,7 +8287,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>15</v>
       </c>
@@ -8246,7 +8301,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>16</v>
       </c>
@@ -8260,7 +8315,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>17</v>
       </c>
@@ -8274,7 +8329,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>353</v>
       </c>
@@ -8294,7 +8349,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>11</v>
       </c>
@@ -8308,7 +8363,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>15</v>
       </c>
@@ -8322,7 +8377,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>110</v>
       </c>
@@ -8342,7 +8397,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>359</v>
       </c>
@@ -8362,7 +8417,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>362</v>
       </c>
@@ -8382,7 +8437,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>11</v>
       </c>
@@ -8396,7 +8451,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>126</v>
       </c>
@@ -8416,7 +8471,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>411</v>
       </c>
@@ -8436,7 +8491,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>11</v>
       </c>
@@ -8450,7 +8505,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>370</v>
       </c>
@@ -8470,7 +8525,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>146</v>
       </c>
@@ -8490,7 +8545,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>141</v>
       </c>
@@ -8504,7 +8559,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>12</v>
       </c>
@@ -8518,7 +8573,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>11</v>
       </c>
@@ -8532,7 +8587,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>380</v>
       </c>
@@ -8552,7 +8607,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>385</v>
       </c>
@@ -8572,7 +8627,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>12</v>
       </c>
@@ -8604,17 +8659,17 @@
       <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -8634,7 +8689,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>387</v>
       </c>
@@ -8654,7 +8709,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>11</v>
       </c>
@@ -8668,7 +8723,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>447</v>
       </c>
@@ -8688,7 +8743,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>12</v>
       </c>
@@ -8702,7 +8757,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>11</v>
       </c>
@@ -8716,7 +8771,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>391</v>
       </c>
@@ -8736,7 +8791,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>12</v>
       </c>
@@ -8750,7 +8805,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>11</v>
       </c>
@@ -8764,7 +8819,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>15</v>
       </c>
@@ -8778,7 +8833,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>110</v>
       </c>
@@ -8798,7 +8853,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>141</v>
       </c>
@@ -8812,7 +8867,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>399</v>
       </c>
@@ -8832,7 +8887,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>11</v>
       </c>
@@ -8846,7 +8901,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>403</v>
       </c>
@@ -8866,7 +8921,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>11</v>
       </c>
@@ -8880,7 +8935,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>15</v>
       </c>
@@ -8894,7 +8949,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>16</v>
       </c>
@@ -8908,7 +8963,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>17</v>
       </c>
@@ -8922,7 +8977,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>126</v>
       </c>
@@ -8942,7 +8997,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>141</v>
       </c>
@@ -8956,7 +9011,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>410</v>
       </c>
@@ -8976,7 +9031,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>411</v>
       </c>
@@ -8996,7 +9051,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>12</v>
       </c>
@@ -9010,7 +9065,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>11</v>
       </c>
@@ -9024,7 +9079,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>146</v>
       </c>
@@ -9044,7 +9099,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>141</v>
       </c>
@@ -9058,7 +9113,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>12</v>
       </c>
@@ -9072,7 +9127,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>419</v>
       </c>
@@ -9092,7 +9147,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>11</v>
       </c>
@@ -9106,7 +9161,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>424</v>
       </c>
@@ -9126,7 +9181,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>12</v>
       </c>
@@ -9140,7 +9195,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>11</v>
       </c>
@@ -9171,17 +9226,17 @@
       <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -9201,7 +9256,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>431</v>
       </c>
@@ -9221,7 +9276,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="9"/>
       <c r="C3" t="s">
         <v>11</v>
@@ -9236,7 +9291,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
         <v>174</v>
       </c>
@@ -9256,7 +9311,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="9"/>
       <c r="C6" t="s">
         <v>141</v>
@@ -9271,7 +9326,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
         <v>432</v>
       </c>
@@ -9291,7 +9346,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>11</v>
       </c>
@@ -9305,7 +9360,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>15</v>
       </c>
@@ -9319,7 +9374,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>16</v>
       </c>
@@ -9333,7 +9388,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>438</v>
       </c>
@@ -9353,7 +9408,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>441</v>
       </c>
@@ -9373,7 +9428,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>385</v>
       </c>
@@ -9393,7 +9448,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>12</v>
       </c>
@@ -9407,7 +9462,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>307</v>
       </c>
@@ -9427,7 +9482,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>141</v>
       </c>
@@ -9441,7 +9496,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>12</v>
       </c>
@@ -9455,7 +9510,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>11</v>
       </c>
@@ -9469,7 +9524,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>447</v>
       </c>
@@ -9489,7 +9544,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>391</v>
       </c>
@@ -9509,7 +9564,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>110</v>
       </c>
@@ -9529,7 +9584,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>141</v>
       </c>
@@ -9543,7 +9598,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>12</v>
       </c>
@@ -9557,7 +9612,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>454</v>
       </c>
@@ -9577,7 +9632,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>11</v>
       </c>
@@ -9591,7 +9646,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>359</v>
       </c>
@@ -9611,7 +9666,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>403</v>
       </c>
@@ -9631,7 +9686,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>11</v>
       </c>
@@ -9645,7 +9700,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>126</v>
       </c>
@@ -9665,7 +9720,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>141</v>
       </c>
@@ -9679,7 +9734,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>12</v>
       </c>
@@ -9693,12 +9748,12 @@
         <v>464</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D44" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>467</v>
       </c>
@@ -9718,7 +9773,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>411</v>
       </c>

--- a/Tennis/WTA Tour/Bianca Andreescu.xlsx
+++ b/Tennis/WTA Tour/Bianca Andreescu.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7759" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B423C858-8F66-4A12-BF0D-6E2AEDA9704D}"/>
+  <xr:revisionPtr revIDLastSave="7806" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C54B3F0B-E9FA-4C9C-8FC7-7FE9CD9055C4}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="3" activeTab="10" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="3" activeTab="10" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2015" sheetId="22" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1460" uniqueCount="483">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1494" uniqueCount="490">
   <si>
     <t>ROUND</t>
   </si>
@@ -1494,6 +1494,27 @@
   </si>
   <si>
     <t>7-6(4) 6-1</t>
+  </si>
+  <si>
+    <t>OLYMPICS</t>
+  </si>
+  <si>
+    <t>Donna Vekić (CROATIA)</t>
+  </si>
+  <si>
+    <t>Clara Tauson (DENMARK)</t>
+  </si>
+  <si>
+    <t>0-6 6-3 6-4</t>
+  </si>
+  <si>
+    <t>Elina Avanesyan (ARMENIA)</t>
+  </si>
+  <si>
+    <t>6-7(5) 6-2 6-4</t>
+  </si>
+  <si>
+    <t>JAPAN WOMEN'S OPEN</t>
   </si>
 </sst>
 </file>
@@ -1843,7 +1864,7 @@
                   <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1951,7 +1972,7 @@
                   <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2463,7 +2484,7 @@
                   <c:v>-6.6666666666666666E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3921,10 +3942,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
@@ -4231,17 +4248,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -4261,7 +4278,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>45</v>
       </c>
@@ -4281,7 +4298,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>11</v>
       </c>
@@ -4295,7 +4312,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>15</v>
       </c>
@@ -4309,7 +4326,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>16</v>
       </c>
@@ -4323,7 +4340,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>17</v>
       </c>
@@ -4337,7 +4354,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>411</v>
       </c>
@@ -4357,7 +4374,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>53</v>
       </c>
@@ -4395,24 +4412,23 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -4432,7 +4448,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>110</v>
       </c>
@@ -4452,7 +4468,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="9"/>
       <c r="C3" s="10" t="s">
         <v>141</v>
@@ -4467,7 +4483,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" s="10" t="s">
         <v>12</v>
       </c>
@@ -4481,7 +4497,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>454</v>
       </c>
@@ -4501,7 +4517,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>11</v>
       </c>
@@ -4515,7 +4531,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>15</v>
       </c>
@@ -4529,7 +4545,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>16</v>
       </c>
@@ -4543,7 +4559,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>17</v>
       </c>
@@ -4557,7 +4573,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>403</v>
       </c>
@@ -4577,7 +4593,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>126</v>
       </c>
@@ -4597,7 +4613,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" s="10" t="s">
         <v>141</v>
       </c>
@@ -4611,7 +4627,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" s="10" t="s">
         <v>12</v>
       </c>
@@ -4623,6 +4639,120 @@
       </c>
       <c r="F16" t="s">
         <v>482</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>483</v>
+      </c>
+      <c r="B18" t="s">
+        <v>92</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="D18" t="s">
+        <v>485</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C19" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" t="s">
+        <v>484</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>411</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="D21" t="s">
+        <v>435</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>370</v>
+      </c>
+      <c r="B23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="D23" t="s">
+        <v>487</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F23" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>146</v>
+      </c>
+      <c r="B25" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="D25" t="s">
+        <v>471</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F25" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>489</v>
+      </c>
+      <c r="B27" t="s">
+        <v>19</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27" t="s">
+        <v>377</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F27" t="s">
+        <v>237</v>
       </c>
     </row>
   </sheetData>
@@ -4642,17 +4772,17 @@
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -4672,7 +4802,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2015</v>
       </c>
@@ -4693,7 +4823,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2016</v>
       </c>
@@ -4714,7 +4844,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2017</v>
       </c>
@@ -4735,7 +4865,7 @@
         <v>0.37037037037037035</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2018</v>
       </c>
@@ -4756,7 +4886,7 @@
         <v>0.60465116279069764</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2019</v>
       </c>
@@ -4777,7 +4907,7 @@
         <v>0.85416666666666663</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2020</v>
       </c>
@@ -4798,7 +4928,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2021</v>
       </c>
@@ -4819,7 +4949,7 @@
         <v>0.29411764705882354</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2022</v>
       </c>
@@ -4840,7 +4970,7 @@
         <v>0.36842105263157893</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2023</v>
       </c>
@@ -4861,34 +4991,34 @@
         <v>-6.6666666666666666E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2024</v>
       </c>
       <c r="B11">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E11">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F11" s="3">
         <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B12" s="2">
         <f>SUM(B2:B11)</f>
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="C12" s="2">
         <f>SUM(C2:C11)</f>
@@ -4896,24 +5026,24 @@
       </c>
       <c r="D12" s="2">
         <f>SUM(D2:D11)</f>
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E12" s="2">
         <f>SUM(E2:E11)</f>
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="F12" s="7">
         <f>(D12-E12)/D12</f>
-        <v>0.52040816326530615</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0.49746192893401014</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>368</v>
       </c>
       <c r="B13" s="2">
         <f>AVERAGE(B2:B11)</f>
-        <v>10.6</v>
+        <v>11.1</v>
       </c>
       <c r="C13" s="2">
         <f>AVERAGE(C2:C11)</f>
@@ -4921,15 +5051,15 @@
       </c>
       <c r="D13" s="2">
         <f>AVERAGE(D2:D11)</f>
-        <v>19.600000000000001</v>
+        <v>19.7</v>
       </c>
       <c r="E13" s="2">
         <f>AVERAGE(E2:E11)</f>
-        <v>9.4</v>
+        <v>9.9</v>
       </c>
       <c r="F13" s="7">
         <f>(D13-E13)/D13</f>
-        <v>0.52040816326530615</v>
+        <v>0.49746192893401009</v>
       </c>
     </row>
   </sheetData>
@@ -4958,17 +5088,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -4988,7 +5118,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>55</v>
       </c>
@@ -5008,7 +5138,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>11</v>
       </c>
@@ -5022,7 +5152,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>411</v>
       </c>
@@ -5042,7 +5172,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>21</v>
       </c>
@@ -5056,7 +5186,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>58</v>
       </c>
@@ -5076,7 +5206,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>11</v>
       </c>
@@ -5090,7 +5220,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>45</v>
       </c>
@@ -5110,7 +5240,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>11</v>
       </c>
@@ -5124,7 +5254,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>15</v>
       </c>
@@ -5138,7 +5268,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>16</v>
       </c>
@@ -5152,7 +5282,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>17</v>
       </c>
@@ -5166,7 +5296,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>68</v>
       </c>
@@ -5186,7 +5316,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>11</v>
       </c>
@@ -5200,7 +5330,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>15</v>
       </c>
@@ -5214,7 +5344,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>16</v>
       </c>
@@ -5228,7 +5358,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>17</v>
       </c>
@@ -5242,7 +5372,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>53</v>
       </c>
@@ -5262,7 +5392,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>11</v>
       </c>
@@ -5276,7 +5406,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>15</v>
       </c>
@@ -5290,7 +5420,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>33</v>
       </c>
@@ -5310,7 +5440,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>11</v>
       </c>
@@ -5351,17 +5481,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -5381,7 +5511,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>78</v>
       </c>
@@ -5401,7 +5531,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>11</v>
       </c>
@@ -5415,7 +5545,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>15</v>
       </c>
@@ -5429,7 +5559,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>83</v>
       </c>
@@ -5449,7 +5579,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>11</v>
       </c>
@@ -5463,7 +5593,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>15</v>
       </c>
@@ -5477,7 +5607,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>16</v>
       </c>
@@ -5491,7 +5621,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>17</v>
       </c>
@@ -5505,7 +5635,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>91</v>
       </c>
@@ -5525,7 +5655,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>11</v>
       </c>
@@ -5539,7 +5669,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>15</v>
       </c>
@@ -5553,7 +5683,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>16</v>
       </c>
@@ -5567,7 +5697,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>91</v>
       </c>
@@ -5587,7 +5717,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>11</v>
       </c>
@@ -5601,7 +5731,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>15</v>
       </c>
@@ -5615,7 +5745,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>16</v>
       </c>
@@ -5629,7 +5759,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>17</v>
       </c>
@@ -5643,7 +5773,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>91</v>
       </c>
@@ -5663,7 +5793,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>110</v>
       </c>
@@ -5683,7 +5813,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>113</v>
       </c>
@@ -5703,7 +5833,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>11</v>
       </c>
@@ -5717,7 +5847,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>119</v>
       </c>
@@ -5737,7 +5867,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>21</v>
       </c>
@@ -5751,7 +5881,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>120</v>
       </c>
@@ -5765,7 +5895,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>126</v>
       </c>
@@ -5785,7 +5915,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>21</v>
       </c>
@@ -5799,7 +5929,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>120</v>
       </c>
@@ -5813,7 +5943,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>127</v>
       </c>
@@ -5827,7 +5957,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>131</v>
       </c>
@@ -5847,7 +5977,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>11</v>
       </c>
@@ -5861,7 +5991,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>135</v>
       </c>
@@ -5881,7 +6011,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>11</v>
       </c>
@@ -5895,7 +6025,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>15</v>
       </c>
@@ -5909,7 +6039,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>41</v>
       </c>
@@ -5929,7 +6059,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>143</v>
       </c>
@@ -5949,7 +6079,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>146</v>
       </c>
@@ -5969,7 +6099,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>149</v>
       </c>
@@ -5989,7 +6119,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>11</v>
       </c>
@@ -6003,7 +6133,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>153</v>
       </c>
@@ -6023,7 +6153,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>155</v>
       </c>
@@ -6043,7 +6173,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>157</v>
       </c>
@@ -6063,7 +6193,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>160</v>
       </c>
@@ -6083,7 +6213,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>11</v>
       </c>
@@ -6097,7 +6227,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>15</v>
       </c>
@@ -6126,20 +6256,20 @@
   <dimension ref="A1:F81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="39.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -6159,7 +6289,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>167</v>
       </c>
@@ -6179,7 +6309,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>11</v>
       </c>
@@ -6193,7 +6323,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>15</v>
       </c>
@@ -6207,7 +6337,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>174</v>
       </c>
@@ -6227,7 +6357,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>176</v>
       </c>
@@ -6247,7 +6377,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>11</v>
       </c>
@@ -6261,7 +6391,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>15</v>
       </c>
@@ -6275,7 +6405,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>180</v>
       </c>
@@ -6292,7 +6422,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>183</v>
       </c>
@@ -6312,7 +6442,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>11</v>
       </c>
@@ -6326,7 +6456,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>185</v>
       </c>
@@ -6346,7 +6476,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>11</v>
       </c>
@@ -6360,7 +6490,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>15</v>
       </c>
@@ -6374,7 +6504,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>16</v>
       </c>
@@ -6388,7 +6518,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>17</v>
       </c>
@@ -6402,7 +6532,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>193</v>
       </c>
@@ -6422,7 +6552,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>11</v>
       </c>
@@ -6436,7 +6566,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>15</v>
       </c>
@@ -6450,7 +6580,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>16</v>
       </c>
@@ -6464,7 +6594,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>17</v>
       </c>
@@ -6478,7 +6608,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>201</v>
       </c>
@@ -6498,7 +6628,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>11</v>
       </c>
@@ -6512,7 +6642,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>110</v>
       </c>
@@ -6532,7 +6662,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>21</v>
       </c>
@@ -6546,7 +6676,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>120</v>
       </c>
@@ -6560,7 +6690,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>119</v>
       </c>
@@ -6580,7 +6710,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>21</v>
       </c>
@@ -6594,7 +6724,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>120</v>
       </c>
@@ -6608,7 +6738,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>12</v>
       </c>
@@ -6622,7 +6752,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>11</v>
       </c>
@@ -6636,7 +6766,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>126</v>
       </c>
@@ -6656,7 +6786,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>21</v>
       </c>
@@ -6670,7 +6800,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>120</v>
       </c>
@@ -6684,7 +6814,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>55</v>
       </c>
@@ -6704,7 +6834,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>45</v>
       </c>
@@ -6724,7 +6854,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>131</v>
       </c>
@@ -6744,7 +6874,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>11</v>
       </c>
@@ -6758,7 +6888,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>15</v>
       </c>
@@ -6772,7 +6902,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>16</v>
       </c>
@@ -6786,7 +6916,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>146</v>
       </c>
@@ -6806,7 +6936,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>233</v>
       </c>
@@ -6826,7 +6956,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>11</v>
       </c>
@@ -6840,7 +6970,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>15</v>
       </c>
@@ -6854,7 +6984,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>16</v>
       </c>
@@ -6868,7 +6998,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>17</v>
       </c>
@@ -6882,7 +7012,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>157</v>
       </c>
@@ -6902,7 +7032,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>11</v>
       </c>
@@ -6916,7 +7046,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>15</v>
       </c>
@@ -6930,7 +7060,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>16</v>
       </c>
@@ -6944,7 +7074,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>160</v>
       </c>
@@ -6964,7 +7094,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>11</v>
       </c>
@@ -6978,7 +7108,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>15</v>
       </c>
@@ -6992,7 +7122,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>16</v>
       </c>
@@ -7006,7 +7136,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>252</v>
       </c>
@@ -7026,7 +7156,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>11</v>
       </c>
@@ -7040,7 +7170,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
         <v>15</v>
       </c>
@@ -7054,7 +7184,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>257</v>
       </c>
@@ -7074,7 +7204,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
         <v>11</v>
       </c>
@@ -7088,7 +7218,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
         <v>15</v>
       </c>
@@ -7102,7 +7232,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
         <v>16</v>
       </c>
@@ -7116,7 +7246,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="81" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C81" t="s">
         <v>17</v>
       </c>
@@ -7148,17 +7278,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="36" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -7178,7 +7308,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>264</v>
       </c>
@@ -7198,7 +7328,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>21</v>
       </c>
@@ -7212,7 +7342,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>120</v>
       </c>
@@ -7226,7 +7356,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>12</v>
       </c>
@@ -7240,7 +7370,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>11</v>
       </c>
@@ -7254,7 +7384,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>15</v>
       </c>
@@ -7268,7 +7398,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>16</v>
       </c>
@@ -7282,7 +7412,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>17</v>
       </c>
@@ -7296,7 +7426,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>174</v>
       </c>
@@ -7316,7 +7446,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>21</v>
       </c>
@@ -7330,7 +7460,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>120</v>
       </c>
@@ -7344,7 +7474,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>127</v>
       </c>
@@ -7358,7 +7488,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>141</v>
       </c>
@@ -7372,7 +7502,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>285</v>
       </c>
@@ -7392,7 +7522,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>11</v>
       </c>
@@ -7406,7 +7536,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>15</v>
       </c>
@@ -7420,7 +7550,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>16</v>
       </c>
@@ -7434,7 +7564,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>17</v>
       </c>
@@ -7448,7 +7578,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>180</v>
       </c>
@@ -7465,7 +7595,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D24" t="s">
         <v>207</v>
       </c>
@@ -7476,7 +7606,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>293</v>
       </c>
@@ -7496,7 +7626,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>11</v>
       </c>
@@ -7510,7 +7640,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>15</v>
       </c>
@@ -7524,7 +7654,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>16</v>
       </c>
@@ -7538,7 +7668,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>385</v>
       </c>
@@ -7558,7 +7688,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>141</v>
       </c>
@@ -7572,7 +7702,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>12</v>
       </c>
@@ -7586,7 +7716,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>11</v>
       </c>
@@ -7600,7 +7730,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>15</v>
       </c>
@@ -7614,7 +7744,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>16</v>
       </c>
@@ -7628,7 +7758,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>17</v>
       </c>
@@ -7642,7 +7772,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>307</v>
       </c>
@@ -7662,7 +7792,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>141</v>
       </c>
@@ -7676,7 +7806,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>12</v>
       </c>
@@ -7690,7 +7820,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>11</v>
       </c>
@@ -7704,7 +7834,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>110</v>
       </c>
@@ -7724,7 +7854,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>141</v>
       </c>
@@ -7738,7 +7868,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>411</v>
       </c>
@@ -7758,7 +7888,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>12</v>
       </c>
@@ -7772,7 +7902,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>11</v>
       </c>
@@ -7786,7 +7916,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>15</v>
       </c>
@@ -7800,7 +7930,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>16</v>
       </c>
@@ -7814,7 +7944,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>17</v>
       </c>
@@ -7828,7 +7958,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>146</v>
       </c>
@@ -7848,7 +7978,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>141</v>
       </c>
@@ -7862,7 +7992,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>12</v>
       </c>
@@ -7876,7 +8006,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>11</v>
       </c>
@@ -7890,7 +8020,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>15</v>
       </c>
@@ -7904,7 +8034,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>16</v>
       </c>
@@ -7918,7 +8048,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>17</v>
       </c>
@@ -7932,7 +8062,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>328</v>
       </c>
@@ -7952,7 +8082,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>12</v>
       </c>
@@ -7966,7 +8096,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>11</v>
       </c>
@@ -7980,7 +8110,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>15</v>
       </c>
@@ -7994,7 +8124,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>332</v>
       </c>
@@ -8014,7 +8144,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>333</v>
       </c>
@@ -8046,17 +8176,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -8076,7 +8206,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>44</v>
       </c>
@@ -8113,17 +8243,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -8143,7 +8273,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>174</v>
       </c>
@@ -8163,7 +8293,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>141</v>
       </c>
@@ -8177,7 +8307,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>337</v>
       </c>
@@ -8197,7 +8327,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>11</v>
       </c>
@@ -8211,7 +8341,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>15</v>
       </c>
@@ -8225,7 +8355,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>16</v>
       </c>
@@ -8239,7 +8369,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>307</v>
       </c>
@@ -8259,7 +8389,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>12</v>
       </c>
@@ -8273,7 +8403,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>11</v>
       </c>
@@ -8287,7 +8417,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>15</v>
       </c>
@@ -8301,7 +8431,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>16</v>
       </c>
@@ -8315,7 +8445,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>17</v>
       </c>
@@ -8329,7 +8459,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>353</v>
       </c>
@@ -8349,7 +8479,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>11</v>
       </c>
@@ -8363,7 +8493,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>15</v>
       </c>
@@ -8377,7 +8507,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>110</v>
       </c>
@@ -8397,7 +8527,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>359</v>
       </c>
@@ -8417,7 +8547,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>362</v>
       </c>
@@ -8437,7 +8567,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>11</v>
       </c>
@@ -8451,7 +8581,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>126</v>
       </c>
@@ -8471,7 +8601,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>411</v>
       </c>
@@ -8491,7 +8621,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>11</v>
       </c>
@@ -8505,7 +8635,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>370</v>
       </c>
@@ -8525,7 +8655,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>146</v>
       </c>
@@ -8545,7 +8675,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>141</v>
       </c>
@@ -8559,7 +8689,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>12</v>
       </c>
@@ -8573,7 +8703,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>11</v>
       </c>
@@ -8587,7 +8717,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>380</v>
       </c>
@@ -8607,7 +8737,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>385</v>
       </c>
@@ -8627,7 +8757,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>12</v>
       </c>
@@ -8656,20 +8786,20 @@
   <dimension ref="A1:F44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -8689,7 +8819,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>387</v>
       </c>
@@ -8709,7 +8839,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>11</v>
       </c>
@@ -8723,7 +8853,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>447</v>
       </c>
@@ -8743,7 +8873,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>12</v>
       </c>
@@ -8757,7 +8887,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>11</v>
       </c>
@@ -8771,7 +8901,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>391</v>
       </c>
@@ -8791,7 +8921,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>12</v>
       </c>
@@ -8805,7 +8935,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>11</v>
       </c>
@@ -8819,7 +8949,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>15</v>
       </c>
@@ -8833,7 +8963,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>110</v>
       </c>
@@ -8853,7 +8983,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>141</v>
       </c>
@@ -8867,7 +8997,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>399</v>
       </c>
@@ -8887,7 +9017,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>11</v>
       </c>
@@ -8901,7 +9031,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>403</v>
       </c>
@@ -8921,7 +9051,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>11</v>
       </c>
@@ -8935,7 +9065,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>15</v>
       </c>
@@ -8949,7 +9079,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>16</v>
       </c>
@@ -8963,7 +9093,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>17</v>
       </c>
@@ -8977,7 +9107,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>126</v>
       </c>
@@ -8997,7 +9127,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>141</v>
       </c>
@@ -9011,7 +9141,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>410</v>
       </c>
@@ -9031,7 +9161,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>411</v>
       </c>
@@ -9051,7 +9181,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>12</v>
       </c>
@@ -9065,7 +9195,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>11</v>
       </c>
@@ -9079,7 +9209,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>146</v>
       </c>
@@ -9099,7 +9229,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>141</v>
       </c>
@@ -9113,7 +9243,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>12</v>
       </c>
@@ -9127,7 +9257,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>419</v>
       </c>
@@ -9147,7 +9277,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>11</v>
       </c>
@@ -9161,7 +9291,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>424</v>
       </c>
@@ -9181,7 +9311,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>12</v>
       </c>
@@ -9195,7 +9325,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>11</v>
       </c>
@@ -9223,20 +9353,20 @@
   <dimension ref="A1:F47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -9256,7 +9386,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>431</v>
       </c>
@@ -9276,7 +9406,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="9"/>
       <c r="C3" t="s">
         <v>11</v>
@@ -9291,7 +9421,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>174</v>
       </c>
@@ -9311,7 +9441,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="9"/>
       <c r="C6" t="s">
         <v>141</v>
@@ -9326,7 +9456,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>432</v>
       </c>
@@ -9346,7 +9476,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>11</v>
       </c>
@@ -9360,7 +9490,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>15</v>
       </c>
@@ -9374,7 +9504,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>16</v>
       </c>
@@ -9388,7 +9518,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>438</v>
       </c>
@@ -9408,7 +9538,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>441</v>
       </c>
@@ -9428,7 +9558,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>385</v>
       </c>
@@ -9448,7 +9578,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>12</v>
       </c>
@@ -9462,7 +9592,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>307</v>
       </c>
@@ -9482,7 +9612,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>141</v>
       </c>
@@ -9496,7 +9626,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>12</v>
       </c>
@@ -9510,7 +9640,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>11</v>
       </c>
@@ -9524,7 +9654,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>447</v>
       </c>
@@ -9544,7 +9674,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>391</v>
       </c>
@@ -9564,7 +9694,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>110</v>
       </c>
@@ -9584,7 +9714,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>141</v>
       </c>
@@ -9598,7 +9728,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>12</v>
       </c>
@@ -9612,7 +9742,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>454</v>
       </c>
@@ -9632,7 +9762,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>11</v>
       </c>
@@ -9646,7 +9776,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>359</v>
       </c>
@@ -9666,7 +9796,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>403</v>
       </c>
@@ -9686,7 +9816,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>11</v>
       </c>
@@ -9700,7 +9830,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>126</v>
       </c>
@@ -9720,7 +9850,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>141</v>
       </c>
@@ -9734,7 +9864,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>12</v>
       </c>
@@ -9748,12 +9878,12 @@
         <v>464</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D44" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>467</v>
       </c>
@@ -9773,7 +9903,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>411</v>
       </c>

--- a/Tennis/WTA Tour/Bianca Andreescu.xlsx
+++ b/Tennis/WTA Tour/Bianca Andreescu.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7806" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C54B3F0B-E9FA-4C9C-8FC7-7FE9CD9055C4}"/>
+  <xr:revisionPtr revIDLastSave="7822" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DA51B01A-3561-460A-AF90-F7A2FABC6350}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="3" activeTab="10" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="3" activeTab="10" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2015" sheetId="22" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1494" uniqueCount="490">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1508" uniqueCount="494">
   <si>
     <t>ROUND</t>
   </si>
@@ -1515,6 +1515,18 @@
   </si>
   <si>
     <t>JAPAN WOMEN'S OPEN</t>
+  </si>
+  <si>
+    <t>PAN PACIFIC OPEN</t>
+  </si>
+  <si>
+    <t>Mei Yamaguchi (JAPAN)</t>
+  </si>
+  <si>
+    <t>3-0 RETIRED</t>
+  </si>
+  <si>
+    <t>Katie Boulter (GREAT BRITAIN)</t>
   </si>
 </sst>
 </file>
@@ -1864,7 +1876,7 @@
                   <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1972,7 +1984,7 @@
                   <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2484,7 +2496,7 @@
                   <c:v>-6.6666666666666666E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>9.0909090909090912E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3942,6 +3954,10 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
@@ -4248,17 +4264,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -4278,7 +4294,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>45</v>
       </c>
@@ -4298,7 +4314,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>11</v>
       </c>
@@ -4312,7 +4328,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>15</v>
       </c>
@@ -4326,7 +4342,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>16</v>
       </c>
@@ -4340,7 +4356,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>17</v>
       </c>
@@ -4354,7 +4370,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>411</v>
       </c>
@@ -4374,7 +4390,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>53</v>
       </c>
@@ -4412,23 +4428,23 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -4448,7 +4464,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>110</v>
       </c>
@@ -4468,7 +4484,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="9"/>
       <c r="C3" s="10" t="s">
         <v>141</v>
@@ -4483,7 +4499,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" s="10" t="s">
         <v>12</v>
       </c>
@@ -4497,7 +4513,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>454</v>
       </c>
@@ -4517,7 +4533,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>11</v>
       </c>
@@ -4531,7 +4547,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>15</v>
       </c>
@@ -4545,7 +4561,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>16</v>
       </c>
@@ -4559,7 +4575,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>17</v>
       </c>
@@ -4573,7 +4589,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>403</v>
       </c>
@@ -4593,7 +4609,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>126</v>
       </c>
@@ -4613,7 +4629,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" s="10" t="s">
         <v>141</v>
       </c>
@@ -4627,7 +4643,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" s="10" t="s">
         <v>12</v>
       </c>
@@ -4641,7 +4657,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>483</v>
       </c>
@@ -4661,7 +4677,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" s="10" t="s">
         <v>12</v>
       </c>
@@ -4675,7 +4691,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>411</v>
       </c>
@@ -4695,7 +4711,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>370</v>
       </c>
@@ -4715,7 +4731,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>146</v>
       </c>
@@ -4735,7 +4751,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>489</v>
       </c>
@@ -4753,6 +4769,54 @@
       </c>
       <c r="F27" t="s">
         <v>237</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>490</v>
+      </c>
+      <c r="B29" t="s">
+        <v>19</v>
+      </c>
+      <c r="C29" t="s">
+        <v>12</v>
+      </c>
+      <c r="D29" t="s">
+        <v>491</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F29" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C30" t="s">
+        <v>11</v>
+      </c>
+      <c r="D30" t="s">
+        <v>418</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F30" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C31" t="s">
+        <v>15</v>
+      </c>
+      <c r="D31" t="s">
+        <v>493</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F31" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -4772,17 +4836,17 @@
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -4802,7 +4866,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2015</v>
       </c>
@@ -4823,7 +4887,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2016</v>
       </c>
@@ -4844,7 +4908,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2017</v>
       </c>
@@ -4865,7 +4929,7 @@
         <v>0.37037037037037035</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2018</v>
       </c>
@@ -4886,7 +4950,7 @@
         <v>0.60465116279069764</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2019</v>
       </c>
@@ -4907,7 +4971,7 @@
         <v>0.85416666666666663</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2020</v>
       </c>
@@ -4928,7 +4992,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2021</v>
       </c>
@@ -4949,7 +5013,7 @@
         <v>0.29411764705882354</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2022</v>
       </c>
@@ -4970,7 +5034,7 @@
         <v>0.36842105263157893</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2023</v>
       </c>
@@ -4991,34 +5055,34 @@
         <v>-6.6666666666666666E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2024</v>
       </c>
       <c r="B11">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E11">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F11" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+        <v>9.0909090909090912E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B12" s="2">
         <f>SUM(B2:B11)</f>
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C12" s="2">
         <f>SUM(C2:C11)</f>
@@ -5026,24 +5090,24 @@
       </c>
       <c r="D12" s="2">
         <f>SUM(D2:D11)</f>
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E12" s="2">
         <f>SUM(E2:E11)</f>
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F12" s="7">
         <f>(D12-E12)/D12</f>
-        <v>0.49746192893401014</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.49748743718592964</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>368</v>
       </c>
       <c r="B13" s="2">
         <f>AVERAGE(B2:B11)</f>
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="C13" s="2">
         <f>AVERAGE(C2:C11)</f>
@@ -5051,15 +5115,15 @@
       </c>
       <c r="D13" s="2">
         <f>AVERAGE(D2:D11)</f>
-        <v>19.7</v>
+        <v>19.899999999999999</v>
       </c>
       <c r="E13" s="2">
         <f>AVERAGE(E2:E11)</f>
-        <v>9.9</v>
+        <v>10</v>
       </c>
       <c r="F13" s="7">
         <f>(D13-E13)/D13</f>
-        <v>0.49746192893401009</v>
+        <v>0.49748743718592964</v>
       </c>
     </row>
   </sheetData>
@@ -5088,17 +5152,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -5118,7 +5182,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>55</v>
       </c>
@@ -5138,7 +5202,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>11</v>
       </c>
@@ -5152,7 +5216,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>411</v>
       </c>
@@ -5172,7 +5236,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>21</v>
       </c>
@@ -5186,7 +5250,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>58</v>
       </c>
@@ -5206,7 +5270,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>11</v>
       </c>
@@ -5220,7 +5284,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>45</v>
       </c>
@@ -5240,7 +5304,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>11</v>
       </c>
@@ -5254,7 +5318,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>15</v>
       </c>
@@ -5268,7 +5332,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>16</v>
       </c>
@@ -5282,7 +5346,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>17</v>
       </c>
@@ -5296,7 +5360,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>68</v>
       </c>
@@ -5316,7 +5380,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>11</v>
       </c>
@@ -5330,7 +5394,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>15</v>
       </c>
@@ -5344,7 +5408,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>16</v>
       </c>
@@ -5358,7 +5422,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>17</v>
       </c>
@@ -5372,7 +5436,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>53</v>
       </c>
@@ -5392,7 +5456,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>11</v>
       </c>
@@ -5406,7 +5470,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>15</v>
       </c>
@@ -5420,7 +5484,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>33</v>
       </c>
@@ -5440,7 +5504,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>11</v>
       </c>
@@ -5481,17 +5545,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="39.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -5511,7 +5575,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>78</v>
       </c>
@@ -5531,7 +5595,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>11</v>
       </c>
@@ -5545,7 +5609,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>15</v>
       </c>
@@ -5559,7 +5623,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>83</v>
       </c>
@@ -5579,7 +5643,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>11</v>
       </c>
@@ -5593,7 +5657,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>15</v>
       </c>
@@ -5607,7 +5671,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>16</v>
       </c>
@@ -5621,7 +5685,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>17</v>
       </c>
@@ -5635,7 +5699,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>91</v>
       </c>
@@ -5655,7 +5719,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>11</v>
       </c>
@@ -5669,7 +5733,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>15</v>
       </c>
@@ -5683,7 +5747,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>16</v>
       </c>
@@ -5697,7 +5761,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>91</v>
       </c>
@@ -5717,7 +5781,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>11</v>
       </c>
@@ -5731,7 +5795,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>15</v>
       </c>
@@ -5745,7 +5809,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>16</v>
       </c>
@@ -5759,7 +5823,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>17</v>
       </c>
@@ -5773,7 +5837,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>91</v>
       </c>
@@ -5793,7 +5857,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>110</v>
       </c>
@@ -5813,7 +5877,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>113</v>
       </c>
@@ -5833,7 +5897,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>11</v>
       </c>
@@ -5847,7 +5911,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>119</v>
       </c>
@@ -5867,7 +5931,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>21</v>
       </c>
@@ -5881,7 +5945,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>120</v>
       </c>
@@ -5895,7 +5959,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>126</v>
       </c>
@@ -5915,7 +5979,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>21</v>
       </c>
@@ -5929,7 +5993,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>120</v>
       </c>
@@ -5943,7 +6007,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>127</v>
       </c>
@@ -5957,7 +6021,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>131</v>
       </c>
@@ -5977,7 +6041,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>11</v>
       </c>
@@ -5991,7 +6055,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>135</v>
       </c>
@@ -6011,7 +6075,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>11</v>
       </c>
@@ -6025,7 +6089,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>15</v>
       </c>
@@ -6039,7 +6103,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>41</v>
       </c>
@@ -6059,7 +6123,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>143</v>
       </c>
@@ -6079,7 +6143,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>146</v>
       </c>
@@ -6099,7 +6163,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>149</v>
       </c>
@@ -6119,7 +6183,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>11</v>
       </c>
@@ -6133,7 +6197,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>153</v>
       </c>
@@ -6153,7 +6217,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>155</v>
       </c>
@@ -6173,7 +6237,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>157</v>
       </c>
@@ -6193,7 +6257,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>160</v>
       </c>
@@ -6213,7 +6277,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>11</v>
       </c>
@@ -6227,7 +6291,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>15</v>
       </c>
@@ -6259,17 +6323,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="39.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -6289,7 +6353,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>167</v>
       </c>
@@ -6309,7 +6373,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>11</v>
       </c>
@@ -6323,7 +6387,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>15</v>
       </c>
@@ -6337,7 +6401,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>174</v>
       </c>
@@ -6357,7 +6421,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>176</v>
       </c>
@@ -6377,7 +6441,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>11</v>
       </c>
@@ -6391,7 +6455,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>15</v>
       </c>
@@ -6405,7 +6469,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>180</v>
       </c>
@@ -6422,7 +6486,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>183</v>
       </c>
@@ -6442,7 +6506,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>11</v>
       </c>
@@ -6456,7 +6520,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>185</v>
       </c>
@@ -6476,7 +6540,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>11</v>
       </c>
@@ -6490,7 +6554,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>15</v>
       </c>
@@ -6504,7 +6568,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>16</v>
       </c>
@@ -6518,7 +6582,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>17</v>
       </c>
@@ -6532,7 +6596,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>193</v>
       </c>
@@ -6552,7 +6616,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>11</v>
       </c>
@@ -6566,7 +6630,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>15</v>
       </c>
@@ -6580,7 +6644,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>16</v>
       </c>
@@ -6594,7 +6658,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>17</v>
       </c>
@@ -6608,7 +6672,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>201</v>
       </c>
@@ -6628,7 +6692,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>11</v>
       </c>
@@ -6642,7 +6706,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>110</v>
       </c>
@@ -6662,7 +6726,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>21</v>
       </c>
@@ -6676,7 +6740,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>120</v>
       </c>
@@ -6690,7 +6754,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>119</v>
       </c>
@@ -6710,7 +6774,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>21</v>
       </c>
@@ -6724,7 +6788,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>120</v>
       </c>
@@ -6738,7 +6802,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>12</v>
       </c>
@@ -6752,7 +6816,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>11</v>
       </c>
@@ -6766,7 +6830,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>126</v>
       </c>
@@ -6786,7 +6850,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>21</v>
       </c>
@@ -6800,7 +6864,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>120</v>
       </c>
@@ -6814,7 +6878,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>55</v>
       </c>
@@ -6834,7 +6898,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>45</v>
       </c>
@@ -6854,7 +6918,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>131</v>
       </c>
@@ -6874,7 +6938,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>11</v>
       </c>
@@ -6888,7 +6952,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>15</v>
       </c>
@@ -6902,7 +6966,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>16</v>
       </c>
@@ -6916,7 +6980,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>146</v>
       </c>
@@ -6936,7 +7000,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>233</v>
       </c>
@@ -6956,7 +7020,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>11</v>
       </c>
@@ -6970,7 +7034,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>15</v>
       </c>
@@ -6984,7 +7048,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>16</v>
       </c>
@@ -6998,7 +7062,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>17</v>
       </c>
@@ -7012,7 +7076,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>157</v>
       </c>
@@ -7032,7 +7096,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>11</v>
       </c>
@@ -7046,7 +7110,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>15</v>
       </c>
@@ -7060,7 +7124,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>16</v>
       </c>
@@ -7074,7 +7138,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>160</v>
       </c>
@@ -7094,7 +7158,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>11</v>
       </c>
@@ -7108,7 +7172,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>15</v>
       </c>
@@ -7122,7 +7186,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>16</v>
       </c>
@@ -7136,7 +7200,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>252</v>
       </c>
@@ -7156,7 +7220,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>11</v>
       </c>
@@ -7170,7 +7234,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C75" t="s">
         <v>15</v>
       </c>
@@ -7184,7 +7248,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>257</v>
       </c>
@@ -7204,7 +7268,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C78" t="s">
         <v>11</v>
       </c>
@@ -7218,7 +7282,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C79" t="s">
         <v>15</v>
       </c>
@@ -7232,7 +7296,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C80" t="s">
         <v>16</v>
       </c>
@@ -7246,7 +7310,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="81" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C81" t="s">
         <v>17</v>
       </c>
@@ -7278,17 +7342,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="36" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -7308,7 +7372,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>264</v>
       </c>
@@ -7328,7 +7392,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>21</v>
       </c>
@@ -7342,7 +7406,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>120</v>
       </c>
@@ -7356,7 +7420,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>12</v>
       </c>
@@ -7370,7 +7434,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>11</v>
       </c>
@@ -7384,7 +7448,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>15</v>
       </c>
@@ -7398,7 +7462,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>16</v>
       </c>
@@ -7412,7 +7476,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>17</v>
       </c>
@@ -7426,7 +7490,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>174</v>
       </c>
@@ -7446,7 +7510,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>21</v>
       </c>
@@ -7460,7 +7524,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>120</v>
       </c>
@@ -7474,7 +7538,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>127</v>
       </c>
@@ -7488,7 +7552,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>141</v>
       </c>
@@ -7502,7 +7566,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>285</v>
       </c>
@@ -7522,7 +7586,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>11</v>
       </c>
@@ -7536,7 +7600,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>15</v>
       </c>
@@ -7550,7 +7614,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>16</v>
       </c>
@@ -7564,7 +7628,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>17</v>
       </c>
@@ -7578,7 +7642,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>180</v>
       </c>
@@ -7595,7 +7659,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D24" t="s">
         <v>207</v>
       </c>
@@ -7606,7 +7670,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>293</v>
       </c>
@@ -7626,7 +7690,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>11</v>
       </c>
@@ -7640,7 +7704,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>15</v>
       </c>
@@ -7654,7 +7718,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>16</v>
       </c>
@@ -7668,7 +7732,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>385</v>
       </c>
@@ -7688,7 +7752,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>141</v>
       </c>
@@ -7702,7 +7766,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>12</v>
       </c>
@@ -7716,7 +7780,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>11</v>
       </c>
@@ -7730,7 +7794,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>15</v>
       </c>
@@ -7744,7 +7808,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>16</v>
       </c>
@@ -7758,7 +7822,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>17</v>
       </c>
@@ -7772,7 +7836,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>307</v>
       </c>
@@ -7792,7 +7856,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>141</v>
       </c>
@@ -7806,7 +7870,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>12</v>
       </c>
@@ -7820,7 +7884,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>11</v>
       </c>
@@ -7834,7 +7898,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>110</v>
       </c>
@@ -7854,7 +7918,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>141</v>
       </c>
@@ -7868,7 +7932,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>411</v>
       </c>
@@ -7888,7 +7952,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>12</v>
       </c>
@@ -7902,7 +7966,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>11</v>
       </c>
@@ -7916,7 +7980,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>15</v>
       </c>
@@ -7930,7 +7994,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>16</v>
       </c>
@@ -7944,7 +8008,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>17</v>
       </c>
@@ -7958,7 +8022,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>146</v>
       </c>
@@ -7978,7 +8042,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>141</v>
       </c>
@@ -7992,7 +8056,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>12</v>
       </c>
@@ -8006,7 +8070,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>11</v>
       </c>
@@ -8020,7 +8084,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>15</v>
       </c>
@@ -8034,7 +8098,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>16</v>
       </c>
@@ -8048,7 +8112,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>17</v>
       </c>
@@ -8062,7 +8126,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>328</v>
       </c>
@@ -8082,7 +8146,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>12</v>
       </c>
@@ -8096,7 +8160,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>11</v>
       </c>
@@ -8110,7 +8174,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>15</v>
       </c>
@@ -8124,7 +8188,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>332</v>
       </c>
@@ -8144,7 +8208,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>333</v>
       </c>
@@ -8176,17 +8240,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -8206,7 +8270,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>44</v>
       </c>
@@ -8243,17 +8307,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -8273,7 +8337,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>174</v>
       </c>
@@ -8293,7 +8357,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>141</v>
       </c>
@@ -8307,7 +8371,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>337</v>
       </c>
@@ -8327,7 +8391,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>11</v>
       </c>
@@ -8341,7 +8405,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>15</v>
       </c>
@@ -8355,7 +8419,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>16</v>
       </c>
@@ -8369,7 +8433,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>307</v>
       </c>
@@ -8389,7 +8453,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>12</v>
       </c>
@@ -8403,7 +8467,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>11</v>
       </c>
@@ -8417,7 +8481,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>15</v>
       </c>
@@ -8431,7 +8495,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>16</v>
       </c>
@@ -8445,7 +8509,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>17</v>
       </c>
@@ -8459,7 +8523,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>353</v>
       </c>
@@ -8479,7 +8543,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>11</v>
       </c>
@@ -8493,7 +8557,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>15</v>
       </c>
@@ -8507,7 +8571,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>110</v>
       </c>
@@ -8527,7 +8591,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>359</v>
       </c>
@@ -8547,7 +8611,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>362</v>
       </c>
@@ -8567,7 +8631,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>11</v>
       </c>
@@ -8581,7 +8645,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>126</v>
       </c>
@@ -8601,7 +8665,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>411</v>
       </c>
@@ -8621,7 +8685,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>11</v>
       </c>
@@ -8635,7 +8699,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>370</v>
       </c>
@@ -8655,7 +8719,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>146</v>
       </c>
@@ -8675,7 +8739,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>141</v>
       </c>
@@ -8689,7 +8753,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>12</v>
       </c>
@@ -8703,7 +8767,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>11</v>
       </c>
@@ -8717,7 +8781,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>380</v>
       </c>
@@ -8737,7 +8801,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>385</v>
       </c>
@@ -8757,7 +8821,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>12</v>
       </c>
@@ -8789,17 +8853,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -8819,7 +8883,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>387</v>
       </c>
@@ -8839,7 +8903,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>11</v>
       </c>
@@ -8853,7 +8917,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>447</v>
       </c>
@@ -8873,7 +8937,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>12</v>
       </c>
@@ -8887,7 +8951,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>11</v>
       </c>
@@ -8901,7 +8965,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>391</v>
       </c>
@@ -8921,7 +8985,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>12</v>
       </c>
@@ -8935,7 +8999,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>11</v>
       </c>
@@ -8949,7 +9013,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>15</v>
       </c>
@@ -8963,7 +9027,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>110</v>
       </c>
@@ -8983,7 +9047,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>141</v>
       </c>
@@ -8997,7 +9061,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>399</v>
       </c>
@@ -9017,7 +9081,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>11</v>
       </c>
@@ -9031,7 +9095,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>403</v>
       </c>
@@ -9051,7 +9115,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>11</v>
       </c>
@@ -9065,7 +9129,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>15</v>
       </c>
@@ -9079,7 +9143,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>16</v>
       </c>
@@ -9093,7 +9157,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>17</v>
       </c>
@@ -9107,7 +9171,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>126</v>
       </c>
@@ -9127,7 +9191,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>141</v>
       </c>
@@ -9141,7 +9205,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>410</v>
       </c>
@@ -9161,7 +9225,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>411</v>
       </c>
@@ -9181,7 +9245,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>12</v>
       </c>
@@ -9195,7 +9259,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>11</v>
       </c>
@@ -9209,7 +9273,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>146</v>
       </c>
@@ -9229,7 +9293,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>141</v>
       </c>
@@ -9243,7 +9307,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>12</v>
       </c>
@@ -9257,7 +9321,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>419</v>
       </c>
@@ -9277,7 +9341,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>11</v>
       </c>
@@ -9291,7 +9355,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>424</v>
       </c>
@@ -9311,7 +9375,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>12</v>
       </c>
@@ -9325,7 +9389,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>11</v>
       </c>
@@ -9356,17 +9420,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -9386,7 +9450,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>431</v>
       </c>
@@ -9406,7 +9470,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="9"/>
       <c r="C3" t="s">
         <v>11</v>
@@ -9421,7 +9485,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
         <v>174</v>
       </c>
@@ -9441,7 +9505,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="9"/>
       <c r="C6" t="s">
         <v>141</v>
@@ -9456,7 +9520,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
         <v>432</v>
       </c>
@@ -9476,7 +9540,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>11</v>
       </c>
@@ -9490,7 +9554,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>15</v>
       </c>
@@ -9504,7 +9568,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>16</v>
       </c>
@@ -9518,7 +9582,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>438</v>
       </c>
@@ -9538,7 +9602,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>441</v>
       </c>
@@ -9558,7 +9622,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>385</v>
       </c>
@@ -9578,7 +9642,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>12</v>
       </c>
@@ -9592,7 +9656,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>307</v>
       </c>
@@ -9612,7 +9676,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>141</v>
       </c>
@@ -9626,7 +9690,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>12</v>
       </c>
@@ -9640,7 +9704,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>11</v>
       </c>
@@ -9654,7 +9718,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>447</v>
       </c>
@@ -9674,7 +9738,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>391</v>
       </c>
@@ -9694,7 +9758,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>110</v>
       </c>
@@ -9714,7 +9778,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>141</v>
       </c>
@@ -9728,7 +9792,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>12</v>
       </c>
@@ -9742,7 +9806,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>454</v>
       </c>
@@ -9762,7 +9826,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>11</v>
       </c>
@@ -9776,7 +9840,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>359</v>
       </c>
@@ -9796,7 +9860,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>403</v>
       </c>
@@ -9816,7 +9880,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>11</v>
       </c>
@@ -9830,7 +9894,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>126</v>
       </c>
@@ -9850,7 +9914,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>141</v>
       </c>
@@ -9864,7 +9928,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>12</v>
       </c>
@@ -9878,12 +9942,12 @@
         <v>464</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D44" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>467</v>
       </c>
@@ -9903,7 +9967,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>411</v>
       </c>

--- a/Tennis/WTA Tour/Bianca Andreescu.xlsx
+++ b/Tennis/WTA Tour/Bianca Andreescu.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7822" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DA51B01A-3561-460A-AF90-F7A2FABC6350}"/>
+  <xr:revisionPtr revIDLastSave="7824" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{96E40582-6032-4D09-8497-1EDBF7EE3129}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="3" activeTab="10" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="9465" yWindow="2265" windowWidth="28800" windowHeight="15345" firstSheet="3" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2015" sheetId="22" r:id="rId1"/>
@@ -1370,9 +1370,6 @@
     <t>7-6(2) 6-2</t>
   </si>
   <si>
-    <t>DUBAI TENNIS CHAMPIONSHIPS</t>
-  </si>
-  <si>
     <t>Peyton Stearns (USA)</t>
   </si>
   <si>
@@ -1527,6 +1524,9 @@
   </si>
   <si>
     <t>Katie Boulter (GREAT BRITAIN)</t>
+  </si>
+  <si>
+    <t>DUBAI OPEN</t>
   </si>
 </sst>
 </file>
@@ -3868,7 +3868,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{E4CB9A6C-6717-4B68-B141-30CCDA74C48C}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="88" workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" zoomScale="88" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -3880,7 +3880,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{9A30B305-BB27-4FE6-9175-446664D147B0}">
   <sheetPr/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -3952,10 +3952,6 @@
     <xdr:clientData/>
   </xdr:absoluteAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4260,21 +4256,21 @@
   </sheetPr>
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -4294,7 +4290,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>45</v>
       </c>
@@ -4314,7 +4310,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>11</v>
       </c>
@@ -4328,7 +4324,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>15</v>
       </c>
@@ -4342,7 +4338,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>16</v>
       </c>
@@ -4356,7 +4352,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>17</v>
       </c>
@@ -4370,7 +4366,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>411</v>
       </c>
@@ -4390,7 +4386,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>53</v>
       </c>
@@ -4430,21 +4426,21 @@
   </sheetPr>
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -4464,7 +4460,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>110</v>
       </c>
@@ -4484,38 +4480,38 @@
         <v>272</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="9"/>
       <c r="C3" s="10" t="s">
         <v>141</v>
       </c>
       <c r="D3" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" s="10" t="s">
         <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F4" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B6" t="s">
         <v>114</v>
@@ -4524,21 +4520,21 @@
         <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F6" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>13</v>
@@ -4547,7 +4543,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>15</v>
       </c>
@@ -4558,15 +4554,15 @@
         <v>13</v>
       </c>
       <c r="F8" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>16</v>
       </c>
       <c r="D9" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>13</v>
@@ -4575,7 +4571,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>17</v>
       </c>
@@ -4586,10 +4582,10 @@
         <v>14</v>
       </c>
       <c r="F10" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>403</v>
       </c>
@@ -4600,7 +4596,7 @@
         <v>12</v>
       </c>
       <c r="D12" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>14</v>
@@ -4609,7 +4605,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>126</v>
       </c>
@@ -4629,12 +4625,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" s="10" t="s">
         <v>141</v>
       </c>
       <c r="D15" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>13</v>
@@ -4643,23 +4639,23 @@
         <v>221</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" s="10" t="s">
         <v>12</v>
       </c>
       <c r="D16" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F16" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>482</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>483</v>
       </c>
       <c r="B18" t="s">
         <v>92</v>
@@ -4668,7 +4664,7 @@
         <v>141</v>
       </c>
       <c r="D18" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>13</v>
@@ -4677,12 +4673,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" s="10" t="s">
         <v>12</v>
       </c>
       <c r="D19" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>14</v>
@@ -4691,7 +4687,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>411</v>
       </c>
@@ -4708,10 +4704,10 @@
         <v>14</v>
       </c>
       <c r="F21" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>370</v>
       </c>
@@ -4722,7 +4718,7 @@
         <v>141</v>
       </c>
       <c r="D23" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>14</v>
@@ -4731,7 +4727,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>146</v>
       </c>
@@ -4742,18 +4738,18 @@
         <v>127</v>
       </c>
       <c r="D25" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F25" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>488</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>489</v>
       </c>
       <c r="B27" t="s">
         <v>19</v>
@@ -4771,9 +4767,9 @@
         <v>237</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B29" t="s">
         <v>19</v>
@@ -4782,7 +4778,7 @@
         <v>12</v>
       </c>
       <c r="D29" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>13</v>
@@ -4791,7 +4787,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>11</v>
       </c>
@@ -4802,15 +4798,15 @@
         <v>13</v>
       </c>
       <c r="F30" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>15</v>
       </c>
       <c r="D31" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E31" s="5" t="s">
         <v>14</v>
@@ -4833,20 +4829,20 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -4866,7 +4862,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2015</v>
       </c>
@@ -4887,7 +4883,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2016</v>
       </c>
@@ -4908,7 +4904,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2017</v>
       </c>
@@ -4929,7 +4925,7 @@
         <v>0.37037037037037035</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2018</v>
       </c>
@@ -4950,7 +4946,7 @@
         <v>0.60465116279069764</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2019</v>
       </c>
@@ -4971,7 +4967,7 @@
         <v>0.85416666666666663</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2020</v>
       </c>
@@ -4992,7 +4988,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2021</v>
       </c>
@@ -5013,7 +5009,7 @@
         <v>0.29411764705882354</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2022</v>
       </c>
@@ -5034,7 +5030,7 @@
         <v>0.36842105263157893</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2023</v>
       </c>
@@ -5055,7 +5051,7 @@
         <v>-6.6666666666666666E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2024</v>
       </c>
@@ -5076,7 +5072,7 @@
         <v>9.0909090909090912E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>6</v>
       </c>
@@ -5101,7 +5097,7 @@
         <v>0.49748743718592964</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>368</v>
       </c>
@@ -5148,21 +5144,21 @@
   </sheetPr>
   <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -5182,7 +5178,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>55</v>
       </c>
@@ -5202,7 +5198,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>11</v>
       </c>
@@ -5216,7 +5212,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>411</v>
       </c>
@@ -5236,7 +5232,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>21</v>
       </c>
@@ -5250,7 +5246,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>58</v>
       </c>
@@ -5270,7 +5266,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>11</v>
       </c>
@@ -5284,7 +5280,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>45</v>
       </c>
@@ -5304,7 +5300,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>11</v>
       </c>
@@ -5318,7 +5314,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>15</v>
       </c>
@@ -5332,7 +5328,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>16</v>
       </c>
@@ -5346,7 +5342,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>17</v>
       </c>
@@ -5360,7 +5356,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>68</v>
       </c>
@@ -5380,7 +5376,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>11</v>
       </c>
@@ -5394,7 +5390,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>15</v>
       </c>
@@ -5408,7 +5404,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>16</v>
       </c>
@@ -5422,7 +5418,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>17</v>
       </c>
@@ -5436,7 +5432,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>53</v>
       </c>
@@ -5456,7 +5452,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>11</v>
       </c>
@@ -5470,7 +5466,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>15</v>
       </c>
@@ -5484,7 +5480,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>33</v>
       </c>
@@ -5504,7 +5500,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>11</v>
       </c>
@@ -5541,21 +5537,21 @@
   </sheetPr>
   <dimension ref="A1:F63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -5575,7 +5571,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>78</v>
       </c>
@@ -5595,7 +5591,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>11</v>
       </c>
@@ -5609,7 +5605,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>15</v>
       </c>
@@ -5623,7 +5619,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>83</v>
       </c>
@@ -5643,7 +5639,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>11</v>
       </c>
@@ -5657,7 +5653,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>15</v>
       </c>
@@ -5671,7 +5667,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>16</v>
       </c>
@@ -5685,7 +5681,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>17</v>
       </c>
@@ -5699,7 +5695,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>91</v>
       </c>
@@ -5719,7 +5715,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>11</v>
       </c>
@@ -5733,7 +5729,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>15</v>
       </c>
@@ -5747,7 +5743,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>16</v>
       </c>
@@ -5761,7 +5757,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>91</v>
       </c>
@@ -5781,7 +5777,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>11</v>
       </c>
@@ -5795,7 +5791,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>15</v>
       </c>
@@ -5809,7 +5805,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>16</v>
       </c>
@@ -5823,7 +5819,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>17</v>
       </c>
@@ -5837,7 +5833,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>91</v>
       </c>
@@ -5857,7 +5853,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>110</v>
       </c>
@@ -5877,7 +5873,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>113</v>
       </c>
@@ -5897,7 +5893,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>11</v>
       </c>
@@ -5911,7 +5907,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>119</v>
       </c>
@@ -5931,7 +5927,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>21</v>
       </c>
@@ -5945,7 +5941,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>120</v>
       </c>
@@ -5959,7 +5955,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>126</v>
       </c>
@@ -5979,7 +5975,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>21</v>
       </c>
@@ -5993,7 +5989,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>120</v>
       </c>
@@ -6007,7 +6003,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>127</v>
       </c>
@@ -6021,7 +6017,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>131</v>
       </c>
@@ -6041,7 +6037,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>11</v>
       </c>
@@ -6055,7 +6051,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>135</v>
       </c>
@@ -6075,7 +6071,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>11</v>
       </c>
@@ -6089,7 +6085,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>15</v>
       </c>
@@ -6103,7 +6099,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>41</v>
       </c>
@@ -6123,7 +6119,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>143</v>
       </c>
@@ -6143,7 +6139,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>146</v>
       </c>
@@ -6163,7 +6159,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>149</v>
       </c>
@@ -6183,7 +6179,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>11</v>
       </c>
@@ -6197,7 +6193,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>153</v>
       </c>
@@ -6217,7 +6213,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>155</v>
       </c>
@@ -6237,7 +6233,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>157</v>
       </c>
@@ -6257,7 +6253,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>160</v>
       </c>
@@ -6277,7 +6273,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>11</v>
       </c>
@@ -6291,7 +6287,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>15</v>
       </c>
@@ -6319,21 +6315,21 @@
   </sheetPr>
   <dimension ref="A1:F81"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="39.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -6353,7 +6349,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>167</v>
       </c>
@@ -6373,7 +6369,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>11</v>
       </c>
@@ -6387,7 +6383,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>15</v>
       </c>
@@ -6401,7 +6397,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>174</v>
       </c>
@@ -6421,7 +6417,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>176</v>
       </c>
@@ -6441,7 +6437,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>11</v>
       </c>
@@ -6455,7 +6451,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>15</v>
       </c>
@@ -6469,7 +6465,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>180</v>
       </c>
@@ -6486,7 +6482,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>183</v>
       </c>
@@ -6506,7 +6502,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>11</v>
       </c>
@@ -6520,7 +6516,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>185</v>
       </c>
@@ -6540,7 +6536,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>11</v>
       </c>
@@ -6554,7 +6550,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>15</v>
       </c>
@@ -6568,7 +6564,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>16</v>
       </c>
@@ -6582,7 +6578,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>17</v>
       </c>
@@ -6596,7 +6592,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>193</v>
       </c>
@@ -6616,7 +6612,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>11</v>
       </c>
@@ -6630,7 +6626,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>15</v>
       </c>
@@ -6644,7 +6640,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>16</v>
       </c>
@@ -6658,7 +6654,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>17</v>
       </c>
@@ -6672,7 +6668,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>201</v>
       </c>
@@ -6692,7 +6688,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>11</v>
       </c>
@@ -6706,7 +6702,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>110</v>
       </c>
@@ -6726,7 +6722,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>21</v>
       </c>
@@ -6740,7 +6736,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>120</v>
       </c>
@@ -6754,7 +6750,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>119</v>
       </c>
@@ -6774,7 +6770,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>21</v>
       </c>
@@ -6788,7 +6784,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>120</v>
       </c>
@@ -6802,7 +6798,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>12</v>
       </c>
@@ -6816,7 +6812,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>11</v>
       </c>
@@ -6830,7 +6826,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>126</v>
       </c>
@@ -6850,7 +6846,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>21</v>
       </c>
@@ -6864,7 +6860,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>120</v>
       </c>
@@ -6878,7 +6874,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>55</v>
       </c>
@@ -6898,7 +6894,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>45</v>
       </c>
@@ -6918,7 +6914,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>131</v>
       </c>
@@ -6938,7 +6934,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>11</v>
       </c>
@@ -6952,7 +6948,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>15</v>
       </c>
@@ -6966,7 +6962,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>16</v>
       </c>
@@ -6980,7 +6976,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>146</v>
       </c>
@@ -7000,7 +6996,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>233</v>
       </c>
@@ -7020,7 +7016,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>11</v>
       </c>
@@ -7034,7 +7030,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>15</v>
       </c>
@@ -7048,7 +7044,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>16</v>
       </c>
@@ -7062,7 +7058,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>17</v>
       </c>
@@ -7076,7 +7072,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>157</v>
       </c>
@@ -7096,7 +7092,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>11</v>
       </c>
@@ -7110,7 +7106,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>15</v>
       </c>
@@ -7124,7 +7120,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>16</v>
       </c>
@@ -7138,7 +7134,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>160</v>
       </c>
@@ -7158,7 +7154,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>11</v>
       </c>
@@ -7172,7 +7168,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>15</v>
       </c>
@@ -7186,7 +7182,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>16</v>
       </c>
@@ -7200,7 +7196,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>252</v>
       </c>
@@ -7220,7 +7216,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>11</v>
       </c>
@@ -7234,7 +7230,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
         <v>15</v>
       </c>
@@ -7248,7 +7244,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>257</v>
       </c>
@@ -7268,7 +7264,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
         <v>11</v>
       </c>
@@ -7282,7 +7278,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
         <v>15</v>
       </c>
@@ -7296,7 +7292,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
         <v>16</v>
       </c>
@@ -7310,12 +7306,12 @@
         <v>208</v>
       </c>
     </row>
-    <row r="81" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C81" t="s">
         <v>17</v>
       </c>
       <c r="D81" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E81" s="4" t="s">
         <v>13</v>
@@ -7338,21 +7334,21 @@
   </sheetPr>
   <dimension ref="A1:F68"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="36" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -7372,7 +7368,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>264</v>
       </c>
@@ -7392,7 +7388,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>21</v>
       </c>
@@ -7406,7 +7402,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>120</v>
       </c>
@@ -7420,7 +7416,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>12</v>
       </c>
@@ -7434,7 +7430,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>11</v>
       </c>
@@ -7448,7 +7444,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>15</v>
       </c>
@@ -7462,7 +7458,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>16</v>
       </c>
@@ -7476,7 +7472,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>17</v>
       </c>
@@ -7490,7 +7486,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>174</v>
       </c>
@@ -7510,7 +7506,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>21</v>
       </c>
@@ -7524,7 +7520,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>120</v>
       </c>
@@ -7538,7 +7534,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>127</v>
       </c>
@@ -7552,7 +7548,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>141</v>
       </c>
@@ -7566,7 +7562,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>285</v>
       </c>
@@ -7586,7 +7582,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>11</v>
       </c>
@@ -7600,7 +7596,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>15</v>
       </c>
@@ -7614,7 +7610,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>16</v>
       </c>
@@ -7628,7 +7624,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>17</v>
       </c>
@@ -7642,7 +7638,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>180</v>
       </c>
@@ -7659,7 +7655,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D24" t="s">
         <v>207</v>
       </c>
@@ -7670,7 +7666,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>293</v>
       </c>
@@ -7690,7 +7686,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>11</v>
       </c>
@@ -7704,7 +7700,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>15</v>
       </c>
@@ -7718,7 +7714,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>16</v>
       </c>
@@ -7732,7 +7728,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>385</v>
       </c>
@@ -7752,7 +7748,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>141</v>
       </c>
@@ -7766,7 +7762,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>12</v>
       </c>
@@ -7780,7 +7776,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>11</v>
       </c>
@@ -7794,7 +7790,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>15</v>
       </c>
@@ -7808,7 +7804,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>16</v>
       </c>
@@ -7822,7 +7818,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>17</v>
       </c>
@@ -7836,7 +7832,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>307</v>
       </c>
@@ -7856,7 +7852,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>141</v>
       </c>
@@ -7870,7 +7866,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>12</v>
       </c>
@@ -7884,7 +7880,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>11</v>
       </c>
@@ -7898,7 +7894,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>110</v>
       </c>
@@ -7918,7 +7914,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>141</v>
       </c>
@@ -7932,7 +7928,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>411</v>
       </c>
@@ -7952,7 +7948,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>12</v>
       </c>
@@ -7966,7 +7962,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>11</v>
       </c>
@@ -7980,7 +7976,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>15</v>
       </c>
@@ -7994,7 +7990,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>16</v>
       </c>
@@ -8008,7 +8004,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>17</v>
       </c>
@@ -8022,7 +8018,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>146</v>
       </c>
@@ -8042,7 +8038,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>141</v>
       </c>
@@ -8056,7 +8052,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>12</v>
       </c>
@@ -8070,7 +8066,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>11</v>
       </c>
@@ -8084,7 +8080,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>15</v>
       </c>
@@ -8098,7 +8094,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>16</v>
       </c>
@@ -8112,7 +8108,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>17</v>
       </c>
@@ -8126,7 +8122,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>328</v>
       </c>
@@ -8146,7 +8142,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>12</v>
       </c>
@@ -8160,7 +8156,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>11</v>
       </c>
@@ -8174,7 +8170,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>15</v>
       </c>
@@ -8188,7 +8184,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>332</v>
       </c>
@@ -8208,7 +8204,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>333</v>
       </c>
@@ -8236,21 +8232,21 @@
   </sheetPr>
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -8270,7 +8266,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>44</v>
       </c>
@@ -8303,21 +8299,21 @@
   </sheetPr>
   <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -8337,7 +8333,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>174</v>
       </c>
@@ -8357,7 +8353,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>141</v>
       </c>
@@ -8371,7 +8367,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>337</v>
       </c>
@@ -8391,7 +8387,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>11</v>
       </c>
@@ -8405,7 +8401,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>15</v>
       </c>
@@ -8419,7 +8415,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>16</v>
       </c>
@@ -8433,7 +8429,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>307</v>
       </c>
@@ -8453,7 +8449,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>12</v>
       </c>
@@ -8467,7 +8463,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>11</v>
       </c>
@@ -8481,7 +8477,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>15</v>
       </c>
@@ -8495,7 +8491,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>16</v>
       </c>
@@ -8509,7 +8505,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>17</v>
       </c>
@@ -8523,7 +8519,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>353</v>
       </c>
@@ -8543,7 +8539,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>11</v>
       </c>
@@ -8557,7 +8553,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>15</v>
       </c>
@@ -8571,7 +8567,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>110</v>
       </c>
@@ -8591,7 +8587,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>359</v>
       </c>
@@ -8611,7 +8607,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>362</v>
       </c>
@@ -8631,7 +8627,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>11</v>
       </c>
@@ -8645,7 +8641,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>126</v>
       </c>
@@ -8665,7 +8661,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>411</v>
       </c>
@@ -8685,7 +8681,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>11</v>
       </c>
@@ -8699,7 +8695,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>370</v>
       </c>
@@ -8719,7 +8715,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>146</v>
       </c>
@@ -8739,7 +8735,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>141</v>
       </c>
@@ -8753,7 +8749,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>12</v>
       </c>
@@ -8767,7 +8763,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>11</v>
       </c>
@@ -8781,7 +8777,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>380</v>
       </c>
@@ -8801,7 +8797,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>385</v>
       </c>
@@ -8821,7 +8817,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>12</v>
       </c>
@@ -8849,21 +8845,21 @@
   </sheetPr>
   <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -8883,7 +8879,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>387</v>
       </c>
@@ -8903,7 +8899,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>11</v>
       </c>
@@ -8917,9 +8913,9 @@
         <v>388</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B5" t="s">
         <v>92</v>
@@ -8928,7 +8924,7 @@
         <v>141</v>
       </c>
       <c r="D5" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>13</v>
@@ -8937,7 +8933,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>12</v>
       </c>
@@ -8951,7 +8947,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>11</v>
       </c>
@@ -8965,7 +8961,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>391</v>
       </c>
@@ -8985,7 +8981,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>12</v>
       </c>
@@ -8999,7 +8995,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>11</v>
       </c>
@@ -9013,7 +9009,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>15</v>
       </c>
@@ -9027,7 +9023,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>110</v>
       </c>
@@ -9047,7 +9043,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>141</v>
       </c>
@@ -9061,7 +9057,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>399</v>
       </c>
@@ -9081,7 +9077,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>11</v>
       </c>
@@ -9095,7 +9091,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>403</v>
       </c>
@@ -9115,7 +9111,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>11</v>
       </c>
@@ -9129,7 +9125,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>15</v>
       </c>
@@ -9143,7 +9139,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>16</v>
       </c>
@@ -9157,7 +9153,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>17</v>
       </c>
@@ -9171,7 +9167,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>126</v>
       </c>
@@ -9191,7 +9187,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>141</v>
       </c>
@@ -9205,7 +9201,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>410</v>
       </c>
@@ -9225,7 +9221,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>411</v>
       </c>
@@ -9245,7 +9241,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>12</v>
       </c>
@@ -9259,7 +9255,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>11</v>
       </c>
@@ -9273,7 +9269,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>146</v>
       </c>
@@ -9293,7 +9289,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>141</v>
       </c>
@@ -9307,7 +9303,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>12</v>
       </c>
@@ -9321,7 +9317,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>419</v>
       </c>
@@ -9341,7 +9337,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>11</v>
       </c>
@@ -9355,7 +9351,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>424</v>
       </c>
@@ -9375,7 +9371,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>12</v>
       </c>
@@ -9389,7 +9385,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>11</v>
       </c>
@@ -9416,21 +9412,21 @@
   </sheetPr>
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -9450,7 +9446,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>431</v>
       </c>
@@ -9470,7 +9466,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="9"/>
       <c r="C3" t="s">
         <v>11</v>
@@ -9485,7 +9481,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>174</v>
       </c>
@@ -9505,7 +9501,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="9"/>
       <c r="C6" t="s">
         <v>141</v>
@@ -9520,7 +9516,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>432</v>
       </c>
@@ -9540,7 +9536,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>11</v>
       </c>
@@ -9554,7 +9550,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>15</v>
       </c>
@@ -9568,7 +9564,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>16</v>
       </c>
@@ -9582,7 +9578,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>438</v>
       </c>
@@ -9602,9 +9598,9 @@
         <v>440</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>441</v>
+        <v>493</v>
       </c>
       <c r="B15" t="s">
         <v>19</v>
@@ -9622,7 +9618,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>385</v>
       </c>
@@ -9633,16 +9629,16 @@
         <v>141</v>
       </c>
       <c r="D17" t="s">
+        <v>441</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" t="s">
         <v>442</v>
       </c>
-      <c r="E17" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F17" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>12</v>
       </c>
@@ -9653,10 +9649,10 @@
         <v>14</v>
       </c>
       <c r="F18" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>307</v>
       </c>
@@ -9676,7 +9672,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>141</v>
       </c>
@@ -9690,7 +9686,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>12</v>
       </c>
@@ -9704,23 +9700,23 @@
         <v>164</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>11</v>
       </c>
       <c r="D23" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F23" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>446</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>447</v>
       </c>
       <c r="B25" t="s">
         <v>92</v>
@@ -9729,16 +9725,16 @@
         <v>141</v>
       </c>
       <c r="D25" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F25" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>391</v>
       </c>
@@ -9749,7 +9745,7 @@
         <v>141</v>
       </c>
       <c r="D27" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>14</v>
@@ -9758,7 +9754,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>110</v>
       </c>
@@ -9769,21 +9765,21 @@
         <v>127</v>
       </c>
       <c r="D29" t="s">
+        <v>451</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F29" t="s">
         <v>452</v>
       </c>
-      <c r="E29" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F29" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>141</v>
       </c>
       <c r="D30" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>13</v>
@@ -9792,7 +9788,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>12</v>
       </c>
@@ -9806,9 +9802,9 @@
         <v>98</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B33" t="s">
         <v>114</v>
@@ -9817,7 +9813,7 @@
         <v>12</v>
       </c>
       <c r="D33" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>13</v>
@@ -9826,21 +9822,21 @@
         <v>164</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>11</v>
       </c>
       <c r="D34" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E34" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F34" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>359</v>
       </c>
@@ -9851,16 +9847,16 @@
         <v>12</v>
       </c>
       <c r="D36" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E36" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F36" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>403</v>
       </c>
@@ -9871,21 +9867,21 @@
         <v>12</v>
       </c>
       <c r="D38" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E38" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F38" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>11</v>
       </c>
       <c r="D39" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E39" s="5" t="s">
         <v>14</v>
@@ -9894,7 +9890,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>126</v>
       </c>
@@ -9905,7 +9901,7 @@
         <v>127</v>
       </c>
       <c r="D41" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E41" s="4" t="s">
         <v>13</v>
@@ -9914,21 +9910,21 @@
         <v>75</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>141</v>
       </c>
       <c r="D42" t="s">
+        <v>464</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F42" t="s">
         <v>465</v>
       </c>
-      <c r="E42" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F42" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>12</v>
       </c>
@@ -9939,17 +9935,17 @@
         <v>14</v>
       </c>
       <c r="F43" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D44" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B45" t="s">
         <v>19</v>
@@ -9964,10 +9960,10 @@
         <v>14</v>
       </c>
       <c r="F45" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>411</v>
       </c>

--- a/Tennis/WTA Tour/Bianca Andreescu.xlsx
+++ b/Tennis/WTA Tour/Bianca Andreescu.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7824" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{96E40582-6032-4D09-8497-1EDBF7EE3129}"/>
+  <xr:revisionPtr revIDLastSave="7830" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3FFED35C-4ACA-41CF-A5E4-E6A378438687}"/>
   <bookViews>
-    <workbookView xWindow="9465" yWindow="2265" windowWidth="28800" windowHeight="15345" firstSheet="3" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="3" activeTab="10" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2015" sheetId="22" r:id="rId1"/>
@@ -24,8 +24,6 @@
     <sheet name="2023" sheetId="34" r:id="rId9"/>
     <sheet name="2024" sheetId="37" r:id="rId10"/>
     <sheet name="Stats" sheetId="1" r:id="rId11"/>
-    <sheet name="Wins-Losses" sheetId="38" r:id="rId12"/>
-    <sheet name="Winning Percentile Range" sheetId="39" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1883,7 +1881,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-78C6-4376-AAB6-5D40D167D500}"/>
+              <c16:uniqueId val="{00000000-6E10-496A-89EB-276FA8679FCD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1991,7 +1989,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-78C6-4376-AAB6-5D40D167D500}"/>
+              <c16:uniqueId val="{00000001-6E10-496A-89EB-276FA8679FCD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2293,6 +2291,11 @@
       <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
@@ -2504,7 +2507,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-C690-4CB5-B903-6CEF83C27912}"/>
+              <c16:uniqueId val="{00000001-1BBD-4014-9900-14868B1CB70B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2746,6 +2749,37 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -2775,6 +2809,11 @@
       <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
@@ -3864,47 +3903,31 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{E4CB9A6C-6717-4B68-B141-30CCDA74C48C}">
-  <sheetPr/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="88" workbookViewId="0" zoomToFit="1"/>
-  </sheetViews>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</chartsheet>
-</file>
-
-<file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{9A30B305-BB27-4FE6-9175-446664D147B0}">
-  <sheetPr/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</chartsheet>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:absoluteAnchor>
-    <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8572500" cy="5827568"/>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>14286</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE3E60B9-98B8-5334-A978-B6AC46BA48CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A713E52-93A6-E587-69F5-5197C7BC89CD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks noGrp="1"/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -3917,27 +3940,30 @@
       </a:graphic>
     </xdr:graphicFrame>
     <xdr:clientData/>
-  </xdr:absoluteAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:absoluteAnchor>
-    <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8564880" cy="5821680"/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="3" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F6D427E-524D-E9CE-6314-77882930DB23}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D19EBEC5-8FF7-8643-FB4D-A5AD423795DE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks noGrp="1"/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -3945,13 +3971,17 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
     <xdr:clientData/>
-  </xdr:absoluteAnchor>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4256,7 +4286,7 @@
   </sheetPr>
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -4426,7 +4456,7 @@
   </sheetPr>
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -4829,7 +4859,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5134,6 +5164,7 @@
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -5144,7 +5175,7 @@
   </sheetPr>
   <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -5537,7 +5568,7 @@
   </sheetPr>
   <dimension ref="A1:F63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -6315,7 +6346,7 @@
   </sheetPr>
   <dimension ref="A1:F81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -7334,7 +7365,7 @@
   </sheetPr>
   <dimension ref="A1:F68"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -8232,7 +8263,7 @@
   </sheetPr>
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -8299,7 +8330,7 @@
   </sheetPr>
   <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -8845,7 +8876,7 @@
   </sheetPr>
   <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -9412,7 +9443,7 @@
   </sheetPr>
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>

--- a/Tennis/WTA Tour/Bianca Andreescu.xlsx
+++ b/Tennis/WTA Tour/Bianca Andreescu.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7830" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3FFED35C-4ACA-41CF-A5E4-E6A378438687}"/>
+  <xr:revisionPtr revIDLastSave="7846" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{29C936DE-D0B9-47C8-811B-59AEAE4C5ED2}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="3" activeTab="10" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="3" activeTab="11" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2015" sheetId="22" r:id="rId1"/>
@@ -23,7 +23,8 @@
     <sheet name="2022" sheetId="31" r:id="rId8"/>
     <sheet name="2023" sheetId="34" r:id="rId9"/>
     <sheet name="2024" sheetId="37" r:id="rId10"/>
-    <sheet name="Stats" sheetId="1" r:id="rId11"/>
+    <sheet name="2025" sheetId="38" r:id="rId11"/>
+    <sheet name="Stats" sheetId="1" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1508" uniqueCount="494">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1520" uniqueCount="496">
   <si>
     <t>ROUND</t>
   </si>
@@ -993,9 +994,6 @@
     <t>4-6 6-1 6-4</t>
   </si>
   <si>
-    <t>Daria Kasatkina (RUSSIA)</t>
-  </si>
-  <si>
     <t>5-7 6-2 7-5</t>
   </si>
   <si>
@@ -1525,6 +1523,15 @@
   </si>
   <si>
     <t>DUBAI OPEN</t>
+  </si>
+  <si>
+    <t>Daria Kasatikina (AUSTRALIA)</t>
+  </si>
+  <si>
+    <t>OPEN DE ROUEN</t>
+  </si>
+  <si>
+    <t>Suzan Lamens (NETHERLANDS)</t>
   </si>
 </sst>
 </file>
@@ -4398,7 +4405,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B8" t="s">
         <v>19</v>
@@ -4501,7 +4508,7 @@
         <v>127</v>
       </c>
       <c r="D2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>13</v>
@@ -4516,13 +4523,13 @@
         <v>141</v>
       </c>
       <c r="D3" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -4530,18 +4537,18 @@
         <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F4" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B6" t="s">
         <v>114</v>
@@ -4550,13 +4557,13 @@
         <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F6" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -4564,7 +4571,7 @@
         <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>13</v>
@@ -4578,13 +4585,13 @@
         <v>15</v>
       </c>
       <c r="D8" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F8" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -4592,7 +4599,7 @@
         <v>16</v>
       </c>
       <c r="D9" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>13</v>
@@ -4606,18 +4613,18 @@
         <v>17</v>
       </c>
       <c r="D10" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F10" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B12" t="s">
         <v>114</v>
@@ -4626,7 +4633,7 @@
         <v>12</v>
       </c>
       <c r="D12" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>14</v>
@@ -4660,7 +4667,7 @@
         <v>141</v>
       </c>
       <c r="D15" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>13</v>
@@ -4674,18 +4681,18 @@
         <v>12</v>
       </c>
       <c r="D16" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F16" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B18" t="s">
         <v>92</v>
@@ -4694,7 +4701,7 @@
         <v>141</v>
       </c>
       <c r="D18" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>13</v>
@@ -4708,7 +4715,7 @@
         <v>12</v>
       </c>
       <c r="D19" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>14</v>
@@ -4719,7 +4726,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B21" t="s">
         <v>19</v>
@@ -4728,18 +4735,18 @@
         <v>141</v>
       </c>
       <c r="D21" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F21" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B23" t="s">
         <v>19</v>
@@ -4748,7 +4755,7 @@
         <v>141</v>
       </c>
       <c r="D23" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>14</v>
@@ -4768,18 +4775,18 @@
         <v>127</v>
       </c>
       <c r="D25" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F25" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B27" t="s">
         <v>19</v>
@@ -4788,7 +4795,7 @@
         <v>12</v>
       </c>
       <c r="D27" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>14</v>
@@ -4799,7 +4806,7 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B29" t="s">
         <v>19</v>
@@ -4808,7 +4815,7 @@
         <v>12</v>
       </c>
       <c r="D29" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>13</v>
@@ -4822,13 +4829,13 @@
         <v>11</v>
       </c>
       <c r="D30" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F30" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -4836,7 +4843,7 @@
         <v>15</v>
       </c>
       <c r="D31" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="E31" s="5" t="s">
         <v>14</v>
@@ -4852,14 +4859,82 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F04FB11-8A54-4DD7-A58F-1BBEF679488E}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>494</v>
+      </c>
+      <c r="B2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>495</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s">
+        <v>471</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup scale="59" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCAE177D-2BD4-45CE-80F5-EF8578F1AF32}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4877,10 +4952,10 @@
         <v>7</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>371</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>372</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>8</v>
@@ -5014,7 +5089,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="3" t="e">
-        <f t="shared" ref="F7:F11" si="0">(D7-E7)/D7</f>
+        <f t="shared" ref="F7:F12" si="0">(D7-E7)/D7</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -5103,57 +5178,78 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" s="2">
-        <f>SUM(B2:B11)</f>
-        <v>112</v>
-      </c>
-      <c r="C12" s="2">
-        <f>SUM(C2:C11)</f>
-        <v>3</v>
-      </c>
-      <c r="D12" s="2">
-        <f>SUM(D2:D11)</f>
-        <v>199</v>
-      </c>
-      <c r="E12" s="2">
-        <f>SUM(E2:E11)</f>
-        <v>100</v>
-      </c>
-      <c r="F12" s="7">
-        <f>(D12-E12)/D12</f>
-        <v>0.49748743718592964</v>
+      <c r="A12">
+        <v>2025</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>368</v>
+        <v>6</v>
       </c>
       <c r="B13" s="2">
-        <f>AVERAGE(B2:B11)</f>
-        <v>11.2</v>
+        <f>SUM(B2:B12)</f>
+        <v>113</v>
       </c>
       <c r="C13" s="2">
-        <f>AVERAGE(C2:C11)</f>
-        <v>0.3</v>
+        <f>SUM(C2:C12)</f>
+        <v>3</v>
       </c>
       <c r="D13" s="2">
-        <f>AVERAGE(D2:D11)</f>
-        <v>19.899999999999999</v>
+        <f>SUM(D2:D12)</f>
+        <v>199</v>
       </c>
       <c r="E13" s="2">
-        <f>AVERAGE(E2:E11)</f>
-        <v>10</v>
+        <f>SUM(E2:E12)</f>
+        <v>101</v>
       </c>
       <c r="F13" s="7">
         <f>(D13-E13)/D13</f>
-        <v>0.49748743718592964</v>
+        <v>0.49246231155778897</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="B14" s="2">
+        <f>AVERAGE(B2:B12)</f>
+        <v>10.272727272727273</v>
+      </c>
+      <c r="C14" s="2">
+        <f>AVERAGE(C2:C12)</f>
+        <v>0.27272727272727271</v>
+      </c>
+      <c r="D14" s="2">
+        <f>AVERAGE(D2:D12)</f>
+        <v>18.09090909090909</v>
+      </c>
+      <c r="E14" s="2">
+        <f>AVERAGE(E2:E12)</f>
+        <v>9.1818181818181817</v>
+      </c>
+      <c r="F14" s="7">
+        <f>(D14-E14)/D14</f>
+        <v>0.49246231155778891</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="F2:F11">
+  <conditionalFormatting sqref="F2:F12">
     <cfRule type="iconSet" priority="39">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>
@@ -5245,7 +5341,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B5" t="s">
         <v>19</v>
@@ -6524,7 +6620,7 @@
         <v>12</v>
       </c>
       <c r="D14" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>13</v>
@@ -7004,7 +7100,7 @@
         <v>226</v>
       </c>
       <c r="F53" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -7342,7 +7438,7 @@
         <v>17</v>
       </c>
       <c r="D81" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E81" s="4" t="s">
         <v>13</v>
@@ -7632,7 +7728,7 @@
         <v>15</v>
       </c>
       <c r="D19" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>13</v>
@@ -7761,7 +7857,7 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B31" t="s">
         <v>19</v>
@@ -7956,12 +8052,12 @@
         <v>226</v>
       </c>
       <c r="F45" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B47" t="s">
         <v>19</v>
@@ -7970,7 +8066,7 @@
         <v>141</v>
       </c>
       <c r="D47" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E47" s="4" t="s">
         <v>13</v>
@@ -7984,13 +8080,13 @@
         <v>12</v>
       </c>
       <c r="D48" t="s">
+        <v>493</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F48" t="s">
         <v>316</v>
-      </c>
-      <c r="E48" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F48" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -7998,13 +8094,13 @@
         <v>11</v>
       </c>
       <c r="D49" t="s">
+        <v>317</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F49" t="s">
         <v>318</v>
-      </c>
-      <c r="E49" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F49" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -8012,13 +8108,13 @@
         <v>15</v>
       </c>
       <c r="D50" t="s">
+        <v>319</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F50" t="s">
         <v>320</v>
-      </c>
-      <c r="E50" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F50" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -8074,7 +8170,7 @@
         <v>141</v>
       </c>
       <c r="D55" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E55" s="4" t="s">
         <v>13</v>
@@ -8102,13 +8198,13 @@
         <v>11</v>
       </c>
       <c r="D57" t="s">
+        <v>322</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F57" t="s">
         <v>323</v>
-      </c>
-      <c r="E57" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F57" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -8116,13 +8212,13 @@
         <v>15</v>
       </c>
       <c r="D58" t="s">
+        <v>324</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F58" t="s">
         <v>325</v>
-      </c>
-      <c r="E58" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F58" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -8130,7 +8226,7 @@
         <v>16</v>
       </c>
       <c r="D59" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E59" s="4" t="s">
         <v>13</v>
@@ -8155,7 +8251,7 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B62" t="s">
         <v>19</v>
@@ -8164,13 +8260,13 @@
         <v>141</v>
       </c>
       <c r="D62" t="s">
+        <v>329</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F62" t="s">
         <v>330</v>
-      </c>
-      <c r="E62" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F62" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -8178,7 +8274,7 @@
         <v>12</v>
       </c>
       <c r="D63" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E63" s="4" t="s">
         <v>13</v>
@@ -8206,7 +8302,7 @@
         <v>15</v>
       </c>
       <c r="D65" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E65" s="5" t="s">
         <v>14</v>
@@ -8217,16 +8313,16 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B67" t="s">
         <v>19</v>
       </c>
       <c r="C67" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D67" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E67" s="5" t="s">
         <v>14</v>
@@ -8237,16 +8333,16 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
+        <v>332</v>
+      </c>
+      <c r="D68" t="s">
         <v>333</v>
-      </c>
-      <c r="D68" t="s">
-        <v>334</v>
       </c>
       <c r="E68" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F68" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
   </sheetData>
@@ -8381,7 +8477,7 @@
         <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -8400,7 +8496,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B5" t="s">
         <v>19</v>
@@ -8409,13 +8505,13 @@
         <v>12</v>
       </c>
       <c r="D5" t="s">
+        <v>338</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" t="s">
         <v>339</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -8423,7 +8519,7 @@
         <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>13</v>
@@ -8443,7 +8539,7 @@
         <v>13</v>
       </c>
       <c r="F7" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -8457,7 +8553,7 @@
         <v>14</v>
       </c>
       <c r="F8" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -8471,13 +8567,13 @@
         <v>141</v>
       </c>
       <c r="D10" t="s">
+        <v>344</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" t="s">
         <v>345</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -8485,13 +8581,13 @@
         <v>12</v>
       </c>
       <c r="D11" t="s">
+        <v>346</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" t="s">
         <v>347</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -8505,7 +8601,7 @@
         <v>13</v>
       </c>
       <c r="F12" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -8513,7 +8609,7 @@
         <v>15</v>
       </c>
       <c r="D13" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>13</v>
@@ -8527,13 +8623,13 @@
         <v>16</v>
       </c>
       <c r="D14" t="s">
+        <v>350</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" t="s">
         <v>351</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F14" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -8541,18 +8637,18 @@
         <v>17</v>
       </c>
       <c r="D15" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F15" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B17" t="s">
         <v>92</v>
@@ -8561,7 +8657,7 @@
         <v>12</v>
       </c>
       <c r="D17" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>13</v>
@@ -8575,7 +8671,7 @@
         <v>11</v>
       </c>
       <c r="D18" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>13</v>
@@ -8589,13 +8685,13 @@
         <v>15</v>
       </c>
       <c r="D19" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E19" s="8" t="s">
         <v>226</v>
       </c>
       <c r="F19" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -8609,18 +8705,18 @@
         <v>127</v>
       </c>
       <c r="D21" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F21" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B23" t="s">
         <v>114</v>
@@ -8629,18 +8725,18 @@
         <v>11</v>
       </c>
       <c r="D23" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F23" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B25" t="s">
         <v>114</v>
@@ -8649,13 +8745,13 @@
         <v>12</v>
       </c>
       <c r="D25" t="s">
+        <v>362</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F25" t="s">
         <v>363</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F25" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -8683,7 +8779,7 @@
         <v>127</v>
       </c>
       <c r="D28" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E28" s="5" t="s">
         <v>14</v>
@@ -8694,7 +8790,7 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B30" t="s">
         <v>19</v>
@@ -8717,18 +8813,18 @@
         <v>11</v>
       </c>
       <c r="D31" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E31" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F31" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B33" t="s">
         <v>19</v>
@@ -8737,7 +8833,7 @@
         <v>12</v>
       </c>
       <c r="D33" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E33" s="5" t="s">
         <v>14</v>
@@ -8757,13 +8853,13 @@
         <v>127</v>
       </c>
       <c r="D35" t="s">
+        <v>373</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F35" t="s">
         <v>374</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F35" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -8771,7 +8867,7 @@
         <v>141</v>
       </c>
       <c r="D36" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E36" s="4" t="s">
         <v>13</v>
@@ -8785,7 +8881,7 @@
         <v>12</v>
       </c>
       <c r="D37" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E37" s="4" t="s">
         <v>13</v>
@@ -8799,18 +8895,18 @@
         <v>11</v>
       </c>
       <c r="D38" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E38" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F38" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B40" t="s">
         <v>19</v>
@@ -8819,7 +8915,7 @@
         <v>12</v>
       </c>
       <c r="D40" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E40" s="5" t="s">
         <v>14</v>
@@ -8830,7 +8926,7 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B42" t="s">
         <v>19</v>
@@ -8839,13 +8935,13 @@
         <v>141</v>
       </c>
       <c r="D42" t="s">
+        <v>381</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F42" t="s">
         <v>382</v>
-      </c>
-      <c r="E42" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F42" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -8859,7 +8955,7 @@
         <v>14</v>
       </c>
       <c r="F43" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
   </sheetData>
@@ -8912,7 +9008,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B2" t="s">
         <v>92</v>
@@ -8921,13 +9017,13 @@
         <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -8941,12 +9037,12 @@
         <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B5" t="s">
         <v>92</v>
@@ -8955,13 +9051,13 @@
         <v>141</v>
       </c>
       <c r="D5" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F5" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -8969,7 +9065,7 @@
         <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>13</v>
@@ -8994,7 +9090,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B9" t="s">
         <v>92</v>
@@ -9003,13 +9099,13 @@
         <v>141</v>
       </c>
       <c r="D9" t="s">
+        <v>391</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" t="s">
         <v>392</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" t="s">
-        <v>393</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -9017,7 +9113,7 @@
         <v>12</v>
       </c>
       <c r="D10" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>13</v>
@@ -9031,7 +9127,7 @@
         <v>11</v>
       </c>
       <c r="D11" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>13</v>
@@ -9045,13 +9141,13 @@
         <v>15</v>
       </c>
       <c r="D12" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F12" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -9071,7 +9167,7 @@
         <v>13</v>
       </c>
       <c r="F14" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -9079,7 +9175,7 @@
         <v>141</v>
       </c>
       <c r="D15" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>14</v>
@@ -9090,7 +9186,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B17" t="s">
         <v>114</v>
@@ -9099,13 +9195,13 @@
         <v>12</v>
       </c>
       <c r="D17" t="s">
+        <v>399</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" t="s">
         <v>400</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F17" t="s">
-        <v>401</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -9113,18 +9209,18 @@
         <v>11</v>
       </c>
       <c r="D18" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F18" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B20" t="s">
         <v>114</v>
@@ -9139,7 +9235,7 @@
         <v>13</v>
       </c>
       <c r="F20" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -9161,7 +9257,7 @@
         <v>15</v>
       </c>
       <c r="D22" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>13</v>
@@ -9175,13 +9271,13 @@
         <v>16</v>
       </c>
       <c r="D23" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E23" s="8" t="s">
         <v>13</v>
       </c>
       <c r="F23" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -9189,13 +9285,13 @@
         <v>17</v>
       </c>
       <c r="D24" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F24" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -9209,7 +9305,7 @@
         <v>127</v>
       </c>
       <c r="D26" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>13</v>
@@ -9223,7 +9319,7 @@
         <v>141</v>
       </c>
       <c r="D27" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>14</v>
@@ -9234,7 +9330,7 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B29" t="s">
         <v>19</v>
@@ -9243,7 +9339,7 @@
         <v>12</v>
       </c>
       <c r="D29" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E29" s="5" t="s">
         <v>14</v>
@@ -9254,7 +9350,7 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B31" t="s">
         <v>19</v>
@@ -9263,13 +9359,13 @@
         <v>141</v>
       </c>
       <c r="D31" t="s">
-        <v>316</v>
+        <v>493</v>
       </c>
       <c r="E31" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F31" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -9277,13 +9373,13 @@
         <v>12</v>
       </c>
       <c r="D32" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E32" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F32" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -9291,13 +9387,13 @@
         <v>11</v>
       </c>
       <c r="D33" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E33" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F33" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -9311,13 +9407,13 @@
         <v>127</v>
       </c>
       <c r="D35" t="s">
+        <v>415</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F35" t="s">
         <v>416</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F35" t="s">
-        <v>417</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -9325,7 +9421,7 @@
         <v>141</v>
       </c>
       <c r="D36" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E36" s="4" t="s">
         <v>13</v>
@@ -9339,7 +9435,7 @@
         <v>12</v>
       </c>
       <c r="D37" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E37" s="5" t="s">
         <v>14</v>
@@ -9350,7 +9446,7 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B39" t="s">
         <v>19</v>
@@ -9359,13 +9455,13 @@
         <v>12</v>
       </c>
       <c r="D39" t="s">
+        <v>419</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F39" t="s">
         <v>420</v>
-      </c>
-      <c r="E39" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F39" t="s">
-        <v>421</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -9373,18 +9469,18 @@
         <v>11</v>
       </c>
       <c r="D40" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="E40" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F40" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B42" t="s">
         <v>19</v>
@@ -9407,13 +9503,13 @@
         <v>12</v>
       </c>
       <c r="D43" t="s">
+        <v>424</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F43" t="s">
         <v>425</v>
-      </c>
-      <c r="E43" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F43" t="s">
-        <v>426</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -9479,7 +9575,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B2" t="s">
         <v>19</v>
@@ -9494,7 +9590,7 @@
         <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -9503,7 +9599,7 @@
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>14</v>
@@ -9538,18 +9634,18 @@
         <v>141</v>
       </c>
       <c r="D6" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F6" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B8" t="s">
         <v>19</v>
@@ -9572,7 +9668,7 @@
         <v>11</v>
       </c>
       <c r="D9" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>13</v>
@@ -9586,13 +9682,13 @@
         <v>15</v>
       </c>
       <c r="D10" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -9600,18 +9696,18 @@
         <v>16</v>
       </c>
       <c r="D11" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F11" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B13" t="s">
         <v>19</v>
@@ -9620,18 +9716,18 @@
         <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F13" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B15" t="s">
         <v>19</v>
@@ -9640,7 +9736,7 @@
         <v>141</v>
       </c>
       <c r="D15" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>14</v>
@@ -9651,7 +9747,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B17" t="s">
         <v>19</v>
@@ -9660,13 +9756,13 @@
         <v>141</v>
       </c>
       <c r="D17" t="s">
+        <v>440</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" t="s">
         <v>441</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F17" t="s">
-        <v>442</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -9674,13 +9770,13 @@
         <v>12</v>
       </c>
       <c r="D18" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -9694,7 +9790,7 @@
         <v>127</v>
       </c>
       <c r="D20" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>13</v>
@@ -9708,7 +9804,7 @@
         <v>141</v>
       </c>
       <c r="D21" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>13</v>
@@ -9736,18 +9832,18 @@
         <v>11</v>
       </c>
       <c r="D23" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F23" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B25" t="s">
         <v>92</v>
@@ -9756,18 +9852,18 @@
         <v>141</v>
       </c>
       <c r="D25" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F25" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B27" t="s">
         <v>92</v>
@@ -9776,7 +9872,7 @@
         <v>141</v>
       </c>
       <c r="D27" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>14</v>
@@ -9796,13 +9892,13 @@
         <v>127</v>
       </c>
       <c r="D29" t="s">
+        <v>450</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F29" t="s">
         <v>451</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F29" t="s">
-        <v>452</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -9810,7 +9906,7 @@
         <v>141</v>
       </c>
       <c r="D30" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>13</v>
@@ -9824,7 +9920,7 @@
         <v>12</v>
       </c>
       <c r="D31" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E31" s="5" t="s">
         <v>14</v>
@@ -9835,7 +9931,7 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B33" t="s">
         <v>114</v>
@@ -9844,7 +9940,7 @@
         <v>12</v>
       </c>
       <c r="D33" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>13</v>
@@ -9858,18 +9954,18 @@
         <v>11</v>
       </c>
       <c r="D34" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E34" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F34" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B36" t="s">
         <v>114</v>
@@ -9878,18 +9974,18 @@
         <v>12</v>
       </c>
       <c r="D36" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E36" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F36" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B38" t="s">
         <v>114</v>
@@ -9898,13 +9994,13 @@
         <v>12</v>
       </c>
       <c r="D38" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E38" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F38" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -9912,7 +10008,7 @@
         <v>11</v>
       </c>
       <c r="D39" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E39" s="5" t="s">
         <v>14</v>
@@ -9932,7 +10028,7 @@
         <v>127</v>
       </c>
       <c r="D41" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E41" s="4" t="s">
         <v>13</v>
@@ -9946,13 +10042,13 @@
         <v>141</v>
       </c>
       <c r="D42" t="s">
+        <v>463</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F42" t="s">
         <v>464</v>
-      </c>
-      <c r="E42" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F42" t="s">
-        <v>465</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -9960,23 +10056,23 @@
         <v>12</v>
       </c>
       <c r="D43" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E43" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F43" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D44" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B45" t="s">
         <v>19</v>
@@ -9985,18 +10081,18 @@
         <v>12</v>
       </c>
       <c r="D45" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E45" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F45" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B47" t="s">
         <v>19</v>

--- a/Tennis/WTA Tour/Bianca Andreescu.xlsx
+++ b/Tennis/WTA Tour/Bianca Andreescu.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7846" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{29C936DE-D0B9-47C8-811B-59AEAE4C5ED2}"/>
+  <xr:revisionPtr revIDLastSave="7925" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EF662575-B54C-49C4-B23B-F850860ED1D1}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="3" activeTab="11" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="3855" yWindow="3855" windowWidth="28800" windowHeight="15285" firstSheet="3" activeTab="11" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2015" sheetId="22" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1520" uniqueCount="496">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1580" uniqueCount="509">
   <si>
     <t>ROUND</t>
   </si>
@@ -1102,9 +1102,6 @@
     <t>7-6(7) 3-6 7-6(4)</t>
   </si>
   <si>
-    <t>INTERNATIONAUX DE STRASBOURG</t>
-  </si>
-  <si>
     <t>Andrea Lázaro García (SPAIN)</t>
   </si>
   <si>
@@ -1258,9 +1255,6 @@
     <t>6-3 6-1</t>
   </si>
   <si>
-    <t>Daria Kasatkina (GREAT BRITAIN)</t>
-  </si>
-  <si>
     <t>Caroline Garcia (FRANCE)</t>
   </si>
   <si>
@@ -1532,6 +1526,51 @@
   </si>
   <si>
     <t>Suzan Lamens (NETHERLANDS)</t>
+  </si>
+  <si>
+    <t>STRASBOURG  GRAND PRIX</t>
+  </si>
+  <si>
+    <t>Daria Kasatkina (AUSTRALIA)</t>
+  </si>
+  <si>
+    <t>6-1 4-6 7-6(2)</t>
+  </si>
+  <si>
+    <t>6-0 6-3</t>
+  </si>
+  <si>
+    <t>McCartney Kessler (USA)</t>
+  </si>
+  <si>
+    <t>ITF VIC ($125,000)</t>
+  </si>
+  <si>
+    <t>Federica Urgesi (ITALY)</t>
+  </si>
+  <si>
+    <t>Yao Xinxin (CHINA)</t>
+  </si>
+  <si>
+    <t>6-0 6-0</t>
+  </si>
+  <si>
+    <t>Nao Hibino (CHINA)</t>
+  </si>
+  <si>
+    <t>2-6 7-6(5) 6-4</t>
+  </si>
+  <si>
+    <t>BERLIN TENNIS OPEN</t>
+  </si>
+  <si>
+    <t>Laura Pigossi (BRAZIL)</t>
+  </si>
+  <si>
+    <t>Carson Branstine (CANADA)</t>
+  </si>
+  <si>
+    <t>7-6(3) 4-6 6-1</t>
   </si>
 </sst>
 </file>
@@ -3987,10 +4026,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
@@ -4405,7 +4440,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B8" t="s">
         <v>19</v>
@@ -4463,8 +4498,8 @@
   </sheetPr>
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4523,13 +4558,13 @@
         <v>141</v>
       </c>
       <c r="D3" t="s">
+        <v>466</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
         <v>468</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" t="s">
-        <v>470</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -4537,18 +4572,18 @@
         <v>12</v>
       </c>
       <c r="D4" t="s">
+        <v>467</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s">
         <v>469</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" t="s">
-        <v>471</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B6" t="s">
         <v>114</v>
@@ -4557,13 +4592,13 @@
         <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F6" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -4571,7 +4606,7 @@
         <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>13</v>
@@ -4591,7 +4626,7 @@
         <v>13</v>
       </c>
       <c r="F8" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -4599,7 +4634,7 @@
         <v>16</v>
       </c>
       <c r="D9" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>13</v>
@@ -4613,18 +4648,18 @@
         <v>17</v>
       </c>
       <c r="D10" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F10" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B12" t="s">
         <v>114</v>
@@ -4633,7 +4668,7 @@
         <v>12</v>
       </c>
       <c r="D12" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>14</v>
@@ -4667,7 +4702,7 @@
         <v>141</v>
       </c>
       <c r="D15" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>13</v>
@@ -4681,18 +4716,18 @@
         <v>12</v>
       </c>
       <c r="D16" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F16" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B18" t="s">
         <v>92</v>
@@ -4701,7 +4736,7 @@
         <v>141</v>
       </c>
       <c r="D18" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>13</v>
@@ -4715,7 +4750,7 @@
         <v>12</v>
       </c>
       <c r="D19" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>14</v>
@@ -4726,7 +4761,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B21" t="s">
         <v>19</v>
@@ -4735,18 +4770,18 @@
         <v>141</v>
       </c>
       <c r="D21" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F21" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B23" t="s">
         <v>19</v>
@@ -4755,7 +4790,7 @@
         <v>141</v>
       </c>
       <c r="D23" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>14</v>
@@ -4775,18 +4810,18 @@
         <v>127</v>
       </c>
       <c r="D25" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F25" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B27" t="s">
         <v>19</v>
@@ -4795,7 +4830,7 @@
         <v>12</v>
       </c>
       <c r="D27" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>14</v>
@@ -4806,7 +4841,7 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B29" t="s">
         <v>19</v>
@@ -4815,7 +4850,7 @@
         <v>12</v>
       </c>
       <c r="D29" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>13</v>
@@ -4829,13 +4864,13 @@
         <v>11</v>
       </c>
       <c r="D30" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F30" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -4843,7 +4878,7 @@
         <v>15</v>
       </c>
       <c r="D31" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="E31" s="5" t="s">
         <v>14</v>
@@ -4863,21 +4898,20 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="E19" activeCellId="3" sqref="E4 E9:E11 E14 E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -4902,7 +4936,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B2" t="s">
         <v>92</v>
@@ -4911,16 +4945,225 @@
         <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F2" t="s">
-        <v>471</v>
+        <v>496</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>443</v>
+      </c>
+      <c r="B4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="D4" t="s">
+        <v>498</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="9"/>
+      <c r="C5" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="D5" t="s">
+        <v>406</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>499</v>
+      </c>
+      <c r="B7" t="s">
+        <v>92</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" t="s">
+        <v>132</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
+        <v>389</v>
+      </c>
+      <c r="B9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="D9" t="s">
+        <v>500</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="9"/>
+      <c r="C10" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="D10" t="s">
+        <v>480</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="9"/>
+      <c r="C11" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" t="s">
+        <v>406</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="9"/>
+      <c r="C12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" t="s">
+        <v>410</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>110</v>
+      </c>
+      <c r="B14" t="s">
+        <v>92</v>
+      </c>
+      <c r="C14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" t="s">
+        <v>501</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" t="s">
+        <v>503</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>505</v>
+      </c>
+      <c r="B17" t="s">
+        <v>114</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" t="s">
+        <v>346</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>126</v>
+      </c>
+      <c r="B19" t="s">
+        <v>114</v>
+      </c>
+      <c r="C19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" t="s">
+        <v>506</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" t="s">
+        <v>507</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" t="s">
+        <v>508</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="59" orientation="landscape" r:id="rId1"/>
 </worksheet>
@@ -4952,10 +5195,10 @@
         <v>7</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>370</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>371</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>8</v>
@@ -5182,20 +5425,20 @@
         <v>2025</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12" s="3" t="e">
+        <v>7</v>
+      </c>
+      <c r="F12" s="3">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>-0.16666666666666666</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -5204,7 +5447,7 @@
       </c>
       <c r="B13" s="2">
         <f>SUM(B2:B12)</f>
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="C13" s="2">
         <f>SUM(C2:C12)</f>
@@ -5212,24 +5455,24 @@
       </c>
       <c r="D13" s="2">
         <f>SUM(D2:D12)</f>
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="E13" s="2">
         <f>SUM(E2:E12)</f>
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="F13" s="7">
         <f>(D13-E13)/D13</f>
-        <v>0.49246231155778897</v>
+        <v>0.47804878048780486</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B14" s="2">
         <f>AVERAGE(B2:B12)</f>
-        <v>10.272727272727273</v>
+        <v>10.818181818181818</v>
       </c>
       <c r="C14" s="2">
         <f>AVERAGE(C2:C12)</f>
@@ -5237,15 +5480,15 @@
       </c>
       <c r="D14" s="2">
         <f>AVERAGE(D2:D12)</f>
-        <v>18.09090909090909</v>
+        <v>18.636363636363637</v>
       </c>
       <c r="E14" s="2">
         <f>AVERAGE(E2:E12)</f>
-        <v>9.1818181818181817</v>
+        <v>9.7272727272727266</v>
       </c>
       <c r="F14" s="7">
         <f>(D14-E14)/D14</f>
-        <v>0.49246231155778891</v>
+        <v>0.47804878048780491</v>
       </c>
     </row>
   </sheetData>
@@ -5341,7 +5584,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B5" t="s">
         <v>19</v>
@@ -6620,7 +6863,7 @@
         <v>12</v>
       </c>
       <c r="D14" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>13</v>
@@ -7100,7 +7343,7 @@
         <v>226</v>
       </c>
       <c r="F53" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -7438,7 +7681,7 @@
         <v>17</v>
       </c>
       <c r="D81" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="E81" s="4" t="s">
         <v>13</v>
@@ -7461,8 +7704,8 @@
   </sheetPr>
   <dimension ref="A1:F68"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7728,7 +7971,7 @@
         <v>15</v>
       </c>
       <c r="D19" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>13</v>
@@ -7857,7 +8100,7 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B31" t="s">
         <v>19</v>
@@ -8052,12 +8295,12 @@
         <v>226</v>
       </c>
       <c r="F45" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B47" t="s">
         <v>19</v>
@@ -8066,7 +8309,7 @@
         <v>141</v>
       </c>
       <c r="D47" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E47" s="4" t="s">
         <v>13</v>
@@ -8080,7 +8323,7 @@
         <v>12</v>
       </c>
       <c r="D48" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="E48" s="4" t="s">
         <v>13</v>
@@ -8427,12 +8670,12 @@
   <dimension ref="A1:F43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="34.140625" bestFit="1" customWidth="1"/>
@@ -8648,7 +8891,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>352</v>
+        <v>494</v>
       </c>
       <c r="B17" t="s">
         <v>92</v>
@@ -8657,7 +8900,7 @@
         <v>12</v>
       </c>
       <c r="D17" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>13</v>
@@ -8671,7 +8914,7 @@
         <v>11</v>
       </c>
       <c r="D18" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>13</v>
@@ -8685,13 +8928,13 @@
         <v>15</v>
       </c>
       <c r="D19" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E19" s="8" t="s">
         <v>226</v>
       </c>
       <c r="F19" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -8705,18 +8948,18 @@
         <v>127</v>
       </c>
       <c r="D21" t="s">
+        <v>355</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" t="s">
         <v>356</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F21" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B23" t="s">
         <v>114</v>
@@ -8725,18 +8968,18 @@
         <v>11</v>
       </c>
       <c r="D23" t="s">
+        <v>358</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F23" t="s">
         <v>359</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F23" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B25" t="s">
         <v>114</v>
@@ -8745,13 +8988,13 @@
         <v>12</v>
       </c>
       <c r="D25" t="s">
+        <v>361</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F25" t="s">
         <v>362</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F25" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -8779,7 +9022,7 @@
         <v>127</v>
       </c>
       <c r="D28" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E28" s="5" t="s">
         <v>14</v>
@@ -8790,7 +9033,7 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B30" t="s">
         <v>19</v>
@@ -8813,18 +9056,18 @@
         <v>11</v>
       </c>
       <c r="D31" t="s">
+        <v>364</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F31" t="s">
         <v>365</v>
-      </c>
-      <c r="E31" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F31" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B33" t="s">
         <v>19</v>
@@ -8833,7 +9076,7 @@
         <v>12</v>
       </c>
       <c r="D33" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E33" s="5" t="s">
         <v>14</v>
@@ -8853,13 +9096,13 @@
         <v>127</v>
       </c>
       <c r="D35" t="s">
+        <v>372</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F35" t="s">
         <v>373</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F35" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -8867,7 +9110,7 @@
         <v>141</v>
       </c>
       <c r="D36" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E36" s="4" t="s">
         <v>13</v>
@@ -8881,7 +9124,7 @@
         <v>12</v>
       </c>
       <c r="D37" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E37" s="4" t="s">
         <v>13</v>
@@ -8901,12 +9144,12 @@
         <v>14</v>
       </c>
       <c r="F38" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B40" t="s">
         <v>19</v>
@@ -8915,7 +9158,7 @@
         <v>12</v>
       </c>
       <c r="D40" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E40" s="5" t="s">
         <v>14</v>
@@ -8926,7 +9169,7 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B42" t="s">
         <v>19</v>
@@ -8935,13 +9178,13 @@
         <v>141</v>
       </c>
       <c r="D42" t="s">
+        <v>380</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F42" t="s">
         <v>381</v>
-      </c>
-      <c r="E42" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F42" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -8955,7 +9198,7 @@
         <v>14</v>
       </c>
       <c r="F43" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
   </sheetData>
@@ -8973,7 +9216,7 @@
   <dimension ref="A1:F44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9008,7 +9251,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B2" t="s">
         <v>92</v>
@@ -9017,13 +9260,13 @@
         <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -9037,12 +9280,12 @@
         <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B5" t="s">
         <v>92</v>
@@ -9051,13 +9294,13 @@
         <v>141</v>
       </c>
       <c r="D5" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F5" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -9065,7 +9308,7 @@
         <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>13</v>
@@ -9090,7 +9333,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B9" t="s">
         <v>92</v>
@@ -9099,13 +9342,13 @@
         <v>141</v>
       </c>
       <c r="D9" t="s">
+        <v>390</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" t="s">
         <v>391</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -9113,7 +9356,7 @@
         <v>12</v>
       </c>
       <c r="D10" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>13</v>
@@ -9127,7 +9370,7 @@
         <v>11</v>
       </c>
       <c r="D11" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>13</v>
@@ -9141,13 +9384,13 @@
         <v>15</v>
       </c>
       <c r="D12" t="s">
+        <v>394</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" t="s">
         <v>395</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F12" t="s">
-        <v>396</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -9167,7 +9410,7 @@
         <v>13</v>
       </c>
       <c r="F14" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -9186,7 +9429,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B17" t="s">
         <v>114</v>
@@ -9195,13 +9438,13 @@
         <v>12</v>
       </c>
       <c r="D17" t="s">
+        <v>398</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" t="s">
         <v>399</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F17" t="s">
-        <v>400</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -9215,12 +9458,12 @@
         <v>14</v>
       </c>
       <c r="F18" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B20" t="s">
         <v>114</v>
@@ -9235,7 +9478,7 @@
         <v>13</v>
       </c>
       <c r="F20" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -9257,7 +9500,7 @@
         <v>15</v>
       </c>
       <c r="D22" t="s">
-        <v>404</v>
+        <v>495</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>13</v>
@@ -9277,7 +9520,7 @@
         <v>13</v>
       </c>
       <c r="F23" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -9285,13 +9528,13 @@
         <v>17</v>
       </c>
       <c r="D24" t="s">
+        <v>403</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F24" t="s">
         <v>405</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F24" t="s">
-        <v>407</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -9305,7 +9548,7 @@
         <v>127</v>
       </c>
       <c r="D26" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>13</v>
@@ -9319,7 +9562,7 @@
         <v>141</v>
       </c>
       <c r="D27" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>14</v>
@@ -9330,7 +9573,7 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B29" t="s">
         <v>19</v>
@@ -9339,7 +9582,7 @@
         <v>12</v>
       </c>
       <c r="D29" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E29" s="5" t="s">
         <v>14</v>
@@ -9350,7 +9593,7 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B31" t="s">
         <v>19</v>
@@ -9359,13 +9602,13 @@
         <v>141</v>
       </c>
       <c r="D31" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="E31" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F31" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -9373,13 +9616,13 @@
         <v>12</v>
       </c>
       <c r="D32" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E32" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F32" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -9387,13 +9630,13 @@
         <v>11</v>
       </c>
       <c r="D33" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="E33" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F33" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -9407,13 +9650,13 @@
         <v>127</v>
       </c>
       <c r="D35" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="E35" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F35" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -9421,7 +9664,7 @@
         <v>141</v>
       </c>
       <c r="D36" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="E36" s="4" t="s">
         <v>13</v>
@@ -9435,7 +9678,7 @@
         <v>12</v>
       </c>
       <c r="D37" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="E37" s="5" t="s">
         <v>14</v>
@@ -9446,7 +9689,7 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B39" t="s">
         <v>19</v>
@@ -9455,13 +9698,13 @@
         <v>12</v>
       </c>
       <c r="D39" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="E39" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F39" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -9469,18 +9712,18 @@
         <v>11</v>
       </c>
       <c r="D40" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="E40" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F40" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B42" t="s">
         <v>19</v>
@@ -9503,13 +9746,13 @@
         <v>12</v>
       </c>
       <c r="D43" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="E43" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F43" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -9540,7 +9783,7 @@
   <dimension ref="A1:F47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9575,7 +9818,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B2" t="s">
         <v>19</v>
@@ -9590,7 +9833,7 @@
         <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -9599,7 +9842,7 @@
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>14</v>
@@ -9634,18 +9877,18 @@
         <v>141</v>
       </c>
       <c r="D6" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F6" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B8" t="s">
         <v>19</v>
@@ -9668,7 +9911,7 @@
         <v>11</v>
       </c>
       <c r="D9" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>13</v>
@@ -9682,13 +9925,13 @@
         <v>15</v>
       </c>
       <c r="D10" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F10" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -9696,18 +9939,18 @@
         <v>16</v>
       </c>
       <c r="D11" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F11" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B13" t="s">
         <v>19</v>
@@ -9716,18 +9959,18 @@
         <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F13" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B15" t="s">
         <v>19</v>
@@ -9736,7 +9979,7 @@
         <v>141</v>
       </c>
       <c r="D15" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>14</v>
@@ -9747,7 +9990,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B17" t="s">
         <v>19</v>
@@ -9756,13 +9999,13 @@
         <v>141</v>
       </c>
       <c r="D17" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F17" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -9770,13 +10013,13 @@
         <v>12</v>
       </c>
       <c r="D18" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F18" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -9790,7 +10033,7 @@
         <v>127</v>
       </c>
       <c r="D20" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>13</v>
@@ -9832,18 +10075,18 @@
         <v>11</v>
       </c>
       <c r="D23" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F23" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B25" t="s">
         <v>92</v>
@@ -9852,18 +10095,18 @@
         <v>141</v>
       </c>
       <c r="D25" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F25" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B27" t="s">
         <v>92</v>
@@ -9872,7 +10115,7 @@
         <v>141</v>
       </c>
       <c r="D27" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>14</v>
@@ -9892,13 +10135,13 @@
         <v>127</v>
       </c>
       <c r="D29" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F29" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -9906,7 +10149,7 @@
         <v>141</v>
       </c>
       <c r="D30" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>13</v>
@@ -9920,7 +10163,7 @@
         <v>12</v>
       </c>
       <c r="D31" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="E31" s="5" t="s">
         <v>14</v>
@@ -9931,7 +10174,7 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B33" t="s">
         <v>114</v>
@@ -9940,7 +10183,7 @@
         <v>12</v>
       </c>
       <c r="D33" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>13</v>
@@ -9954,18 +10197,18 @@
         <v>11</v>
       </c>
       <c r="D34" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="E34" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F34" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B36" t="s">
         <v>114</v>
@@ -9974,18 +10217,18 @@
         <v>12</v>
       </c>
       <c r="D36" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="E36" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F36" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B38" t="s">
         <v>114</v>
@@ -9994,13 +10237,13 @@
         <v>12</v>
       </c>
       <c r="D38" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="E38" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F38" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -10008,7 +10251,7 @@
         <v>11</v>
       </c>
       <c r="D39" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="E39" s="5" t="s">
         <v>14</v>
@@ -10028,7 +10271,7 @@
         <v>127</v>
       </c>
       <c r="D41" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="E41" s="4" t="s">
         <v>13</v>
@@ -10042,13 +10285,13 @@
         <v>141</v>
       </c>
       <c r="D42" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="E42" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F42" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -10056,23 +10299,23 @@
         <v>12</v>
       </c>
       <c r="D43" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E43" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F43" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D44" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B45" t="s">
         <v>19</v>
@@ -10081,18 +10324,18 @@
         <v>12</v>
       </c>
       <c r="D45" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="E45" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F45" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B47" t="s">
         <v>19</v>

--- a/Tennis/WTA Tour/Bianca Andreescu.xlsx
+++ b/Tennis/WTA Tour/Bianca Andreescu.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7925" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EF662575-B54C-49C4-B23B-F850860ED1D1}"/>
+  <xr:revisionPtr revIDLastSave="7955" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C1C6D21D-84D2-467C-ADCB-BFD4C4DE87A9}"/>
   <bookViews>
-    <workbookView xWindow="3855" yWindow="3855" windowWidth="28800" windowHeight="15285" firstSheet="3" activeTab="11" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="3" activeTab="11" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2015" sheetId="22" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1580" uniqueCount="509">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1590" uniqueCount="510">
   <si>
     <t>ROUND</t>
   </si>
@@ -1571,6 +1571,9 @@
   </si>
   <si>
     <t>7-6(3) 4-6 6-1</t>
+  </si>
+  <si>
+    <t>Mirra Andreeva (RUSSIA)</t>
   </si>
 </sst>
 </file>
@@ -4898,10 +4901,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E19" activeCellId="3" sqref="E4 E9:E11 E14 E19"/>
+      <selection activeCell="E22" activeCellId="4" sqref="E4 E9:E11 E14 E19 E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4909,8 +4912,8 @@
     <col min="1" max="1" width="19.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5160,6 +5163,40 @@
       </c>
       <c r="F20" t="s">
         <v>508</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="9" t="s">
+        <v>408</v>
+      </c>
+      <c r="B22" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="D22" t="s">
+        <v>154</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F22" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C23" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="D23" t="s">
+        <v>509</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="F23" t="s">
+        <v>363</v>
       </c>
     </row>
   </sheetData>
@@ -5177,7 +5214,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5425,20 +5462,20 @@
         <v>2025</v>
       </c>
       <c r="B12">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E12">
         <v>7</v>
       </c>
       <c r="F12" s="3">
         <f t="shared" si="0"/>
-        <v>-0.16666666666666666</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -5447,7 +5484,7 @@
       </c>
       <c r="B13" s="2">
         <f>SUM(B2:B12)</f>
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C13" s="2">
         <f>SUM(C2:C12)</f>
@@ -5455,7 +5492,7 @@
       </c>
       <c r="D13" s="2">
         <f>SUM(D2:D12)</f>
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E13" s="2">
         <f>SUM(E2:E12)</f>
@@ -5463,7 +5500,7 @@
       </c>
       <c r="F13" s="7">
         <f>(D13-E13)/D13</f>
-        <v>0.47804878048780486</v>
+        <v>0.48058252427184467</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -5472,7 +5509,7 @@
       </c>
       <c r="B14" s="2">
         <f>AVERAGE(B2:B12)</f>
-        <v>10.818181818181818</v>
+        <v>10.909090909090908</v>
       </c>
       <c r="C14" s="2">
         <f>AVERAGE(C2:C12)</f>
@@ -5480,7 +5517,7 @@
       </c>
       <c r="D14" s="2">
         <f>AVERAGE(D2:D12)</f>
-        <v>18.636363636363637</v>
+        <v>18.727272727272727</v>
       </c>
       <c r="E14" s="2">
         <f>AVERAGE(E2:E12)</f>
@@ -5488,7 +5525,7 @@
       </c>
       <c r="F14" s="7">
         <f>(D14-E14)/D14</f>
-        <v>0.47804878048780491</v>
+        <v>0.48058252427184467</v>
       </c>
     </row>
   </sheetData>
